--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -175,10 +175,10 @@
     <t>Caldas SC</t>
   </si>
   <si>
-    <t>Pero Pinheiro</t>
+    <t>Lusitania Lourosa</t>
   </si>
   <si>
-    <t>Lusitania Lourosa</t>
+    <t>Pero Pinheiro</t>
   </si>
   <si>
     <t>Trofense</t>
@@ -187,10 +187,10 @@
     <t>SC Vianense</t>
   </si>
   <si>
-    <t>Atletico CP Lisbon</t>
+    <t>SU 1 Dezembro</t>
   </si>
   <si>
-    <t>SU 1 Dezembro</t>
+    <t>Atletico CP Lisbon</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
@@ -3242,7 +3242,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5371938</v>
+        <v>5372003</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3254,76 +3254,76 @@
         <v>44947.5</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N31">
         <v>2.2</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.95</v>
+      </c>
+      <c r="S31">
+        <v>1.85</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
         <v>1.975</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>1.825</v>
       </c>
-      <c r="T31">
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
         <v>2.25</v>
       </c>
-      <c r="U31">
-        <v>1.85</v>
-      </c>
-      <c r="V31">
-        <v>1.95</v>
-      </c>
-      <c r="W31">
-        <v>1.2</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
+        <v>-0.5</v>
+      </c>
+      <c r="AA31">
+        <v>0.425</v>
+      </c>
+      <c r="AB31">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3331,7 +3331,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5372003</v>
+        <v>5371938</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3343,76 +3343,76 @@
         <v>44947.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N32">
         <v>2.2</v>
       </c>
       <c r="O32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q32">
         <v>-0.25</v>
       </c>
       <c r="R32">
+        <v>1.975</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="S32">
-        <v>1.85</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.975</v>
-      </c>
-      <c r="V32">
-        <v>1.825</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X32">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -4132,7 +4132,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5372027</v>
+        <v>5372026</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4144,13 +4144,13 @@
         <v>44954.5</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>62</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
         <v>2.1</v>
@@ -4174,16 +4174,16 @@
         <v>3.25</v>
       </c>
       <c r="P41">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q41">
         <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
         <v>2.25</v>
@@ -4204,16 +4204,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4221,7 +4221,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5372026</v>
+        <v>5372027</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4233,13 +4233,13 @@
         <v>44954.5</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4248,13 +4248,13 @@
         <v>62</v>
       </c>
       <c r="K42">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N42">
         <v>2.1</v>
@@ -4263,16 +4263,16 @@
         <v>3.25</v>
       </c>
       <c r="P42">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q42">
         <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T42">
         <v>2.25</v>
@@ -4293,16 +4293,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -7336,7 +7336,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5371947</v>
+        <v>5376865</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7348,76 +7348,76 @@
         <v>44975.5</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K77">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O77">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P77">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U77">
+        <v>1.85</v>
+      </c>
+      <c r="V77">
         <v>1.95</v>
       </c>
-      <c r="V77">
-        <v>1.85</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y77">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC77">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7425,7 +7425,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5376865</v>
+        <v>5371947</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7437,76 +7437,76 @@
         <v>44975.5</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L78">
+        <v>3.2</v>
+      </c>
+      <c r="M78">
+        <v>2.55</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
         <v>3.3</v>
       </c>
-      <c r="M78">
-        <v>4.2</v>
-      </c>
-      <c r="N78">
+      <c r="P78">
+        <v>2.1</v>
+      </c>
+      <c r="Q78">
+        <v>0.25</v>
+      </c>
+      <c r="R78">
+        <v>1.9</v>
+      </c>
+      <c r="S78">
+        <v>1.9</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
         <v>1.95</v>
       </c>
-      <c r="O78">
-        <v>2.8</v>
-      </c>
-      <c r="P78">
-        <v>4</v>
-      </c>
-      <c r="Q78">
-        <v>-0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.725</v>
-      </c>
-      <c r="S78">
-        <v>1.975</v>
-      </c>
-      <c r="T78">
-        <v>1.75</v>
-      </c>
-      <c r="U78">
+      <c r="V78">
         <v>1.85</v>
       </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8315,7 +8315,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5372041</v>
+        <v>5376864</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8327,19 +8327,19 @@
         <v>44982.5</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K88">
         <v>2.1</v>
@@ -8351,52 +8351,52 @@
         <v>3.2</v>
       </c>
       <c r="N88">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O88">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y88">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8404,7 +8404,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5376864</v>
+        <v>5372041</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8416,19 +8416,19 @@
         <v>44982.5</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K89">
         <v>2.1</v>
@@ -8440,52 +8440,52 @@
         <v>3.2</v>
       </c>
       <c r="N89">
+        <v>2.3</v>
+      </c>
+      <c r="O89">
+        <v>3</v>
+      </c>
+      <c r="P89">
+        <v>2.8</v>
+      </c>
+      <c r="Q89">
+        <v>-0.25</v>
+      </c>
+      <c r="R89">
+        <v>2.05</v>
+      </c>
+      <c r="S89">
         <v>1.75</v>
-      </c>
-      <c r="O89">
-        <v>3.3</v>
-      </c>
-      <c r="P89">
-        <v>4</v>
-      </c>
-      <c r="Q89">
-        <v>-0.5</v>
-      </c>
-      <c r="R89">
-        <v>1.825</v>
-      </c>
-      <c r="S89">
-        <v>1.975</v>
       </c>
       <c r="T89">
         <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -10718,7 +10718,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5376858</v>
+        <v>5372045</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10730,10 +10730,10 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10745,43 +10745,43 @@
         <v>62</v>
       </c>
       <c r="K115">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
+        <v>2.875</v>
+      </c>
+      <c r="N115">
+        <v>2.3</v>
+      </c>
+      <c r="O115">
+        <v>3.1</v>
+      </c>
+      <c r="P115">
+        <v>2.8</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>2.05</v>
+      </c>
+      <c r="S115">
+        <v>1.75</v>
+      </c>
+      <c r="T115">
+        <v>2.25</v>
+      </c>
+      <c r="U115">
         <v>1.85</v>
       </c>
-      <c r="N115">
-        <v>4.333</v>
-      </c>
-      <c r="O115">
-        <v>3</v>
-      </c>
-      <c r="P115">
-        <v>1.833</v>
-      </c>
-      <c r="Q115">
-        <v>0.5</v>
-      </c>
-      <c r="R115">
+      <c r="V115">
         <v>1.95</v>
       </c>
-      <c r="S115">
-        <v>1.85</v>
-      </c>
-      <c r="T115">
-        <v>1.75</v>
-      </c>
-      <c r="U115">
-        <v>1.8</v>
-      </c>
-      <c r="V115">
-        <v>2</v>
-      </c>
       <c r="W115">
-        <v>3.333</v>
+        <v>1.3</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10790,16 +10790,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>1.05</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>0.95</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
-      <c r="AC115">
-        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10896,7 +10896,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5372045</v>
+        <v>5376858</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10908,10 +10908,10 @@
         <v>44997.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10923,43 +10923,43 @@
         <v>62</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="N117">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
+        <v>1.85</v>
+      </c>
+      <c r="T117">
         <v>1.75</v>
       </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>1.3</v>
+        <v>3.333</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10968,7 +10968,7 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10977,7 +10977,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -12765,7 +12765,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6405542</v>
+        <v>6405541</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12777,76 +12777,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>60</v>
       </c>
       <c r="K138">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L138">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
+        <v>1.875</v>
+      </c>
+      <c r="V138">
+        <v>1.925</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
         <v>1.9</v>
       </c>
-      <c r="V138">
-        <v>1.9</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
-      <c r="Y138">
-        <v>2.4</v>
-      </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12854,7 +12854,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6405541</v>
+        <v>6405542</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12866,55 +12866,55 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>60</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L139">
+        <v>2.875</v>
+      </c>
+      <c r="M139">
+        <v>3.1</v>
+      </c>
+      <c r="N139">
+        <v>2.1</v>
+      </c>
+      <c r="O139">
         <v>3</v>
       </c>
-      <c r="M139">
-        <v>3.6</v>
-      </c>
-      <c r="N139">
-        <v>2.375</v>
-      </c>
-      <c r="O139">
-        <v>2.9</v>
-      </c>
       <c r="P139">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12923,19 +12923,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -14100,7 +14100,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6405556</v>
+        <v>6405555</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14112,10 +14112,10 @@
         <v>45032.5</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14127,43 +14127,43 @@
         <v>62</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L153">
         <v>3.2</v>
       </c>
       <c r="M153">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N153">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O153">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P153">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R153">
+        <v>2.025</v>
+      </c>
+      <c r="S153">
         <v>1.775</v>
       </c>
-      <c r="S153">
-        <v>2.025</v>
-      </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U153">
+        <v>1.85</v>
+      </c>
+      <c r="V153">
         <v>1.95</v>
       </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
       <c r="W153">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14172,16 +14172,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14189,7 +14189,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6405555</v>
+        <v>6405556</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14201,10 +14201,10 @@
         <v>45032.5</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14216,43 +14216,43 @@
         <v>62</v>
       </c>
       <c r="K154">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L154">
         <v>3.2</v>
       </c>
       <c r="M154">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N154">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O154">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
+        <v>1.775</v>
+      </c>
+      <c r="S154">
         <v>2.025</v>
       </c>
-      <c r="S154">
-        <v>1.775</v>
-      </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
+        <v>1.95</v>
+      </c>
+      <c r="V154">
         <v>1.85</v>
       </c>
-      <c r="V154">
-        <v>1.95</v>
-      </c>
       <c r="W154">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14261,16 +14261,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -16592,7 +16592,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6405550</v>
+        <v>6601677</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16604,76 +16604,76 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K181">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N181">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X181">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16681,7 +16681,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6601677</v>
+        <v>6405550</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16693,76 +16693,76 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K182">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W182">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17215,7 +17215,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6601672</v>
+        <v>6601673</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17227,76 +17227,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N188">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O188">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P188">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z188">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17304,7 +17304,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6601673</v>
+        <v>6601672</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17316,76 +17316,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
         <v>0</v>
       </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
       <c r="J189" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="L189">
         <v>3.2</v>
       </c>
       <c r="M189">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P189">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -18016,7 +18016,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6944663</v>
+        <v>6941476</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18031,73 +18031,73 @@
         <v>53</v>
       </c>
       <c r="G197" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K197">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M197">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N197">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="O197">
+        <v>3.25</v>
+      </c>
+      <c r="P197">
         <v>3.3</v>
       </c>
-      <c r="P197">
-        <v>1.95</v>
-      </c>
       <c r="Q197">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18105,7 +18105,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6941477</v>
+        <v>6944663</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18117,55 +18117,55 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G198" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J198" t="s">
         <v>60</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L198">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
+        <v>1.75</v>
+      </c>
+      <c r="N198">
+        <v>3.4</v>
+      </c>
+      <c r="O198">
         <v>3.3</v>
       </c>
-      <c r="N198">
+      <c r="P198">
         <v>1.95</v>
       </c>
-      <c r="O198">
-        <v>3.2</v>
-      </c>
-      <c r="P198">
-        <v>3.5</v>
-      </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R198">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
         <v>-1</v>
@@ -18174,19 +18174,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18194,7 +18194,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6941476</v>
+        <v>6941477</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18206,76 +18206,76 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K199">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="L199">
         <v>3.2</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N199">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O199">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P199">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q199">
         <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18298,7 +18298,7 @@
         <v>49</v>
       </c>
       <c r="G200" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18565,7 +18565,7 @@
         <v>52</v>
       </c>
       <c r="G203" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18832,7 +18832,7 @@
         <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -19173,7 +19173,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6940676</v>
+        <v>6941502</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19185,76 +19185,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K210">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N210">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O210">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19274,10 +19274,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19351,7 +19351,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6941502</v>
+        <v>6940676</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19363,76 +19363,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K212">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M212">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N212">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P212">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S212">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V212">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19440,7 +19440,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6944679</v>
+        <v>6944661</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19452,13 +19452,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G213" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19467,43 +19467,43 @@
         <v>62</v>
       </c>
       <c r="K213">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L213">
         <v>3.1</v>
       </c>
       <c r="M213">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N213">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P213">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19512,16 +19512,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19529,7 +19529,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6944661</v>
+        <v>6944679</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19541,13 +19541,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -19556,43 +19556,43 @@
         <v>62</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N214">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
         <v>2.25</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19601,16 +19601,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19633,7 +19633,7 @@
         <v>59</v>
       </c>
       <c r="G215" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>45157.5</v>
       </c>
       <c r="F216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G216" t="s">
         <v>56</v>
@@ -19897,10 +19897,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G218" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -20152,7 +20152,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6941480</v>
+        <v>6940232</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20164,76 +20164,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G221" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K221">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L221">
         <v>3.1</v>
       </c>
       <c r="M221">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N221">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O221">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y221">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20241,7 +20241,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6940679</v>
+        <v>6941480</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20253,76 +20253,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K222">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M222">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N222">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O222">
         <v>3.4</v>
       </c>
       <c r="P222">
+        <v>4.75</v>
+      </c>
+      <c r="Q222">
+        <v>-0.75</v>
+      </c>
+      <c r="R222">
+        <v>1.9</v>
+      </c>
+      <c r="S222">
+        <v>1.9</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>1.825</v>
+      </c>
+      <c r="V222">
+        <v>1.975</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
         <v>3.75</v>
       </c>
-      <c r="Q222">
-        <v>-0.5</v>
-      </c>
-      <c r="R222">
-        <v>1.85</v>
-      </c>
-      <c r="S222">
-        <v>1.95</v>
-      </c>
-      <c r="T222">
-        <v>2.5</v>
-      </c>
-      <c r="U222">
-        <v>2</v>
-      </c>
-      <c r="V222">
-        <v>1.8</v>
-      </c>
-      <c r="W222">
-        <v>0.8</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
-      <c r="Y222">
-        <v>-1</v>
-      </c>
       <c r="Z222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20330,7 +20330,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6940232</v>
+        <v>6940679</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20342,37 +20342,37 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K223">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N223">
         <v>1.8</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P223">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q223">
         <v>-0.5</v>
@@ -20384,34 +20384,34 @@
         <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X223">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA223">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20434,7 +20434,7 @@
         <v>44</v>
       </c>
       <c r="G224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20609,7 +20609,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G226" t="s">
         <v>37</v>
@@ -20701,7 +20701,7 @@
         <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -21143,7 +21143,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G232" t="s">
         <v>59</v>
@@ -21588,10 +21588,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F237" t="s">
+        <v>58</v>
+      </c>
+      <c r="G237" t="s">
         <v>57</v>
-      </c>
-      <c r="G237" t="s">
-        <v>58</v>
       </c>
       <c r="H237">
         <v>3</v>
@@ -21677,7 +21677,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G238" t="s">
         <v>36</v>
@@ -21769,7 +21769,7 @@
         <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22478,7 +22478,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F247" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G247" t="s">
         <v>55</v>
@@ -22644,7 +22644,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6940688</v>
+        <v>6941514</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22656,76 +22656,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F249" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G249" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K249">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="L249">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M249">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="N249">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="O249">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P249">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q249">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R249">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
         <v>2.25</v>
       </c>
       <c r="U249">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W249">
         <v>-1</v>
       </c>
       <c r="X249">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y249">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
+        <v>-1</v>
+      </c>
+      <c r="AA249">
+        <v>0.825</v>
+      </c>
+      <c r="AB249">
         <v>-0.5</v>
       </c>
-      <c r="AA249">
-        <v>0.45</v>
-      </c>
-      <c r="AB249">
-        <v>-1</v>
-      </c>
       <c r="AC249">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22733,7 +22733,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6941514</v>
+        <v>6940688</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22745,76 +22745,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G250" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K250">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="L250">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M250">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="N250">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="O250">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P250">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q250">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R250">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB250">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23015,7 +23015,7 @@
         <v>46</v>
       </c>
       <c r="G253" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -23190,7 +23190,7 @@
         <v>45199.5</v>
       </c>
       <c r="F255" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G255" t="s">
         <v>46</v>
@@ -23279,7 +23279,7 @@
         <v>45199.5</v>
       </c>
       <c r="F256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G256" t="s">
         <v>49</v>
@@ -23368,7 +23368,7 @@
         <v>45199.5</v>
       </c>
       <c r="F257" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G257" t="s">
         <v>36</v>
@@ -23727,7 +23727,7 @@
         <v>42</v>
       </c>
       <c r="G261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -24157,7 +24157,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6941519</v>
+        <v>6940664</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24169,55 +24169,55 @@
         <v>45206.5</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G266" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J266" t="s">
         <v>60</v>
       </c>
       <c r="K266">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L266">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M266">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N266">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="O266">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P266">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="Q266">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R266">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S266">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T266">
         <v>2.25</v>
       </c>
       <c r="U266">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V266">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24226,16 +24226,16 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>1.375</v>
+        <v>0.833</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB266">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC266">
         <v>-1</v>
@@ -24246,7 +24246,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6940664</v>
+        <v>6941519</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24258,55 +24258,55 @@
         <v>45206.5</v>
       </c>
       <c r="F267" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J267" t="s">
         <v>60</v>
       </c>
       <c r="K267">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L267">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M267">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N267">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="O267">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P267">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="Q267">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R267">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S267">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T267">
         <v>2.25</v>
       </c>
       <c r="U267">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V267">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24315,16 +24315,16 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB267">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC267">
         <v>-1</v>
@@ -24439,7 +24439,7 @@
         <v>52</v>
       </c>
       <c r="G269" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24614,7 +24614,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F271" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G271" t="s">
         <v>32</v>
@@ -24706,7 +24706,7 @@
         <v>36</v>
       </c>
       <c r="G272" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>51</v>
       </c>
       <c r="G276" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25314,7 +25314,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6941523</v>
+        <v>6941522</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25326,76 +25326,76 @@
         <v>45228.5</v>
       </c>
       <c r="F279" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G279" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K279">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L279">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M279">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="N279">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="O279">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P279">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="Q279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R279">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S279">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T279">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U279">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V279">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z279">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB279">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25403,7 +25403,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6944650</v>
+        <v>6941523</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25415,73 +25415,73 @@
         <v>45228.5</v>
       </c>
       <c r="F280" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G280" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J280" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K280">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L280">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
+        <v>1.75</v>
+      </c>
+      <c r="N280">
+        <v>5.25</v>
+      </c>
+      <c r="O280">
+        <v>4</v>
+      </c>
+      <c r="P280">
+        <v>1.533</v>
+      </c>
+      <c r="Q280">
+        <v>1</v>
+      </c>
+      <c r="R280">
+        <v>1.9</v>
+      </c>
+      <c r="S280">
+        <v>1.9</v>
+      </c>
+      <c r="T280">
+        <v>2.5</v>
+      </c>
+      <c r="U280">
+        <v>1.925</v>
+      </c>
+      <c r="V280">
+        <v>1.875</v>
+      </c>
+      <c r="W280">
+        <v>-1</v>
+      </c>
+      <c r="X280">
         <v>3</v>
       </c>
-      <c r="N280">
-        <v>2.3</v>
-      </c>
-      <c r="O280">
-        <v>3.2</v>
-      </c>
-      <c r="P280">
-        <v>2.8</v>
-      </c>
-      <c r="Q280">
-        <v>-0.25</v>
-      </c>
-      <c r="R280">
-        <v>1.975</v>
-      </c>
-      <c r="S280">
-        <v>1.725</v>
-      </c>
-      <c r="T280">
-        <v>2.25</v>
-      </c>
-      <c r="U280">
-        <v>1.85</v>
-      </c>
-      <c r="V280">
-        <v>1.95</v>
-      </c>
-      <c r="W280">
-        <v>1.3</v>
-      </c>
-      <c r="X280">
-        <v>-1</v>
-      </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA280">
         <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC280">
         <v>-1</v>
@@ -25492,7 +25492,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6941522</v>
+        <v>6944650</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25507,40 +25507,40 @@
         <v>58</v>
       </c>
       <c r="G281" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K281">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L281">
         <v>3.2</v>
       </c>
       <c r="M281">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N281">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O281">
         <v>3.2</v>
       </c>
       <c r="P281">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q281">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S281">
         <v>1.725</v>
@@ -25549,31 +25549,31 @@
         <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V281">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA281">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC281">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -26216,7 +26216,7 @@
         <v>45235.5</v>
       </c>
       <c r="F289" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G289" t="s">
         <v>52</v>
@@ -26308,7 +26308,7 @@
         <v>59</v>
       </c>
       <c r="G290" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26394,7 +26394,7 @@
         <v>45235.5</v>
       </c>
       <c r="F291" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G291" t="s">
         <v>49</v>
@@ -26486,7 +26486,7 @@
         <v>39</v>
       </c>
       <c r="G292" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -26661,10 +26661,10 @@
         <v>45241.5</v>
       </c>
       <c r="F294" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G294" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -26931,7 +26931,7 @@
         <v>52</v>
       </c>
       <c r="G297" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27005,7 +27005,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6940670</v>
+        <v>6940669</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27017,73 +27017,73 @@
         <v>45242.5</v>
       </c>
       <c r="F298" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G298" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H298">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J298" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K298">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L298">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M298">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N298">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O298">
         <v>3.1</v>
       </c>
       <c r="P298">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q298">
         <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S298">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T298">
         <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V298">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W298">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z298">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB298">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC298">
         <v>-1</v>
@@ -27094,7 +27094,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6941493</v>
+        <v>6944646</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27106,73 +27106,73 @@
         <v>45242.5</v>
       </c>
       <c r="F299" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G299" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299">
         <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K299">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L299">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M299">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N299">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O299">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P299">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q299">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S299">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T299">
         <v>2.5</v>
       </c>
       <c r="U299">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V299">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y299">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
-        <v>0.925</v>
+        <v>0.3625</v>
       </c>
       <c r="AB299">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC299">
         <v>-1</v>
@@ -27183,7 +27183,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6944646</v>
+        <v>6941493</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27195,73 +27195,73 @@
         <v>45242.5</v>
       </c>
       <c r="F300" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G300" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300">
         <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K300">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L300">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M300">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N300">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O300">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P300">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R300">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S300">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T300">
         <v>2.5</v>
       </c>
       <c r="U300">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V300">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W300">
         <v>-1</v>
       </c>
       <c r="X300">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z300">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>0.3625</v>
+        <v>0.925</v>
       </c>
       <c r="AB300">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC300">
         <v>-1</v>
@@ -27272,7 +27272,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6940669</v>
+        <v>6940670</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27284,73 +27284,73 @@
         <v>45242.5</v>
       </c>
       <c r="F301" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G301" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I301">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K301">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L301">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M301">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N301">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O301">
         <v>3.1</v>
       </c>
       <c r="P301">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q301">
         <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S301">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T301">
         <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V301">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA301">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC301">
         <v>-1</v>
@@ -27551,7 +27551,7 @@
         <v>45261.5</v>
       </c>
       <c r="F304" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G304" t="s">
         <v>59</v>
@@ -27999,7 +27999,7 @@
         <v>56</v>
       </c>
       <c r="G309" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28263,10 +28263,10 @@
         <v>45263.5</v>
       </c>
       <c r="F312" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G312" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -28429,7 +28429,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6941497</v>
+        <v>6940226</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28441,76 +28441,76 @@
         <v>45268.5</v>
       </c>
       <c r="F314" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G314" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J314" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K314">
+        <v>1.8</v>
+      </c>
+      <c r="L314">
+        <v>3.4</v>
+      </c>
+      <c r="M314">
+        <v>4.2</v>
+      </c>
+      <c r="N314">
+        <v>2.05</v>
+      </c>
+      <c r="O314">
         <v>2.9</v>
       </c>
-      <c r="L314">
-        <v>3.2</v>
-      </c>
-      <c r="M314">
-        <v>2.25</v>
-      </c>
-      <c r="N314">
-        <v>2.8</v>
-      </c>
-      <c r="O314">
-        <v>3.1</v>
-      </c>
       <c r="P314">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q314">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S314">
+        <v>2.025</v>
+      </c>
+      <c r="T314">
         <v>1.75</v>
       </c>
-      <c r="T314">
-        <v>2.5</v>
-      </c>
       <c r="U314">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V314">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W314">
         <v>-1</v>
       </c>
       <c r="X314">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y314">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA314">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AB314">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28518,7 +28518,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6940226</v>
+        <v>6941497</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28530,76 +28530,76 @@
         <v>45268.5</v>
       </c>
       <c r="F315" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G315" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H315">
         <v>1</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J315" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K315">
+        <v>2.9</v>
+      </c>
+      <c r="L315">
+        <v>3.2</v>
+      </c>
+      <c r="M315">
+        <v>2.25</v>
+      </c>
+      <c r="N315">
+        <v>2.8</v>
+      </c>
+      <c r="O315">
+        <v>3.1</v>
+      </c>
+      <c r="P315">
+        <v>2.375</v>
+      </c>
+      <c r="Q315">
+        <v>0</v>
+      </c>
+      <c r="R315">
+        <v>2.05</v>
+      </c>
+      <c r="S315">
+        <v>1.75</v>
+      </c>
+      <c r="T315">
+        <v>2.5</v>
+      </c>
+      <c r="U315">
+        <v>2</v>
+      </c>
+      <c r="V315">
         <v>1.8</v>
       </c>
-      <c r="L315">
-        <v>3.4</v>
-      </c>
-      <c r="M315">
-        <v>4.2</v>
-      </c>
-      <c r="N315">
-        <v>2.05</v>
-      </c>
-      <c r="O315">
-        <v>2.9</v>
-      </c>
-      <c r="P315">
-        <v>3.75</v>
-      </c>
-      <c r="Q315">
-        <v>-0.25</v>
-      </c>
-      <c r="R315">
-        <v>1.775</v>
-      </c>
-      <c r="S315">
-        <v>2.025</v>
-      </c>
-      <c r="T315">
-        <v>1.75</v>
-      </c>
-      <c r="U315">
-        <v>1.8</v>
-      </c>
-      <c r="V315">
-        <v>2</v>
-      </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z315">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
       <c r="AB315">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC315">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28622,7 +28622,7 @@
         <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H316">
         <v>2</v>
@@ -28797,7 +28797,7 @@
         <v>45269.5</v>
       </c>
       <c r="F318" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G318" t="s">
         <v>46</v>
@@ -29067,7 +29067,7 @@
         <v>59</v>
       </c>
       <c r="G321" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -29865,7 +29865,7 @@
         <v>45277.5</v>
       </c>
       <c r="F330" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G330" t="s">
         <v>30</v>
@@ -29954,10 +29954,10 @@
         <v>45277.5</v>
       </c>
       <c r="F331" t="s">
+        <v>57</v>
+      </c>
+      <c r="G331" t="s">
         <v>58</v>
-      </c>
-      <c r="G331" t="s">
-        <v>57</v>
       </c>
       <c r="H331">
         <v>1</v>
@@ -30046,7 +30046,7 @@
         <v>36</v>
       </c>
       <c r="G332" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H332">
         <v>3</v>
@@ -30402,7 +30402,7 @@
         <v>55</v>
       </c>
       <c r="G336" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30666,7 +30666,7 @@
         <v>45298.5</v>
       </c>
       <c r="F339" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G339" t="s">
         <v>35</v>
@@ -30755,7 +30755,7 @@
         <v>45298.5</v>
       </c>
       <c r="F340" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G340" t="s">
         <v>46</v>
@@ -30847,7 +30847,7 @@
         <v>37</v>
       </c>
       <c r="G341" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31203,7 +31203,7 @@
         <v>46</v>
       </c>
       <c r="G345" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H345">
         <v>2</v>
@@ -31292,7 +31292,7 @@
         <v>36</v>
       </c>
       <c r="G346" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -31467,7 +31467,7 @@
         <v>45304.5</v>
       </c>
       <c r="F348" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G348" t="s">
         <v>42</v>
@@ -31648,7 +31648,7 @@
         <v>49</v>
       </c>
       <c r="G350" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H350">
         <v>3</v>
@@ -32345,7 +32345,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6940234</v>
+        <v>6940682</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32357,76 +32357,76 @@
         <v>45312.5</v>
       </c>
       <c r="F358" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G358" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H358">
         <v>0</v>
       </c>
       <c r="I358">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J358" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K358">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L358">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M358">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N358">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O358">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P358">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q358">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R358">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S358">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T358">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U358">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V358">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W358">
         <v>-1</v>
       </c>
       <c r="X358">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y358">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA358">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB358">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32434,7 +32434,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>6941537</v>
+        <v>6940234</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32446,40 +32446,40 @@
         <v>45312.5</v>
       </c>
       <c r="F359" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G359" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J359" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K359">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="L359">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M359">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N359">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O359">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P359">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q359">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R359">
         <v>1.8</v>
@@ -32488,34 +32488,34 @@
         <v>2</v>
       </c>
       <c r="T359">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U359">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V359">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W359">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X359">
         <v>-1</v>
       </c>
       <c r="Y359">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z359">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA359">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB359">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC359">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32523,7 +32523,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6940682</v>
+        <v>6941537</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32535,76 +32535,76 @@
         <v>45312.5</v>
       </c>
       <c r="F360" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G360" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360">
         <v>0</v>
       </c>
       <c r="J360" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K360">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L360">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M360">
+        <v>5</v>
+      </c>
+      <c r="N360">
+        <v>1.363</v>
+      </c>
+      <c r="O360">
+        <v>4.333</v>
+      </c>
+      <c r="P360">
+        <v>7</v>
+      </c>
+      <c r="Q360">
+        <v>-1.25</v>
+      </c>
+      <c r="R360">
         <v>1.8</v>
       </c>
-      <c r="N360">
-        <v>2.875</v>
-      </c>
-      <c r="O360">
-        <v>3.4</v>
-      </c>
-      <c r="P360">
-        <v>2.15</v>
-      </c>
-      <c r="Q360">
-        <v>0.25</v>
-      </c>
-      <c r="R360">
-        <v>1.85</v>
-      </c>
       <c r="S360">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T360">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U360">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V360">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X360">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
         <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA360">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB360">
         <v>-1</v>
       </c>
       <c r="AC360">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32612,7 +32612,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6941538</v>
+        <v>6941539</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32624,76 +32624,76 @@
         <v>45312.5</v>
       </c>
       <c r="F361" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G361" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K361">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="L361">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M361">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="N361">
-        <v>8.5</v>
+        <v>2.55</v>
       </c>
       <c r="O361">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P361">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="Q361">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R361">
+        <v>1.925</v>
+      </c>
+      <c r="S361">
         <v>1.875</v>
-      </c>
-      <c r="S361">
-        <v>1.925</v>
       </c>
       <c r="T361">
         <v>2.5</v>
       </c>
       <c r="U361">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V361">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W361">
         <v>-1</v>
       </c>
       <c r="X361">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y361">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA361">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB361">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32701,7 +32701,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6941539</v>
+        <v>6941538</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32713,76 +32713,76 @@
         <v>45312.5</v>
       </c>
       <c r="F362" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G362" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J362" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K362">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="L362">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M362">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="N362">
-        <v>2.55</v>
+        <v>8.5</v>
       </c>
       <c r="O362">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P362">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q362">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R362">
+        <v>1.875</v>
+      </c>
+      <c r="S362">
         <v>1.925</v>
-      </c>
-      <c r="S362">
-        <v>1.875</v>
       </c>
       <c r="T362">
         <v>2.5</v>
       </c>
       <c r="U362">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V362">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W362">
         <v>-1</v>
       </c>
       <c r="X362">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z362">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA362">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC362">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32894,7 +32894,7 @@
         <v>35</v>
       </c>
       <c r="G364" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H364">
         <v>1</v>
@@ -32983,7 +32983,7 @@
         <v>37</v>
       </c>
       <c r="G365" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H365">
         <v>2</v>
@@ -33072,7 +33072,7 @@
         <v>49</v>
       </c>
       <c r="G366" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H366">
         <v>2</v>
@@ -33247,7 +33247,7 @@
         <v>45319.5</v>
       </c>
       <c r="F368" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G368" t="s">
         <v>51</v>
@@ -33692,7 +33692,7 @@
         <v>45332.5</v>
       </c>
       <c r="F373" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G373" t="s">
         <v>39</v>
@@ -33870,7 +33870,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F375" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G375" t="s">
         <v>44</v>
@@ -34063,31 +34063,31 @@
         <v>3.5</v>
       </c>
       <c r="N377">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O377">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P377">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q377">
         <v>-0.25</v>
       </c>
       <c r="R377">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S377">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T377">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U377">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V377">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -34140,28 +34140,28 @@
         <v>3.2</v>
       </c>
       <c r="O378">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P378">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q378">
         <v>0.25</v>
       </c>
       <c r="R378">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S378">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T378">
         <v>2.25</v>
       </c>
       <c r="U378">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V378">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34211,13 +34211,13 @@
         <v>3.8</v>
       </c>
       <c r="N379">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O379">
         <v>3.2</v>
       </c>
       <c r="P379">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q379">
         <v>-0.5</v>
@@ -34306,10 +34306,10 @@
         <v>2</v>
       </c>
       <c r="U380">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V380">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34359,31 +34359,31 @@
         <v>5</v>
       </c>
       <c r="N381">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O381">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P381">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q381">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R381">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S381">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
         <v>2.5</v>
       </c>
       <c r="U381">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V381">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34406,7 +34406,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7780998</v>
+        <v>7780939</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34418,46 +34418,46 @@
         <v>45340.5</v>
       </c>
       <c r="F382" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G382" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K382">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L382">
         <v>3.1</v>
       </c>
       <c r="M382">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="N382">
+        <v>2.1</v>
+      </c>
+      <c r="O382">
+        <v>3.1</v>
+      </c>
+      <c r="P382">
         <v>3.3</v>
       </c>
-      <c r="O382">
-        <v>3.25</v>
-      </c>
-      <c r="P382">
-        <v>2.05</v>
-      </c>
       <c r="Q382">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R382">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S382">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T382">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U382">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V382">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34480,7 +34480,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7780996</v>
+        <v>7780998</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34492,46 +34492,46 @@
         <v>45340.5</v>
       </c>
       <c r="F383" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G383" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K383">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L383">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M383">
+        <v>2.05</v>
+      </c>
+      <c r="N383">
+        <v>3.3</v>
+      </c>
+      <c r="O383">
+        <v>3.25</v>
+      </c>
+      <c r="P383">
+        <v>2.05</v>
+      </c>
+      <c r="Q383">
+        <v>0.25</v>
+      </c>
+      <c r="R383">
+        <v>1.95</v>
+      </c>
+      <c r="S383">
         <v>1.85</v>
       </c>
-      <c r="N383">
-        <v>3.5</v>
-      </c>
-      <c r="O383">
-        <v>3.3</v>
-      </c>
-      <c r="P383">
-        <v>1.909</v>
-      </c>
-      <c r="Q383">
-        <v>0.5</v>
-      </c>
-      <c r="R383">
-        <v>1.8</v>
-      </c>
-      <c r="S383">
-        <v>2</v>
-      </c>
       <c r="T383">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U383">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V383">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34554,7 +34554,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7780939</v>
+        <v>7780996</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34566,46 +34566,46 @@
         <v>45340.5</v>
       </c>
       <c r="F384" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G384" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K384">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="L384">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M384">
+        <v>1.85</v>
+      </c>
+      <c r="N384">
+        <v>3.5</v>
+      </c>
+      <c r="O384">
         <v>3.3</v>
       </c>
-      <c r="N384">
-        <v>2.1</v>
-      </c>
-      <c r="O384">
-        <v>3.1</v>
-      </c>
       <c r="P384">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q384">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R384">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S384">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T384">
         <v>2.25</v>
       </c>
       <c r="U384">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V384">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34643,7 +34643,7 @@
         <v>52</v>
       </c>
       <c r="G385" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K385">
         <v>1.5</v>
@@ -34717,7 +34717,7 @@
         <v>59</v>
       </c>
       <c r="G386" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K386">
         <v>2.25</v>
@@ -34741,10 +34741,10 @@
         <v>-0.25</v>
       </c>
       <c r="R386">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S386">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T386">
         <v>2.25</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -175,10 +175,10 @@
     <t>Caldas SC</t>
   </si>
   <si>
-    <t>Lusitania Lourosa</t>
+    <t>Pero Pinheiro</t>
   </si>
   <si>
-    <t>Pero Pinheiro</t>
+    <t>Lusitania Lourosa</t>
   </si>
   <si>
     <t>Trofense</t>
@@ -187,10 +187,10 @@
     <t>SC Vianense</t>
   </si>
   <si>
-    <t>SU 1 Dezembro</t>
+    <t>Atletico CP Lisbon</t>
   </si>
   <si>
-    <t>Atletico CP Lisbon</t>
+    <t>SU 1 Dezembro</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
@@ -564,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC386"/>
+  <dimension ref="A1:AC381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3242,7 +3242,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5372003</v>
+        <v>5371938</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3254,76 +3254,76 @@
         <v>44947.5</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N31">
         <v>2.2</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q31">
         <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.975</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.85</v>
+      </c>
+      <c r="V31">
         <v>1.95</v>
       </c>
-      <c r="S31">
-        <v>1.85</v>
-      </c>
-      <c r="T31">
-        <v>2.5</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
-      <c r="V31">
-        <v>1.825</v>
-      </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X31">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3331,7 +3331,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5371938</v>
+        <v>5372003</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3343,76 +3343,76 @@
         <v>44947.5</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L32">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N32">
         <v>2.2</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P32">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q32">
         <v>-0.25</v>
       </c>
       <c r="R32">
+        <v>1.95</v>
+      </c>
+      <c r="S32">
+        <v>1.85</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
         <v>1.975</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.825</v>
       </c>
-      <c r="T32">
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
         <v>2.25</v>
       </c>
-      <c r="U32">
-        <v>1.85</v>
-      </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
-      <c r="W32">
-        <v>1.2</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
+        <v>-0.5</v>
+      </c>
+      <c r="AA32">
+        <v>0.425</v>
+      </c>
+      <c r="AB32">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -4132,7 +4132,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5372026</v>
+        <v>5372027</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4144,13 +4144,13 @@
         <v>44954.5</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>62</v>
       </c>
       <c r="K41">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
         <v>2.1</v>
@@ -4174,16 +4174,16 @@
         <v>3.25</v>
       </c>
       <c r="P41">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q41">
         <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T41">
         <v>2.25</v>
@@ -4204,16 +4204,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4221,7 +4221,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5372027</v>
+        <v>5372026</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4233,13 +4233,13 @@
         <v>44954.5</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4248,13 +4248,13 @@
         <v>62</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
         <v>2.1</v>
@@ -4263,16 +4263,16 @@
         <v>3.25</v>
       </c>
       <c r="P42">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q42">
         <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
         <v>2.25</v>
@@ -4293,16 +4293,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -7336,7 +7336,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5376865</v>
+        <v>5371947</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7348,76 +7348,76 @@
         <v>44975.5</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K77">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L77">
+        <v>3.2</v>
+      </c>
+      <c r="M77">
+        <v>2.55</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
         <v>3.3</v>
       </c>
-      <c r="M77">
-        <v>4.2</v>
-      </c>
-      <c r="N77">
+      <c r="P77">
+        <v>2.1</v>
+      </c>
+      <c r="Q77">
+        <v>0.25</v>
+      </c>
+      <c r="R77">
+        <v>1.9</v>
+      </c>
+      <c r="S77">
+        <v>1.9</v>
+      </c>
+      <c r="T77">
+        <v>2.5</v>
+      </c>
+      <c r="U77">
         <v>1.95</v>
       </c>
-      <c r="O77">
-        <v>2.8</v>
-      </c>
-      <c r="P77">
-        <v>4</v>
-      </c>
-      <c r="Q77">
-        <v>-0.25</v>
-      </c>
-      <c r="R77">
-        <v>1.725</v>
-      </c>
-      <c r="S77">
-        <v>1.975</v>
-      </c>
-      <c r="T77">
-        <v>1.75</v>
-      </c>
-      <c r="U77">
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7425,7 +7425,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5371947</v>
+        <v>5376865</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7437,76 +7437,76 @@
         <v>44975.5</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K78">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O78">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P78">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -14100,7 +14100,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6405555</v>
+        <v>6405556</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14112,10 +14112,10 @@
         <v>45032.5</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14127,43 +14127,43 @@
         <v>62</v>
       </c>
       <c r="K153">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L153">
         <v>3.2</v>
       </c>
       <c r="M153">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N153">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O153">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P153">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
+        <v>1.775</v>
+      </c>
+      <c r="S153">
         <v>2.025</v>
       </c>
-      <c r="S153">
-        <v>1.775</v>
-      </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
+        <v>1.95</v>
+      </c>
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
       <c r="W153">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14172,16 +14172,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14189,7 +14189,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6405556</v>
+        <v>6405555</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14201,10 +14201,10 @@
         <v>45032.5</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14216,43 +14216,43 @@
         <v>62</v>
       </c>
       <c r="K154">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L154">
         <v>3.2</v>
       </c>
       <c r="M154">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N154">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O154">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P154">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
+        <v>2.025</v>
+      </c>
+      <c r="S154">
         <v>1.775</v>
       </c>
-      <c r="S154">
-        <v>2.025</v>
-      </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U154">
+        <v>1.85</v>
+      </c>
+      <c r="V154">
         <v>1.95</v>
       </c>
-      <c r="V154">
-        <v>1.85</v>
-      </c>
       <c r="W154">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14261,16 +14261,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -17215,7 +17215,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6601673</v>
+        <v>6601672</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17227,76 +17227,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
         <v>0</v>
       </c>
-      <c r="I188">
-        <v>2</v>
-      </c>
       <c r="J188" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K188">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="L188">
         <v>3.2</v>
       </c>
       <c r="M188">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P188">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17304,7 +17304,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6601672</v>
+        <v>6601673</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17316,76 +17316,76 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="L189">
         <v>3.2</v>
       </c>
       <c r="M189">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N189">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O189">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P189">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S189">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z189">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -18016,7 +18016,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6941476</v>
+        <v>6944663</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18031,73 +18031,73 @@
         <v>53</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K197">
+        <v>4</v>
+      </c>
+      <c r="L197">
+        <v>3.4</v>
+      </c>
+      <c r="M197">
+        <v>1.75</v>
+      </c>
+      <c r="N197">
+        <v>3.4</v>
+      </c>
+      <c r="O197">
         <v>3.3</v>
       </c>
-      <c r="L197">
-        <v>3.2</v>
-      </c>
-      <c r="M197">
-        <v>2</v>
-      </c>
-      <c r="N197">
-        <v>2.05</v>
-      </c>
-      <c r="O197">
-        <v>3.25</v>
-      </c>
       <c r="P197">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18105,7 +18105,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6944663</v>
+        <v>6941477</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18117,55 +18117,55 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>60</v>
       </c>
       <c r="K198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M198">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="N198">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q198">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
@@ -18174,19 +18174,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18194,7 +18194,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6941477</v>
+        <v>6941476</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18206,76 +18206,76 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G199" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K199">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L199">
         <v>3.2</v>
       </c>
       <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>2.05</v>
+      </c>
+      <c r="O199">
+        <v>3.25</v>
+      </c>
+      <c r="P199">
         <v>3.3</v>
-      </c>
-      <c r="N199">
-        <v>1.95</v>
-      </c>
-      <c r="O199">
-        <v>3.2</v>
-      </c>
-      <c r="P199">
-        <v>3.5</v>
       </c>
       <c r="Q199">
         <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18298,7 +18298,7 @@
         <v>49</v>
       </c>
       <c r="G200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18565,7 +18565,7 @@
         <v>52</v>
       </c>
       <c r="G203" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18832,7 +18832,7 @@
         <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -19173,7 +19173,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6941502</v>
+        <v>6940676</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19185,76 +19185,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G210" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K210">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB210">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19274,10 +19274,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19351,7 +19351,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6940676</v>
+        <v>6941502</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19363,76 +19363,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K212">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L212">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N212">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S212">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA212">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19440,7 +19440,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6944661</v>
+        <v>6944679</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19452,13 +19452,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19467,43 +19467,43 @@
         <v>62</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L213">
         <v>3.1</v>
       </c>
       <c r="M213">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N213">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19512,16 +19512,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19529,7 +19529,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6944679</v>
+        <v>6944661</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19541,13 +19541,13 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G214" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -19556,43 +19556,43 @@
         <v>62</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
         <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19601,16 +19601,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19633,7 +19633,7 @@
         <v>59</v>
       </c>
       <c r="G215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>45157.5</v>
       </c>
       <c r="F216" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G216" t="s">
         <v>56</v>
@@ -19897,10 +19897,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G218" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -20152,7 +20152,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6940232</v>
+        <v>6940679</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20164,37 +20164,37 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K221">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L221">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N221">
         <v>1.8</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P221">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q221">
         <v>-0.5</v>
@@ -20206,34 +20206,34 @@
         <v>1.95</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA221">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20241,7 +20241,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6941480</v>
+        <v>6940232</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20253,76 +20253,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G222" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K222">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L222">
         <v>3.1</v>
       </c>
       <c r="M222">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N222">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O222">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20330,7 +20330,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6940679</v>
+        <v>6941480</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20342,76 +20342,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K223">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N223">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O223">
         <v>3.4</v>
       </c>
       <c r="P223">
+        <v>4.75</v>
+      </c>
+      <c r="Q223">
+        <v>-0.75</v>
+      </c>
+      <c r="R223">
+        <v>1.9</v>
+      </c>
+      <c r="S223">
+        <v>1.9</v>
+      </c>
+      <c r="T223">
+        <v>2.25</v>
+      </c>
+      <c r="U223">
+        <v>1.825</v>
+      </c>
+      <c r="V223">
+        <v>1.975</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
         <v>3.75</v>
       </c>
-      <c r="Q223">
-        <v>-0.5</v>
-      </c>
-      <c r="R223">
-        <v>1.85</v>
-      </c>
-      <c r="S223">
-        <v>1.95</v>
-      </c>
-      <c r="T223">
-        <v>2.5</v>
-      </c>
-      <c r="U223">
-        <v>2</v>
-      </c>
-      <c r="V223">
-        <v>1.8</v>
-      </c>
-      <c r="W223">
-        <v>0.8</v>
-      </c>
-      <c r="X223">
-        <v>-1</v>
-      </c>
-      <c r="Y223">
-        <v>-1</v>
-      </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20434,7 +20434,7 @@
         <v>44</v>
       </c>
       <c r="G224" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20609,7 +20609,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G226" t="s">
         <v>37</v>
@@ -20701,7 +20701,7 @@
         <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -20864,7 +20864,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6940233</v>
+        <v>6940657</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20876,10 +20876,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G229" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20891,25 +20891,25 @@
         <v>61</v>
       </c>
       <c r="K229">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L229">
         <v>3.1</v>
       </c>
       <c r="M229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N229">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O229">
         <v>3.1</v>
       </c>
       <c r="P229">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R229">
         <v>1.8</v>
@@ -20921,10 +20921,10 @@
         <v>2.25</v>
       </c>
       <c r="U229">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20936,16 +20936,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20953,7 +20953,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6941482</v>
+        <v>6940233</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20965,49 +20965,49 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>61</v>
+      </c>
+      <c r="K230">
+        <v>2.2</v>
+      </c>
+      <c r="L230">
+        <v>3.1</v>
+      </c>
+      <c r="M230">
         <v>3</v>
       </c>
-      <c r="J230" t="s">
-        <v>60</v>
-      </c>
-      <c r="K230">
-        <v>1.571</v>
-      </c>
-      <c r="L230">
-        <v>3.4</v>
-      </c>
-      <c r="M230">
-        <v>5.5</v>
-      </c>
       <c r="N230">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O230">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P230">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q230">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
         <v>2</v>
@@ -21019,22 +21019,22 @@
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y230">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21042,7 +21042,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6941483</v>
+        <v>6941482</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21054,49 +21054,49 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J231" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K231">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L231">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N231">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O231">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
         <v>2</v>
@@ -21105,25 +21105,25 @@
         <v>1.8</v>
       </c>
       <c r="W231">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z231">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC231">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21131,7 +21131,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6944658</v>
+        <v>6941483</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21143,76 +21143,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>2</v>
-      </c>
       <c r="J232" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K232">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M232">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N232">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O232">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q232">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
+        <v>1.85</v>
+      </c>
+      <c r="S232">
+        <v>1.95</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>2</v>
+      </c>
+      <c r="V232">
         <v>1.8</v>
       </c>
-      <c r="S232">
-        <v>2</v>
-      </c>
-      <c r="T232">
-        <v>2.25</v>
-      </c>
-      <c r="U232">
-        <v>1.9</v>
-      </c>
-      <c r="V232">
-        <v>1.9</v>
-      </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA232">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21220,7 +21220,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6940657</v>
+        <v>6944658</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21232,40 +21232,40 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K233">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L233">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N233">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O233">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="Q233">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R233">
         <v>1.8</v>
@@ -21277,31 +21277,31 @@
         <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB233">
         <v>-0.5</v>
       </c>
       <c r="AC233">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21588,10 +21588,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F237" t="s">
+        <v>57</v>
+      </c>
+      <c r="G237" t="s">
         <v>58</v>
-      </c>
-      <c r="G237" t="s">
-        <v>57</v>
       </c>
       <c r="H237">
         <v>3</v>
@@ -21677,7 +21677,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G238" t="s">
         <v>36</v>
@@ -21769,7 +21769,7 @@
         <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22478,7 +22478,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F247" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G247" t="s">
         <v>55</v>
@@ -22644,7 +22644,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6941514</v>
+        <v>6940688</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22656,76 +22656,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F249" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G249" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K249">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="L249">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M249">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="N249">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="O249">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P249">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q249">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R249">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T249">
         <v>2.25</v>
       </c>
       <c r="U249">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V249">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
         <v>-1</v>
       </c>
       <c r="X249">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA249">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22733,7 +22733,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6940688</v>
+        <v>6941514</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22745,76 +22745,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G250" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K250">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="L250">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M250">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="N250">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="O250">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P250">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Q250">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y250">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
+        <v>-1</v>
+      </c>
+      <c r="AA250">
+        <v>0.825</v>
+      </c>
+      <c r="AB250">
         <v>-0.5</v>
       </c>
-      <c r="AA250">
-        <v>0.45</v>
-      </c>
-      <c r="AB250">
-        <v>-1</v>
-      </c>
       <c r="AC250">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23015,7 +23015,7 @@
         <v>46</v>
       </c>
       <c r="G253" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -23190,7 +23190,7 @@
         <v>45199.5</v>
       </c>
       <c r="F255" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G255" t="s">
         <v>46</v>
@@ -23279,7 +23279,7 @@
         <v>45199.5</v>
       </c>
       <c r="F256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G256" t="s">
         <v>49</v>
@@ -23368,7 +23368,7 @@
         <v>45199.5</v>
       </c>
       <c r="F257" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G257" t="s">
         <v>36</v>
@@ -23727,7 +23727,7 @@
         <v>42</v>
       </c>
       <c r="G261" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -24261,7 +24261,7 @@
         <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24439,7 +24439,7 @@
         <v>52</v>
       </c>
       <c r="G269" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24614,7 +24614,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F271" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G271" t="s">
         <v>32</v>
@@ -24706,7 +24706,7 @@
         <v>36</v>
       </c>
       <c r="G272" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>51</v>
       </c>
       <c r="G276" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25326,7 +25326,7 @@
         <v>45228.5</v>
       </c>
       <c r="F279" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G279" t="s">
         <v>35</v>
@@ -25415,7 +25415,7 @@
         <v>45228.5</v>
       </c>
       <c r="F280" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G280" t="s">
         <v>37</v>
@@ -25504,7 +25504,7 @@
         <v>45228.5</v>
       </c>
       <c r="F281" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G281" t="s">
         <v>49</v>
@@ -26216,7 +26216,7 @@
         <v>45235.5</v>
       </c>
       <c r="F289" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G289" t="s">
         <v>52</v>
@@ -26308,7 +26308,7 @@
         <v>59</v>
       </c>
       <c r="G290" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26394,7 +26394,7 @@
         <v>45235.5</v>
       </c>
       <c r="F291" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G291" t="s">
         <v>49</v>
@@ -26486,7 +26486,7 @@
         <v>39</v>
       </c>
       <c r="G292" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -26661,10 +26661,10 @@
         <v>45241.5</v>
       </c>
       <c r="F294" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G294" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -26931,7 +26931,7 @@
         <v>52</v>
       </c>
       <c r="G297" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27094,7 +27094,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6944646</v>
+        <v>6940670</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27106,73 +27106,73 @@
         <v>45242.5</v>
       </c>
       <c r="F299" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G299" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K299">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L299">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M299">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N299">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O299">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P299">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q299">
         <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S299">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T299">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U299">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V299">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X299">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA299">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC299">
         <v>-1</v>
@@ -27272,7 +27272,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6940670</v>
+        <v>6944646</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27284,73 +27284,73 @@
         <v>45242.5</v>
       </c>
       <c r="F301" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G301" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H301">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K301">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L301">
+        <v>3.25</v>
+      </c>
+      <c r="M301">
+        <v>3</v>
+      </c>
+      <c r="N301">
+        <v>2.3</v>
+      </c>
+      <c r="O301">
         <v>3.2</v>
       </c>
-      <c r="M301">
-        <v>3.6</v>
-      </c>
-      <c r="N301">
-        <v>2.15</v>
-      </c>
-      <c r="O301">
-        <v>3.1</v>
-      </c>
       <c r="P301">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q301">
         <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S301">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U301">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V301">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W301">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X301">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y301">
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA301">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB301">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC301">
         <v>-1</v>
@@ -27551,7 +27551,7 @@
         <v>45261.5</v>
       </c>
       <c r="F304" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G304" t="s">
         <v>59</v>
@@ -27999,7 +27999,7 @@
         <v>56</v>
       </c>
       <c r="G309" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28263,10 +28263,10 @@
         <v>45263.5</v>
       </c>
       <c r="F312" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G312" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -28429,7 +28429,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6940226</v>
+        <v>6941497</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28441,76 +28441,76 @@
         <v>45268.5</v>
       </c>
       <c r="F314" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G314" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J314" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K314">
+        <v>2.9</v>
+      </c>
+      <c r="L314">
+        <v>3.2</v>
+      </c>
+      <c r="M314">
+        <v>2.25</v>
+      </c>
+      <c r="N314">
+        <v>2.8</v>
+      </c>
+      <c r="O314">
+        <v>3.1</v>
+      </c>
+      <c r="P314">
+        <v>2.375</v>
+      </c>
+      <c r="Q314">
+        <v>0</v>
+      </c>
+      <c r="R314">
+        <v>2.05</v>
+      </c>
+      <c r="S314">
+        <v>1.75</v>
+      </c>
+      <c r="T314">
+        <v>2.5</v>
+      </c>
+      <c r="U314">
+        <v>2</v>
+      </c>
+      <c r="V314">
         <v>1.8</v>
       </c>
-      <c r="L314">
-        <v>3.4</v>
-      </c>
-      <c r="M314">
-        <v>4.2</v>
-      </c>
-      <c r="N314">
-        <v>2.05</v>
-      </c>
-      <c r="O314">
-        <v>2.9</v>
-      </c>
-      <c r="P314">
-        <v>3.75</v>
-      </c>
-      <c r="Q314">
-        <v>-0.25</v>
-      </c>
-      <c r="R314">
-        <v>1.775</v>
-      </c>
-      <c r="S314">
-        <v>2.025</v>
-      </c>
-      <c r="T314">
-        <v>1.75</v>
-      </c>
-      <c r="U314">
-        <v>1.8</v>
-      </c>
-      <c r="V314">
-        <v>2</v>
-      </c>
       <c r="W314">
         <v>-1</v>
       </c>
       <c r="X314">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z314">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
       <c r="AB314">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC314">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28518,7 +28518,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6941497</v>
+        <v>6940226</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28530,76 +28530,76 @@
         <v>45268.5</v>
       </c>
       <c r="F315" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G315" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H315">
         <v>1</v>
       </c>
       <c r="I315">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J315" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K315">
+        <v>1.8</v>
+      </c>
+      <c r="L315">
+        <v>3.4</v>
+      </c>
+      <c r="M315">
+        <v>4.2</v>
+      </c>
+      <c r="N315">
+        <v>2.05</v>
+      </c>
+      <c r="O315">
         <v>2.9</v>
       </c>
-      <c r="L315">
-        <v>3.2</v>
-      </c>
-      <c r="M315">
-        <v>2.25</v>
-      </c>
-      <c r="N315">
-        <v>2.8</v>
-      </c>
-      <c r="O315">
-        <v>3.1</v>
-      </c>
       <c r="P315">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q315">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S315">
+        <v>2.025</v>
+      </c>
+      <c r="T315">
         <v>1.75</v>
       </c>
-      <c r="T315">
-        <v>2.5</v>
-      </c>
       <c r="U315">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V315">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y315">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA315">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AB315">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28622,7 +28622,7 @@
         <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H316">
         <v>2</v>
@@ -28797,7 +28797,7 @@
         <v>45269.5</v>
       </c>
       <c r="F318" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G318" t="s">
         <v>46</v>
@@ -29067,7 +29067,7 @@
         <v>59</v>
       </c>
       <c r="G321" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -29675,7 +29675,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6940696</v>
+        <v>6940675</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29687,76 +29687,76 @@
         <v>45277.5</v>
       </c>
       <c r="F328" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G328" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K328">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L328">
         <v>3.25</v>
       </c>
       <c r="M328">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N328">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O328">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P328">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="Q328">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R328">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S328">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T328">
         <v>2.25</v>
       </c>
       <c r="U328">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V328">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W328">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29764,7 +29764,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6940675</v>
+        <v>6940696</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29776,76 +29776,76 @@
         <v>45277.5</v>
       </c>
       <c r="F329" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G329" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K329">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L329">
         <v>3.25</v>
       </c>
       <c r="M329">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N329">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="O329">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P329">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R329">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T329">
         <v>2.25</v>
       </c>
       <c r="U329">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V329">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X329">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA329">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC329">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29865,7 +29865,7 @@
         <v>45277.5</v>
       </c>
       <c r="F330" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G330" t="s">
         <v>30</v>
@@ -29942,7 +29942,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6941531</v>
+        <v>6941532</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29954,73 +29954,73 @@
         <v>45277.5</v>
       </c>
       <c r="F331" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G331" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K331">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="L331">
+        <v>3.5</v>
+      </c>
+      <c r="M331">
+        <v>4</v>
+      </c>
+      <c r="N331">
+        <v>1.727</v>
+      </c>
+      <c r="O331">
         <v>3.6</v>
       </c>
-      <c r="M331">
-        <v>1.666</v>
-      </c>
-      <c r="N331">
+      <c r="P331">
         <v>4</v>
       </c>
-      <c r="O331">
-        <v>3.5</v>
-      </c>
-      <c r="P331">
+      <c r="Q331">
+        <v>-0.5</v>
+      </c>
+      <c r="R331">
         <v>1.75</v>
       </c>
-      <c r="Q331">
+      <c r="S331">
+        <v>1.95</v>
+      </c>
+      <c r="T331">
+        <v>2.5</v>
+      </c>
+      <c r="U331">
+        <v>1.975</v>
+      </c>
+      <c r="V331">
+        <v>1.825</v>
+      </c>
+      <c r="W331">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X331">
+        <v>-1</v>
+      </c>
+      <c r="Y331">
+        <v>-1</v>
+      </c>
+      <c r="Z331">
         <v>0.75</v>
       </c>
-      <c r="R331">
-        <v>1.825</v>
-      </c>
-      <c r="S331">
-        <v>1.975</v>
-      </c>
-      <c r="T331">
-        <v>2.25</v>
-      </c>
-      <c r="U331">
-        <v>1.9</v>
-      </c>
-      <c r="V331">
-        <v>1.9</v>
-      </c>
-      <c r="W331">
-        <v>-1</v>
-      </c>
-      <c r="X331">
-        <v>-1</v>
-      </c>
-      <c r="Y331">
-        <v>0.75</v>
-      </c>
-      <c r="Z331">
-        <v>-0.5</v>
-      </c>
       <c r="AA331">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30031,7 +30031,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6941532</v>
+        <v>6941531</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30043,73 +30043,73 @@
         <v>45277.5</v>
       </c>
       <c r="F332" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G332" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J332" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K332">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="L332">
+        <v>3.6</v>
+      </c>
+      <c r="M332">
+        <v>1.666</v>
+      </c>
+      <c r="N332">
+        <v>4</v>
+      </c>
+      <c r="O332">
         <v>3.5</v>
       </c>
-      <c r="M332">
-        <v>4</v>
-      </c>
-      <c r="N332">
-        <v>1.727</v>
-      </c>
-      <c r="O332">
-        <v>3.6</v>
-      </c>
       <c r="P332">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q332">
+        <v>0.75</v>
+      </c>
+      <c r="R332">
+        <v>1.825</v>
+      </c>
+      <c r="S332">
+        <v>1.975</v>
+      </c>
+      <c r="T332">
+        <v>2.25</v>
+      </c>
+      <c r="U332">
+        <v>1.9</v>
+      </c>
+      <c r="V332">
+        <v>1.9</v>
+      </c>
+      <c r="W332">
+        <v>-1</v>
+      </c>
+      <c r="X332">
+        <v>-1</v>
+      </c>
+      <c r="Y332">
+        <v>0.75</v>
+      </c>
+      <c r="Z332">
         <v>-0.5</v>
       </c>
-      <c r="R332">
-        <v>1.75</v>
-      </c>
-      <c r="S332">
-        <v>1.95</v>
-      </c>
-      <c r="T332">
-        <v>2.5</v>
-      </c>
-      <c r="U332">
-        <v>1.975</v>
-      </c>
-      <c r="V332">
-        <v>1.825</v>
-      </c>
-      <c r="W332">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X332">
-        <v>-1</v>
-      </c>
-      <c r="Y332">
-        <v>-1</v>
-      </c>
-      <c r="Z332">
-        <v>0.75</v>
-      </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB332">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30402,7 +30402,7 @@
         <v>55</v>
       </c>
       <c r="G336" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30565,7 +30565,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>6941505</v>
+        <v>6941533</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30577,34 +30577,34 @@
         <v>45298.5</v>
       </c>
       <c r="F338" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G338" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J338" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K338">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L338">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M338">
         <v>2.2</v>
       </c>
       <c r="N338">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O338">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P338">
         <v>1.85</v>
@@ -30613,40 +30613,40 @@
         <v>0.5</v>
       </c>
       <c r="R338">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S338">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T338">
         <v>2.25</v>
       </c>
       <c r="U338">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V338">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W338">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X338">
         <v>-1</v>
       </c>
       <c r="Y338">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z338">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA338">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30654,7 +30654,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6941533</v>
+        <v>6941534</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30666,58 +30666,58 @@
         <v>45298.5</v>
       </c>
       <c r="F339" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G339" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J339" t="s">
         <v>62</v>
       </c>
       <c r="K339">
+        <v>2.4</v>
+      </c>
+      <c r="L339">
+        <v>2.8</v>
+      </c>
+      <c r="M339">
+        <v>2.9</v>
+      </c>
+      <c r="N339">
+        <v>2.2</v>
+      </c>
+      <c r="O339">
+        <v>2.875</v>
+      </c>
+      <c r="P339">
         <v>3.1</v>
       </c>
-      <c r="L339">
-        <v>3</v>
-      </c>
-      <c r="M339">
-        <v>2.2</v>
-      </c>
-      <c r="N339">
-        <v>3.75</v>
-      </c>
-      <c r="O339">
-        <v>3.1</v>
-      </c>
-      <c r="P339">
+      <c r="Q339">
+        <v>-0.25</v>
+      </c>
+      <c r="R339">
+        <v>1.95</v>
+      </c>
+      <c r="S339">
         <v>1.85</v>
       </c>
-      <c r="Q339">
-        <v>0.5</v>
-      </c>
-      <c r="R339">
-        <v>1.825</v>
-      </c>
-      <c r="S339">
-        <v>1.975</v>
-      </c>
       <c r="T339">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U339">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V339">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W339">
-        <v>2.75</v>
+        <v>1.2</v>
       </c>
       <c r="X339">
         <v>-1</v>
@@ -30726,16 +30726,16 @@
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA339">
         <v>-1</v>
       </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC339">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30743,7 +30743,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6941534</v>
+        <v>6941505</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30755,49 +30755,49 @@
         <v>45298.5</v>
       </c>
       <c r="F340" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G340" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J340" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K340">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L340">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M340">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N340">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="O340">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P340">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q340">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R340">
+        <v>1.85</v>
+      </c>
+      <c r="S340">
         <v>1.95</v>
       </c>
-      <c r="S340">
-        <v>1.85</v>
-      </c>
       <c r="T340">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U340">
         <v>1.8</v>
@@ -30806,19 +30806,19 @@
         <v>2</v>
       </c>
       <c r="W340">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X340">
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z340">
+        <v>-1</v>
+      </c>
+      <c r="AA340">
         <v>0.95</v>
-      </c>
-      <c r="AA340">
-        <v>-1</v>
       </c>
       <c r="AB340">
         <v>0.8</v>
@@ -30847,7 +30847,7 @@
         <v>37</v>
       </c>
       <c r="G341" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31203,7 +31203,7 @@
         <v>46</v>
       </c>
       <c r="G345" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H345">
         <v>2</v>
@@ -31292,7 +31292,7 @@
         <v>36</v>
       </c>
       <c r="G346" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -31467,7 +31467,7 @@
         <v>45304.5</v>
       </c>
       <c r="F348" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G348" t="s">
         <v>42</v>
@@ -31648,7 +31648,7 @@
         <v>49</v>
       </c>
       <c r="G350" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H350">
         <v>3</v>
@@ -32360,7 +32360,7 @@
         <v>32</v>
       </c>
       <c r="G358" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H358">
         <v>0</v>
@@ -32535,7 +32535,7 @@
         <v>45312.5</v>
       </c>
       <c r="F360" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G360" t="s">
         <v>35</v>
@@ -32624,7 +32624,7 @@
         <v>45312.5</v>
       </c>
       <c r="F361" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G361" t="s">
         <v>36</v>
@@ -32713,7 +32713,7 @@
         <v>45312.5</v>
       </c>
       <c r="F362" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G362" t="s">
         <v>52</v>
@@ -32879,7 +32879,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7741482</v>
+        <v>7741481</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32891,40 +32891,40 @@
         <v>45318.5</v>
       </c>
       <c r="F364" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G364" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K364">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L364">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M364">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N364">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O364">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P364">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q364">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R364">
         <v>1.85</v>
@@ -32933,34 +32933,34 @@
         <v>1.95</v>
       </c>
       <c r="T364">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U364">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V364">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W364">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X364">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA364">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB364">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32968,7 +32968,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7741481</v>
+        <v>7741483</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32980,76 +32980,76 @@
         <v>45318.5</v>
       </c>
       <c r="F365" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G365" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J365" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K365">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="L365">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M365">
-        <v>7.5</v>
+        <v>1.571</v>
       </c>
       <c r="N365">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="O365">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P365">
-        <v>8</v>
+        <v>1.45</v>
       </c>
       <c r="Q365">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R365">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S365">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T365">
         <v>2.75</v>
       </c>
       <c r="U365">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V365">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W365">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X365">
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z365">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB365">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC365">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33057,7 +33057,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7741484</v>
+        <v>7741482</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33069,76 +33069,76 @@
         <v>45318.5</v>
       </c>
       <c r="F366" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G366" t="s">
         <v>58</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J366" t="s">
         <v>61</v>
       </c>
       <c r="K366">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L366">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M366">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N366">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O366">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P366">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q366">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R366">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S366">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T366">
         <v>2.25</v>
       </c>
       <c r="U366">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V366">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W366">
         <v>-1</v>
       </c>
       <c r="X366">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB366">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33146,7 +33146,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7741483</v>
+        <v>7741484</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33158,73 +33158,73 @@
         <v>45318.5</v>
       </c>
       <c r="F367" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G367" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367">
+        <v>2</v>
+      </c>
+      <c r="J367" t="s">
+        <v>61</v>
+      </c>
+      <c r="K367">
+        <v>2.625</v>
+      </c>
+      <c r="L367">
         <v>3</v>
       </c>
-      <c r="J367" t="s">
-        <v>60</v>
-      </c>
-      <c r="K367">
-        <v>4.75</v>
-      </c>
-      <c r="L367">
-        <v>3.75</v>
-      </c>
       <c r="M367">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N367">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="O367">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P367">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="Q367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R367">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S367">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T367">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U367">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V367">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W367">
         <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y367">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA367">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB367">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33247,7 +33247,7 @@
         <v>45319.5</v>
       </c>
       <c r="F368" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G368" t="s">
         <v>51</v>
@@ -33692,7 +33692,7 @@
         <v>45332.5</v>
       </c>
       <c r="F373" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G373" t="s">
         <v>39</v>
@@ -33870,7 +33870,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F375" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G375" t="s">
         <v>44</v>
@@ -34036,7 +34036,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7817944</v>
+        <v>7780996</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34045,49 +34045,49 @@
         <v>28</v>
       </c>
       <c r="E377" s="2">
-        <v>45339.5</v>
+        <v>45340.5</v>
       </c>
       <c r="F377" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G377" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K377">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="L377">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M377">
+        <v>1.85</v>
+      </c>
+      <c r="N377">
         <v>3.5</v>
       </c>
-      <c r="N377">
+      <c r="O377">
+        <v>3.3</v>
+      </c>
+      <c r="P377">
+        <v>1.909</v>
+      </c>
+      <c r="Q377">
+        <v>0.5</v>
+      </c>
+      <c r="R377">
+        <v>1.8</v>
+      </c>
+      <c r="S377">
+        <v>2</v>
+      </c>
+      <c r="T377">
         <v>2.25</v>
       </c>
-      <c r="O377">
-        <v>2.8</v>
-      </c>
-      <c r="P377">
-        <v>3.5</v>
-      </c>
-      <c r="Q377">
-        <v>-0.25</v>
-      </c>
-      <c r="R377">
-        <v>1.95</v>
-      </c>
-      <c r="S377">
-        <v>1.85</v>
-      </c>
-      <c r="T377">
-        <v>2</v>
-      </c>
       <c r="U377">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V377">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W377">
         <v>0</v>
@@ -34110,7 +34110,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7817945</v>
+        <v>7780939</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34119,49 +34119,49 @@
         <v>28</v>
       </c>
       <c r="E378" s="2">
-        <v>45339.5</v>
+        <v>45340.5</v>
       </c>
       <c r="F378" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G378" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K378">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L378">
         <v>3.1</v>
       </c>
       <c r="M378">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N378">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O378">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P378">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q378">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R378">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S378">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T378">
         <v>2.25</v>
       </c>
       <c r="U378">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V378">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W378">
         <v>0</v>
@@ -34184,7 +34184,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7817946</v>
+        <v>7780998</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,49 +34193,49 @@
         <v>28</v>
       </c>
       <c r="E379" s="2">
-        <v>45339.5</v>
+        <v>45340.5</v>
       </c>
       <c r="F379" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G379" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="K379">
+        <v>3.4</v>
+      </c>
+      <c r="L379">
+        <v>3.1</v>
+      </c>
+      <c r="M379">
+        <v>2.05</v>
+      </c>
+      <c r="N379">
+        <v>3.3</v>
+      </c>
+      <c r="O379">
+        <v>3.25</v>
+      </c>
+      <c r="P379">
+        <v>2.05</v>
+      </c>
+      <c r="Q379">
+        <v>0.25</v>
+      </c>
+      <c r="R379">
+        <v>1.95</v>
+      </c>
+      <c r="S379">
         <v>1.85</v>
       </c>
-      <c r="L379">
-        <v>3.3</v>
-      </c>
-      <c r="M379">
-        <v>3.8</v>
-      </c>
-      <c r="N379">
-        <v>1.909</v>
-      </c>
-      <c r="O379">
-        <v>3.2</v>
-      </c>
-      <c r="P379">
-        <v>3.8</v>
-      </c>
-      <c r="Q379">
-        <v>-0.5</v>
-      </c>
-      <c r="R379">
-        <v>1.975</v>
-      </c>
-      <c r="S379">
-        <v>1.825</v>
-      </c>
       <c r="T379">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U379">
+        <v>1.95</v>
+      </c>
+      <c r="V379">
         <v>1.85</v>
-      </c>
-      <c r="V379">
-        <v>1.95</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34258,7 +34258,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7781106</v>
+        <v>7821138</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34267,49 +34267,49 @@
         <v>28</v>
       </c>
       <c r="E380" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F380" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G380" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="K380">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L380">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M380">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N380">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O380">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P380">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q380">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R380">
+        <v>1.825</v>
+      </c>
+      <c r="S380">
         <v>1.975</v>
       </c>
-      <c r="S380">
-        <v>1.825</v>
-      </c>
       <c r="T380">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U380">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V380">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34332,7 +34332,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>7817947</v>
+        <v>7780937</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34341,49 +34341,49 @@
         <v>28</v>
       </c>
       <c r="E381" s="2">
-        <v>45339.66666666666</v>
+        <v>45340.66666666666</v>
       </c>
       <c r="F381" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G381" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K381">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L381">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M381">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N381">
+        <v>2.25</v>
+      </c>
+      <c r="O381">
+        <v>3.2</v>
+      </c>
+      <c r="P381">
+        <v>2.9</v>
+      </c>
+      <c r="Q381">
+        <v>-0.25</v>
+      </c>
+      <c r="R381">
+        <v>2</v>
+      </c>
+      <c r="S381">
         <v>1.8</v>
       </c>
-      <c r="O381">
-        <v>3.4</v>
-      </c>
-      <c r="P381">
-        <v>4.2</v>
-      </c>
-      <c r="Q381">
-        <v>-0.5</v>
-      </c>
-      <c r="R381">
+      <c r="T381">
+        <v>2.25</v>
+      </c>
+      <c r="U381">
         <v>1.825</v>
       </c>
-      <c r="S381">
+      <c r="V381">
         <v>1.975</v>
-      </c>
-      <c r="T381">
-        <v>2.5</v>
-      </c>
-      <c r="U381">
-        <v>1.95</v>
-      </c>
-      <c r="V381">
-        <v>1.85</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34398,376 +34398,6 @@
         <v>0</v>
       </c>
       <c r="AA381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:29">
-      <c r="A382" s="1">
-        <v>380</v>
-      </c>
-      <c r="B382">
-        <v>7780939</v>
-      </c>
-      <c r="C382" t="s">
-        <v>28</v>
-      </c>
-      <c r="D382" t="s">
-        <v>28</v>
-      </c>
-      <c r="E382" s="2">
-        <v>45340.5</v>
-      </c>
-      <c r="F382" t="s">
-        <v>46</v>
-      </c>
-      <c r="G382" t="s">
-        <v>58</v>
-      </c>
-      <c r="K382">
-        <v>2.1</v>
-      </c>
-      <c r="L382">
-        <v>3.1</v>
-      </c>
-      <c r="M382">
-        <v>3.3</v>
-      </c>
-      <c r="N382">
-        <v>2.1</v>
-      </c>
-      <c r="O382">
-        <v>3.1</v>
-      </c>
-      <c r="P382">
-        <v>3.3</v>
-      </c>
-      <c r="Q382">
-        <v>-0.25</v>
-      </c>
-      <c r="R382">
-        <v>1.9</v>
-      </c>
-      <c r="S382">
-        <v>1.9</v>
-      </c>
-      <c r="T382">
-        <v>2.25</v>
-      </c>
-      <c r="U382">
-        <v>1.9</v>
-      </c>
-      <c r="V382">
-        <v>1.9</v>
-      </c>
-      <c r="W382">
-        <v>0</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>0</v>
-      </c>
-      <c r="Z382">
-        <v>0</v>
-      </c>
-      <c r="AA382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:29">
-      <c r="A383" s="1">
-        <v>381</v>
-      </c>
-      <c r="B383">
-        <v>7780998</v>
-      </c>
-      <c r="C383" t="s">
-        <v>28</v>
-      </c>
-      <c r="D383" t="s">
-        <v>28</v>
-      </c>
-      <c r="E383" s="2">
-        <v>45340.5</v>
-      </c>
-      <c r="F383" t="s">
-        <v>54</v>
-      </c>
-      <c r="G383" t="s">
-        <v>35</v>
-      </c>
-      <c r="K383">
-        <v>3.4</v>
-      </c>
-      <c r="L383">
-        <v>3.1</v>
-      </c>
-      <c r="M383">
-        <v>2.05</v>
-      </c>
-      <c r="N383">
-        <v>3.3</v>
-      </c>
-      <c r="O383">
-        <v>3.25</v>
-      </c>
-      <c r="P383">
-        <v>2.05</v>
-      </c>
-      <c r="Q383">
-        <v>0.25</v>
-      </c>
-      <c r="R383">
-        <v>1.95</v>
-      </c>
-      <c r="S383">
-        <v>1.85</v>
-      </c>
-      <c r="T383">
-        <v>2.5</v>
-      </c>
-      <c r="U383">
-        <v>1.95</v>
-      </c>
-      <c r="V383">
-        <v>1.85</v>
-      </c>
-      <c r="W383">
-        <v>0</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>0</v>
-      </c>
-      <c r="Z383">
-        <v>0</v>
-      </c>
-      <c r="AA383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:29">
-      <c r="A384" s="1">
-        <v>382</v>
-      </c>
-      <c r="B384">
-        <v>7780996</v>
-      </c>
-      <c r="C384" t="s">
-        <v>28</v>
-      </c>
-      <c r="D384" t="s">
-        <v>28</v>
-      </c>
-      <c r="E384" s="2">
-        <v>45340.5</v>
-      </c>
-      <c r="F384" t="s">
-        <v>36</v>
-      </c>
-      <c r="G384" t="s">
-        <v>37</v>
-      </c>
-      <c r="K384">
-        <v>3.75</v>
-      </c>
-      <c r="L384">
-        <v>3.4</v>
-      </c>
-      <c r="M384">
-        <v>1.85</v>
-      </c>
-      <c r="N384">
-        <v>3.5</v>
-      </c>
-      <c r="O384">
-        <v>3.3</v>
-      </c>
-      <c r="P384">
-        <v>1.909</v>
-      </c>
-      <c r="Q384">
-        <v>0.5</v>
-      </c>
-      <c r="R384">
-        <v>1.8</v>
-      </c>
-      <c r="S384">
-        <v>2</v>
-      </c>
-      <c r="T384">
-        <v>2.25</v>
-      </c>
-      <c r="U384">
-        <v>1.925</v>
-      </c>
-      <c r="V384">
-        <v>1.875</v>
-      </c>
-      <c r="W384">
-        <v>0</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>0</v>
-      </c>
-      <c r="Z384">
-        <v>0</v>
-      </c>
-      <c r="AA384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:27">
-      <c r="A385" s="1">
-        <v>383</v>
-      </c>
-      <c r="B385">
-        <v>7821138</v>
-      </c>
-      <c r="C385" t="s">
-        <v>28</v>
-      </c>
-      <c r="D385" t="s">
-        <v>28</v>
-      </c>
-      <c r="E385" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F385" t="s">
-        <v>52</v>
-      </c>
-      <c r="G385" t="s">
-        <v>57</v>
-      </c>
-      <c r="K385">
-        <v>1.5</v>
-      </c>
-      <c r="L385">
-        <v>4.2</v>
-      </c>
-      <c r="M385">
-        <v>5.5</v>
-      </c>
-      <c r="N385">
-        <v>1.45</v>
-      </c>
-      <c r="O385">
-        <v>4.2</v>
-      </c>
-      <c r="P385">
-        <v>5.5</v>
-      </c>
-      <c r="Q385">
-        <v>-1</v>
-      </c>
-      <c r="R385">
-        <v>1.8</v>
-      </c>
-      <c r="S385">
-        <v>2</v>
-      </c>
-      <c r="T385">
-        <v>2.5</v>
-      </c>
-      <c r="U385">
-        <v>1.925</v>
-      </c>
-      <c r="V385">
-        <v>1.875</v>
-      </c>
-      <c r="W385">
-        <v>0</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>0</v>
-      </c>
-      <c r="Z385">
-        <v>0</v>
-      </c>
-      <c r="AA385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:27">
-      <c r="A386" s="1">
-        <v>384</v>
-      </c>
-      <c r="B386">
-        <v>7780937</v>
-      </c>
-      <c r="C386" t="s">
-        <v>28</v>
-      </c>
-      <c r="D386" t="s">
-        <v>28</v>
-      </c>
-      <c r="E386" s="2">
-        <v>45340.66666666666</v>
-      </c>
-      <c r="F386" t="s">
-        <v>59</v>
-      </c>
-      <c r="G386" t="s">
-        <v>53</v>
-      </c>
-      <c r="K386">
-        <v>2.25</v>
-      </c>
-      <c r="L386">
-        <v>3.2</v>
-      </c>
-      <c r="M386">
-        <v>2.9</v>
-      </c>
-      <c r="N386">
-        <v>2.25</v>
-      </c>
-      <c r="O386">
-        <v>3.2</v>
-      </c>
-      <c r="P386">
-        <v>2.9</v>
-      </c>
-      <c r="Q386">
-        <v>-0.25</v>
-      </c>
-      <c r="R386">
-        <v>2</v>
-      </c>
-      <c r="S386">
-        <v>1.8</v>
-      </c>
-      <c r="T386">
-        <v>2.25</v>
-      </c>
-      <c r="U386">
-        <v>1.825</v>
-      </c>
-      <c r="V386">
-        <v>1.975</v>
-      </c>
-      <c r="W386">
-        <v>0</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="Y386">
-        <v>0</v>
-      </c>
-      <c r="Z386">
-        <v>0</v>
-      </c>
-      <c r="AA386">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -154,10 +154,10 @@
     <t>Real Sport Clube Queluz</t>
   </si>
   <si>
-    <t>Sao Joao Ver</t>
+    <t>Alverca</t>
   </si>
   <si>
-    <t>Alverca</t>
+    <t>Sao Joao Ver</t>
   </si>
   <si>
     <t>Vilaverdense</t>
@@ -175,22 +175,22 @@
     <t>Caldas SC</t>
   </si>
   <si>
+    <t>Trofense</t>
+  </si>
+  <si>
     <t>Pero Pinheiro</t>
   </si>
   <si>
     <t>Lusitania Lourosa</t>
   </si>
   <si>
-    <t>Trofense</t>
-  </si>
-  <si>
     <t>SC Vianense</t>
   </si>
   <si>
-    <t>SU 1 Dezembro</t>
+    <t>Atletico CP Lisbon</t>
   </si>
   <si>
-    <t>Atletico CP Lisbon</t>
+    <t>SU 1 Dezembro</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
@@ -1210,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1655,7 +1655,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6117421</v>
+        <v>6117427</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2278,7 +2278,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2290,40 +2290,40 @@
         <v>60</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N20">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2332,19 +2332,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2352,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6117427</v>
+        <v>6117421</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2367,7 +2367,7 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2379,40 +2379,40 @@
         <v>60</v>
       </c>
       <c r="K21">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P21">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2421,19 +2421,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3346,7 +3346,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3435,7 +3435,7 @@
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3865,7 +3865,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5372026</v>
+        <v>5371809</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3877,43 +3877,43 @@
         <v>44954.5</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="N38">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O38">
         <v>3.25</v>
       </c>
       <c r="P38">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S38">
         <v>1.975</v>
@@ -3922,31 +3922,31 @@
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4043,7 +4043,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5372027</v>
+        <v>5372026</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4055,13 +4055,13 @@
         <v>44954.5</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>62</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N40">
         <v>2.1</v>
@@ -4085,16 +4085,16 @@
         <v>3.25</v>
       </c>
       <c r="P40">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2.25</v>
@@ -4115,16 +4115,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4132,7 +4132,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6173348</v>
+        <v>5372027</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4144,76 +4144,76 @@
         <v>44954.5</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
       <c r="J41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
         <v>3.2</v>
       </c>
       <c r="M41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O41">
         <v>3.25</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q41">
         <v>-0.25</v>
       </c>
       <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>1.85</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="S41">
-        <v>1.85</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>2</v>
-      </c>
-      <c r="V41">
-        <v>1.8</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4221,7 +4221,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5371809</v>
+        <v>6173348</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4233,55 +4233,55 @@
         <v>44954.5</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>60</v>
       </c>
       <c r="K42">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L42">
         <v>3.2</v>
       </c>
       <c r="M42">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N42">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
         <v>3.25</v>
       </c>
       <c r="P42">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4290,19 +4290,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4592,7 +4592,7 @@
         <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4948,7 +4948,7 @@
         <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5037,7 +5037,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -6550,7 +6550,7 @@
         <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>44969.66666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
         <v>50</v>
@@ -7081,7 +7081,7 @@
         <v>44975.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G74" t="s">
         <v>48</v>
@@ -7529,7 +7529,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -8686,7 +8686,7 @@
         <v>49</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8775,7 +8775,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8849,7 +8849,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5371949</v>
+        <v>5376863</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8861,58 +8861,58 @@
         <v>44983.5</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>62</v>
       </c>
       <c r="K94">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O94">
+        <v>3</v>
+      </c>
+      <c r="P94">
         <v>3.1</v>
-      </c>
-      <c r="P94">
-        <v>3.25</v>
       </c>
       <c r="Q94">
         <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8921,13 +8921,13 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8938,7 +8938,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5376863</v>
+        <v>5371949</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8950,58 +8950,58 @@
         <v>44983.5</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>62</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L95">
+        <v>3.2</v>
+      </c>
+      <c r="M95">
+        <v>3.4</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95">
         <v>3.1</v>
       </c>
-      <c r="M95">
-        <v>3</v>
-      </c>
-      <c r="N95">
-        <v>2.2</v>
-      </c>
-      <c r="O95">
-        <v>3</v>
-      </c>
       <c r="P95">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
         <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W95">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -9010,13 +9010,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9128,7 +9128,7 @@
         <v>44988.66666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
         <v>45</v>
@@ -9573,7 +9573,7 @@
         <v>44989.5</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G102" t="s">
         <v>38</v>
@@ -10184,7 +10184,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6367335</v>
+        <v>6367337</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10196,73 +10196,73 @@
         <v>44996.33333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K109">
         <v>2.15</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O109">
         <v>3.1</v>
       </c>
       <c r="P109">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q109">
         <v>0</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10273,7 +10273,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6367337</v>
+        <v>6367336</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10285,58 +10285,58 @@
         <v>44996.33333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>62</v>
       </c>
       <c r="K110">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M110">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N110">
-        <v>2.45</v>
+        <v>1.3</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P110">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>1.45</v>
+        <v>0.3</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10345,13 +10345,13 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10362,7 +10362,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6367336</v>
+        <v>6367334</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10374,73 +10374,73 @@
         <v>44996.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N111">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q111">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z111">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10451,7 +10451,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6367334</v>
+        <v>6367270</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10463,76 +10463,76 @@
         <v>44996.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L112">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N112">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10540,7 +10540,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6367270</v>
+        <v>6367335</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10552,49 +10552,49 @@
         <v>44996.33333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>60</v>
+      </c>
+      <c r="K113">
+        <v>2.15</v>
+      </c>
+      <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>2.4</v>
+      </c>
+      <c r="O113">
+        <v>3.1</v>
+      </c>
+      <c r="P113">
+        <v>2.7</v>
+      </c>
+      <c r="Q113">
         <v>0</v>
       </c>
-      <c r="J113" t="s">
-        <v>62</v>
-      </c>
-      <c r="K113">
-        <v>1.6</v>
-      </c>
-      <c r="L113">
-        <v>3.6</v>
-      </c>
-      <c r="M113">
-        <v>4.5</v>
-      </c>
-      <c r="N113">
-        <v>1.95</v>
-      </c>
-      <c r="O113">
-        <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>3.4</v>
-      </c>
-      <c r="Q113">
-        <v>-0.5</v>
-      </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
         <v>1.85</v>
@@ -10603,25 +10603,25 @@
         <v>1.95</v>
       </c>
       <c r="W113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11178,7 +11178,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11531,7 +11531,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s">
         <v>43</v>
@@ -12246,7 +12246,7 @@
         <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12498,7 +12498,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6405529</v>
+        <v>6405553</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12510,10 +12510,10 @@
         <v>45023.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12525,40 +12525,40 @@
         <v>60</v>
       </c>
       <c r="K135">
+        <v>1.85</v>
+      </c>
+      <c r="L135">
+        <v>3.3</v>
+      </c>
+      <c r="M135">
+        <v>3.8</v>
+      </c>
+      <c r="N135">
         <v>1.7</v>
-      </c>
-      <c r="L135">
-        <v>3.4</v>
-      </c>
-      <c r="M135">
-        <v>4.5</v>
-      </c>
-      <c r="N135">
-        <v>1.65</v>
       </c>
       <c r="O135">
         <v>3.4</v>
       </c>
       <c r="P135">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q135">
         <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
         <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12567,16 +12567,16 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12676,7 +12676,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6405553</v>
+        <v>6405529</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12688,10 +12688,10 @@
         <v>45023.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12703,40 +12703,40 @@
         <v>60</v>
       </c>
       <c r="K137">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N137">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O137">
         <v>3.4</v>
       </c>
       <c r="P137">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q137">
         <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12745,16 +12745,16 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12765,7 +12765,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6405542</v>
+        <v>6405541</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12777,76 +12777,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>60</v>
       </c>
       <c r="K138">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L138">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
+        <v>1.875</v>
+      </c>
+      <c r="V138">
+        <v>1.925</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
         <v>1.9</v>
       </c>
-      <c r="V138">
-        <v>1.9</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
-      <c r="Y138">
-        <v>2.4</v>
-      </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12854,7 +12854,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6405541</v>
+        <v>6405542</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12866,55 +12866,55 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>60</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L139">
+        <v>2.875</v>
+      </c>
+      <c r="M139">
+        <v>3.1</v>
+      </c>
+      <c r="N139">
+        <v>2.1</v>
+      </c>
+      <c r="O139">
         <v>3</v>
       </c>
-      <c r="M139">
-        <v>3.6</v>
-      </c>
-      <c r="N139">
-        <v>2.375</v>
-      </c>
-      <c r="O139">
-        <v>2.9</v>
-      </c>
       <c r="P139">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12923,19 +12923,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13136,7 +13136,7 @@
         <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -14023,7 +14023,7 @@
         <v>45032.375</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -14278,7 +14278,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6513372</v>
+        <v>6513375</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14290,40 +14290,40 @@
         <v>45032.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>62</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M155">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N155">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O155">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
         <v>1.925</v>
@@ -14335,13 +14335,13 @@
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14356,10 +14356,10 @@
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14367,7 +14367,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6513375</v>
+        <v>6513372</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14379,40 +14379,40 @@
         <v>45032.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>62</v>
       </c>
       <c r="K156">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L156">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M156">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N156">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P156">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
         <v>1.925</v>
@@ -14424,13 +14424,13 @@
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14445,10 +14445,10 @@
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14827,7 +14827,7 @@
         <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15002,7 +15002,7 @@
         <v>45038.60416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G163" t="s">
         <v>40</v>
@@ -15628,7 +15628,7 @@
         <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15803,7 +15803,7 @@
         <v>45045.47916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
         <v>39</v>
@@ -16693,7 +16693,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
@@ -17037,7 +17037,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6601681</v>
+        <v>6601682</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17049,76 +17049,76 @@
         <v>45052.55208333334</v>
       </c>
       <c r="F186" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H186">
+        <v>3</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186" t="s">
+        <v>62</v>
+      </c>
+      <c r="K186">
+        <v>2.9</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>2.3</v>
+      </c>
+      <c r="N186">
+        <v>2.8</v>
+      </c>
+      <c r="O186">
+        <v>2.8</v>
+      </c>
+      <c r="P186">
+        <v>2.55</v>
+      </c>
+      <c r="Q186">
         <v>0</v>
       </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186" t="s">
-        <v>60</v>
-      </c>
-      <c r="K186">
-        <v>1.666</v>
-      </c>
-      <c r="L186">
-        <v>3.5</v>
-      </c>
-      <c r="M186">
-        <v>4.333</v>
-      </c>
-      <c r="N186">
-        <v>1.7</v>
-      </c>
-      <c r="O186">
-        <v>3.2</v>
-      </c>
-      <c r="P186">
-        <v>4.5</v>
-      </c>
-      <c r="Q186">
-        <v>-0.5</v>
-      </c>
       <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
         <v>1.75</v>
       </c>
-      <c r="S186">
-        <v>1.95</v>
-      </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V186">
+        <v>2.025</v>
+      </c>
+      <c r="W186">
         <v>1.8</v>
       </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC186">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17126,7 +17126,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6601682</v>
+        <v>6601681</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17138,76 +17138,76 @@
         <v>45052.55208333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G187" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K187">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N187">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O187">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S187">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z187">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB187">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17230,7 +17230,7 @@
         <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -18016,7 +18016,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6944663</v>
+        <v>6944680</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18031,73 +18031,73 @@
         <v>53</v>
       </c>
       <c r="G197" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
         <v>0</v>
       </c>
-      <c r="I197">
-        <v>4</v>
-      </c>
       <c r="J197" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L197">
+        <v>3.1</v>
+      </c>
+      <c r="M197">
         <v>3.4</v>
       </c>
-      <c r="M197">
-        <v>1.75</v>
-      </c>
       <c r="N197">
+        <v>1.615</v>
+      </c>
+      <c r="O197">
         <v>3.4</v>
       </c>
-      <c r="O197">
-        <v>3.3</v>
-      </c>
       <c r="P197">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q197">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R197">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA197">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18105,7 +18105,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6940674</v>
+        <v>6944663</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18117,76 +18117,76 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G198" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J198" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K198">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L198">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N198">
         <v>3.4</v>
       </c>
       <c r="O198">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
+        <v>1.85</v>
+      </c>
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="V198">
-        <v>1.85</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z198">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB198">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC198">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18194,7 +18194,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6941476</v>
+        <v>6940674</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18206,76 +18206,76 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>61</v>
       </c>
       <c r="K199">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L199">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N199">
+        <v>3.4</v>
+      </c>
+      <c r="O199">
+        <v>3</v>
+      </c>
+      <c r="P199">
         <v>2.05</v>
       </c>
-      <c r="O199">
-        <v>3.25</v>
-      </c>
-      <c r="P199">
-        <v>3.3</v>
-      </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
+        <v>0.5</v>
+      </c>
+      <c r="AA199">
         <v>-0.5</v>
       </c>
-      <c r="AA199">
-        <v>0.5125</v>
-      </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC199">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18283,7 +18283,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6944680</v>
+        <v>6941476</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18298,73 +18298,73 @@
         <v>55</v>
       </c>
       <c r="G200" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K200">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L200">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M200">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N200">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P200">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W200">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18476,7 +18476,7 @@
         <v>49</v>
       </c>
       <c r="G202" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18565,7 +18565,7 @@
         <v>52</v>
       </c>
       <c r="G203" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18743,7 +18743,7 @@
         <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -19007,7 +19007,7 @@
         <v>45150.66666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G208" t="s">
         <v>49</v>
@@ -19173,7 +19173,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6941502</v>
+        <v>6941503</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19188,55 +19188,55 @@
         <v>57</v>
       </c>
       <c r="G210" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>62</v>
       </c>
       <c r="K210">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P210">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
         <v>1.85</v>
-      </c>
-      <c r="S210">
-        <v>1.95</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19245,16 +19245,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19351,7 +19351,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6941503</v>
+        <v>6941502</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19366,55 +19366,55 @@
         <v>58</v>
       </c>
       <c r="G212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
         <v>62</v>
       </c>
       <c r="K212">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N212">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O212">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="Q212">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
+        <v>1.85</v>
+      </c>
+      <c r="S212">
         <v>1.95</v>
-      </c>
-      <c r="S212">
-        <v>1.85</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W212">
-        <v>0.3999999999999999</v>
+        <v>2</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19423,16 +19423,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC212">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19455,7 +19455,7 @@
         <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19633,7 +19633,7 @@
         <v>59</v>
       </c>
       <c r="G215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>45157.5</v>
       </c>
       <c r="F216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G216" t="s">
         <v>56</v>
@@ -19811,7 +19811,7 @@
         <v>52</v>
       </c>
       <c r="G217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19897,10 +19897,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G218" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -20063,7 +20063,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6941481</v>
+        <v>6941480</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20075,55 +20075,55 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>60</v>
       </c>
       <c r="K220">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L220">
         <v>3.1</v>
       </c>
       <c r="M220">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N220">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O220">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -20132,16 +20132,16 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB220">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20152,7 +20152,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6941480</v>
+        <v>6941481</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20164,55 +20164,55 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J221" t="s">
         <v>60</v>
       </c>
       <c r="K221">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L221">
         <v>3.1</v>
       </c>
       <c r="M221">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N221">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O221">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P221">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20221,16 +20221,16 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20241,7 +20241,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6940679</v>
+        <v>6940232</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20253,37 +20253,37 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K222">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N222">
         <v>1.8</v>
       </c>
       <c r="O222">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q222">
         <v>-0.5</v>
@@ -20295,34 +20295,34 @@
         <v>1.95</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20330,7 +20330,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6940232</v>
+        <v>6940679</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20342,37 +20342,37 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K223">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N223">
         <v>1.8</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P223">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q223">
         <v>-0.5</v>
@@ -20384,34 +20384,34 @@
         <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X223">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA223">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20434,7 +20434,7 @@
         <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20523,7 +20523,7 @@
         <v>56</v>
       </c>
       <c r="G225" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20609,7 +20609,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G226" t="s">
         <v>37</v>
@@ -20698,10 +20698,10 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -20864,7 +20864,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6940657</v>
+        <v>6940233</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20876,10 +20876,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20891,25 +20891,25 @@
         <v>61</v>
       </c>
       <c r="K229">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
         <v>3.1</v>
       </c>
       <c r="M229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O229">
         <v>3.1</v>
       </c>
       <c r="P229">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="Q229">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R229">
         <v>1.8</v>
@@ -20921,10 +20921,10 @@
         <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20936,16 +20936,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20953,7 +20953,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6940233</v>
+        <v>6940657</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20965,10 +20965,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G230" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -20980,25 +20980,25 @@
         <v>61</v>
       </c>
       <c r="K230">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L230">
         <v>3.1</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O230">
         <v>3.1</v>
       </c>
       <c r="P230">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R230">
         <v>1.8</v>
@@ -21010,10 +21010,10 @@
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -21025,16 +21025,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
         <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21042,7 +21042,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6941483</v>
+        <v>6944658</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21054,76 +21054,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G231" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K231">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L231">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M231">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N231">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O231">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z231">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
+        <v>1</v>
+      </c>
+      <c r="AB231">
         <v>-0.5</v>
       </c>
-      <c r="AB231">
-        <v>-1</v>
-      </c>
       <c r="AC231">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21131,7 +21131,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6944658</v>
+        <v>6941483</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21143,76 +21143,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G232" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>2</v>
-      </c>
       <c r="J232" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K232">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M232">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N232">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O232">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="Q232">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
+        <v>1.85</v>
+      </c>
+      <c r="S232">
+        <v>1.95</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>2</v>
+      </c>
+      <c r="V232">
         <v>1.8</v>
       </c>
-      <c r="S232">
-        <v>2</v>
-      </c>
-      <c r="T232">
-        <v>2.25</v>
-      </c>
-      <c r="U232">
-        <v>1.9</v>
-      </c>
-      <c r="V232">
-        <v>1.9</v>
-      </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA232">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21499,10 +21499,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F236" t="s">
+        <v>57</v>
+      </c>
+      <c r="G236" t="s">
         <v>58</v>
-      </c>
-      <c r="G236" t="s">
-        <v>57</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -21588,7 +21588,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F237" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G237" t="s">
         <v>32</v>
@@ -21680,7 +21680,7 @@
         <v>59</v>
       </c>
       <c r="G238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21769,7 +21769,7 @@
         <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22122,7 +22122,7 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G243" t="s">
         <v>43</v>
@@ -22300,10 +22300,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F245" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G245" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22656,10 +22656,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F249" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G249" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -22837,7 +22837,7 @@
         <v>36</v>
       </c>
       <c r="G251" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23012,7 +23012,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F253" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G253" t="s">
         <v>37</v>
@@ -23190,7 +23190,7 @@
         <v>45199.5</v>
       </c>
       <c r="F255" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G255" t="s">
         <v>49</v>
@@ -23279,10 +23279,10 @@
         <v>45199.5</v>
       </c>
       <c r="F256" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -23457,7 +23457,7 @@
         <v>45199.5</v>
       </c>
       <c r="F258" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G258" t="s">
         <v>32</v>
@@ -23638,7 +23638,7 @@
         <v>30</v>
       </c>
       <c r="G260" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H260">
         <v>2</v>
@@ -23712,7 +23712,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6944653</v>
+        <v>6940662</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23724,55 +23724,55 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F261" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G261" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H261">
         <v>0</v>
       </c>
       <c r="I261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
         <v>60</v>
       </c>
       <c r="K261">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L261">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M261">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N261">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O261">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P261">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q261">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R261">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S261">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T261">
         <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V261">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W261">
         <v>-1</v>
@@ -23781,19 +23781,19 @@
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB261">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23801,7 +23801,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6940662</v>
+        <v>6944653</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23813,55 +23813,55 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G262" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H262">
         <v>0</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J262" t="s">
         <v>60</v>
       </c>
       <c r="K262">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L262">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M262">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N262">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O262">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P262">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q262">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R262">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S262">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T262">
         <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W262">
         <v>-1</v>
@@ -23870,19 +23870,19 @@
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
+        <v>1.05</v>
+      </c>
+      <c r="AB262">
         <v>0.925</v>
       </c>
-      <c r="AB262">
-        <v>-0.5</v>
-      </c>
       <c r="AC262">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -24172,7 +24172,7 @@
         <v>37</v>
       </c>
       <c r="G266" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H266">
         <v>2</v>
@@ -24261,7 +24261,7 @@
         <v>36</v>
       </c>
       <c r="G267" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F268" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G268" t="s">
         <v>42</v>
@@ -24439,7 +24439,7 @@
         <v>52</v>
       </c>
       <c r="G269" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24602,7 +24602,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6940663</v>
+        <v>6941520</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24614,76 +24614,76 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F271" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G271" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H271">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K271">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L271">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M271">
         <v>3.2</v>
       </c>
       <c r="N271">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O271">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P271">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q271">
         <v>-0.5</v>
       </c>
       <c r="R271">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S271">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T271">
         <v>2.5</v>
       </c>
       <c r="U271">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W271">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z271">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB271">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24691,7 +24691,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6941520</v>
+        <v>6940663</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24703,76 +24703,76 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G272" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H272">
+        <v>4</v>
+      </c>
+      <c r="I272">
         <v>0</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
       <c r="J272" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K272">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L272">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M272">
         <v>3.2</v>
       </c>
       <c r="N272">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O272">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P272">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q272">
         <v>-0.5</v>
       </c>
       <c r="R272">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S272">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T272">
         <v>2.5</v>
       </c>
       <c r="U272">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V272">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA272">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC272">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24881,7 +24881,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F274" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G274" t="s">
         <v>32</v>
@@ -25059,7 +25059,7 @@
         <v>45228.5</v>
       </c>
       <c r="F276" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G276" t="s">
         <v>49</v>
@@ -25151,7 +25151,7 @@
         <v>51</v>
       </c>
       <c r="G277" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -25237,7 +25237,7 @@
         <v>45228.5</v>
       </c>
       <c r="F278" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G278" t="s">
         <v>36</v>
@@ -25504,7 +25504,7 @@
         <v>45228.5</v>
       </c>
       <c r="F281" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G281" t="s">
         <v>37</v>
@@ -25596,7 +25596,7 @@
         <v>35</v>
       </c>
       <c r="G282" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -25771,7 +25771,7 @@
         <v>45233.6875</v>
       </c>
       <c r="F284" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G284" t="s">
         <v>36</v>
@@ -26041,7 +26041,7 @@
         <v>51</v>
       </c>
       <c r="G287" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H287">
         <v>3</v>
@@ -26115,7 +26115,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6941492</v>
+        <v>6944647</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26127,76 +26127,76 @@
         <v>45235.5</v>
       </c>
       <c r="F288" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G288" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K288">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L288">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M288">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N288">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O288">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P288">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q288">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R288">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S288">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T288">
         <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V288">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA288">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26204,7 +26204,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6941525</v>
+        <v>6941492</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26216,55 +26216,55 @@
         <v>45235.5</v>
       </c>
       <c r="F289" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G289" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J289" t="s">
         <v>60</v>
       </c>
       <c r="K289">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L289">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M289">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N289">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O289">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P289">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q289">
         <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S289">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T289">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U289">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V289">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W289">
         <v>-1</v>
@@ -26273,19 +26273,19 @@
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z289">
         <v>-1</v>
       </c>
       <c r="AA289">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB289">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC289">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26293,7 +26293,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6944647</v>
+        <v>6941525</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26305,76 +26305,76 @@
         <v>45235.5</v>
       </c>
       <c r="F290" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G290" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K290">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L290">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M290">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N290">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O290">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P290">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q290">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S290">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T290">
+        <v>2.25</v>
+      </c>
+      <c r="U290">
+        <v>1.9</v>
+      </c>
+      <c r="V290">
+        <v>1.9</v>
+      </c>
+      <c r="W290">
+        <v>-1</v>
+      </c>
+      <c r="X290">
+        <v>-1</v>
+      </c>
+      <c r="Y290">
         <v>2.5</v>
       </c>
-      <c r="U290">
-        <v>1.775</v>
-      </c>
-      <c r="V290">
-        <v>2.025</v>
-      </c>
-      <c r="W290">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X290">
-        <v>-1</v>
-      </c>
-      <c r="Y290">
-        <v>-1</v>
-      </c>
       <c r="Z290">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB290">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC290">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26394,7 +26394,7 @@
         <v>45235.5</v>
       </c>
       <c r="F291" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G291" t="s">
         <v>49</v>
@@ -26486,7 +26486,7 @@
         <v>39</v>
       </c>
       <c r="G292" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -26572,7 +26572,7 @@
         <v>45240.6875</v>
       </c>
       <c r="F293" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G293" t="s">
         <v>39</v>
@@ -26661,10 +26661,10 @@
         <v>45241.5</v>
       </c>
       <c r="F294" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G294" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -26931,7 +26931,7 @@
         <v>52</v>
       </c>
       <c r="G297" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -27017,7 +27017,7 @@
         <v>45242.5</v>
       </c>
       <c r="F298" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G298" t="s">
         <v>33</v>
@@ -27376,7 +27376,7 @@
         <v>49</v>
       </c>
       <c r="G302" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H302">
         <v>2</v>
@@ -27551,7 +27551,7 @@
         <v>45261.5</v>
       </c>
       <c r="F304" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G304" t="s">
         <v>59</v>
@@ -27640,7 +27640,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F305" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G305" t="s">
         <v>52</v>
@@ -27895,7 +27895,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6940671</v>
+        <v>6940225</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27907,76 +27907,76 @@
         <v>45263.5</v>
       </c>
       <c r="F308" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G308" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308">
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K308">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L308">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M308">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="N308">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="O308">
         <v>3.5</v>
       </c>
       <c r="P308">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q308">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R308">
+        <v>1.85</v>
+      </c>
+      <c r="S308">
         <v>1.95</v>
       </c>
-      <c r="S308">
-        <v>1.85</v>
-      </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V308">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z308">
+        <v>-1</v>
+      </c>
+      <c r="AA308">
         <v>0.95</v>
       </c>
-      <c r="AA308">
-        <v>-1</v>
-      </c>
       <c r="AB308">
         <v>-1</v>
       </c>
       <c r="AC308">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27984,7 +27984,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6940225</v>
+        <v>6940671</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27996,76 +27996,76 @@
         <v>45263.5</v>
       </c>
       <c r="F309" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G309" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K309">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L309">
+        <v>3.4</v>
+      </c>
+      <c r="M309">
+        <v>1.909</v>
+      </c>
+      <c r="N309">
         <v>3.6</v>
-      </c>
-      <c r="M309">
-        <v>5.25</v>
-      </c>
-      <c r="N309">
-        <v>1.615</v>
       </c>
       <c r="O309">
         <v>3.5</v>
       </c>
       <c r="P309">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q309">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R309">
+        <v>1.95</v>
+      </c>
+      <c r="S309">
         <v>1.85</v>
       </c>
-      <c r="S309">
-        <v>1.95</v>
-      </c>
       <c r="T309">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V309">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y309">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28162,7 +28162,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6941494</v>
+        <v>6941529</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28174,40 +28174,40 @@
         <v>45263.5</v>
       </c>
       <c r="F311" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G311" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311">
         <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K311">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L311">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M311">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N311">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O311">
         <v>3.25</v>
       </c>
       <c r="P311">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q311">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R311">
         <v>1.825</v>
@@ -28216,34 +28216,34 @@
         <v>1.975</v>
       </c>
       <c r="T311">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U311">
+        <v>1.825</v>
+      </c>
+      <c r="V311">
         <v>1.975</v>
       </c>
-      <c r="V311">
-        <v>1.825</v>
-      </c>
       <c r="W311">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB311">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28251,7 +28251,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6941529</v>
+        <v>6941494</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28263,40 +28263,40 @@
         <v>45263.5</v>
       </c>
       <c r="F312" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G312" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312">
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K312">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L312">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M312">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N312">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O312">
         <v>3.25</v>
       </c>
       <c r="P312">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q312">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R312">
         <v>1.825</v>
@@ -28305,34 +28305,34 @@
         <v>1.975</v>
       </c>
       <c r="T312">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U312">
+        <v>1.975</v>
+      </c>
+      <c r="V312">
         <v>1.825</v>
       </c>
-      <c r="V312">
-        <v>1.975</v>
-      </c>
       <c r="W312">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X312">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
         <v>-1</v>
       </c>
       <c r="Z312">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA312">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB312">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC312">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28352,7 +28352,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G313" t="s">
         <v>33</v>
@@ -28441,7 +28441,7 @@
         <v>45268.5</v>
       </c>
       <c r="F314" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G314" t="s">
         <v>43</v>
@@ -28622,7 +28622,7 @@
         <v>37</v>
       </c>
       <c r="G316" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H316">
         <v>2</v>
@@ -28797,10 +28797,10 @@
         <v>45269.5</v>
       </c>
       <c r="F318" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G318" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -28886,7 +28886,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F319" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G319" t="s">
         <v>56</v>
@@ -29067,7 +29067,7 @@
         <v>59</v>
       </c>
       <c r="G321" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -29423,7 +29423,7 @@
         <v>43</v>
       </c>
       <c r="G325" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H325">
         <v>1</v>
@@ -29509,7 +29509,7 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F326" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G326" t="s">
         <v>59</v>
@@ -29853,7 +29853,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6941531</v>
+        <v>6941532</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29865,73 +29865,73 @@
         <v>45277.5</v>
       </c>
       <c r="F330" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G330" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I330">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K330">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="L330">
+        <v>3.5</v>
+      </c>
+      <c r="M330">
+        <v>4</v>
+      </c>
+      <c r="N330">
+        <v>1.727</v>
+      </c>
+      <c r="O330">
         <v>3.6</v>
       </c>
-      <c r="M330">
-        <v>1.666</v>
-      </c>
-      <c r="N330">
+      <c r="P330">
         <v>4</v>
       </c>
-      <c r="O330">
-        <v>3.5</v>
-      </c>
-      <c r="P330">
+      <c r="Q330">
+        <v>-0.5</v>
+      </c>
+      <c r="R330">
         <v>1.75</v>
       </c>
-      <c r="Q330">
+      <c r="S330">
+        <v>1.95</v>
+      </c>
+      <c r="T330">
+        <v>2.5</v>
+      </c>
+      <c r="U330">
+        <v>1.975</v>
+      </c>
+      <c r="V330">
+        <v>1.825</v>
+      </c>
+      <c r="W330">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X330">
+        <v>-1</v>
+      </c>
+      <c r="Y330">
+        <v>-1</v>
+      </c>
+      <c r="Z330">
         <v>0.75</v>
       </c>
-      <c r="R330">
-        <v>1.825</v>
-      </c>
-      <c r="S330">
-        <v>1.975</v>
-      </c>
-      <c r="T330">
-        <v>2.25</v>
-      </c>
-      <c r="U330">
-        <v>1.9</v>
-      </c>
-      <c r="V330">
-        <v>1.9</v>
-      </c>
-      <c r="W330">
-        <v>-1</v>
-      </c>
-      <c r="X330">
-        <v>-1</v>
-      </c>
-      <c r="Y330">
-        <v>0.75</v>
-      </c>
-      <c r="Z330">
-        <v>-0.5</v>
-      </c>
       <c r="AA330">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -29942,7 +29942,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6941532</v>
+        <v>6941531</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29954,73 +29954,73 @@
         <v>45277.5</v>
       </c>
       <c r="F331" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G331" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K331">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="L331">
+        <v>3.6</v>
+      </c>
+      <c r="M331">
+        <v>1.666</v>
+      </c>
+      <c r="N331">
+        <v>4</v>
+      </c>
+      <c r="O331">
         <v>3.5</v>
       </c>
-      <c r="M331">
-        <v>4</v>
-      </c>
-      <c r="N331">
-        <v>1.727</v>
-      </c>
-      <c r="O331">
-        <v>3.6</v>
-      </c>
       <c r="P331">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q331">
+        <v>0.75</v>
+      </c>
+      <c r="R331">
+        <v>1.825</v>
+      </c>
+      <c r="S331">
+        <v>1.975</v>
+      </c>
+      <c r="T331">
+        <v>2.25</v>
+      </c>
+      <c r="U331">
+        <v>1.9</v>
+      </c>
+      <c r="V331">
+        <v>1.9</v>
+      </c>
+      <c r="W331">
+        <v>-1</v>
+      </c>
+      <c r="X331">
+        <v>-1</v>
+      </c>
+      <c r="Y331">
+        <v>0.75</v>
+      </c>
+      <c r="Z331">
         <v>-0.5</v>
       </c>
-      <c r="R331">
-        <v>1.75</v>
-      </c>
-      <c r="S331">
-        <v>1.95</v>
-      </c>
-      <c r="T331">
-        <v>2.5</v>
-      </c>
-      <c r="U331">
-        <v>1.975</v>
-      </c>
-      <c r="V331">
-        <v>1.825</v>
-      </c>
-      <c r="W331">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X331">
-        <v>-1</v>
-      </c>
-      <c r="Y331">
-        <v>-1</v>
-      </c>
-      <c r="Z331">
-        <v>0.75</v>
-      </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB331">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30043,7 +30043,7 @@
         <v>45277.5</v>
       </c>
       <c r="F332" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G332" t="s">
         <v>30</v>
@@ -30399,10 +30399,10 @@
         <v>45297.6875</v>
       </c>
       <c r="F336" t="s">
+        <v>53</v>
+      </c>
+      <c r="G336" t="s">
         <v>55</v>
-      </c>
-      <c r="G336" t="s">
-        <v>54</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -30666,7 +30666,7 @@
         <v>45298.5</v>
       </c>
       <c r="F339" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G339" t="s">
         <v>36</v>
@@ -30755,10 +30755,10 @@
         <v>45298.5</v>
       </c>
       <c r="F340" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G340" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H340">
         <v>3</v>
@@ -30847,7 +30847,7 @@
         <v>37</v>
       </c>
       <c r="G341" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31111,10 +31111,10 @@
         <v>45304.5</v>
       </c>
       <c r="F344" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G344" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H344">
         <v>2</v>
@@ -31292,7 +31292,7 @@
         <v>32</v>
       </c>
       <c r="G346" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -31467,7 +31467,7 @@
         <v>45304.5</v>
       </c>
       <c r="F348" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G348" t="s">
         <v>42</v>
@@ -31648,7 +31648,7 @@
         <v>49</v>
       </c>
       <c r="G350" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H350">
         <v>3</v>
@@ -31734,7 +31734,7 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F351" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G351" t="s">
         <v>30</v>
@@ -32090,7 +32090,7 @@
         <v>45311.66666666666</v>
       </c>
       <c r="F355" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G355" t="s">
         <v>37</v>
@@ -32182,7 +32182,7 @@
         <v>42</v>
       </c>
       <c r="G356" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32268,7 +32268,7 @@
         <v>45312.5</v>
       </c>
       <c r="F357" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G357" t="s">
         <v>32</v>
@@ -32357,7 +32357,7 @@
         <v>45312.5</v>
       </c>
       <c r="F358" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G358" t="s">
         <v>52</v>
@@ -32446,7 +32446,7 @@
         <v>45312.5</v>
       </c>
       <c r="F359" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G359" t="s">
         <v>36</v>
@@ -32716,7 +32716,7 @@
         <v>35</v>
       </c>
       <c r="G362" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -32805,7 +32805,7 @@
         <v>49</v>
       </c>
       <c r="G363" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H363">
         <v>2</v>
@@ -32983,7 +32983,7 @@
         <v>37</v>
       </c>
       <c r="G365" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H365">
         <v>2</v>
@@ -33072,7 +33072,7 @@
         <v>36</v>
       </c>
       <c r="G366" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H366">
         <v>1</v>
@@ -33161,7 +33161,7 @@
         <v>32</v>
       </c>
       <c r="G367" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33336,7 +33336,7 @@
         <v>45319.5</v>
       </c>
       <c r="F369" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G369" t="s">
         <v>35</v>
@@ -33425,7 +33425,7 @@
         <v>45319.5</v>
       </c>
       <c r="F370" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G370" t="s">
         <v>51</v>
@@ -33502,7 +33502,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6941511</v>
+        <v>6940236</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33514,76 +33514,76 @@
         <v>45319.5</v>
       </c>
       <c r="F371" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G371" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
       <c r="J371" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K371">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L371">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M371">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N371">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O371">
         <v>3.3</v>
       </c>
       <c r="P371">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q371">
         <v>-0.25</v>
       </c>
       <c r="R371">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S371">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T371">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U371">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V371">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W371">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X371">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA371">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33591,7 +33591,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6940236</v>
+        <v>6941511</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33603,76 +33603,76 @@
         <v>45319.5</v>
       </c>
       <c r="F372" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G372" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372">
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K372">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L372">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M372">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N372">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O372">
         <v>3.3</v>
       </c>
       <c r="P372">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q372">
         <v>-0.25</v>
       </c>
       <c r="R372">
+        <v>1.8</v>
+      </c>
+      <c r="S372">
+        <v>2</v>
+      </c>
+      <c r="T372">
+        <v>2.5</v>
+      </c>
+      <c r="U372">
+        <v>1.975</v>
+      </c>
+      <c r="V372">
         <v>1.825</v>
       </c>
-      <c r="S372">
-        <v>1.975</v>
-      </c>
-      <c r="T372">
-        <v>2.25</v>
-      </c>
-      <c r="U372">
-        <v>1.75</v>
-      </c>
-      <c r="V372">
-        <v>1.95</v>
-      </c>
       <c r="W372">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
+        <v>-0.5</v>
+      </c>
+      <c r="AA372">
+        <v>0.5</v>
+      </c>
+      <c r="AB372">
+        <v>-1</v>
+      </c>
+      <c r="AC372">
         <v>0.825</v>
-      </c>
-      <c r="AA372">
-        <v>-1</v>
-      </c>
-      <c r="AB372">
-        <v>-1</v>
-      </c>
-      <c r="AC372">
-        <v>0.95</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33692,7 +33692,7 @@
         <v>45332.5</v>
       </c>
       <c r="F373" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G373" t="s">
         <v>39</v>
@@ -33873,7 +33873,7 @@
         <v>33</v>
       </c>
       <c r="G375" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H375">
         <v>2</v>
@@ -33959,7 +33959,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F376" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G376" t="s">
         <v>43</v>
@@ -34140,7 +34140,7 @@
         <v>51</v>
       </c>
       <c r="G378" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H378">
         <v>0</v>
@@ -34582,7 +34582,7 @@
         <v>45340.5</v>
       </c>
       <c r="F383" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G383" t="s">
         <v>36</v>
@@ -34671,10 +34671,10 @@
         <v>45340.5</v>
       </c>
       <c r="F384" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G384" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H384">
         <v>2</v>
@@ -34763,7 +34763,7 @@
         <v>52</v>
       </c>
       <c r="G385" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H385">
         <v>2</v>
@@ -34852,7 +34852,7 @@
         <v>59</v>
       </c>
       <c r="G386" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H386">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>45346.5</v>
       </c>
       <c r="F387" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G387" t="s">
         <v>49</v>
@@ -34953,22 +34953,22 @@
         <v>3</v>
       </c>
       <c r="N387">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O387">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P387">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q387">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R387">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S387">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T387">
         <v>2.25</v>
@@ -35000,7 +35000,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7861630</v>
+        <v>7780943</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35012,46 +35012,46 @@
         <v>45346.5</v>
       </c>
       <c r="F388" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G388" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K388">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L388">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M388">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N388">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O388">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P388">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q388">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R388">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S388">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T388">
         <v>2.25</v>
       </c>
       <c r="U388">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V388">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W388">
         <v>0</v>
@@ -35074,7 +35074,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7780943</v>
+        <v>7861630</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35086,46 +35086,46 @@
         <v>45346.5</v>
       </c>
       <c r="F389" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G389" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K389">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L389">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M389">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N389">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O389">
         <v>3.4</v>
       </c>
       <c r="P389">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q389">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R389">
+        <v>1.95</v>
+      </c>
+      <c r="S389">
         <v>1.85</v>
-      </c>
-      <c r="S389">
-        <v>1.95</v>
       </c>
       <c r="T389">
         <v>2.25</v>
       </c>
       <c r="U389">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V389">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W389">
         <v>0</v>
@@ -35181,25 +35181,25 @@
         <v>3.2</v>
       </c>
       <c r="P390">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q390">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R390">
+        <v>1.75</v>
+      </c>
+      <c r="S390">
         <v>2.05</v>
-      </c>
-      <c r="S390">
-        <v>1.75</v>
       </c>
       <c r="T390">
         <v>2.25</v>
       </c>
       <c r="U390">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V390">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W390">
         <v>0</v>
@@ -35222,7 +35222,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7781001</v>
+        <v>7781120</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35234,46 +35234,46 @@
         <v>45347.5</v>
       </c>
       <c r="F391" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G391" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K391">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L391">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M391">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N391">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O391">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P391">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q391">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R391">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S391">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T391">
         <v>2.25</v>
       </c>
       <c r="U391">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V391">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W391">
         <v>0</v>
@@ -35296,7 +35296,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7781000</v>
+        <v>7781001</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35308,40 +35308,40 @@
         <v>45347.5</v>
       </c>
       <c r="F392" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G392" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="K392">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L392">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M392">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N392">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="O392">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P392">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="Q392">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R392">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S392">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T392">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U392">
         <v>1.8</v>
@@ -35370,7 +35370,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7780999</v>
+        <v>7781000</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35382,46 +35382,46 @@
         <v>45347.5</v>
       </c>
       <c r="F393" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G393" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K393">
-        <v>3.75</v>
+        <v>1.222</v>
       </c>
       <c r="L393">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M393">
+        <v>10</v>
+      </c>
+      <c r="N393">
+        <v>1.222</v>
+      </c>
+      <c r="O393">
+        <v>5</v>
+      </c>
+      <c r="P393">
+        <v>10</v>
+      </c>
+      <c r="Q393">
+        <v>-1.75</v>
+      </c>
+      <c r="R393">
+        <v>1.925</v>
+      </c>
+      <c r="S393">
+        <v>1.875</v>
+      </c>
+      <c r="T393">
+        <v>2.5</v>
+      </c>
+      <c r="U393">
         <v>1.8</v>
       </c>
-      <c r="N393">
-        <v>3.8</v>
-      </c>
-      <c r="O393">
-        <v>3.5</v>
-      </c>
-      <c r="P393">
-        <v>1.75</v>
-      </c>
-      <c r="Q393">
-        <v>0.5</v>
-      </c>
-      <c r="R393">
-        <v>1.975</v>
-      </c>
-      <c r="S393">
-        <v>1.825</v>
-      </c>
-      <c r="T393">
-        <v>2.25</v>
-      </c>
-      <c r="U393">
-        <v>1.85</v>
-      </c>
       <c r="V393">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W393">
         <v>0</v>
@@ -35444,7 +35444,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7780979</v>
+        <v>7780999</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35456,37 +35456,37 @@
         <v>45347.5</v>
       </c>
       <c r="F394" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G394" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K394">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L394">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M394">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N394">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="O394">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P394">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q394">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R394">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S394">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T394">
         <v>2.25</v>
@@ -35518,7 +35518,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7780942</v>
+        <v>7780979</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35530,46 +35530,46 @@
         <v>45347.5</v>
       </c>
       <c r="F395" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G395" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K395">
         <v>2.375</v>
       </c>
       <c r="L395">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M395">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N395">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O395">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P395">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q395">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R395">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S395">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T395">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U395">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V395">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W395">
         <v>0</v>
@@ -35592,7 +35592,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7781120</v>
+        <v>7780942</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35604,46 +35604,46 @@
         <v>45347.5</v>
       </c>
       <c r="F396" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G396" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K396">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L396">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M396">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N396">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O396">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P396">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q396">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S396">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T396">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U396">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V396">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W396">
         <v>0</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -27895,7 +27895,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6940692</v>
+        <v>6940671</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27907,34 +27907,34 @@
         <v>45263.5</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G308" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308">
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K308">
         <v>3.4</v>
       </c>
       <c r="L308">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M308">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N308">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O308">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P308">
         <v>1.8</v>
@@ -27943,40 +27943,40 @@
         <v>0.5</v>
       </c>
       <c r="R308">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S308">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T308">
         <v>2.5</v>
       </c>
       <c r="U308">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V308">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y308">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA308">
+        <v>-1</v>
+      </c>
+      <c r="AB308">
+        <v>-1</v>
+      </c>
+      <c r="AC308">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB308">
-        <v>-1</v>
-      </c>
-      <c r="AC308">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27984,7 +27984,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6940671</v>
+        <v>6940692</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27996,34 +27996,34 @@
         <v>45263.5</v>
       </c>
       <c r="F309" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G309" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309">
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K309">
         <v>3.4</v>
       </c>
       <c r="L309">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M309">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N309">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O309">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P309">
         <v>1.8</v>
@@ -28032,40 +28032,40 @@
         <v>0.5</v>
       </c>
       <c r="R309">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S309">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T309">
         <v>2.5</v>
       </c>
       <c r="U309">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V309">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -118,13 +118,13 @@
     <t>Pero Pinheiro</t>
   </si>
   <si>
-    <t>AD Fafe</t>
+    <t>Oliveira Hospital</t>
   </si>
   <si>
     <t>CF Canelas 2010</t>
   </si>
   <si>
-    <t>Oliveira Hospital</t>
+    <t>AD Fafe</t>
   </si>
   <si>
     <t>Caldas SC</t>
@@ -133,10 +133,10 @@
     <t>Sporting B</t>
   </si>
   <si>
-    <t>AD Sanjoanense</t>
+    <t>Braga B</t>
   </si>
   <si>
-    <t>Braga B</t>
+    <t>AD Sanjoanense</t>
   </si>
   <si>
     <t>Alverca</t>
@@ -148,7 +148,7 @@
     <t>SC Vianense</t>
   </si>
   <si>
-    <t>Atletico CP Lisbon</t>
+    <t>Amora</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
@@ -157,7 +157,7 @@
     <t>Felgueiras 1932</t>
   </si>
   <si>
-    <t>Amora</t>
+    <t>Atletico CP Lisbon</t>
   </si>
   <si>
     <t>SU 1 Dezembro</t>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6941477</v>
+        <v>6940674</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,73 +1088,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N7">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6940674</v>
+        <v>6941477</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N9">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6941479</v>
+        <v>6940655</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,13 +1533,13 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
@@ -1548,37 +1548,37 @@
         <v>2.1</v>
       </c>
       <c r="L12">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1587,19 +1587,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
+        <v>1.75</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
-      <c r="AA12">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB12">
-        <v>-0.5</v>
-      </c>
-      <c r="AC12">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6940655</v>
+        <v>6941479</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,13 +1622,13 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>51</v>
@@ -1637,37 +1637,37 @@
         <v>2.1</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O13">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1676,19 +1676,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6941503</v>
+        <v>6940676</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,73 +1978,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N17">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>1.025</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.95</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>-0.5</v>
-      </c>
-      <c r="AC17">
-        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6940676</v>
+        <v>6941503</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,73 +2245,73 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         <v>45158.5</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2868,7 +2868,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3046,7 +3046,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3135,7 +3135,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3577,7 +3577,7 @@
         <v>45165.5</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
         <v>37</v>
@@ -3755,7 +3755,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -3844,10 +3844,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4114,7 +4114,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4200,7 +4200,7 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4289,7 +4289,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -4381,7 +4381,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6940659</v>
+        <v>6940235</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,73 +4467,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>3.25</v>
       </c>
       <c r="M45">
+        <v>3.25</v>
+      </c>
+      <c r="N45">
+        <v>1.8</v>
+      </c>
+      <c r="O45">
         <v>3.5</v>
       </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-      <c r="O45">
-        <v>3.2</v>
-      </c>
       <c r="P45">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4556,7 +4556,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -4648,7 +4648,7 @@
         <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6940235</v>
+        <v>6940659</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,73 +4823,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L49">
         <v>3.25</v>
       </c>
       <c r="M49">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>3.2</v>
+      </c>
+      <c r="P49">
+        <v>3.2</v>
+      </c>
+      <c r="Q49">
+        <v>-0.25</v>
+      </c>
+      <c r="R49">
         <v>1.8</v>
       </c>
-      <c r="O49">
-        <v>3.5</v>
-      </c>
-      <c r="P49">
-        <v>3.75</v>
-      </c>
-      <c r="Q49">
-        <v>-0.5</v>
-      </c>
-      <c r="R49">
-        <v>1.75</v>
-      </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -5001,10 +5001,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
         <v>40</v>
-      </c>
-      <c r="G51" t="s">
-        <v>39</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -5360,7 +5360,7 @@
         <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6944654</v>
+        <v>6941515</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,10 +5446,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
         <v>47</v>
-      </c>
-      <c r="G56" t="s">
-        <v>45</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5461,25 +5461,25 @@
         <v>50</v>
       </c>
       <c r="K56">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M56">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N56">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
         <v>1.875</v>
@@ -5488,34 +5488,34 @@
         <v>1.925</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6941515</v>
+        <v>6944654</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,10 +5535,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5550,25 +5550,25 @@
         <v>50</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L57">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N57">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
         <v>1.875</v>
@@ -5577,34 +5577,34 @@
         <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
         <v>33</v>
@@ -5894,7 +5894,7 @@
         <v>46</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5980,10 +5980,10 @@
         <v>45199.5</v>
       </c>
       <c r="F62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" t="s">
         <v>44</v>
-      </c>
-      <c r="G62" t="s">
-        <v>47</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6336,7 +6336,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6940662</v>
+        <v>6944653</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,55 +6425,55 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
         <v>51</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T67">
         <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,19 +6482,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
+        <v>1.05</v>
+      </c>
+      <c r="AB67">
         <v>0.925</v>
       </c>
-      <c r="AB67">
-        <v>-0.5</v>
-      </c>
       <c r="AC67">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6944653</v>
+        <v>6940662</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,55 +6514,55 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>51</v>
       </c>
       <c r="K68">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,19 +6571,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6941519</v>
+        <v>6940664</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,55 +6959,55 @@
         <v>45206.5</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>51</v>
       </c>
       <c r="K73">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N73">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P73">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7016,16 +7016,16 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.375</v>
+        <v>0.833</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6940664</v>
+        <v>6941519</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,55 +7048,55 @@
         <v>45206.5</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>51</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="O74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7105,16 +7105,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6940222</v>
+        <v>6940663</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,58 +7315,58 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>49</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
+        <v>3.1</v>
+      </c>
+      <c r="M77">
+        <v>3.2</v>
+      </c>
+      <c r="N77">
+        <v>1.6</v>
+      </c>
+      <c r="O77">
         <v>3.5</v>
       </c>
-      <c r="M77">
-        <v>5.5</v>
-      </c>
-      <c r="N77">
-        <v>1.444</v>
-      </c>
-      <c r="O77">
-        <v>3.75</v>
-      </c>
       <c r="P77">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q77">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W77">
-        <v>0.444</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7375,13 +7375,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA77">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6940663</v>
+        <v>6940222</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,58 +7404,58 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>49</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.6</v>
+        <v>1.444</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
-        <v>0.6000000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7464,13 +7464,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7493,7 +7493,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s">
         <v>48</v>
@@ -7582,10 +7582,10 @@
         <v>45207.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>45228.5</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -7941,7 +7941,7 @@
         <v>48</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6940666</v>
+        <v>6940665</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,73 +8208,73 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="N87">
+        <v>5.25</v>
+      </c>
+      <c r="O87">
+        <v>3.6</v>
+      </c>
+      <c r="P87">
         <v>1.533</v>
       </c>
-      <c r="O87">
-        <v>3.75</v>
-      </c>
-      <c r="P87">
-        <v>5.5</v>
-      </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
         <v>1.975</v>
-      </c>
-      <c r="S87">
-        <v>1.825</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y87">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6940665</v>
+        <v>6940666</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,73 +8297,73 @@
         <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="N88">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P88">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="Q88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R88">
+        <v>1.975</v>
+      </c>
+      <c r="S88">
         <v>1.825</v>
-      </c>
-      <c r="S88">
-        <v>1.975</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
         <v>0.825</v>
       </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8650,7 +8650,7 @@
         <v>45234.5</v>
       </c>
       <c r="F92" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8739,7 +8739,7 @@
         <v>45234.5</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -9095,7 +9095,7 @@
         <v>45235.5</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
         <v>30</v>
@@ -9184,7 +9184,7 @@
         <v>45235.5</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G98" t="s">
         <v>37</v>
@@ -9454,7 +9454,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9540,10 +9540,10 @@
         <v>45241.5</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>45242.5</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>42</v>
@@ -10077,7 +10077,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>5</v>
@@ -10255,7 +10255,7 @@
         <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10341,7 +10341,7 @@
         <v>45261.5</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G111" t="s">
         <v>45</v>
@@ -10519,7 +10519,7 @@
         <v>45262.48958333334</v>
       </c>
       <c r="F113" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
         <v>32</v>
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6940671</v>
+        <v>6940692</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,34 +10697,34 @@
         <v>45263.5</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115">
         <v>3.4</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M115">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
         <v>1.8</v>
@@ -10733,40 +10733,40 @@
         <v>0.5</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6940225</v>
+        <v>6940671</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,76 +10786,76 @@
         <v>45263.5</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L116">
+        <v>3.4</v>
+      </c>
+      <c r="M116">
+        <v>1.909</v>
+      </c>
+      <c r="N116">
         <v>3.6</v>
-      </c>
-      <c r="M116">
-        <v>5.25</v>
-      </c>
-      <c r="N116">
-        <v>1.615</v>
       </c>
       <c r="O116">
         <v>3.5</v>
       </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
+        <v>1.95</v>
+      </c>
+      <c r="S116">
         <v>1.85</v>
       </c>
-      <c r="S116">
-        <v>1.95</v>
-      </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6941494</v>
+        <v>6940225</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10964,76 @@
         <v>45263.5</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K118">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="O118">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6940692</v>
+        <v>6941494</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,76 +11053,76 @@
         <v>45263.5</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
+        <v>3.2</v>
+      </c>
+      <c r="M119">
+        <v>2.7</v>
+      </c>
+      <c r="N119">
+        <v>2.875</v>
+      </c>
+      <c r="O119">
         <v>3.25</v>
       </c>
-      <c r="M119">
-        <v>1.95</v>
-      </c>
-      <c r="N119">
-        <v>3.75</v>
-      </c>
-      <c r="O119">
-        <v>3.3</v>
-      </c>
       <c r="P119">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
         <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11145,7 +11145,7 @@
         <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11234,7 +11234,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11412,7 +11412,7 @@
         <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11768,7 +11768,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11943,10 +11943,10 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12035,7 +12035,7 @@
         <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12391,7 +12391,7 @@
         <v>46</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12569,7 +12569,7 @@
         <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12655,7 +12655,7 @@
         <v>45277.5</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s">
         <v>33</v>
@@ -12744,7 +12744,7 @@
         <v>45277.5</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12836,7 +12836,7 @@
         <v>48</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12922,7 +12922,7 @@
         <v>45277.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13011,7 +13011,7 @@
         <v>45296.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
         <v>46</v>
@@ -13278,7 +13278,7 @@
         <v>45298.5</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13370,7 +13370,7 @@
         <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13456,10 +13456,10 @@
         <v>45298.5</v>
       </c>
       <c r="F146" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" t="s">
         <v>39</v>
-      </c>
-      <c r="G146" t="s">
-        <v>40</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13812,7 +13812,7 @@
         <v>45303.6875</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
         <v>46</v>
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6940231</v>
+        <v>6944640</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,10 +13901,10 @@
         <v>45304.5</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13916,43 +13916,43 @@
         <v>49</v>
       </c>
       <c r="K151">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L151">
         <v>3.5</v>
       </c>
       <c r="M151">
+        <v>1.7</v>
+      </c>
+      <c r="N151">
         <v>4</v>
       </c>
-      <c r="N151">
+      <c r="O151">
+        <v>3.5</v>
+      </c>
+      <c r="P151">
         <v>1.727</v>
       </c>
-      <c r="O151">
-        <v>3.6</v>
-      </c>
-      <c r="P151">
-        <v>4</v>
-      </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R151">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>0.7270000000000001</v>
+        <v>3</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13961,13 +13961,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6940680</v>
+        <v>6941536</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,58 +13990,58 @@
         <v>45304.5</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H152">
         <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>49</v>
       </c>
       <c r="K152">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N152">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R152">
+        <v>1.95</v>
+      </c>
+      <c r="S152">
+        <v>1.85</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
         <v>1.825</v>
       </c>
-      <c r="S152">
-        <v>1.975</v>
-      </c>
-      <c r="T152">
-        <v>2.25</v>
-      </c>
-      <c r="U152">
-        <v>1.825</v>
-      </c>
-      <c r="V152">
-        <v>1.975</v>
-      </c>
       <c r="W152">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14050,16 +14050,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
+        <v>0.95</v>
+      </c>
+      <c r="AA152">
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>0.825</v>
-      </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
-      <c r="AB152">
-        <v>0.825</v>
-      </c>
-      <c r="AC152">
-        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14079,10 +14079,10 @@
         <v>45304.5</v>
       </c>
       <c r="F153" t="s">
+        <v>44</v>
+      </c>
+      <c r="G153" t="s">
         <v>47</v>
-      </c>
-      <c r="G153" t="s">
-        <v>44</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6941536</v>
+        <v>6940680</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,58 +14168,58 @@
         <v>45304.5</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>49</v>
       </c>
       <c r="K154">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M154">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N154">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P154">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="Q154">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
+        <v>1.825</v>
+      </c>
+      <c r="V154">
         <v>1.975</v>
       </c>
-      <c r="V154">
-        <v>1.825</v>
-      </c>
       <c r="W154">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6944640</v>
+        <v>6940678</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,58 +14257,58 @@
         <v>45304.5</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>49</v>
       </c>
       <c r="K155">
+        <v>1.55</v>
+      </c>
+      <c r="L155">
+        <v>3.8</v>
+      </c>
+      <c r="M155">
+        <v>5</v>
+      </c>
+      <c r="N155">
+        <v>1.5</v>
+      </c>
+      <c r="O155">
         <v>4</v>
       </c>
-      <c r="L155">
-        <v>3.5</v>
-      </c>
-      <c r="M155">
-        <v>1.7</v>
-      </c>
-      <c r="N155">
-        <v>4</v>
-      </c>
-      <c r="O155">
-        <v>3.5</v>
-      </c>
       <c r="P155">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="Q155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
         <v>1.95</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14317,13 +14317,13 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6940678</v>
+        <v>6940231</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,49 +14346,49 @@
         <v>45304.5</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>49</v>
       </c>
       <c r="K156">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O156">
+        <v>3.6</v>
+      </c>
+      <c r="P156">
         <v>4</v>
       </c>
-      <c r="P156">
-        <v>5</v>
-      </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
         <v>1.95</v>
@@ -14397,7 +14397,7 @@
         <v>1.85</v>
       </c>
       <c r="W156">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14406,7 +14406,7 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA156">
         <v>-1</v>
@@ -14527,7 +14527,7 @@
         <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14705,7 +14705,7 @@
         <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14791,10 +14791,10 @@
         <v>45310.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -15058,10 +15058,10 @@
         <v>45312.5</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15325,7 +15325,7 @@
         <v>45312.5</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -15417,7 +15417,7 @@
         <v>48</v>
       </c>
       <c r="G168" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7741484</v>
+        <v>7741480</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,73 +15592,73 @@
         <v>45318.5</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
+        <v>4.2</v>
+      </c>
+      <c r="N170">
+        <v>1.7</v>
+      </c>
+      <c r="O170">
+        <v>3.6</v>
+      </c>
+      <c r="P170">
+        <v>4</v>
+      </c>
+      <c r="Q170">
+        <v>-0.75</v>
+      </c>
+      <c r="R170">
+        <v>1.975</v>
+      </c>
+      <c r="S170">
+        <v>1.825</v>
+      </c>
+      <c r="T170">
         <v>2.5</v>
       </c>
-      <c r="N170">
-        <v>2.7</v>
-      </c>
-      <c r="O170">
-        <v>3</v>
-      </c>
-      <c r="P170">
-        <v>2.45</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>2</v>
-      </c>
-      <c r="S170">
+      <c r="U170">
+        <v>2</v>
+      </c>
+      <c r="V170">
         <v>1.8</v>
       </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.9</v>
-      </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X170">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7741480</v>
+        <v>7741481</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,58 +15681,58 @@
         <v>45318.5</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>49</v>
       </c>
       <c r="K171">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M171">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N171">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P171">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R171">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>0.7</v>
+        <v>0.222</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,16 +15741,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA171">
         <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7741481</v>
+        <v>7741484</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,49 +15770,49 @@
         <v>45318.5</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L172">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N172">
-        <v>1.222</v>
+        <v>2.7</v>
       </c>
       <c r="O172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P172">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q172">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
         <v>1.9</v>
@@ -15821,25 +15821,25 @@
         <v>1.9</v>
       </c>
       <c r="W172">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>45318.5</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
         <v>48</v>
@@ -15948,7 +15948,7 @@
         <v>45318.5</v>
       </c>
       <c r="F174" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16129,7 +16129,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6941511</v>
+        <v>6940687</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>45319.5</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>50</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L177">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M177">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="N177">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P177">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
         <v>1.975</v>
@@ -16269,16 +16269,16 @@
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.3</v>
+        <v>3.333</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6940687</v>
+        <v>6940236</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45319.5</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L178">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O178">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>1.825</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
         <v>1.75</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>1.95</v>
       </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X178">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>0.95</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
-      <c r="AC178">
-        <v>0.825</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6940236</v>
+        <v>6941511</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45319.5</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N179">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O179">
         <v>3.3</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="S179">
-        <v>1.975</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.75</v>
-      </c>
-      <c r="V179">
-        <v>1.95</v>
-      </c>
       <c r="W179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>-0.5</v>
+      </c>
+      <c r="AA179">
+        <v>0.5</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.825</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>45332.5</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G180" t="s">
         <v>46</v>
@@ -16660,7 +16660,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
@@ -16838,7 +16838,7 @@
         <v>45339.5</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
         <v>35</v>
@@ -17016,7 +17016,7 @@
         <v>45339.5</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -17108,7 +17108,7 @@
         <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17286,7 +17286,7 @@
         <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17372,7 +17372,7 @@
         <v>45340.5</v>
       </c>
       <c r="F190" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
         <v>38</v>
@@ -17464,7 +17464,7 @@
         <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>3</v>
@@ -17820,7 +17820,7 @@
         <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17995,7 +17995,7 @@
         <v>45346.64583333334</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
         <v>45</v>
@@ -18084,7 +18084,7 @@
         <v>45347.5</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
         <v>37</v>
@@ -18161,7 +18161,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7780979</v>
+        <v>7780942</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18173,10 +18173,10 @@
         <v>45347.5</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18191,40 +18191,40 @@
         <v>2.375</v>
       </c>
       <c r="L199">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M199">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N199">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O199">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P199">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18233,16 +18233,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC199">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7781001</v>
+        <v>7781120</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,10 +18262,10 @@
         <v>45347.5</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18277,43 +18277,43 @@
         <v>49</v>
       </c>
       <c r="K200">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L200">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M200">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N200">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O200">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P200">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q200">
         <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18322,7 +18322,7 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA200">
         <v>-1</v>
@@ -18331,7 +18331,7 @@
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7780942</v>
+        <v>7781000</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,13 +18351,13 @@
         <v>45347.5</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -18366,43 +18366,43 @@
         <v>49</v>
       </c>
       <c r="K201">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="L201">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M201">
+        <v>10</v>
+      </c>
+      <c r="N201">
+        <v>1.181</v>
+      </c>
+      <c r="O201">
+        <v>5.5</v>
+      </c>
+      <c r="P201">
+        <v>12</v>
+      </c>
+      <c r="Q201">
+        <v>-1.75</v>
+      </c>
+      <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
         <v>2.75</v>
       </c>
-      <c r="N201">
-        <v>2.25</v>
-      </c>
-      <c r="O201">
-        <v>3</v>
-      </c>
-      <c r="P201">
-        <v>3</v>
-      </c>
-      <c r="Q201">
-        <v>-0.25</v>
-      </c>
-      <c r="R201">
-        <v>2.025</v>
-      </c>
-      <c r="S201">
-        <v>1.775</v>
-      </c>
-      <c r="T201">
-        <v>2</v>
-      </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18411,16 +18411,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18428,7 +18428,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7781120</v>
+        <v>7780979</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18440,13 +18440,13 @@
         <v>45347.5</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -18455,61 +18455,61 @@
         <v>49</v>
       </c>
       <c r="K202">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M202">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N202">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O202">
         <v>3.2</v>
       </c>
       <c r="P202">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S202">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
+        <v>1.7</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
         <v>1</v>
       </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>-1</v>
-      </c>
-      <c r="Z202">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC202">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7781000</v>
+        <v>7781001</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,10 +18529,10 @@
         <v>45347.5</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G203" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18544,43 +18544,43 @@
         <v>49</v>
       </c>
       <c r="K203">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L203">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M203">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N203">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="O203">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P203">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="Q203">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
+        <v>1.95</v>
+      </c>
+      <c r="S203">
+        <v>1.85</v>
+      </c>
+      <c r="T203">
+        <v>2.25</v>
+      </c>
+      <c r="U203">
         <v>1.825</v>
       </c>
-      <c r="S203">
+      <c r="V203">
         <v>1.975</v>
       </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>1.95</v>
-      </c>
-      <c r="V203">
-        <v>1.85</v>
-      </c>
       <c r="W203">
-        <v>0.181</v>
+        <v>1.25</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18589,16 +18589,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB203">
-        <v>-1</v>
-      </c>
-      <c r="AC203">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18796,10 +18796,10 @@
         <v>45353.5</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -19066,7 +19066,7 @@
         <v>45</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19152,7 +19152,7 @@
         <v>45354.5</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G210" t="s">
         <v>35</v>
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7887079</v>
+        <v>7887080</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45354.5</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>50</v>
+      </c>
+      <c r="K211">
+        <v>3.4</v>
+      </c>
+      <c r="L211">
+        <v>2.9</v>
+      </c>
+      <c r="M211">
+        <v>2.1</v>
+      </c>
+      <c r="N211">
         <v>4</v>
       </c>
-      <c r="J211" t="s">
-        <v>51</v>
-      </c>
-      <c r="K211">
-        <v>1.95</v>
-      </c>
-      <c r="L211">
-        <v>3.25</v>
-      </c>
-      <c r="M211">
-        <v>3.4</v>
-      </c>
-      <c r="N211">
-        <v>1.95</v>
-      </c>
       <c r="O211">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R211">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S211">
+        <v>2</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
+        <v>1.825</v>
+      </c>
+      <c r="V211">
         <v>1.975</v>
       </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>2</v>
-      </c>
-      <c r="V211">
-        <v>1.8</v>
-      </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA211">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7887080</v>
+        <v>7887079</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45354.5</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>4</v>
+      </c>
+      <c r="J212" t="s">
+        <v>51</v>
+      </c>
+      <c r="K212">
+        <v>1.95</v>
+      </c>
+      <c r="L212">
+        <v>3.25</v>
+      </c>
+      <c r="M212">
+        <v>3.4</v>
+      </c>
+      <c r="N212">
+        <v>1.95</v>
+      </c>
+      <c r="O212">
+        <v>3.25</v>
+      </c>
+      <c r="P212">
+        <v>3.4</v>
+      </c>
+      <c r="Q212">
+        <v>-0.25</v>
+      </c>
+      <c r="R212">
+        <v>1.725</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>2</v>
+      </c>
+      <c r="V212">
+        <v>1.8</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>2.4</v>
+      </c>
+      <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB212">
         <v>1</v>
       </c>
-      <c r="I212">
-        <v>1</v>
-      </c>
-      <c r="J212" t="s">
-        <v>50</v>
-      </c>
-      <c r="K212">
-        <v>3.4</v>
-      </c>
-      <c r="L212">
-        <v>2.9</v>
-      </c>
-      <c r="M212">
-        <v>2.1</v>
-      </c>
-      <c r="N212">
-        <v>4</v>
-      </c>
-      <c r="O212">
-        <v>3</v>
-      </c>
-      <c r="P212">
-        <v>1.909</v>
-      </c>
-      <c r="Q212">
-        <v>0.5</v>
-      </c>
-      <c r="R212">
-        <v>1.8</v>
-      </c>
-      <c r="S212">
-        <v>2</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
-      </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>0.8</v>
-      </c>
-      <c r="AA212">
-        <v>-1</v>
-      </c>
-      <c r="AB212">
-        <v>0</v>
-      </c>
       <c r="AC212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19508,10 +19508,10 @@
         <v>45360.5</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19775,7 +19775,7 @@
         <v>45360.5</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
         <v>48</v>
@@ -20131,7 +20131,7 @@
         <v>45361.5</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G221" t="s">
         <v>32</v>
@@ -20223,7 +20223,7 @@
         <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20309,7 +20309,7 @@
         <v>45361.66666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20487,7 +20487,7 @@
         <v>45367.5</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
         <v>43</v>
@@ -20579,7 +20579,7 @@
         <v>42</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20846,7 +20846,7 @@
         <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -20920,7 +20920,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7781008</v>
+        <v>7781009</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20932,13 +20932,13 @@
         <v>45368.5</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>2</v>
@@ -20947,40 +20947,40 @@
         <v>51</v>
       </c>
       <c r="K230">
+        <v>1.55</v>
+      </c>
+      <c r="L230">
+        <v>3.8</v>
+      </c>
+      <c r="M230">
+        <v>5.5</v>
+      </c>
+      <c r="N230">
+        <v>1.55</v>
+      </c>
+      <c r="O230">
         <v>4</v>
       </c>
-      <c r="L230">
-        <v>3.4</v>
-      </c>
-      <c r="M230">
-        <v>1.833</v>
-      </c>
-      <c r="N230">
-        <v>5</v>
-      </c>
-      <c r="O230">
-        <v>3.8</v>
-      </c>
       <c r="P230">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q230">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R230">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S230">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20989,19 +20989,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.6000000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC230">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7781009</v>
+        <v>7781008</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,13 +21021,13 @@
         <v>45368.5</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G231" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>2</v>
@@ -21036,40 +21036,40 @@
         <v>51</v>
       </c>
       <c r="K231">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L231">
+        <v>3.4</v>
+      </c>
+      <c r="M231">
+        <v>1.833</v>
+      </c>
+      <c r="N231">
+        <v>5</v>
+      </c>
+      <c r="O231">
         <v>3.8</v>
       </c>
-      <c r="M231">
-        <v>5.5</v>
-      </c>
-      <c r="N231">
-        <v>1.55</v>
-      </c>
-      <c r="O231">
-        <v>4</v>
-      </c>
       <c r="P231">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R231">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S231">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21078,19 +21078,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>4.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB231">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21110,7 +21110,7 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
         <v>46</v>
@@ -21436,10 +21436,10 @@
         <v>45381.5</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K236">
         <v>2.7</v>
@@ -21513,7 +21513,7 @@
         <v>48</v>
       </c>
       <c r="G237" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K237">
         <v>2.15</v>
@@ -21584,7 +21584,7 @@
         <v>45381.5</v>
       </c>
       <c r="F238" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
         <v>33</v>
@@ -21951,13 +21951,13 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45382.45833333334</v>
+        <v>45382.5</v>
       </c>
       <c r="F243" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G243" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K243">
         <v>2.25</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Academica</t>
   </si>
   <si>
-    <t>Pero Pinheiro</t>
-  </si>
-  <si>
     <t>Oliveira Hospital</t>
   </si>
   <si>
@@ -127,16 +124,19 @@
     <t>AD Fafe</t>
   </si>
   <si>
+    <t>Pero Pinheiro</t>
+  </si>
+  <si>
     <t>Caldas SC</t>
   </si>
   <si>
     <t>Sporting B</t>
   </si>
   <si>
-    <t>Braga B</t>
+    <t>AD Sanjoanense</t>
   </si>
   <si>
-    <t>AD Sanjoanense</t>
+    <t>Braga B</t>
   </si>
   <si>
     <t>Alverca</t>
@@ -148,16 +148,16 @@
     <t>SC Vianense</t>
   </si>
   <si>
-    <t>Amora</t>
+    <t>Atletico CP Lisbon</t>
+  </si>
+  <si>
+    <t>Felgueiras 1932</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
   </si>
   <si>
-    <t>Felgueiras 1932</t>
-  </si>
-  <si>
-    <t>Atletico CP Lisbon</t>
+    <t>Amora</t>
   </si>
   <si>
     <t>SU 1 Dezembro</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6944663</v>
+        <v>6940674</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N6">
         <v>3.4</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
         <v>1.8</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6940674</v>
+        <v>6941478</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,73 +1088,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
+        <v>2.1</v>
+      </c>
+      <c r="L7">
         <v>3.1</v>
       </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
       <c r="M7">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC7">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6941478</v>
+        <v>6941477</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,73 +1177,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
+        <v>3.3</v>
+      </c>
+      <c r="N8">
+        <v>1.95</v>
+      </c>
+      <c r="O8">
         <v>3.2</v>
       </c>
-      <c r="N8">
-        <v>2.3</v>
-      </c>
-      <c r="O8">
-        <v>3.1</v>
-      </c>
       <c r="P8">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S8">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6941477</v>
+        <v>6944663</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,52 +1266,52 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
+        <v>1.75</v>
+      </c>
+      <c r="N9">
+        <v>3.4</v>
+      </c>
+      <c r="O9">
         <v>3.3</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>1.95</v>
       </c>
-      <c r="O9">
-        <v>3.2</v>
-      </c>
-      <c r="P9">
-        <v>3.5</v>
-      </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1320,19 +1320,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1444,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6940655</v>
+        <v>6941479</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,13 +1533,13 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
@@ -1548,37 +1548,37 @@
         <v>2.1</v>
       </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1587,19 +1587,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6941479</v>
+        <v>6940655</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,13 +1622,13 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>51</v>
@@ -1637,37 +1637,37 @@
         <v>2.1</v>
       </c>
       <c r="L13">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P13">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1676,19 +1676,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
+        <v>1.75</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
-      <c r="AA13">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB13">
-        <v>-0.5</v>
-      </c>
-      <c r="AC13">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6940676</v>
+        <v>6941503</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,73 +1978,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6944661</v>
+        <v>6944679</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,10 +2067,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2079,43 +2079,43 @@
         <v>49</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
         <v>3.1</v>
       </c>
       <c r="M18">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2124,16 +2124,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6944679</v>
+        <v>6944661</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2156,10 +2156,10 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2168,43 +2168,43 @@
         <v>49</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>3.1</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N19">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2213,16 +2213,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6941503</v>
+        <v>6940676</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2248,70 +2248,70 @@
         <v>33</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>1.666</v>
+      </c>
+      <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
+        <v>4.333</v>
+      </c>
+      <c r="N20">
+        <v>2.4</v>
+      </c>
+      <c r="O20">
+        <v>3.3</v>
+      </c>
+      <c r="P20">
+        <v>2.7</v>
+      </c>
+      <c r="Q20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>3.1</v>
-      </c>
-      <c r="M20">
-        <v>3.4</v>
-      </c>
-      <c r="N20">
-        <v>1.4</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>9</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>1.025</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.95</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-0.5</v>
-      </c>
-      <c r="AC20">
-        <v>0.45</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2420,10 +2420,10 @@
         <v>45156.64583333334</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>48</v>
@@ -2776,7 +2776,7 @@
         <v>45158.5</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2868,7 +2868,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2954,10 +2954,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3135,7 +3135,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3491,7 +3491,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3577,7 +3577,7 @@
         <v>45165.5</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
         <v>37</v>
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6944658</v>
+        <v>6940233</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,40 +3666,40 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>2.2</v>
+      </c>
+      <c r="L36">
+        <v>3.1</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>2.45</v>
+      </c>
+      <c r="O36">
+        <v>3.1</v>
+      </c>
+      <c r="P36">
+        <v>2.625</v>
+      </c>
+      <c r="Q36">
         <v>0</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>3.3</v>
-      </c>
-      <c r="M36">
-        <v>2.1</v>
-      </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-      <c r="O36">
-        <v>3.5</v>
-      </c>
-      <c r="P36">
-        <v>1.727</v>
-      </c>
-      <c r="Q36">
-        <v>0.75</v>
       </c>
       <c r="R36">
         <v>1.8</v>
@@ -3711,31 +3711,31 @@
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y36">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
         <v>-0.5</v>
       </c>
       <c r="AC36">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6940233</v>
+        <v>6944658</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,40 +3755,40 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R37">
         <v>1.8</v>
@@ -3800,31 +3800,31 @@
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
         <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3844,10 +3844,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
         <v>42</v>
@@ -4022,10 +4022,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4200,10 +4200,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6940686</v>
+        <v>6940659</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,40 +4378,40 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
+        <v>3.5</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
         <v>3.2</v>
       </c>
-      <c r="N44">
-        <v>1.75</v>
-      </c>
-      <c r="O44">
-        <v>3.3</v>
-      </c>
       <c r="P44">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
         <v>1.8</v>
@@ -4429,25 +4429,25 @@
         <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6940235</v>
+        <v>6940686</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,76 +4467,76 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6941510</v>
+        <v>6940235</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,73 +4556,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N46">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB46">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6941513</v>
+        <v>6941510</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,73 +4645,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K47">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N47">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R47">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6944655</v>
+        <v>6941513</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,55 +4734,55 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
         <v>51</v>
       </c>
       <c r="K48">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L48">
+        <v>3.2</v>
+      </c>
+      <c r="M48">
+        <v>2.4</v>
+      </c>
+      <c r="N48">
         <v>3.25</v>
       </c>
-      <c r="M48">
-        <v>4</v>
-      </c>
-      <c r="N48">
-        <v>1.8</v>
-      </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4791,16 +4791,16 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6940659</v>
+        <v>6944655</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,73 +4823,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
         <v>3.25</v>
       </c>
       <c r="M49">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -5001,10 +5001,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" t="s">
         <v>39</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -5182,7 +5182,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5357,10 +5357,10 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6941515</v>
+        <v>6944654</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,10 +5446,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5461,25 +5461,25 @@
         <v>50</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N56">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
         <v>1.875</v>
@@ -5488,34 +5488,34 @@
         <v>1.925</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6944654</v>
+        <v>6941515</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,10 +5535,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s">
         <v>44</v>
-      </c>
-      <c r="G57" t="s">
-        <v>45</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5550,25 +5550,25 @@
         <v>50</v>
       </c>
       <c r="K57">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
         <v>1.875</v>
@@ -5577,34 +5577,34 @@
         <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,10 +5624,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5891,10 +5891,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5980,10 +5980,10 @@
         <v>45199.5</v>
       </c>
       <c r="F62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" t="s">
         <v>47</v>
-      </c>
-      <c r="G62" t="s">
-        <v>44</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6158,7 +6158,7 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -6336,7 +6336,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6425,10 +6425,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6603,7 +6603,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6784,7 +6784,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6940664</v>
+        <v>6941519</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,55 +6959,55 @@
         <v>45206.5</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
         <v>51</v>
       </c>
       <c r="K73">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="O73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7016,16 +7016,16 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6941519</v>
+        <v>6940664</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,55 +7048,55 @@
         <v>45206.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>51</v>
       </c>
       <c r="K74">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N74">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P74">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7105,16 +7105,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.375</v>
+        <v>0.833</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7140,7 +7140,7 @@
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7229,7 +7229,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6940663</v>
+        <v>6940222</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,58 +7315,58 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>49</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N77">
-        <v>1.6</v>
+        <v>1.444</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
-        <v>0.6000000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7375,13 +7375,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB77">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6940222</v>
+        <v>6940663</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,58 +7404,58 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>49</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L78">
+        <v>3.1</v>
+      </c>
+      <c r="M78">
+        <v>3.2</v>
+      </c>
+      <c r="N78">
+        <v>1.6</v>
+      </c>
+      <c r="O78">
         <v>3.5</v>
       </c>
-      <c r="M78">
-        <v>5.5</v>
-      </c>
-      <c r="N78">
-        <v>1.444</v>
-      </c>
-      <c r="O78">
-        <v>3.75</v>
-      </c>
       <c r="P78">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q78">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W78">
-        <v>0.444</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7464,13 +7464,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA78">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7493,7 +7493,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
         <v>48</v>
@@ -7582,10 +7582,10 @@
         <v>45207.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>45227.5</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6944650</v>
+        <v>6941522</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,43 +7849,43 @@
         <v>45228.5</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K83">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L83">
         <v>3.2</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N83">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O83">
         <v>3.2</v>
       </c>
       <c r="P83">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S83">
         <v>1.725</v>
@@ -7894,31 +7894,31 @@
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
         <v>1.3</v>
       </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6941522</v>
+        <v>6944650</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,43 +7938,43 @@
         <v>45228.5</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L84">
         <v>3.2</v>
       </c>
       <c r="M84">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O84">
         <v>3.2</v>
       </c>
       <c r="P84">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
         <v>1.725</v>
@@ -7983,31 +7983,31 @@
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8027,10 +8027,10 @@
         <v>45228.5</v>
       </c>
       <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" t="s">
         <v>35</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8116,7 +8116,7 @@
         <v>45228.5</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>38</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6940665</v>
+        <v>6940666</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,73 +8208,73 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="L87">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
         <v>1.825</v>
-      </c>
-      <c r="S87">
-        <v>1.975</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
         <v>0.825</v>
       </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6940666</v>
+        <v>6940665</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,73 +8297,73 @@
         <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="N88">
+        <v>5.25</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
         <v>1.533</v>
       </c>
-      <c r="O88">
-        <v>3.75</v>
-      </c>
-      <c r="P88">
-        <v>5.5</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
         <v>1.975</v>
-      </c>
-      <c r="S88">
-        <v>1.825</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8472,7 +8472,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8564,7 +8564,7 @@
         <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8650,7 +8650,7 @@
         <v>45234.5</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8739,7 +8739,7 @@
         <v>45234.5</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8828,10 +8828,10 @@
         <v>45235.5</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8920,7 +8920,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9095,7 +9095,7 @@
         <v>45235.5</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
         <v>30</v>
@@ -9184,7 +9184,7 @@
         <v>45235.5</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
         <v>37</v>
@@ -9273,7 +9273,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
         <v>31</v>
@@ -9365,7 +9365,7 @@
         <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9451,10 +9451,10 @@
         <v>45241.5</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9540,10 +9540,10 @@
         <v>45241.5</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9807,10 +9807,10 @@
         <v>45242.5</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9899,7 +9899,7 @@
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9985,7 +9985,7 @@
         <v>45242.5</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>42</v>
@@ -10077,7 +10077,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H108">
         <v>5</v>
@@ -10255,7 +10255,7 @@
         <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10341,10 +10341,10 @@
         <v>45261.5</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>45262.48958333334</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G113" t="s">
         <v>32</v>
@@ -10608,10 +10608,10 @@
         <v>45262.73958333334</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10697,7 +10697,7 @@
         <v>45263.5</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>38</v>
@@ -10878,7 +10878,7 @@
         <v>48</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10967,7 +10967,7 @@
         <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11053,7 +11053,7 @@
         <v>45263.5</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
         <v>42</v>
@@ -11145,7 +11145,7 @@
         <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11219,7 +11219,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6941497</v>
+        <v>6940226</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11231,76 +11231,76 @@
         <v>45268.5</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K121">
+        <v>1.8</v>
+      </c>
+      <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
+        <v>4.2</v>
+      </c>
+      <c r="N121">
+        <v>2.05</v>
+      </c>
+      <c r="O121">
         <v>2.9</v>
       </c>
-      <c r="L121">
-        <v>3.2</v>
-      </c>
-      <c r="M121">
-        <v>2.25</v>
-      </c>
-      <c r="N121">
-        <v>2.8</v>
-      </c>
-      <c r="O121">
-        <v>3.1</v>
-      </c>
       <c r="P121">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
+        <v>2.025</v>
+      </c>
+      <c r="T121">
         <v>1.75</v>
       </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y121">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AB121">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6940226</v>
+        <v>6941497</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45268.5</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
+        <v>2.9</v>
+      </c>
+      <c r="L122">
+        <v>3.2</v>
+      </c>
+      <c r="M122">
+        <v>2.25</v>
+      </c>
+      <c r="N122">
+        <v>2.8</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+      <c r="P122">
+        <v>2.375</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>1.75</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
         <v>1.8</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>4.2</v>
-      </c>
-      <c r="N122">
-        <v>2.05</v>
-      </c>
-      <c r="O122">
-        <v>2.9</v>
-      </c>
-      <c r="P122">
-        <v>3.75</v>
-      </c>
-      <c r="Q122">
-        <v>-0.25</v>
-      </c>
-      <c r="R122">
-        <v>1.775</v>
-      </c>
-      <c r="S122">
-        <v>2.025</v>
-      </c>
-      <c r="T122">
-        <v>1.75</v>
-      </c>
-      <c r="U122">
-        <v>1.8</v>
-      </c>
-      <c r="V122">
-        <v>2</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
       <c r="AB122">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11501,7 +11501,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>45269.5</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11768,7 +11768,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11854,7 +11854,7 @@
         <v>45270.5</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G128" t="s">
         <v>48</v>
@@ -11943,10 +11943,10 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12035,7 +12035,7 @@
         <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12302,7 +12302,7 @@
         <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12388,10 +12388,10 @@
         <v>45276.72916666666</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12480,7 +12480,7 @@
         <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12655,10 +12655,10 @@
         <v>45277.5</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12744,7 +12744,7 @@
         <v>45277.5</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12836,7 +12836,7 @@
         <v>48</v>
       </c>
       <c r="G139" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12922,7 +12922,7 @@
         <v>45277.66666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13011,10 +13011,10 @@
         <v>45296.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13100,7 +13100,7 @@
         <v>45297.33333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -13278,7 +13278,7 @@
         <v>45298.5</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13367,10 +13367,10 @@
         <v>45298.5</v>
       </c>
       <c r="F145" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" t="s">
         <v>33</v>
-      </c>
-      <c r="G145" t="s">
-        <v>34</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13456,10 +13456,10 @@
         <v>45298.5</v>
       </c>
       <c r="F146" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146" t="s">
         <v>40</v>
-      </c>
-      <c r="G146" t="s">
-        <v>39</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13812,10 +13812,10 @@
         <v>45303.6875</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6944640</v>
+        <v>6940231</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,10 +13901,10 @@
         <v>45304.5</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13916,43 +13916,43 @@
         <v>49</v>
       </c>
       <c r="K151">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L151">
         <v>3.5</v>
       </c>
       <c r="M151">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="N151">
+        <v>1.727</v>
+      </c>
+      <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
         <v>4</v>
       </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>1.727</v>
-      </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S151">
+        <v>2</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
         <v>1.95</v>
       </c>
-      <c r="T151">
-        <v>2.25</v>
-      </c>
-      <c r="U151">
-        <v>1.825</v>
-      </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13961,13 +13961,13 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13978,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6941536</v>
+        <v>6940678</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13990,13 +13990,13 @@
         <v>45304.5</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -14005,43 +14005,43 @@
         <v>49</v>
       </c>
       <c r="K152">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N152">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O152">
         <v>4</v>
       </c>
       <c r="P152">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q152">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
         <v>1.95</v>
       </c>
-      <c r="S152">
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>1.95</v>
+      </c>
+      <c r="V152">
         <v>1.85</v>
       </c>
-      <c r="T152">
-        <v>2.5</v>
-      </c>
-      <c r="U152">
-        <v>1.975</v>
-      </c>
-      <c r="V152">
-        <v>1.825</v>
-      </c>
       <c r="W152">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14050,16 +14050,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA152">
+        <v>-1</v>
+      </c>
+      <c r="AB152">
         <v>0.95</v>
       </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
-      </c>
       <c r="AC152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14079,10 +14079,10 @@
         <v>45304.5</v>
       </c>
       <c r="F153" t="s">
+        <v>47</v>
+      </c>
+      <c r="G153" t="s">
         <v>44</v>
-      </c>
-      <c r="G153" t="s">
-        <v>47</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6940680</v>
+        <v>6941536</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,58 +14168,58 @@
         <v>45304.5</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>49</v>
       </c>
       <c r="K154">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="L154">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="O154">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
         <v>1.825</v>
       </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>1.825</v>
-      </c>
-      <c r="V154">
-        <v>1.975</v>
-      </c>
       <c r="W154">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0.825</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6940678</v>
+        <v>6944640</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,58 +14257,58 @@
         <v>45304.5</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>49</v>
       </c>
       <c r="K155">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L155">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M155">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="N155">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="O155">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S155">
         <v>1.95</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14317,13 +14317,13 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6940231</v>
+        <v>6940680</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,10 +14346,10 @@
         <v>45304.5</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14361,43 +14361,43 @@
         <v>49</v>
       </c>
       <c r="K156">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N156">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P156">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.7270000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14406,13 +14406,13 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14438,7 +14438,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14527,7 +14527,7 @@
         <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14702,10 +14702,10 @@
         <v>45308.5</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14791,10 +14791,10 @@
         <v>45310.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>45312.5</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G163" t="s">
         <v>43</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6941537</v>
+        <v>6940682</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45312.5</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N164">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O164">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q164">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>0.425</v>
+      </c>
+      <c r="AA164">
         <v>-0.5</v>
       </c>
-      <c r="AA164">
-        <v>0.5</v>
-      </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6940682</v>
+        <v>6941537</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45312.5</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
+        <v>5</v>
+      </c>
+      <c r="N165">
+        <v>1.363</v>
+      </c>
+      <c r="O165">
+        <v>4.333</v>
+      </c>
+      <c r="P165">
+        <v>7</v>
+      </c>
+      <c r="Q165">
+        <v>-1.25</v>
+      </c>
+      <c r="R165">
         <v>1.8</v>
       </c>
-      <c r="N165">
-        <v>2.875</v>
-      </c>
-      <c r="O165">
-        <v>3.4</v>
-      </c>
-      <c r="P165">
-        <v>2.15</v>
-      </c>
-      <c r="Q165">
-        <v>0.25</v>
-      </c>
-      <c r="R165">
-        <v>1.85</v>
-      </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X165">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6941538</v>
+        <v>6940234</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,55 +15236,55 @@
         <v>45312.5</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
         <v>51</v>
       </c>
       <c r="K166">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M166">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="N166">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="O166">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="Q166">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15293,16 +15293,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.2849999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Z166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6940234</v>
+        <v>6941539</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,76 +15325,76 @@
         <v>45312.5</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K167">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N167">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P167">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q167">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6941539</v>
+        <v>6944657</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15414,40 +15414,40 @@
         <v>45312.5</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K168">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L168">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M168">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N168">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
         <v>1.925</v>
@@ -15456,34 +15456,34 @@
         <v>1.875</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X168">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6944657</v>
+        <v>6941538</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,49 +15503,49 @@
         <v>45312.5</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="L169">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M169">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="N169">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P169">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
         <v>1.925</v>
       </c>
-      <c r="S169">
-        <v>1.875</v>
-      </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
         <v>1.9</v>
@@ -15554,25 +15554,25 @@
         <v>1.9</v>
       </c>
       <c r="W169">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z169">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7741480</v>
+        <v>7741484</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,73 +15592,73 @@
         <v>45318.5</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N170">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P170">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7741481</v>
+        <v>7741480</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,58 +15681,58 @@
         <v>45318.5</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>49</v>
       </c>
       <c r="K171">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L171">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N171">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="O171">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q171">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
-        <v>0.222</v>
+        <v>0.7</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,16 +15741,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA171">
         <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7741484</v>
+        <v>7741481</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,49 +15770,49 @@
         <v>45318.5</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N172">
-        <v>2.7</v>
+        <v>1.222</v>
       </c>
       <c r="O172">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P172">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
         <v>1.9</v>
@@ -15821,25 +15821,25 @@
         <v>1.9</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X172">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC172">
-        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>45318.5</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
         <v>48</v>
@@ -15948,7 +15948,7 @@
         <v>45318.5</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16129,7 +16129,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6940687</v>
+        <v>6941511</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>45319.5</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>50</v>
       </c>
       <c r="K177">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O177">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q177">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
         <v>1.975</v>
@@ -16269,16 +16269,16 @@
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>3.333</v>
+        <v>2.3</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6940236</v>
+        <v>6940687</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45319.5</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N178">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O178">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P178">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
+        <v>1.75</v>
+      </c>
+      <c r="S178">
+        <v>1.95</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
         <v>1.825</v>
       </c>
-      <c r="S178">
-        <v>1.975</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>1.75</v>
-      </c>
-      <c r="V178">
-        <v>1.95</v>
-      </c>
       <c r="W178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
+        <v>0.95</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>0.825</v>
-      </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
-      <c r="AC178">
-        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6941511</v>
+        <v>6940236</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45319.5</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
         <v>3.3</v>
       </c>
       <c r="P179">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X179">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,10 +16482,10 @@
         <v>45332.5</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16574,7 +16574,7 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16660,7 +16660,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
@@ -16838,10 +16838,10 @@
         <v>45339.5</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17016,7 +17016,7 @@
         <v>45339.5</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -17108,7 +17108,7 @@
         <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17194,7 +17194,7 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
         <v>32</v>
@@ -17286,7 +17286,7 @@
         <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17372,7 +17372,7 @@
         <v>45340.5</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G190" t="s">
         <v>38</v>
@@ -17461,10 +17461,10 @@
         <v>45340.5</v>
       </c>
       <c r="F191" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" t="s">
         <v>33</v>
-      </c>
-      <c r="G191" t="s">
-        <v>34</v>
       </c>
       <c r="H191">
         <v>3</v>
@@ -17639,7 +17639,7 @@
         <v>45340.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G193" t="s">
         <v>31</v>
@@ -17820,7 +17820,7 @@
         <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17906,7 +17906,7 @@
         <v>45346.5</v>
       </c>
       <c r="F196" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G196" t="s">
         <v>41</v>
@@ -17995,10 +17995,10 @@
         <v>45346.64583333334</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18084,7 +18084,7 @@
         <v>45347.5</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>37</v>
@@ -18173,7 +18173,7 @@
         <v>45347.5</v>
       </c>
       <c r="F199" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G199" t="s">
         <v>29</v>
@@ -18265,7 +18265,7 @@
         <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18354,7 +18354,7 @@
         <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18440,7 +18440,7 @@
         <v>45347.5</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
         <v>42</v>
@@ -18532,7 +18532,7 @@
         <v>48</v>
       </c>
       <c r="G203" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         <v>37</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H204">
         <v>4</v>
@@ -18796,10 +18796,10 @@
         <v>45353.5</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18888,7 +18888,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -19063,10 +19063,10 @@
         <v>45353.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G209" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -19152,10 +19152,10 @@
         <v>45354.5</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7887080</v>
+        <v>7887079</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45354.5</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K211">
+        <v>1.95</v>
+      </c>
+      <c r="L211">
+        <v>3.25</v>
+      </c>
+      <c r="M211">
         <v>3.4</v>
       </c>
-      <c r="L211">
-        <v>2.9</v>
-      </c>
-      <c r="M211">
-        <v>2.1</v>
-      </c>
       <c r="N211">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P211">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q211">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
+        <v>1.725</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211">
         <v>1.8</v>
       </c>
-      <c r="S211">
-        <v>2</v>
-      </c>
-      <c r="T211">
-        <v>2</v>
-      </c>
-      <c r="U211">
-        <v>1.825</v>
-      </c>
-      <c r="V211">
-        <v>1.975</v>
-      </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7887079</v>
+        <v>7887080</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45354.5</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>50</v>
+      </c>
+      <c r="K212">
+        <v>3.4</v>
+      </c>
+      <c r="L212">
+        <v>2.9</v>
+      </c>
+      <c r="M212">
+        <v>2.1</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212">
+        <v>3</v>
+      </c>
+      <c r="P212">
+        <v>1.909</v>
+      </c>
+      <c r="Q212">
+        <v>0.5</v>
+      </c>
+      <c r="R212">
+        <v>1.8</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
+        <v>1.825</v>
+      </c>
+      <c r="V212">
+        <v>1.975</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>2</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.8</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
         <v>0</v>
       </c>
-      <c r="I212">
-        <v>4</v>
-      </c>
-      <c r="J212" t="s">
-        <v>51</v>
-      </c>
-      <c r="K212">
-        <v>1.95</v>
-      </c>
-      <c r="L212">
-        <v>3.25</v>
-      </c>
-      <c r="M212">
-        <v>3.4</v>
-      </c>
-      <c r="N212">
-        <v>1.95</v>
-      </c>
-      <c r="O212">
-        <v>3.25</v>
-      </c>
-      <c r="P212">
-        <v>3.4</v>
-      </c>
-      <c r="Q212">
-        <v>-0.25</v>
-      </c>
-      <c r="R212">
-        <v>1.725</v>
-      </c>
-      <c r="S212">
-        <v>1.975</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>2</v>
-      </c>
-      <c r="V212">
-        <v>1.8</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
-      <c r="Y212">
-        <v>2.4</v>
-      </c>
-      <c r="Z212">
-        <v>-1</v>
-      </c>
-      <c r="AA212">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB212">
-        <v>1</v>
-      </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19508,10 +19508,10 @@
         <v>45360.5</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19597,7 +19597,7 @@
         <v>45360.5</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
         <v>43</v>
@@ -19775,7 +19775,7 @@
         <v>45360.5</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G217" t="s">
         <v>48</v>
@@ -19956,7 +19956,7 @@
         <v>41</v>
       </c>
       <c r="G219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20042,7 +20042,7 @@
         <v>45360.75</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G220" t="s">
         <v>29</v>
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7780948</v>
+        <v>7919769</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,55 +20131,55 @@
         <v>45361.5</v>
       </c>
       <c r="F221" t="s">
+        <v>36</v>
+      </c>
+      <c r="G221" t="s">
         <v>47</v>
       </c>
-      <c r="G221" t="s">
-        <v>32</v>
-      </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>51</v>
       </c>
       <c r="K221">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="L221">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M221">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="N221">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O221">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P221">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20188,19 +20188,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1.625</v>
+        <v>1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB221">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7919769</v>
+        <v>7780948</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,55 +20220,55 @@
         <v>45361.5</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G222" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
         <v>51</v>
       </c>
       <c r="K222">
+        <v>2.15</v>
+      </c>
+      <c r="L222">
+        <v>2.875</v>
+      </c>
+      <c r="M222">
         <v>3.3</v>
       </c>
-      <c r="L222">
-        <v>3.2</v>
-      </c>
-      <c r="M222">
-        <v>2.05</v>
-      </c>
       <c r="N222">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O222">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P222">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q222">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20277,19 +20277,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1</v>
+        <v>1.625</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20309,7 +20309,7 @@
         <v>45361.66666666666</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20487,7 +20487,7 @@
         <v>45367.5</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
         <v>43</v>
@@ -20579,7 +20579,7 @@
         <v>42</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20665,7 +20665,7 @@
         <v>45367.5</v>
       </c>
       <c r="F227" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G227" t="s">
         <v>30</v>
@@ -20754,7 +20754,7 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -20846,7 +20846,7 @@
         <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -20920,7 +20920,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7781009</v>
+        <v>7781008</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20932,13 +20932,13 @@
         <v>45368.5</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>2</v>
@@ -20947,40 +20947,40 @@
         <v>51</v>
       </c>
       <c r="K230">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L230">
+        <v>3.4</v>
+      </c>
+      <c r="M230">
+        <v>1.833</v>
+      </c>
+      <c r="N230">
+        <v>5</v>
+      </c>
+      <c r="O230">
         <v>3.8</v>
       </c>
-      <c r="M230">
-        <v>5.5</v>
-      </c>
-      <c r="N230">
-        <v>1.55</v>
-      </c>
-      <c r="O230">
-        <v>4</v>
-      </c>
       <c r="P230">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q230">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R230">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20989,19 +20989,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>4.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB230">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7781008</v>
+        <v>7781009</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,13 +21021,13 @@
         <v>45368.5</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>2</v>
@@ -21036,40 +21036,40 @@
         <v>51</v>
       </c>
       <c r="K231">
+        <v>1.55</v>
+      </c>
+      <c r="L231">
+        <v>3.8</v>
+      </c>
+      <c r="M231">
+        <v>5.5</v>
+      </c>
+      <c r="N231">
+        <v>1.55</v>
+      </c>
+      <c r="O231">
         <v>4</v>
       </c>
-      <c r="L231">
-        <v>3.4</v>
-      </c>
-      <c r="M231">
-        <v>1.833</v>
-      </c>
-      <c r="N231">
-        <v>5</v>
-      </c>
-      <c r="O231">
-        <v>3.8</v>
-      </c>
       <c r="P231">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R231">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S231">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21078,19 +21078,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.6000000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC231">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21110,10 +21110,10 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H232">
         <v>2</v>
@@ -21199,7 +21199,7 @@
         <v>45374.33333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
         <v>48</v>
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7780955</v>
+        <v>8016859</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21285,49 +21285,49 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45381.5</v>
+        <v>45382.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K234">
+        <v>2.4</v>
+      </c>
+      <c r="L234">
+        <v>3.2</v>
+      </c>
+      <c r="M234">
+        <v>2.75</v>
+      </c>
+      <c r="N234">
         <v>2.2</v>
       </c>
-      <c r="L234">
-        <v>3.1</v>
-      </c>
-      <c r="M234">
-        <v>3.1</v>
-      </c>
-      <c r="N234">
-        <v>2.4</v>
-      </c>
       <c r="O234">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P234">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T234">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V234">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21350,7 +21350,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7780987</v>
+        <v>7780952</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21359,49 +21359,49 @@
         <v>28</v>
       </c>
       <c r="E235" s="2">
-        <v>45381.5</v>
+        <v>45382.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G235" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K235">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L235">
         <v>3.2</v>
       </c>
       <c r="M235">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O235">
         <v>3.2</v>
       </c>
       <c r="P235">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S235">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T235">
         <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W235">
         <v>0</v>
@@ -21416,598 +21416,6 @@
         <v>0</v>
       </c>
       <c r="AA235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:29">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>7780988</v>
-      </c>
-      <c r="C236" t="s">
-        <v>28</v>
-      </c>
-      <c r="D236" t="s">
-        <v>28</v>
-      </c>
-      <c r="E236" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F236" t="s">
-        <v>40</v>
-      </c>
-      <c r="G236" t="s">
-        <v>36</v>
-      </c>
-      <c r="K236">
-        <v>2.7</v>
-      </c>
-      <c r="L236">
-        <v>3.3</v>
-      </c>
-      <c r="M236">
-        <v>2.375</v>
-      </c>
-      <c r="N236">
-        <v>2.625</v>
-      </c>
-      <c r="O236">
-        <v>3.3</v>
-      </c>
-      <c r="P236">
-        <v>2.375</v>
-      </c>
-      <c r="Q236">
-        <v>0</v>
-      </c>
-      <c r="R236">
-        <v>2</v>
-      </c>
-      <c r="S236">
-        <v>1.8</v>
-      </c>
-      <c r="T236">
-        <v>2.25</v>
-      </c>
-      <c r="U236">
-        <v>1.85</v>
-      </c>
-      <c r="V236">
-        <v>1.95</v>
-      </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <v>0</v>
-      </c>
-      <c r="Y236">
-        <v>0</v>
-      </c>
-      <c r="Z236">
-        <v>0</v>
-      </c>
-      <c r="AA236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:29">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237">
-        <v>7781011</v>
-      </c>
-      <c r="C237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" t="s">
-        <v>28</v>
-      </c>
-      <c r="E237" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F237" t="s">
-        <v>48</v>
-      </c>
-      <c r="G237" t="s">
-        <v>34</v>
-      </c>
-      <c r="K237">
-        <v>2.15</v>
-      </c>
-      <c r="L237">
-        <v>3.2</v>
-      </c>
-      <c r="M237">
-        <v>3.2</v>
-      </c>
-      <c r="N237">
-        <v>2.15</v>
-      </c>
-      <c r="O237">
-        <v>3.2</v>
-      </c>
-      <c r="P237">
-        <v>3.2</v>
-      </c>
-      <c r="Q237">
-        <v>-0.25</v>
-      </c>
-      <c r="R237">
-        <v>1.85</v>
-      </c>
-      <c r="S237">
-        <v>1.95</v>
-      </c>
-      <c r="T237">
-        <v>2.25</v>
-      </c>
-      <c r="U237">
-        <v>1.925</v>
-      </c>
-      <c r="V237">
-        <v>1.875</v>
-      </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-      <c r="X237">
-        <v>0</v>
-      </c>
-      <c r="Y237">
-        <v>0</v>
-      </c>
-      <c r="Z237">
-        <v>0</v>
-      </c>
-      <c r="AA237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>7781013</v>
-      </c>
-      <c r="C238" t="s">
-        <v>28</v>
-      </c>
-      <c r="D238" t="s">
-        <v>28</v>
-      </c>
-      <c r="E238" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F238" t="s">
-        <v>44</v>
-      </c>
-      <c r="G238" t="s">
-        <v>33</v>
-      </c>
-      <c r="K238">
-        <v>1.6</v>
-      </c>
-      <c r="L238">
-        <v>3.8</v>
-      </c>
-      <c r="M238">
-        <v>4.75</v>
-      </c>
-      <c r="N238">
-        <v>1.6</v>
-      </c>
-      <c r="O238">
-        <v>3.8</v>
-      </c>
-      <c r="P238">
-        <v>4.75</v>
-      </c>
-      <c r="Q238">
-        <v>-1</v>
-      </c>
-      <c r="R238">
-        <v>2.025</v>
-      </c>
-      <c r="S238">
-        <v>1.775</v>
-      </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>1.875</v>
-      </c>
-      <c r="V238">
-        <v>1.925</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Y238">
-        <v>0</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-      <c r="AA238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>7781124</v>
-      </c>
-      <c r="C239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F239" t="s">
-        <v>42</v>
-      </c>
-      <c r="G239" t="s">
-        <v>30</v>
-      </c>
-      <c r="K239">
-        <v>2.6</v>
-      </c>
-      <c r="L239">
-        <v>3.2</v>
-      </c>
-      <c r="M239">
-        <v>2.5</v>
-      </c>
-      <c r="N239">
-        <v>2.6</v>
-      </c>
-      <c r="O239">
-        <v>3.2</v>
-      </c>
-      <c r="P239">
-        <v>2.5</v>
-      </c>
-      <c r="Q239">
-        <v>0</v>
-      </c>
-      <c r="R239">
-        <v>1.975</v>
-      </c>
-      <c r="S239">
-        <v>1.825</v>
-      </c>
-      <c r="T239">
-        <v>2.25</v>
-      </c>
-      <c r="U239">
-        <v>1.95</v>
-      </c>
-      <c r="V239">
-        <v>1.85</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-      <c r="Y239">
-        <v>0</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-      <c r="AA239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>8016858</v>
-      </c>
-      <c r="C240" t="s">
-        <v>28</v>
-      </c>
-      <c r="D240" t="s">
-        <v>28</v>
-      </c>
-      <c r="E240" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F240" t="s">
-        <v>46</v>
-      </c>
-      <c r="G240" t="s">
-        <v>45</v>
-      </c>
-      <c r="K240">
-        <v>1.727</v>
-      </c>
-      <c r="L240">
-        <v>3.5</v>
-      </c>
-      <c r="M240">
-        <v>4.333</v>
-      </c>
-      <c r="N240">
-        <v>1.571</v>
-      </c>
-      <c r="O240">
-        <v>3.75</v>
-      </c>
-      <c r="P240">
-        <v>5.25</v>
-      </c>
-      <c r="Q240">
-        <v>-1</v>
-      </c>
-      <c r="R240">
-        <v>1.975</v>
-      </c>
-      <c r="S240">
-        <v>1.825</v>
-      </c>
-      <c r="T240">
-        <v>2.5</v>
-      </c>
-      <c r="U240">
-        <v>2.025</v>
-      </c>
-      <c r="V240">
-        <v>1.775</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
-      </c>
-      <c r="Z240">
-        <v>0</v>
-      </c>
-      <c r="AA240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>8016857</v>
-      </c>
-      <c r="C241" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" t="s">
-        <v>28</v>
-      </c>
-      <c r="E241" s="2">
-        <v>45381.58333333334</v>
-      </c>
-      <c r="F241" t="s">
-        <v>37</v>
-      </c>
-      <c r="G241" t="s">
-        <v>38</v>
-      </c>
-      <c r="K241">
-        <v>2.8</v>
-      </c>
-      <c r="L241">
-        <v>3.2</v>
-      </c>
-      <c r="M241">
-        <v>2.375</v>
-      </c>
-      <c r="N241">
-        <v>2.3</v>
-      </c>
-      <c r="O241">
-        <v>3.25</v>
-      </c>
-      <c r="P241">
-        <v>2.875</v>
-      </c>
-      <c r="Q241">
-        <v>-0.25</v>
-      </c>
-      <c r="R241">
-        <v>2.025</v>
-      </c>
-      <c r="S241">
-        <v>1.775</v>
-      </c>
-      <c r="T241">
-        <v>2.25</v>
-      </c>
-      <c r="U241">
-        <v>1.825</v>
-      </c>
-      <c r="V241">
-        <v>1.975</v>
-      </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <v>0</v>
-      </c>
-      <c r="Y241">
-        <v>0</v>
-      </c>
-      <c r="Z241">
-        <v>0</v>
-      </c>
-      <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>8016859</v>
-      </c>
-      <c r="C242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242" t="s">
-        <v>28</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45382.45833333334</v>
-      </c>
-      <c r="F242" t="s">
-        <v>41</v>
-      </c>
-      <c r="G242" t="s">
-        <v>31</v>
-      </c>
-      <c r="K242">
-        <v>2.4</v>
-      </c>
-      <c r="L242">
-        <v>3.2</v>
-      </c>
-      <c r="M242">
-        <v>2.75</v>
-      </c>
-      <c r="N242">
-        <v>2.2</v>
-      </c>
-      <c r="O242">
-        <v>3.2</v>
-      </c>
-      <c r="P242">
-        <v>3</v>
-      </c>
-      <c r="Q242">
-        <v>-0.25</v>
-      </c>
-      <c r="R242">
-        <v>1.925</v>
-      </c>
-      <c r="S242">
-        <v>1.875</v>
-      </c>
-      <c r="T242">
-        <v>2.25</v>
-      </c>
-      <c r="U242">
-        <v>1.95</v>
-      </c>
-      <c r="V242">
-        <v>1.85</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>7780952</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45382.5</v>
-      </c>
-      <c r="F243" t="s">
-        <v>47</v>
-      </c>
-      <c r="G243" t="s">
-        <v>39</v>
-      </c>
-      <c r="K243">
-        <v>2.25</v>
-      </c>
-      <c r="L243">
-        <v>3.2</v>
-      </c>
-      <c r="M243">
-        <v>3</v>
-      </c>
-      <c r="N243">
-        <v>2.25</v>
-      </c>
-      <c r="O243">
-        <v>3.2</v>
-      </c>
-      <c r="P243">
-        <v>3</v>
-      </c>
-      <c r="Q243">
-        <v>-0.25</v>
-      </c>
-      <c r="R243">
-        <v>2.025</v>
-      </c>
-      <c r="S243">
-        <v>1.775</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>1.875</v>
-      </c>
-      <c r="V243">
-        <v>1.925</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6940225</v>
+        <v>6940671</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,76 +10786,76 @@
         <v>45263.5</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K116">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L116">
+        <v>3.4</v>
+      </c>
+      <c r="M116">
+        <v>1.909</v>
+      </c>
+      <c r="N116">
         <v>3.6</v>
-      </c>
-      <c r="M116">
-        <v>5.25</v>
-      </c>
-      <c r="N116">
-        <v>1.615</v>
       </c>
       <c r="O116">
         <v>3.5</v>
       </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
+        <v>1.95</v>
+      </c>
+      <c r="S116">
         <v>1.85</v>
       </c>
-      <c r="S116">
-        <v>1.95</v>
-      </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6940671</v>
+        <v>6940225</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45263.5</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="N117">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
         <v>3.5</v>
       </c>
       <c r="P117">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
         <v>1.95</v>
       </c>
-      <c r="S117">
-        <v>1.85</v>
-      </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.95</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6940673</v>
+        <v>6940675</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45277.5</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K135">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M135">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N135">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6940675</v>
+        <v>6940673</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45277.5</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K136">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L136">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
+        <v>5</v>
+      </c>
+      <c r="N136">
+        <v>1.5</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>5</v>
+      </c>
+      <c r="Q136">
+        <v>-1</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.9</v>
+      </c>
+      <c r="T136">
         <v>2.75</v>
       </c>
-      <c r="N136">
-        <v>2.3</v>
-      </c>
-      <c r="O136">
-        <v>3.25</v>
-      </c>
-      <c r="P136">
-        <v>2.75</v>
-      </c>
-      <c r="Q136">
-        <v>-0.25</v>
-      </c>
-      <c r="R136">
-        <v>2.025</v>
-      </c>
-      <c r="S136">
-        <v>1.775</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6941532</v>
+        <v>6941531</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,73 +12744,73 @@
         <v>45277.5</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="L138">
+        <v>3.6</v>
+      </c>
+      <c r="M138">
+        <v>1.666</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138">
         <v>3.5</v>
       </c>
-      <c r="M138">
-        <v>4</v>
-      </c>
-      <c r="N138">
-        <v>1.727</v>
-      </c>
-      <c r="O138">
-        <v>3.6</v>
-      </c>
       <c r="P138">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q138">
+        <v>0.75</v>
+      </c>
+      <c r="R138">
+        <v>1.825</v>
+      </c>
+      <c r="S138">
+        <v>1.975</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
+        <v>1.9</v>
+      </c>
+      <c r="V138">
+        <v>1.9</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>0.75</v>
+      </c>
+      <c r="Z138">
         <v>-0.5</v>
       </c>
-      <c r="R138">
-        <v>1.75</v>
-      </c>
-      <c r="S138">
-        <v>1.95</v>
-      </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.975</v>
-      </c>
-      <c r="V138">
-        <v>1.825</v>
-      </c>
-      <c r="W138">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
-      <c r="Y138">
-        <v>-1</v>
-      </c>
-      <c r="Z138">
-        <v>0.75</v>
-      </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6941531</v>
+        <v>6941532</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,73 +12833,73 @@
         <v>45277.5</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
+        <v>3.5</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>1.727</v>
+      </c>
+      <c r="O139">
         <v>3.6</v>
       </c>
-      <c r="M139">
-        <v>1.666</v>
-      </c>
-      <c r="N139">
+      <c r="P139">
         <v>4</v>
       </c>
-      <c r="O139">
-        <v>3.5</v>
-      </c>
-      <c r="P139">
+      <c r="Q139">
+        <v>-0.5</v>
+      </c>
+      <c r="R139">
         <v>1.75</v>
       </c>
-      <c r="Q139">
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>1.975</v>
+      </c>
+      <c r="V139">
+        <v>1.825</v>
+      </c>
+      <c r="W139">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
         <v>0.75</v>
       </c>
-      <c r="R139">
-        <v>1.825</v>
-      </c>
-      <c r="S139">
-        <v>1.975</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.9</v>
-      </c>
-      <c r="V139">
-        <v>1.9</v>
-      </c>
-      <c r="W139">
-        <v>-1</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>0.75</v>
-      </c>
-      <c r="Z139">
-        <v>-0.5</v>
-      </c>
       <c r="AA139">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6944657</v>
+        <v>6941539</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,40 +15236,40 @@
         <v>45312.5</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L166">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N166">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O166">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P166">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
         <v>1.925</v>
@@ -15278,34 +15278,34 @@
         <v>1.875</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6941539</v>
+        <v>6944657</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,40 +15325,40 @@
         <v>45312.5</v>
       </c>
       <c r="F167" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L167">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N167">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O167">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P167">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
         <v>1.925</v>
@@ -15367,34 +15367,34 @@
         <v>1.875</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X167">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6944656</v>
+        <v>6941512</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45319.5</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175" t="s">
+        <v>50</v>
+      </c>
+      <c r="K175">
+        <v>5.5</v>
+      </c>
+      <c r="L175">
+        <v>4.5</v>
+      </c>
+      <c r="M175">
+        <v>1.4</v>
+      </c>
+      <c r="N175">
+        <v>4.75</v>
+      </c>
+      <c r="O175">
+        <v>4.2</v>
+      </c>
+      <c r="P175">
+        <v>1.5</v>
+      </c>
+      <c r="Q175">
         <v>1</v>
       </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175" t="s">
-        <v>49</v>
-      </c>
-      <c r="K175">
-        <v>2</v>
-      </c>
-      <c r="L175">
-        <v>3.3</v>
-      </c>
-      <c r="M175">
-        <v>3.25</v>
-      </c>
-      <c r="N175">
-        <v>1.833</v>
-      </c>
-      <c r="O175">
-        <v>3.5</v>
-      </c>
-      <c r="P175">
-        <v>3.6</v>
-      </c>
-      <c r="Q175">
-        <v>-0.5</v>
-      </c>
       <c r="R175">
+        <v>1.95</v>
+      </c>
+      <c r="S175">
         <v>1.85</v>
-      </c>
-      <c r="S175">
-        <v>1.95</v>
       </c>
       <c r="T175">
         <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6941512</v>
+        <v>6944656</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45319.5</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="N176">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O176">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q176">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
+        <v>1.85</v>
+      </c>
+      <c r="S176">
         <v>1.95</v>
-      </c>
-      <c r="S176">
-        <v>1.85</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6941511</v>
+        <v>6940687</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>45319.5</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L177">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M177">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="N177">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P177">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
         <v>1.975</v>
@@ -16269,16 +16269,16 @@
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.3</v>
+        <v>3.333</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6940687</v>
+        <v>6940236</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45319.5</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L178">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O178">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>1.825</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
         <v>1.75</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>1.95</v>
       </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X178">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>0.95</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
-      <c r="AC178">
-        <v>0.825</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6940236</v>
+        <v>6941511</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45319.5</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N179">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O179">
         <v>3.3</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.975</v>
+      </c>
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="S179">
-        <v>1.975</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.75</v>
-      </c>
-      <c r="V179">
-        <v>1.95</v>
-      </c>
       <c r="W179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>-0.5</v>
+      </c>
+      <c r="AA179">
+        <v>0.5</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.825</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7781000</v>
+        <v>7780999</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,58 +18262,58 @@
         <v>45347.5</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H200">
+        <v>3</v>
+      </c>
+      <c r="I200">
         <v>1</v>
-      </c>
-      <c r="I200">
-        <v>0</v>
       </c>
       <c r="J200" t="s">
         <v>49</v>
       </c>
       <c r="K200">
-        <v>1.222</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N200">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="O200">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>12</v>
+        <v>1.833</v>
       </c>
       <c r="Q200">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R200">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
-        <v>0.181</v>
+        <v>2.6</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18322,16 +18322,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA200">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7781001</v>
+        <v>7781000</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,10 +18351,10 @@
         <v>45347.5</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18366,43 +18366,43 @@
         <v>49</v>
       </c>
       <c r="K201">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="L201">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M201">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="N201">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P201">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
         <v>1.95</v>
       </c>
-      <c r="S201">
+      <c r="V201">
         <v>1.85</v>
       </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>1.825</v>
-      </c>
-      <c r="V201">
-        <v>1.975</v>
-      </c>
       <c r="W201">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18411,16 +18411,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7780999</v>
+        <v>7781001</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,58 +18529,58 @@
         <v>45347.5</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>49</v>
       </c>
       <c r="K203">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M203">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N203">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P203">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q203">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18589,16 +18589,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7947487</v>
+        <v>7947488</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,76 +20398,76 @@
         <v>45367.5</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="L224">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M224">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N224">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q224">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z224">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB224">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC224">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7947489</v>
+        <v>7947487</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,76 +20487,76 @@
         <v>45367.5</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G225" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K225">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L225">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M225">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N225">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O225">
         <v>3.1</v>
       </c>
       <c r="P225">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T225">
         <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W225">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB225">
         <v>-0.5</v>
       </c>
       <c r="AC225">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7947488</v>
+        <v>7947489</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45367.5</v>
       </c>
       <c r="F226" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K226">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L226">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N226">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
+        <v>1.825</v>
+      </c>
+      <c r="V226">
         <v>1.975</v>
       </c>
-      <c r="V226">
-        <v>1.825</v>
-      </c>
       <c r="W226">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA226">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -22240,7 +22240,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7780990</v>
+        <v>7780989</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22252,46 +22252,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L245">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N245">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O245">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P245">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S245">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22314,7 +22314,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7780989</v>
+        <v>7780990</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22326,22 +22326,22 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K246">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L246">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M246">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N246">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O246">
         <v>3.1</v>
@@ -22353,19 +22353,19 @@
         <v>-0.25</v>
       </c>
       <c r="R246">
+        <v>1.85</v>
+      </c>
+      <c r="S246">
         <v>1.95</v>
       </c>
-      <c r="S246">
-        <v>1.85</v>
-      </c>
       <c r="T246">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22501,10 +22501,10 @@
         <v>1</v>
       </c>
       <c r="R248">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
         <v>2.5</v>
@@ -22536,7 +22536,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>8039534</v>
+        <v>8039533</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22548,46 +22548,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K249">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L249">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M249">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N249">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O249">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P249">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q249">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S249">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T249">
         <v>2.25</v>
       </c>
       <c r="U249">
+        <v>1.825</v>
+      </c>
+      <c r="V249">
         <v>1.975</v>
-      </c>
-      <c r="V249">
-        <v>1.825</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>8039533</v>
+        <v>8039532</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22622,46 +22622,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F250" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K250">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L250">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M250">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N250">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O250">
         <v>2.9</v>
       </c>
       <c r="P250">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R250">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S250">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V250">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22684,7 +22684,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>8039532</v>
+        <v>8039509</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22696,46 +22696,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K251">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L251">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M251">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N251">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="O251">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R251">
+        <v>1.975</v>
+      </c>
+      <c r="S251">
         <v>1.825</v>
-      </c>
-      <c r="S251">
-        <v>1.975</v>
       </c>
       <c r="T251">
         <v>2.5</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V251">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>8039509</v>
+        <v>8039534</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22770,31 +22770,31 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G252" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K252">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L252">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M252">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N252">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P252">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q252">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R252">
         <v>2</v>
@@ -22803,13 +22803,13 @@
         <v>1.8</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W252">
         <v>0</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6940671</v>
+        <v>6940225</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,76 +10786,76 @@
         <v>45263.5</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="N116">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="O116">
         <v>3.5</v>
       </c>
       <c r="P116">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
+        <v>1.85</v>
+      </c>
+      <c r="S116">
         <v>1.95</v>
       </c>
-      <c r="S116">
-        <v>1.85</v>
-      </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
         <v>0.95</v>
       </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6940225</v>
+        <v>6940671</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45263.5</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L117">
+        <v>3.4</v>
+      </c>
+      <c r="M117">
+        <v>1.909</v>
+      </c>
+      <c r="N117">
         <v>3.6</v>
-      </c>
-      <c r="M117">
-        <v>5.25</v>
-      </c>
-      <c r="N117">
-        <v>1.615</v>
       </c>
       <c r="O117">
         <v>3.5</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
+        <v>1.95</v>
+      </c>
+      <c r="S117">
         <v>1.85</v>
       </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6940675</v>
+        <v>6940673</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45277.5</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L135">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
+        <v>5</v>
+      </c>
+      <c r="N135">
+        <v>1.5</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>5</v>
+      </c>
+      <c r="Q135">
+        <v>-1</v>
+      </c>
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
         <v>2.75</v>
       </c>
-      <c r="N135">
-        <v>2.3</v>
-      </c>
-      <c r="O135">
-        <v>3.25</v>
-      </c>
-      <c r="P135">
-        <v>2.75</v>
-      </c>
-      <c r="Q135">
-        <v>-0.25</v>
-      </c>
-      <c r="R135">
-        <v>2.025</v>
-      </c>
-      <c r="S135">
-        <v>1.775</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6940673</v>
+        <v>6940675</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45277.5</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M136">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N136">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y136">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6941531</v>
+        <v>6941532</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,73 +12744,73 @@
         <v>45277.5</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="L138">
+        <v>3.5</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+      <c r="N138">
+        <v>1.727</v>
+      </c>
+      <c r="O138">
         <v>3.6</v>
       </c>
-      <c r="M138">
-        <v>1.666</v>
-      </c>
-      <c r="N138">
+      <c r="P138">
         <v>4</v>
       </c>
-      <c r="O138">
-        <v>3.5</v>
-      </c>
-      <c r="P138">
+      <c r="Q138">
+        <v>-0.5</v>
+      </c>
+      <c r="R138">
         <v>1.75</v>
       </c>
-      <c r="Q138">
+      <c r="S138">
+        <v>1.95</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
+        <v>1.825</v>
+      </c>
+      <c r="W138">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
         <v>0.75</v>
       </c>
-      <c r="R138">
-        <v>1.825</v>
-      </c>
-      <c r="S138">
-        <v>1.975</v>
-      </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>1.9</v>
-      </c>
-      <c r="V138">
-        <v>1.9</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
-      <c r="Y138">
-        <v>0.75</v>
-      </c>
-      <c r="Z138">
-        <v>-0.5</v>
-      </c>
       <c r="AA138">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6941532</v>
+        <v>6941531</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,73 +12833,73 @@
         <v>45277.5</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="L139">
+        <v>3.6</v>
+      </c>
+      <c r="M139">
+        <v>1.666</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139">
         <v>3.5</v>
       </c>
-      <c r="M139">
-        <v>4</v>
-      </c>
-      <c r="N139">
-        <v>1.727</v>
-      </c>
-      <c r="O139">
-        <v>3.6</v>
-      </c>
       <c r="P139">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q139">
+        <v>0.75</v>
+      </c>
+      <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
+        <v>1.975</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.9</v>
+      </c>
+      <c r="V139">
+        <v>1.9</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>0.75</v>
+      </c>
+      <c r="Z139">
         <v>-0.5</v>
       </c>
-      <c r="R139">
-        <v>1.75</v>
-      </c>
-      <c r="S139">
-        <v>1.95</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
-      <c r="U139">
-        <v>1.975</v>
-      </c>
-      <c r="V139">
-        <v>1.825</v>
-      </c>
-      <c r="W139">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
-      <c r="Z139">
-        <v>0.75</v>
-      </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB139">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6941539</v>
+        <v>6944657</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,40 +15236,40 @@
         <v>45312.5</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K166">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L166">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M166">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N166">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P166">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
         <v>1.925</v>
@@ -15278,34 +15278,34 @@
         <v>1.875</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X166">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6944657</v>
+        <v>6941539</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,40 +15325,40 @@
         <v>45312.5</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K167">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L167">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M167">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N167">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O167">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R167">
         <v>1.925</v>
@@ -15367,34 +15367,34 @@
         <v>1.875</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6941512</v>
+        <v>6944656</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,76 +16037,76 @@
         <v>45319.5</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="N175">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O175">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q175">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
+        <v>1.85</v>
+      </c>
+      <c r="S175">
         <v>1.95</v>
-      </c>
-      <c r="S175">
-        <v>1.85</v>
       </c>
       <c r="T175">
         <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6944656</v>
+        <v>6941512</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45319.5</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>50</v>
+      </c>
+      <c r="K176">
+        <v>5.5</v>
+      </c>
+      <c r="L176">
+        <v>4.5</v>
+      </c>
+      <c r="M176">
+        <v>1.4</v>
+      </c>
+      <c r="N176">
+        <v>4.75</v>
+      </c>
+      <c r="O176">
+        <v>4.2</v>
+      </c>
+      <c r="P176">
+        <v>1.5</v>
+      </c>
+      <c r="Q176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K176">
-        <v>2</v>
-      </c>
-      <c r="L176">
-        <v>3.3</v>
-      </c>
-      <c r="M176">
-        <v>3.25</v>
-      </c>
-      <c r="N176">
-        <v>1.833</v>
-      </c>
-      <c r="O176">
-        <v>3.5</v>
-      </c>
-      <c r="P176">
-        <v>3.6</v>
-      </c>
-      <c r="Q176">
-        <v>-0.5</v>
-      </c>
       <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
         <v>1.85</v>
-      </c>
-      <c r="S176">
-        <v>1.95</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA176">
-        <v>-1</v>
-      </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6940687</v>
+        <v>6941511</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>45319.5</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O177">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q177">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
         <v>1.975</v>
@@ -16269,16 +16269,16 @@
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>3.333</v>
+        <v>2.3</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6940236</v>
+        <v>6940687</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45319.5</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N178">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O178">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P178">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
+        <v>1.75</v>
+      </c>
+      <c r="S178">
+        <v>1.95</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
         <v>1.825</v>
       </c>
-      <c r="S178">
-        <v>1.975</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>1.75</v>
-      </c>
-      <c r="V178">
-        <v>1.95</v>
-      </c>
       <c r="W178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
+        <v>0.95</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>0.825</v>
-      </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
-      <c r="AC178">
-        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6941511</v>
+        <v>6940236</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45319.5</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
         <v>3.3</v>
       </c>
       <c r="P179">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X179">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7780999</v>
+        <v>7781000</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,58 +18262,58 @@
         <v>45347.5</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
         <v>49</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>1.222</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M200">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N200">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P200">
-        <v>1.833</v>
+        <v>12</v>
       </c>
       <c r="Q200">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
-        <v>2.6</v>
+        <v>0.181</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18322,16 +18322,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7781000</v>
+        <v>7781001</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,10 +18351,10 @@
         <v>45347.5</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18366,43 +18366,43 @@
         <v>49</v>
       </c>
       <c r="K201">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L201">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M201">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N201">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="O201">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="Q201">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.85</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
         <v>1.825</v>
       </c>
-      <c r="S201">
+      <c r="V201">
         <v>1.975</v>
       </c>
-      <c r="T201">
-        <v>2.75</v>
-      </c>
-      <c r="U201">
-        <v>1.95</v>
-      </c>
-      <c r="V201">
-        <v>1.85</v>
-      </c>
       <c r="W201">
-        <v>0.181</v>
+        <v>1.25</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18411,16 +18411,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
-      <c r="AC201">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7781001</v>
+        <v>7780999</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,58 +18529,58 @@
         <v>45347.5</v>
       </c>
       <c r="F203" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203">
         <v>1</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>49</v>
       </c>
       <c r="K203">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N203">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O203">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R203">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W203">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18589,16 +18589,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC203">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7947488</v>
+        <v>7947487</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,76 +20398,76 @@
         <v>45367.5</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H224">
         <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K224">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="L224">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N224">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P224">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S224">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y224">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA224">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB224">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7947487</v>
+        <v>7947489</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,76 +20487,76 @@
         <v>45367.5</v>
       </c>
       <c r="F225" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K225">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L225">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M225">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N225">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O225">
         <v>3.1</v>
       </c>
       <c r="P225">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T225">
         <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X225">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
         <v>-0.5</v>
       </c>
       <c r="AC225">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7947489</v>
+        <v>7947488</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45367.5</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G226" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K226">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M226">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O226">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
+        <v>1.975</v>
+      </c>
+      <c r="V226">
         <v>1.825</v>
       </c>
-      <c r="V226">
-        <v>1.975</v>
-      </c>
       <c r="W226">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC226">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -22214,10 +22214,10 @@
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22267,22 +22267,22 @@
         <v>4</v>
       </c>
       <c r="N245">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O245">
         <v>3.1</v>
       </c>
       <c r="P245">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
         <v>2.25</v>
@@ -22362,10 +22362,10 @@
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22388,7 +22388,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7781016</v>
+        <v>7781015</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22400,37 +22400,37 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G247" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K247">
-        <v>1.533</v>
+        <v>5.25</v>
       </c>
       <c r="L247">
         <v>4</v>
       </c>
       <c r="M247">
+        <v>1.533</v>
+      </c>
+      <c r="N247">
         <v>5.25</v>
-      </c>
-      <c r="N247">
-        <v>1.533</v>
       </c>
       <c r="O247">
         <v>4</v>
       </c>
       <c r="P247">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q247">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
         <v>2.5</v>
@@ -22462,7 +22462,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7781015</v>
+        <v>7781016</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22474,31 +22474,31 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F248" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K248">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="L248">
         <v>4</v>
       </c>
       <c r="M248">
+        <v>5.25</v>
+      </c>
+      <c r="N248">
         <v>1.533</v>
-      </c>
-      <c r="N248">
-        <v>5.25</v>
       </c>
       <c r="O248">
         <v>4</v>
       </c>
       <c r="P248">
-        <v>1.533</v>
+        <v>5.25</v>
       </c>
       <c r="Q248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R248">
         <v>1.875</v>
@@ -22510,10 +22510,10 @@
         <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22536,7 +22536,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>8039533</v>
+        <v>8039534</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22548,46 +22548,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G249" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K249">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L249">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M249">
+        <v>2.625</v>
+      </c>
+      <c r="N249">
         <v>3</v>
-      </c>
-      <c r="N249">
-        <v>2.3</v>
       </c>
       <c r="O249">
         <v>2.9</v>
       </c>
       <c r="P249">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q249">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R249">
+        <v>1.775</v>
+      </c>
+      <c r="S249">
         <v>2.025</v>
-      </c>
-      <c r="S249">
-        <v>1.775</v>
       </c>
       <c r="T249">
         <v>2.25</v>
       </c>
       <c r="U249">
+        <v>1.975</v>
+      </c>
+      <c r="V249">
         <v>1.825</v>
-      </c>
-      <c r="V249">
-        <v>1.975</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>8039532</v>
+        <v>8039533</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22622,46 +22622,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G250" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K250">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L250">
+        <v>2.9</v>
+      </c>
+      <c r="M250">
         <v>3</v>
       </c>
-      <c r="M250">
-        <v>2.625</v>
-      </c>
       <c r="N250">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O250">
         <v>2.9</v>
       </c>
       <c r="P250">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S250">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22684,7 +22684,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>8039509</v>
+        <v>8039532</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22696,46 +22696,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G251" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K251">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L251">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M251">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N251">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P251">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q251">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R251">
+        <v>1.825</v>
+      </c>
+      <c r="S251">
         <v>1.975</v>
       </c>
-      <c r="S251">
-        <v>1.825</v>
-      </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V251">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>8039534</v>
+        <v>8039509</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22770,46 +22770,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K252">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L252">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N252">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O252">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
+        <v>5.25</v>
+      </c>
+      <c r="Q252">
+        <v>-1</v>
+      </c>
+      <c r="R252">
+        <v>1.975</v>
+      </c>
+      <c r="S252">
+        <v>1.825</v>
+      </c>
+      <c r="T252">
         <v>2.5</v>
       </c>
-      <c r="Q252">
-        <v>0</v>
-      </c>
-      <c r="R252">
-        <v>2</v>
-      </c>
-      <c r="S252">
-        <v>1.8</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V252">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
         <v>0</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,9 @@
     <t>Varzim</t>
   </si>
   <si>
+    <t>CF Canelas 2010</t>
+  </si>
+  <si>
     <t>AD Fafe</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
   </si>
   <si>
     <t>Pero Pinheiro</t>
-  </si>
-  <si>
-    <t>CF Canelas 2010</t>
   </si>
   <si>
     <t>Oliveira Hospital</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC252"/>
+  <dimension ref="A1:AC250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6941477</v>
+        <v>6941478</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
+        <v>3.1</v>
+      </c>
+      <c r="M3">
         <v>3.2</v>
       </c>
-      <c r="M3">
-        <v>3.3</v>
-      </c>
       <c r="N3">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6944680</v>
+        <v>6941477</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,40 +821,40 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N4">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S4">
         <v>1.975</v>
@@ -869,19 +869,19 @@
         <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z4">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6944665</v>
+        <v>6944680</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6944663</v>
+        <v>6944665</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,37 +999,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
         <v>1.75</v>
-      </c>
-      <c r="N6">
-        <v>3.4</v>
       </c>
       <c r="O6">
         <v>3.3</v>
       </c>
       <c r="P6">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.8</v>
@@ -1041,19 +1041,19 @@
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1062,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6941478</v>
+        <v>6944663</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,70 +1088,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="N7">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2687,7 +2687,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -2776,7 +2776,7 @@
         <v>45158.5</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2865,7 +2865,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>48</v>
@@ -2954,7 +2954,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3313,7 +3313,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3669,7 +3669,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3758,7 +3758,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3936,7 +3936,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4292,7 +4292,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6940659</v>
+        <v>6940658</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,46 +4467,46 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M45">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.25</v>
@@ -4518,19 +4518,19 @@
         <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
         <v>0.8999999999999999</v>
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6940686</v>
+        <v>6940659</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,40 +4556,40 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
+        <v>3.5</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
         <v>3.2</v>
       </c>
-      <c r="N46">
-        <v>1.75</v>
-      </c>
-      <c r="O46">
-        <v>3.3</v>
-      </c>
       <c r="P46">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4607,25 +4607,25 @@
         <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6940658</v>
+        <v>6940686</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,46 +4645,46 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>2.25</v>
@@ -4699,22 +4699,22 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y47">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4823,7 +4823,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>48</v>
@@ -4912,7 +4912,7 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -5093,7 +5093,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5182,7 +5182,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5360,7 +5360,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6941515</v>
+        <v>6944654</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,10 +5446,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5461,25 +5461,25 @@
         <v>51</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="N56">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
         <v>1.875</v>
@@ -5488,34 +5488,34 @@
         <v>1.925</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5538,7 +5538,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6944654</v>
+        <v>6941515</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,10 +5624,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5639,25 +5639,25 @@
         <v>51</v>
       </c>
       <c r="K58">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
         <v>1.875</v>
@@ -5666,34 +5666,34 @@
         <v>1.925</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>37</v>
@@ -6247,10 +6247,10 @@
         <v>45199.5</v>
       </c>
       <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
         <v>33</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6944673</v>
+        <v>6940662</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6339,16 +6339,16 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>2.25</v>
@@ -6360,52 +6360,52 @@
         <v>3</v>
       </c>
       <c r="N66">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O66">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z66">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6944653</v>
+        <v>6944673</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,73 +6425,73 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67">
+        <v>2.25</v>
+      </c>
+      <c r="L67">
         <v>3</v>
       </c>
-      <c r="J67" t="s">
-        <v>50</v>
-      </c>
-      <c r="K67">
-        <v>1.666</v>
-      </c>
-      <c r="L67">
-        <v>3.5</v>
-      </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O67">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P67">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
         <v>1.75</v>
       </c>
-      <c r="S67">
-        <v>2.05</v>
-      </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6940662</v>
+        <v>6944653</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,55 +6514,55 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
         <v>50</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,19 +6571,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
+        <v>1.05</v>
+      </c>
+      <c r="AB68">
         <v>0.925</v>
       </c>
-      <c r="AB68">
-        <v>-0.5</v>
-      </c>
       <c r="AC68">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6781,7 +6781,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
         <v>45</v>
@@ -7137,10 +7137,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7229,7 +7229,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7582,7 +7582,7 @@
         <v>45207.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7938,10 +7938,10 @@
         <v>45228.5</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8119,7 +8119,7 @@
         <v>46</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>45228.5</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8386,7 +8386,7 @@
         <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8831,7 +8831,7 @@
         <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8920,7 +8920,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9098,7 +9098,7 @@
         <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9187,7 +9187,7 @@
         <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9362,7 +9362,7 @@
         <v>45240.6875</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>44</v>
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6940691</v>
+        <v>6941527</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,76 +9451,76 @@
         <v>45241.5</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K101">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
+        <v>1.75</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101">
         <v>3.6</v>
       </c>
-      <c r="N101">
-        <v>2.05</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
       <c r="P101">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6941527</v>
+        <v>6940691</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45241.5</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q102">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9896,7 +9896,7 @@
         <v>45242.5</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
         <v>42</v>
@@ -9985,7 +9985,7 @@
         <v>45242.5</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
         <v>39</v>
@@ -10163,7 +10163,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>41</v>
@@ -10255,7 +10255,7 @@
         <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>48</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10700,7 +10700,7 @@
         <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10789,7 +10789,7 @@
         <v>47</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>40</v>
@@ -11320,7 +11320,7 @@
         <v>45268.5</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>40</v>
@@ -11587,7 +11587,7 @@
         <v>45269.5</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11676,7 +11676,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>43</v>
@@ -11765,7 +11765,7 @@
         <v>45269.72916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>35</v>
@@ -11943,7 +11943,7 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>39</v>
@@ -12121,7 +12121,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>38</v>
@@ -12213,7 +12213,7 @@
         <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6940675</v>
+        <v>6940673</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45277.5</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>1.5</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>5</v>
+      </c>
+      <c r="Q137">
+        <v>-1</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
         <v>2.75</v>
       </c>
-      <c r="N137">
-        <v>2.3</v>
-      </c>
-      <c r="O137">
-        <v>3.25</v>
-      </c>
-      <c r="P137">
-        <v>2.75</v>
-      </c>
-      <c r="Q137">
-        <v>-0.25</v>
-      </c>
-      <c r="R137">
-        <v>2.025</v>
-      </c>
-      <c r="S137">
-        <v>1.775</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6940673</v>
+        <v>6940675</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45277.5</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M138">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N138">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y138">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>48</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13011,7 +13011,7 @@
         <v>45296.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
         <v>44</v>
@@ -13100,7 +13100,7 @@
         <v>45297.33333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -13189,7 +13189,7 @@
         <v>45297.6875</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
         <v>36</v>
@@ -13367,7 +13367,7 @@
         <v>45298.5</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
@@ -13726,7 +13726,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13993,7 +13993,7 @@
         <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>4</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6941535</v>
+        <v>6941536</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,40 +14168,40 @@
         <v>45304.5</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L154">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q154">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R154">
         <v>1.95</v>
@@ -14213,16 +14213,16 @@
         <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X154">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14237,7 +14237,7 @@
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6941536</v>
+        <v>6944640</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,58 +14257,58 @@
         <v>45304.5</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>49</v>
       </c>
       <c r="K155">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L155">
+        <v>3.5</v>
+      </c>
+      <c r="M155">
+        <v>1.7</v>
+      </c>
+      <c r="N155">
         <v>4</v>
       </c>
-      <c r="M155">
-        <v>6</v>
-      </c>
-      <c r="N155">
-        <v>1.4</v>
-      </c>
       <c r="O155">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q155">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
+        <v>1.75</v>
+      </c>
+      <c r="S155">
         <v>1.95</v>
       </c>
-      <c r="S155">
-        <v>1.85</v>
-      </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
+        <v>1.825</v>
+      </c>
+      <c r="V155">
         <v>1.975</v>
       </c>
-      <c r="V155">
-        <v>1.825</v>
-      </c>
       <c r="W155">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14317,16 +14317,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6944640</v>
+        <v>6941535</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,76 +14346,76 @@
         <v>45304.5</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N156">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="Q156">
         <v>0.75</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14435,10 +14435,10 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14524,10 +14524,10 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F158" t="s">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
         <v>31</v>
-      </c>
-      <c r="G158" t="s">
-        <v>30</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14794,7 +14794,7 @@
         <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14969,10 +14969,10 @@
         <v>45312.5</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15147,7 +15147,7 @@
         <v>45312.5</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
         <v>37</v>
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7741484</v>
+        <v>7741481</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,49 +15592,49 @@
         <v>45318.5</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M170">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N170">
-        <v>2.7</v>
+        <v>1.222</v>
       </c>
       <c r="O170">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P170">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
         <v>1.9</v>
@@ -15643,25 +15643,25 @@
         <v>1.9</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X170">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7741481</v>
+        <v>7741483</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45318.5</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K171">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="L171">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
-        <v>7.5</v>
+        <v>1.571</v>
       </c>
       <c r="N171">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="O171">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>8</v>
+        <v>1.45</v>
       </c>
       <c r="Q171">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7741483</v>
+        <v>7741482</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,49 +15770,49 @@
         <v>45318.5</v>
       </c>
       <c r="F172" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L172">
         <v>3.75</v>
       </c>
       <c r="M172">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="N172">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="Q172">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
         <v>1.925</v>
@@ -15824,22 +15824,22 @@
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y172">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB172">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7741482</v>
+        <v>7741480</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,76 +15859,76 @@
         <v>45318.5</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N173">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P173">
         <v>4</v>
       </c>
       <c r="Q173">
+        <v>-0.75</v>
+      </c>
+      <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
+        <v>1.825</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
+        <v>1.8</v>
+      </c>
+      <c r="W173">
+        <v>0.7</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0.4875</v>
+      </c>
+      <c r="AA173">
         <v>-0.5</v>
       </c>
-      <c r="R173">
-        <v>1.85</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.925</v>
-      </c>
-      <c r="V173">
-        <v>1.875</v>
-      </c>
-      <c r="W173">
-        <v>-1</v>
-      </c>
-      <c r="X173">
-        <v>2.4</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>-1</v>
-      </c>
-      <c r="AA173">
-        <v>0.95</v>
-      </c>
       <c r="AB173">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC173">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7741480</v>
+        <v>7741484</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,73 +15948,73 @@
         <v>45318.5</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M174">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N174">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O174">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB174">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6940687</v>
+        <v>6941511</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,49 +16037,49 @@
         <v>45319.5</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M175">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N175">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O175">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
         <v>1.975</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>3.333</v>
+        <v>2.3</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AB175">
         <v>-1</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6941511</v>
+        <v>6940687</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,49 +16126,49 @@
         <v>45319.5</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
         <v>51</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M176">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P176">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
         <v>1.975</v>
@@ -16180,16 +16180,16 @@
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.3</v>
+        <v>3.333</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
         <v>-1</v>
@@ -16304,7 +16304,7 @@
         <v>45319.5</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
         <v>42</v>
@@ -16571,7 +16571,7 @@
         <v>45332.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>45</v>
@@ -16930,7 +16930,7 @@
         <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17016,10 +17016,10 @@
         <v>45339.5</v>
       </c>
       <c r="F186" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
         <v>30</v>
-      </c>
-      <c r="G186" t="s">
-        <v>34</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17197,7 +17197,7 @@
         <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17283,7 +17283,7 @@
         <v>45340.5</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
         <v>35</v>
@@ -17820,7 +17820,7 @@
         <v>36</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17906,10 +17906,10 @@
         <v>45346.5</v>
       </c>
       <c r="F196" t="s">
+        <v>32</v>
+      </c>
+      <c r="G196" t="s">
         <v>31</v>
-      </c>
-      <c r="G196" t="s">
-        <v>30</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18087,7 +18087,7 @@
         <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18262,7 +18262,7 @@
         <v>45347.5</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
         <v>42</v>
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7887075</v>
+        <v>7887076</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,58 +18707,58 @@
         <v>45353.5</v>
       </c>
       <c r="F205" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>49</v>
       </c>
       <c r="K205">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M205">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="N205">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O205">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P205">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>1.3</v>
+        <v>0.333</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18767,16 +18767,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC205">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7887073</v>
+        <v>7887075</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,13 +18796,13 @@
         <v>45353.5</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18817,37 +18817,37 @@
         <v>3</v>
       </c>
       <c r="M206">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N206">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O206">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P206">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
+        <v>2.025</v>
+      </c>
+      <c r="S206">
+        <v>1.775</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
         <v>1.9</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.9</v>
       </c>
-      <c r="T206">
-        <v>2.5</v>
-      </c>
-      <c r="U206">
-        <v>1.925</v>
-      </c>
-      <c r="V206">
-        <v>1.875</v>
-      </c>
       <c r="W206">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18856,16 +18856,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7887076</v>
+        <v>7887073</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,58 +18885,58 @@
         <v>45353.5</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>49</v>
       </c>
       <c r="K207">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L207">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="N207">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="O207">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P207">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q207">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W207">
-        <v>0.333</v>
+        <v>1.5</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18945,16 +18945,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19155,7 +19155,7 @@
         <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19244,7 +19244,7 @@
         <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19333,7 +19333,7 @@
         <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19419,7 +19419,7 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G213" t="s">
         <v>40</v>
@@ -19508,7 +19508,7 @@
         <v>45360.5</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>42</v>
@@ -19597,7 +19597,7 @@
         <v>45360.5</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
         <v>43</v>
@@ -19775,7 +19775,7 @@
         <v>45360.5</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G217" t="s">
         <v>39</v>
@@ -20131,7 +20131,7 @@
         <v>45361.5</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
         <v>48</v>
@@ -20223,7 +20223,7 @@
         <v>46</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7947487</v>
+        <v>7947491</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,76 +20398,76 @@
         <v>45367.5</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>51</v>
       </c>
       <c r="K224">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L224">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M224">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N224">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q224">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7947488</v>
+        <v>7947487</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,76 +20487,76 @@
         <v>45367.5</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H225">
         <v>1</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K225">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M225">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N225">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P225">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q225">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y225">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA225">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB225">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7947489</v>
+        <v>7947488</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45367.5</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G226" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K226">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M226">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O226">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
+        <v>1.975</v>
+      </c>
+      <c r="V226">
         <v>1.825</v>
       </c>
-      <c r="V226">
-        <v>1.975</v>
-      </c>
       <c r="W226">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC226">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20653,7 +20653,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7947491</v>
+        <v>7947489</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20665,76 +20665,76 @@
         <v>45367.5</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L227">
         <v>3.2</v>
       </c>
       <c r="M227">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N227">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O227">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P227">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q227">
         <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
         <v>2.25</v>
       </c>
       <c r="U227">
+        <v>1.825</v>
+      </c>
+      <c r="V227">
         <v>1.975</v>
       </c>
-      <c r="V227">
-        <v>1.825</v>
-      </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X227">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA227">
+        <v>-1</v>
+      </c>
+      <c r="AB227">
         <v>-0.5</v>
       </c>
-      <c r="AA227">
-        <v>0.4375</v>
-      </c>
-      <c r="AB227">
-        <v>-1</v>
-      </c>
       <c r="AC227">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21199,7 +21199,7 @@
         <v>45374.33333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
         <v>47</v>
@@ -21380,7 +21380,7 @@
         <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H235">
         <v>4</v>
@@ -21469,7 +21469,7 @@
         <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21558,7 +21558,7 @@
         <v>48</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H237">
         <v>4</v>
@@ -21647,7 +21647,7 @@
         <v>42</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21736,7 +21736,7 @@
         <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7781125</v>
+        <v>7781015</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22175,34 +22175,34 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45388.29166666666</v>
+        <v>45389.45833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K244">
-        <v>1.666</v>
+        <v>5.25</v>
       </c>
       <c r="L244">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="N244">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="O244">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P244">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R244">
         <v>1.9</v>
@@ -22211,13 +22211,13 @@
         <v>1.9</v>
       </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V244">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22240,7 +22240,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7780990</v>
+        <v>7780989</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22249,49 +22249,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45388.45833333334</v>
+        <v>45389.45833333334</v>
       </c>
       <c r="F245" t="s">
         <v>30</v>
       </c>
       <c r="G245" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L245">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O245">
         <v>3.1</v>
       </c>
       <c r="P245">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22314,7 +22314,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7780989</v>
+        <v>7781016</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22326,46 +22326,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G246" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K246">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L246">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M246">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N246">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O246">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P246">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T246">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22388,7 +22388,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7781015</v>
+        <v>8039534</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22400,46 +22400,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F247" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G247" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K247">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M247">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="N247">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P247">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="Q247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U247">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22462,7 +22462,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>8039534</v>
+        <v>8039533</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22474,46 +22474,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F248" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G248" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K248">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L248">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M248">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N248">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O248">
         <v>2.9</v>
       </c>
       <c r="P248">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q248">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
         <v>2.25</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22536,7 +22536,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>8039533</v>
+        <v>8039532</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22548,46 +22548,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G249" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K249">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L249">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M249">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N249">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O249">
         <v>2.9</v>
       </c>
       <c r="P249">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q249">
         <v>0</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T249">
         <v>2.25</v>
       </c>
       <c r="U249">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V249">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>8039532</v>
+        <v>8039509</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22622,46 +22622,46 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G250" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K250">
+        <v>1.571</v>
+      </c>
+      <c r="L250">
+        <v>3.75</v>
+      </c>
+      <c r="M250">
+        <v>5.25</v>
+      </c>
+      <c r="N250">
+        <v>1.571</v>
+      </c>
+      <c r="O250">
+        <v>3.75</v>
+      </c>
+      <c r="P250">
+        <v>5.25</v>
+      </c>
+      <c r="Q250">
+        <v>-1</v>
+      </c>
+      <c r="R250">
+        <v>1.95</v>
+      </c>
+      <c r="S250">
+        <v>1.85</v>
+      </c>
+      <c r="T250">
         <v>2.5</v>
       </c>
-      <c r="L250">
-        <v>3</v>
-      </c>
-      <c r="M250">
-        <v>2.625</v>
-      </c>
-      <c r="N250">
-        <v>2.5</v>
-      </c>
-      <c r="O250">
-        <v>2.9</v>
-      </c>
-      <c r="P250">
-        <v>2.7</v>
-      </c>
-      <c r="Q250">
-        <v>0</v>
-      </c>
-      <c r="R250">
-        <v>1.825</v>
-      </c>
-      <c r="S250">
-        <v>1.975</v>
-      </c>
-      <c r="T250">
-        <v>2.25</v>
-      </c>
       <c r="U250">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22676,154 +22676,6 @@
         <v>0</v>
       </c>
       <c r="AA250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>8039509</v>
-      </c>
-      <c r="C251" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" t="s">
-        <v>28</v>
-      </c>
-      <c r="E251" s="2">
-        <v>45389.45833333334</v>
-      </c>
-      <c r="F251" t="s">
-        <v>44</v>
-      </c>
-      <c r="G251" t="s">
-        <v>46</v>
-      </c>
-      <c r="K251">
-        <v>1.571</v>
-      </c>
-      <c r="L251">
-        <v>3.75</v>
-      </c>
-      <c r="M251">
-        <v>5.25</v>
-      </c>
-      <c r="N251">
-        <v>1.571</v>
-      </c>
-      <c r="O251">
-        <v>3.75</v>
-      </c>
-      <c r="P251">
-        <v>5.25</v>
-      </c>
-      <c r="Q251">
-        <v>-1</v>
-      </c>
-      <c r="R251">
-        <v>1.975</v>
-      </c>
-      <c r="S251">
-        <v>1.825</v>
-      </c>
-      <c r="T251">
-        <v>2.5</v>
-      </c>
-      <c r="U251">
-        <v>1.925</v>
-      </c>
-      <c r="V251">
-        <v>1.875</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-      <c r="Y251">
-        <v>0</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AA251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>7781016</v>
-      </c>
-      <c r="C252" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" t="s">
-        <v>28</v>
-      </c>
-      <c r="E252" s="2">
-        <v>45389.5</v>
-      </c>
-      <c r="F252" t="s">
-        <v>38</v>
-      </c>
-      <c r="G252" t="s">
-        <v>47</v>
-      </c>
-      <c r="K252">
-        <v>1.533</v>
-      </c>
-      <c r="L252">
-        <v>4</v>
-      </c>
-      <c r="M252">
-        <v>5.25</v>
-      </c>
-      <c r="N252">
-        <v>1.571</v>
-      </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
-      <c r="P252">
-        <v>5</v>
-      </c>
-      <c r="Q252">
-        <v>-1</v>
-      </c>
-      <c r="R252">
-        <v>2</v>
-      </c>
-      <c r="S252">
-        <v>1.8</v>
-      </c>
-      <c r="T252">
-        <v>2.5</v>
-      </c>
-      <c r="U252">
-        <v>1.9</v>
-      </c>
-      <c r="V252">
-        <v>1.9</v>
-      </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-      <c r="X252">
-        <v>0</v>
-      </c>
-      <c r="Y252">
-        <v>0</v>
-      </c>
-      <c r="Z252">
-        <v>0</v>
-      </c>
-      <c r="AA252">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -118,13 +118,13 @@
     <t>Lusitania Lourosa</t>
   </si>
   <si>
-    <t>CF Canelas 2010</t>
+    <t>Oliveira Hospital</t>
   </si>
   <si>
     <t>AD Fafe</t>
   </si>
   <si>
-    <t>Oliveira Hospital</t>
+    <t>CF Canelas 2010</t>
   </si>
   <si>
     <t>Caldas SC</t>
@@ -139,10 +139,10 @@
     <t>AD Sanjoanense</t>
   </si>
   <si>
-    <t>Anadia</t>
+    <t>Alverca</t>
   </si>
   <si>
-    <t>Alverca</t>
+    <t>Anadia</t>
   </si>
   <si>
     <t>SC Vianense</t>
@@ -157,10 +157,10 @@
     <t>Atletico CP Lisbon</t>
   </si>
   <si>
-    <t>Sporting Covilha</t>
+    <t>Felgueiras 1932</t>
   </si>
   <si>
-    <t>Felgueiras 1932</t>
+    <t>Sporting Covilha</t>
   </si>
   <si>
     <t>H</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC259"/>
+  <dimension ref="A1:AC262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6941478</v>
+        <v>6940674</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,70 +1091,70 @@
         <v>41</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>3.1</v>
+      </c>
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7">
-        <v>2.1</v>
-      </c>
-      <c r="L7">
-        <v>3.1</v>
-      </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N7">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6940674</v>
+        <v>6941478</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1269,70 +1269,70 @@
         <v>42</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9">
+        <v>2.1</v>
+      </c>
+      <c r="L9">
         <v>3.1</v>
       </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6940654</v>
+        <v>6940230</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,43 +1711,43 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>50</v>
       </c>
       <c r="K14">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M14">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>2.25</v>
@@ -1765,19 +1765,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB14">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6940230</v>
+        <v>6940654</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1800,43 +1800,43 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>50</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N15">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
         <v>2.25</v>
@@ -1854,19 +1854,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1978,7 +1978,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6944661</v>
+        <v>6944679</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,10 +2245,10 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2257,43 +2257,43 @@
         <v>49</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
         <v>3.1</v>
       </c>
       <c r="M20">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6944679</v>
+        <v>6944661</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,10 +2334,10 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2346,43 +2346,43 @@
         <v>49</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>3.1</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,16 +2391,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2420,7 +2420,7 @@
         <v>45156.64583333334</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2690,7 +2690,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2865,10 +2865,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3132,7 +3132,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
         <v>40</v>
@@ -3488,7 +3488,7 @@
         <v>45164.66666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
@@ -3669,7 +3669,7 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3844,10 +3844,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4022,7 +4022,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4111,7 +4111,7 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4203,7 +4203,7 @@
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>43</v>
@@ -4734,10 +4734,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5182,7 +5182,7 @@
         <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5357,7 +5357,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5446,7 +5446,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5535,7 +5535,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5716,7 +5716,7 @@
         <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5891,7 +5891,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -6161,7 +6161,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6514,10 +6514,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
         <v>29</v>
@@ -6784,7 +6784,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6941519</v>
+        <v>6941521</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,73 +6959,73 @@
         <v>45206.5</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>49</v>
+      </c>
+      <c r="K73">
+        <v>2.1</v>
+      </c>
+      <c r="L73">
         <v>3</v>
       </c>
-      <c r="J73" t="s">
-        <v>50</v>
-      </c>
-      <c r="K73">
-        <v>2.15</v>
-      </c>
-      <c r="L73">
-        <v>3.1</v>
-      </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N73">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O73">
         <v>3</v>
       </c>
       <c r="P73">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6941521</v>
+        <v>6941519</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,73 +7048,73 @@
         <v>45206.5</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O74">
         <v>3</v>
       </c>
       <c r="P74">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB74">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7140,7 +7140,7 @@
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7318,7 +7318,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7671,7 +7671,7 @@
         <v>45226.64583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7760,7 +7760,7 @@
         <v>45227.5</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -8030,7 +8030,7 @@
         <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8116,7 +8116,7 @@
         <v>45228.5</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>35</v>
@@ -8383,7 +8383,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -8472,7 +8472,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8561,10 +8561,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>45235.5</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G94" t="s">
         <v>31</v>
@@ -9184,10 +9184,10 @@
         <v>45235.5</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9273,7 +9273,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9365,7 +9365,7 @@
         <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>45241.5</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
         <v>44</v>
@@ -9810,7 +9810,7 @@
         <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>45242.5</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -10077,7 +10077,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10166,7 +10166,7 @@
         <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10344,7 +10344,7 @@
         <v>46</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10430,7 +10430,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -10608,10 +10608,10 @@
         <v>45262.73958333334</v>
       </c>
       <c r="F114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6940671</v>
+        <v>6941494</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,76 +10786,76 @@
         <v>45263.5</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N116">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P116">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6941494</v>
+        <v>6940671</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45263.5</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N117">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10964,7 +10964,7 @@
         <v>45263.5</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
         <v>38</v>
@@ -11320,7 +11320,7 @@
         <v>45268.5</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>39</v>
@@ -11498,10 +11498,10 @@
         <v>45268.6875</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11768,7 +11768,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11854,7 +11854,7 @@
         <v>45270.5</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G128" t="s">
         <v>45</v>
@@ -12299,10 +12299,10 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12388,7 +12388,7 @@
         <v>45276.72916666666</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
         <v>40</v>
@@ -12655,7 +12655,7 @@
         <v>45277.5</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
         <v>37</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6940675</v>
+        <v>6940673</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45277.5</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
+        <v>5</v>
+      </c>
+      <c r="N138">
+        <v>1.5</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138">
+        <v>5</v>
+      </c>
+      <c r="Q138">
+        <v>-1</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
         <v>2.75</v>
       </c>
-      <c r="N138">
-        <v>2.3</v>
-      </c>
-      <c r="O138">
-        <v>3.25</v>
-      </c>
-      <c r="P138">
-        <v>2.75</v>
-      </c>
-      <c r="Q138">
-        <v>-0.25</v>
-      </c>
-      <c r="R138">
-        <v>2.025</v>
-      </c>
-      <c r="S138">
-        <v>1.775</v>
-      </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6940673</v>
+        <v>6940675</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45277.5</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N139">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -13014,7 +13014,7 @@
         <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13100,7 +13100,7 @@
         <v>45297.33333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6941505</v>
+        <v>6940677</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45298.5</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
         <v>1.95</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.75</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>0.95</v>
-      </c>
-      <c r="AB144">
-        <v>0.8</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6940677</v>
+        <v>6941505</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45298.5</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N145">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
         <v>1.95</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z145">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13459,7 +13459,7 @@
         <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13548,7 +13548,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13815,7 +13815,7 @@
         <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13993,7 +13993,7 @@
         <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>4</v>
@@ -14082,7 +14082,7 @@
         <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14168,10 +14168,10 @@
         <v>45304.5</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14346,7 +14346,7 @@
         <v>45304.5</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
         <v>45</v>
@@ -14702,7 +14702,7 @@
         <v>45308.5</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G160" t="s">
         <v>44</v>
@@ -14880,7 +14880,7 @@
         <v>45311.66666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
         <v>38</v>
@@ -15150,7 +15150,7 @@
         <v>46</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15236,7 +15236,7 @@
         <v>45312.5</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G166" t="s">
         <v>43</v>
@@ -15325,7 +15325,7 @@
         <v>45312.5</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15503,7 +15503,7 @@
         <v>45312.5</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>30</v>
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7741480</v>
+        <v>7741481</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,58 +15592,58 @@
         <v>45318.5</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>49</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M170">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N170">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R170">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>0.7</v>
+        <v>0.222</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15652,16 +15652,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
         <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7741481</v>
+        <v>7741484</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,49 +15681,49 @@
         <v>45318.5</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L171">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N171">
-        <v>1.222</v>
+        <v>2.7</v>
       </c>
       <c r="O171">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P171">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q171">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
         <v>1.9</v>
@@ -15732,25 +15732,25 @@
         <v>1.9</v>
       </c>
       <c r="W171">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7741484</v>
+        <v>7741483</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,73 +15770,73 @@
         <v>45318.5</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="N172">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="O172">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB172">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15847,7 +15847,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7741483</v>
+        <v>7741482</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,49 +15859,49 @@
         <v>45318.5</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
       <c r="I173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L173">
         <v>3.75</v>
       </c>
       <c r="M173">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="N173">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="Q173">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
         <v>1.925</v>
@@ -15913,22 +15913,22 @@
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y173">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB173">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7741482</v>
+        <v>7741480</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45318.5</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K174">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N174">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P174">
         <v>4</v>
       </c>
       <c r="Q174">
+        <v>-0.75</v>
+      </c>
+      <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>2</v>
+      </c>
+      <c r="V174">
+        <v>1.8</v>
+      </c>
+      <c r="W174">
+        <v>0.7</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.4875</v>
+      </c>
+      <c r="AA174">
         <v>-0.5</v>
       </c>
-      <c r="R174">
-        <v>1.85</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
-      </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>1.925</v>
-      </c>
-      <c r="V174">
-        <v>1.875</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>2.4</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
-      <c r="Z174">
-        <v>-1</v>
-      </c>
-      <c r="AA174">
-        <v>0.95</v>
-      </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC174">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16040,7 +16040,7 @@
         <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16129,7 +16129,7 @@
         <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6940687</v>
+        <v>6944656</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45319.5</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="O177">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P177">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
         <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
         <v>1.975</v>
       </c>
-      <c r="V177">
-        <v>1.825</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X177">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6941512</v>
+        <v>6940687</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45319.5</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K178">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M178">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N178">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="O178">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P178">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q178">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
+        <v>1.75</v>
+      </c>
+      <c r="S178">
         <v>1.95</v>
       </c>
-      <c r="S178">
-        <v>1.85</v>
-      </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6944656</v>
+        <v>6941512</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45319.5</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179" t="s">
+        <v>50</v>
+      </c>
+      <c r="K179">
+        <v>5.5</v>
+      </c>
+      <c r="L179">
+        <v>4.5</v>
+      </c>
+      <c r="M179">
+        <v>1.4</v>
+      </c>
+      <c r="N179">
+        <v>4.75</v>
+      </c>
+      <c r="O179">
+        <v>4.2</v>
+      </c>
+      <c r="P179">
+        <v>1.5</v>
+      </c>
+      <c r="Q179">
         <v>1</v>
       </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179" t="s">
-        <v>49</v>
-      </c>
-      <c r="K179">
-        <v>2</v>
-      </c>
-      <c r="L179">
-        <v>3.3</v>
-      </c>
-      <c r="M179">
-        <v>3.25</v>
-      </c>
-      <c r="N179">
-        <v>1.833</v>
-      </c>
-      <c r="O179">
-        <v>3.5</v>
-      </c>
-      <c r="P179">
-        <v>3.6</v>
-      </c>
-      <c r="Q179">
-        <v>-0.5</v>
-      </c>
       <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
         <v>1.85</v>
-      </c>
-      <c r="S179">
-        <v>1.95</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16485,7 +16485,7 @@
         <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16574,7 +16574,7 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7795954</v>
+        <v>7795953</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,40 +16660,40 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>49</v>
       </c>
       <c r="K182">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L182">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N182">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O182">
         <v>3.25</v>
       </c>
       <c r="P182">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q182">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
         <v>1.775</v>
@@ -16705,13 +16705,13 @@
         <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>1.875</v>
+        <v>1</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16726,10 +16726,10 @@
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7795953</v>
+        <v>7795954</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,40 +16749,40 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
         <v>1</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>49</v>
       </c>
       <c r="K183">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L183">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M183">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O183">
         <v>3.25</v>
       </c>
       <c r="P183">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
         <v>1.775</v>
@@ -16794,13 +16794,13 @@
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16815,10 +16815,10 @@
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16841,7 +16841,7 @@
         <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17016,7 +17016,7 @@
         <v>45339.5</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
         <v>43</v>
@@ -17194,7 +17194,7 @@
         <v>45339.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G188" t="s">
         <v>32</v>
@@ -17283,7 +17283,7 @@
         <v>45340.5</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
         <v>46</v>
@@ -17375,7 +17375,7 @@
         <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -17639,7 +17639,7 @@
         <v>45340.66666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G193" t="s">
         <v>33</v>
@@ -17817,10 +17817,10 @@
         <v>45346.5</v>
       </c>
       <c r="F195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17998,7 +17998,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18351,7 +18351,7 @@
         <v>45347.5</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G201" t="s">
         <v>37</v>
@@ -18529,10 +18529,10 @@
         <v>45347.5</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18621,7 +18621,7 @@
         <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18710,7 +18710,7 @@
         <v>44</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18977,7 +18977,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19063,7 +19063,7 @@
         <v>45353.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G209" t="s">
         <v>46</v>
@@ -19155,7 +19155,7 @@
         <v>40</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19241,7 +19241,7 @@
         <v>45354.5</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
         <v>35</v>
@@ -19508,7 +19508,7 @@
         <v>45360.5</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G214" t="s">
         <v>45</v>
@@ -19600,7 +19600,7 @@
         <v>30</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19775,7 +19775,7 @@
         <v>45360.5</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
         <v>43</v>
@@ -19953,10 +19953,10 @@
         <v>45360.66666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20042,7 +20042,7 @@
         <v>45360.75</v>
       </c>
       <c r="F220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G220" t="s">
         <v>29</v>
@@ -20401,7 +20401,7 @@
         <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20487,7 +20487,7 @@
         <v>45367.5</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G225" t="s">
         <v>40</v>
@@ -20665,7 +20665,7 @@
         <v>45367.5</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G227" t="s">
         <v>30</v>
@@ -20754,7 +20754,7 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -20932,7 +20932,7 @@
         <v>45368.5</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G230" t="s">
         <v>38</v>
@@ -21113,7 +21113,7 @@
         <v>39</v>
       </c>
       <c r="G232" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H232">
         <v>2</v>
@@ -21466,7 +21466,7 @@
         <v>45381.5</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
         <v>30</v>
@@ -21647,7 +21647,7 @@
         <v>45</v>
       </c>
       <c r="G238" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21736,7 +21736,7 @@
         <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -21911,10 +21911,10 @@
         <v>45381.6875</v>
       </c>
       <c r="F241" t="s">
+        <v>47</v>
+      </c>
+      <c r="G241" t="s">
         <v>48</v>
-      </c>
-      <c r="G241" t="s">
-        <v>47</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -22089,7 +22089,7 @@
         <v>45382.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G243" t="s">
         <v>33</v>
@@ -22267,7 +22267,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s">
         <v>39</v>
@@ -22359,7 +22359,7 @@
         <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22445,7 +22445,7 @@
         <v>45389.29166666666</v>
       </c>
       <c r="F247" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
         <v>46</v>
@@ -22534,7 +22534,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G248" t="s">
         <v>40</v>
@@ -22712,7 +22712,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G250" t="s">
         <v>44</v>
@@ -22979,7 +22979,7 @@
         <v>45389.64583333334</v>
       </c>
       <c r="F253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G253" t="s">
         <v>32</v>
@@ -23083,22 +23083,22 @@
         <v>2</v>
       </c>
       <c r="N254">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O254">
         <v>3.4</v>
       </c>
       <c r="P254">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q254">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R254">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S254">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T254">
         <v>2.5</v>
@@ -23130,7 +23130,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>8070737</v>
+        <v>7781018</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23142,46 +23142,46 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G255" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K255">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="L255">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M255">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N255">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O255">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P255">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R255">
+        <v>2</v>
+      </c>
+      <c r="S255">
         <v>1.8</v>
       </c>
-      <c r="S255">
-        <v>2</v>
-      </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23204,7 +23204,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>8070735</v>
+        <v>8070738</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23216,46 +23216,46 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F256" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G256" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K256">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L256">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M256">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N256">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O256">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P256">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q256">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R256">
+        <v>1.8</v>
+      </c>
+      <c r="S256">
+        <v>2</v>
+      </c>
+      <c r="T256">
+        <v>2.25</v>
+      </c>
+      <c r="U256">
+        <v>1.95</v>
+      </c>
+      <c r="V256">
         <v>1.85</v>
-      </c>
-      <c r="S256">
-        <v>1.95</v>
-      </c>
-      <c r="T256">
-        <v>2.5</v>
-      </c>
-      <c r="U256">
-        <v>2</v>
-      </c>
-      <c r="V256">
-        <v>1.8</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7780991</v>
+        <v>8070737</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23287,49 +23287,49 @@
         <v>28</v>
       </c>
       <c r="E257" s="2">
-        <v>45396.45833333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K257">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="L257">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M257">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N257">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O257">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P257">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q257">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R257">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S257">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T257">
         <v>2.25</v>
       </c>
       <c r="U257">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V257">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23352,7 +23352,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>8070736</v>
+        <v>8070735</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23361,49 +23361,49 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45396.45833333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K258">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L258">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M258">
+        <v>4.5</v>
+      </c>
+      <c r="N258">
+        <v>1.727</v>
+      </c>
+      <c r="O258">
         <v>3.6</v>
       </c>
-      <c r="N258">
-        <v>1.95</v>
-      </c>
-      <c r="O258">
-        <v>3.3</v>
-      </c>
       <c r="P258">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q258">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S258">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T258">
         <v>2.25</v>
       </c>
       <c r="U258">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23441,7 +23441,7 @@
         <v>40</v>
       </c>
       <c r="G259" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K259">
         <v>2.75</v>
@@ -23465,10 +23465,10 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S259">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T259">
         <v>2.5</v>
@@ -23492,6 +23492,228 @@
         <v>0</v>
       </c>
       <c r="AA259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>7780991</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45396.45833333334</v>
+      </c>
+      <c r="F260" t="s">
+        <v>30</v>
+      </c>
+      <c r="G260" t="s">
+        <v>36</v>
+      </c>
+      <c r="K260">
+        <v>1.666</v>
+      </c>
+      <c r="L260">
+        <v>3.5</v>
+      </c>
+      <c r="M260">
+        <v>5</v>
+      </c>
+      <c r="N260">
+        <v>1.666</v>
+      </c>
+      <c r="O260">
+        <v>3.5</v>
+      </c>
+      <c r="P260">
+        <v>5</v>
+      </c>
+      <c r="Q260">
+        <v>-0.75</v>
+      </c>
+      <c r="R260">
+        <v>1.85</v>
+      </c>
+      <c r="S260">
+        <v>1.95</v>
+      </c>
+      <c r="T260">
+        <v>2.25</v>
+      </c>
+      <c r="U260">
+        <v>1.825</v>
+      </c>
+      <c r="V260">
+        <v>1.975</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>8070739</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45396.45833333334</v>
+      </c>
+      <c r="F261" t="s">
+        <v>33</v>
+      </c>
+      <c r="G261" t="s">
+        <v>48</v>
+      </c>
+      <c r="K261">
+        <v>1.7</v>
+      </c>
+      <c r="L261">
+        <v>3.5</v>
+      </c>
+      <c r="M261">
+        <v>4.75</v>
+      </c>
+      <c r="N261">
+        <v>1.8</v>
+      </c>
+      <c r="O261">
+        <v>3.4</v>
+      </c>
+      <c r="P261">
+        <v>4.333</v>
+      </c>
+      <c r="Q261">
+        <v>-0.75</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>1.8</v>
+      </c>
+      <c r="T261">
+        <v>2.5</v>
+      </c>
+      <c r="U261">
+        <v>2</v>
+      </c>
+      <c r="V261">
+        <v>1.8</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>8070736</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45396.45833333334</v>
+      </c>
+      <c r="F262" t="s">
+        <v>43</v>
+      </c>
+      <c r="G262" t="s">
+        <v>35</v>
+      </c>
+      <c r="K262">
+        <v>1.95</v>
+      </c>
+      <c r="L262">
+        <v>3.3</v>
+      </c>
+      <c r="M262">
+        <v>3.6</v>
+      </c>
+      <c r="N262">
+        <v>1.95</v>
+      </c>
+      <c r="O262">
+        <v>3.3</v>
+      </c>
+      <c r="P262">
+        <v>3.6</v>
+      </c>
+      <c r="Q262">
+        <v>-0.5</v>
+      </c>
+      <c r="R262">
+        <v>1.975</v>
+      </c>
+      <c r="S262">
+        <v>1.825</v>
+      </c>
+      <c r="T262">
+        <v>2.25</v>
+      </c>
+      <c r="U262">
+        <v>1.8</v>
+      </c>
+      <c r="V262">
+        <v>2</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
+      <c r="AA262">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>Lusitania Lourosa</t>
   </si>
   <si>
-    <t>Pero Pinheiro</t>
+    <t>Trofense</t>
   </si>
   <si>
     <t>AD Fafe</t>
   </si>
   <si>
-    <t>CF Canelas 2010</t>
+    <t>Academica</t>
   </si>
   <si>
-    <t>Trofense</t>
+    <t>Pero Pinheiro</t>
   </si>
   <si>
-    <t>Academica</t>
+    <t>CF Canelas 2010</t>
   </si>
   <si>
     <t>Caldas SC</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC267"/>
+  <dimension ref="A1:AC263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6944663</v>
+        <v>6944680</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
         <v>3.4</v>
       </c>
-      <c r="M5">
-        <v>1.75</v>
-      </c>
       <c r="N5">
+        <v>1.615</v>
+      </c>
+      <c r="O5">
         <v>3.4</v>
       </c>
-      <c r="O5">
-        <v>3.3</v>
-      </c>
       <c r="P5">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6941478</v>
+        <v>6944665</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,73 +1088,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6944680</v>
+        <v>6944663</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,73 +1177,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
+        <v>1.75</v>
+      </c>
+      <c r="N8">
         <v>3.4</v>
       </c>
-      <c r="N8">
-        <v>1.615</v>
-      </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z8">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6944665</v>
+        <v>6941478</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X9">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC9">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>48</v>
@@ -2865,7 +2865,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6941481</v>
+        <v>6941480</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2954,55 +2954,55 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>51</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
         <v>3.1</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N28">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -3011,16 +3011,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6941480</v>
+        <v>6940679</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6940679</v>
+        <v>6941481</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>2.2</v>
+      </c>
+      <c r="L30">
+        <v>3.1</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>2.6</v>
+      </c>
+      <c r="O30">
+        <v>3.1</v>
+      </c>
+      <c r="P30">
+        <v>2.55</v>
+      </c>
+      <c r="Q30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30">
-        <v>1.727</v>
-      </c>
-      <c r="L30">
-        <v>3.5</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
+      <c r="R30">
+        <v>1.925</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
         <v>1.8</v>
       </c>
-      <c r="O30">
-        <v>3.4</v>
-      </c>
-      <c r="P30">
-        <v>3.75</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>1.85</v>
-      </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>2</v>
-      </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>1.55</v>
+      </c>
+      <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
+        <v>0.875</v>
+      </c>
+      <c r="AB30">
         <v>0.8</v>
       </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
-      <c r="Z30">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>-1</v>
-      </c>
       <c r="AC30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6941482</v>
+        <v>6941483</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,49 +3666,49 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L36">
+        <v>2.9</v>
+      </c>
+      <c r="M36">
+        <v>2.875</v>
+      </c>
+      <c r="N36">
+        <v>1.666</v>
+      </c>
+      <c r="O36">
         <v>3.4</v>
       </c>
-      <c r="M36">
-        <v>5.5</v>
-      </c>
-      <c r="N36">
-        <v>1.363</v>
-      </c>
-      <c r="O36">
-        <v>4.2</v>
-      </c>
       <c r="P36">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q36">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
         <v>2</v>
@@ -3717,25 +3717,25 @@
         <v>1.8</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA36">
+        <v>-0.5</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8</v>
-      </c>
-      <c r="AB36">
-        <v>1</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6940657</v>
+        <v>6940233</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,10 +3755,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3770,25 +3770,25 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L37">
         <v>3.1</v>
       </c>
       <c r="M37">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="O37">
         <v>3.1</v>
       </c>
       <c r="P37">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>1.8</v>
@@ -3800,10 +3800,10 @@
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3815,16 +3815,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
         <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6940233</v>
+        <v>6941482</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,49 +3844,49 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O38">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P38">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
         <v>1.8</v>
       </c>
-      <c r="S38">
-        <v>2</v>
-      </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
         <v>2</v>
@@ -3898,22 +3898,22 @@
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6941483</v>
+        <v>6940657</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,76 +3933,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>2.375</v>
       </c>
       <c r="L39">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N39">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>-0.5</v>
       </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6940659</v>
+        <v>6940235</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,73 +4289,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
         <v>34</v>
       </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <v>3.25</v>
       </c>
       <c r="M43">
+        <v>3.25</v>
+      </c>
+      <c r="N43">
+        <v>1.8</v>
+      </c>
+      <c r="O43">
         <v>3.5</v>
       </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
-      <c r="O43">
-        <v>3.2</v>
-      </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6940235</v>
+        <v>6940659</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,73 +4378,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
         <v>3.25</v>
       </c>
       <c r="M44">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>3.2</v>
+      </c>
+      <c r="P44">
+        <v>3.2</v>
+      </c>
+      <c r="Q44">
+        <v>-0.25</v>
+      </c>
+      <c r="R44">
         <v>1.8</v>
       </c>
-      <c r="O44">
-        <v>3.5</v>
-      </c>
-      <c r="P44">
-        <v>3.75</v>
-      </c>
-      <c r="Q44">
-        <v>-0.5</v>
-      </c>
-      <c r="R44">
-        <v>1.75</v>
-      </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4823,7 +4823,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>44</v>
@@ -4912,7 +4912,7 @@
         <v>45172.66666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -5093,7 +5093,7 @@
         <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6940660</v>
+        <v>6940220</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,46 +5179,46 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53">
+        <v>1.666</v>
+      </c>
+      <c r="L53">
+        <v>3.3</v>
+      </c>
+      <c r="M53">
+        <v>4.8</v>
+      </c>
+      <c r="N53">
+        <v>1.6</v>
+      </c>
+      <c r="O53">
+        <v>3.5</v>
+      </c>
+      <c r="P53">
+        <v>6</v>
+      </c>
+      <c r="Q53">
+        <v>-0.75</v>
+      </c>
+      <c r="R53">
+        <v>1.75</v>
+      </c>
+      <c r="S53">
         <v>2.05</v>
-      </c>
-      <c r="L53">
-        <v>3.1</v>
-      </c>
-      <c r="M53">
-        <v>3.3</v>
-      </c>
-      <c r="N53">
-        <v>2.25</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
-      </c>
-      <c r="P53">
-        <v>2.9</v>
-      </c>
-      <c r="Q53">
-        <v>-0.25</v>
-      </c>
-      <c r="R53">
-        <v>2.025</v>
-      </c>
-      <c r="S53">
-        <v>1.775</v>
       </c>
       <c r="T53">
         <v>2.25</v>
@@ -5233,22 +5233,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y53">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6940220</v>
+        <v>6940660</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,46 +5268,46 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L54">
+        <v>3.1</v>
+      </c>
+      <c r="M54">
         <v>3.3</v>
       </c>
-      <c r="M54">
-        <v>4.8</v>
-      </c>
       <c r="N54">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P54">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
         <v>2.25</v>
@@ -5322,22 +5322,22 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC54">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5446,7 +5446,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
         <v>37</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6940688</v>
+        <v>6944654</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,76 +5535,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57">
+        <v>4.333</v>
+      </c>
+      <c r="L57">
+        <v>3.5</v>
+      </c>
+      <c r="M57">
+        <v>1.666</v>
+      </c>
+      <c r="N57">
+        <v>3.5</v>
+      </c>
+      <c r="O57">
         <v>3.3</v>
       </c>
-      <c r="L57">
-        <v>3.1</v>
-      </c>
-      <c r="M57">
-        <v>2.05</v>
-      </c>
-      <c r="N57">
-        <v>4.5</v>
-      </c>
-      <c r="O57">
-        <v>3.5</v>
-      </c>
       <c r="P57">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="Q57">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y57">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6944654</v>
+        <v>6940688</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,76 +5624,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L58">
+        <v>3.1</v>
+      </c>
+      <c r="M58">
+        <v>2.05</v>
+      </c>
+      <c r="N58">
+        <v>4.5</v>
+      </c>
+      <c r="O58">
         <v>3.5</v>
       </c>
-      <c r="M58">
-        <v>1.666</v>
-      </c>
-      <c r="N58">
-        <v>3.5</v>
-      </c>
-      <c r="O58">
-        <v>3.3</v>
-      </c>
       <c r="P58">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="Q58">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5716,7 +5716,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6941516</v>
+        <v>6941517</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,40 +6069,40 @@
         <v>45199.5</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K63">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="L63">
+        <v>3.2</v>
+      </c>
+      <c r="M63">
+        <v>1.909</v>
+      </c>
+      <c r="N63">
         <v>3.6</v>
       </c>
-      <c r="M63">
-        <v>4.6</v>
-      </c>
-      <c r="N63">
-        <v>1.65</v>
-      </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
         <v>1.825</v>
@@ -6114,31 +6114,31 @@
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z63">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6158,10 +6158,10 @@
         <v>45199.5</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6941517</v>
+        <v>6941516</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,40 +6247,40 @@
         <v>45199.5</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K65">
+        <v>1.615</v>
+      </c>
+      <c r="L65">
         <v>3.6</v>
       </c>
-      <c r="L65">
-        <v>3.2</v>
-      </c>
       <c r="M65">
-        <v>1.909</v>
+        <v>4.6</v>
       </c>
       <c r="N65">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="O65">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
         <v>1.825</v>
@@ -6292,31 +6292,31 @@
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA65">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6940662</v>
+        <v>6944673</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,19 +6336,19 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.25</v>
@@ -6360,52 +6360,52 @@
         <v>3</v>
       </c>
       <c r="N66">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P66">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6944673</v>
+        <v>6940662</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,19 +6425,19 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K67">
         <v>2.25</v>
@@ -6449,52 +6449,52 @@
         <v>3</v>
       </c>
       <c r="N67">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O67">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6781,7 +6781,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>47</v>
@@ -7137,10 +7137,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7229,7 +7229,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8116,7 +8116,7 @@
         <v>45228.5</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -8294,7 +8294,7 @@
         <v>45228.5</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8386,7 +8386,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -8831,7 +8831,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8920,7 +8920,7 @@
         <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9009,7 +9009,7 @@
         <v>48</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9362,7 +9362,7 @@
         <v>45240.6875</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
@@ -9451,7 +9451,7 @@
         <v>45241.5</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9985,7 +9985,7 @@
         <v>45242.5</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -10163,7 +10163,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>42</v>
@@ -10522,7 +10522,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>46</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6941494</v>
+        <v>6941529</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,40 +10964,40 @@
         <v>45263.5</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O118">
         <v>3.25</v>
       </c>
       <c r="P118">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
         <v>1.825</v>
@@ -11006,34 +11006,34 @@
         <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
+        <v>1.825</v>
+      </c>
+      <c r="V118">
         <v>1.975</v>
       </c>
-      <c r="V118">
-        <v>1.825</v>
-      </c>
       <c r="W118">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6941529</v>
+        <v>6941494</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,40 +11053,40 @@
         <v>45263.5</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N119">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O119">
         <v>3.25</v>
       </c>
       <c r="P119">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
         <v>1.825</v>
@@ -11095,34 +11095,34 @@
         <v>1.975</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
+        <v>1.975</v>
+      </c>
+      <c r="V119">
         <v>1.825</v>
       </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X119">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11142,7 +11142,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11219,7 +11219,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6941497</v>
+        <v>6940226</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11231,76 +11231,76 @@
         <v>45268.5</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K121">
+        <v>1.8</v>
+      </c>
+      <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
+        <v>4.2</v>
+      </c>
+      <c r="N121">
+        <v>2.05</v>
+      </c>
+      <c r="O121">
         <v>2.9</v>
       </c>
-      <c r="L121">
-        <v>3.2</v>
-      </c>
-      <c r="M121">
-        <v>2.25</v>
-      </c>
-      <c r="N121">
-        <v>2.8</v>
-      </c>
-      <c r="O121">
-        <v>3.1</v>
-      </c>
       <c r="P121">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
+        <v>2.025</v>
+      </c>
+      <c r="T121">
         <v>1.75</v>
       </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y121">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AB121">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6940226</v>
+        <v>6941497</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45268.5</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
+        <v>2.9</v>
+      </c>
+      <c r="L122">
+        <v>3.2</v>
+      </c>
+      <c r="M122">
+        <v>2.25</v>
+      </c>
+      <c r="N122">
+        <v>2.8</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+      <c r="P122">
+        <v>2.375</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>1.75</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
         <v>1.8</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>4.2</v>
-      </c>
-      <c r="N122">
-        <v>2.05</v>
-      </c>
-      <c r="O122">
-        <v>2.9</v>
-      </c>
-      <c r="P122">
-        <v>3.75</v>
-      </c>
-      <c r="Q122">
-        <v>-0.25</v>
-      </c>
-      <c r="R122">
-        <v>1.775</v>
-      </c>
-      <c r="S122">
-        <v>2.025</v>
-      </c>
-      <c r="T122">
-        <v>1.75</v>
-      </c>
-      <c r="U122">
-        <v>1.8</v>
-      </c>
-      <c r="V122">
-        <v>2</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
       <c r="AB122">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>45269.5</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>42</v>
@@ -11676,7 +11676,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>43</v>
@@ -11765,7 +11765,7 @@
         <v>45269.72916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -12121,7 +12121,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>38</v>
@@ -12213,7 +12213,7 @@
         <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12480,7 +12480,7 @@
         <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12658,7 +12658,7 @@
         <v>44</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -13100,7 +13100,7 @@
         <v>45297.33333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -13189,7 +13189,7 @@
         <v>45297.6875</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13278,7 +13278,7 @@
         <v>45298.5</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13726,7 +13726,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -14082,7 +14082,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H153">
         <v>4</v>
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6941536</v>
+        <v>6940231</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,58 +14257,58 @@
         <v>45304.5</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>49</v>
       </c>
       <c r="K155">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L155">
+        <v>3.5</v>
+      </c>
+      <c r="M155">
         <v>4</v>
       </c>
-      <c r="M155">
-        <v>6</v>
-      </c>
       <c r="N155">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="O155">
+        <v>3.6</v>
+      </c>
+      <c r="P155">
         <v>4</v>
       </c>
-      <c r="P155">
-        <v>6</v>
-      </c>
       <c r="Q155">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
-        <v>0.3999999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14317,16 +14317,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
+        <v>0.8</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
         <v>0.95</v>
       </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
       <c r="AC155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6940231</v>
+        <v>6941536</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,58 +14346,58 @@
         <v>45304.5</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>49</v>
       </c>
       <c r="K156">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M156">
+        <v>6</v>
+      </c>
+      <c r="N156">
+        <v>1.4</v>
+      </c>
+      <c r="O156">
         <v>4</v>
       </c>
-      <c r="N156">
-        <v>1.727</v>
-      </c>
-      <c r="O156">
-        <v>3.6</v>
-      </c>
       <c r="P156">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14406,16 +14406,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14435,10 +14435,10 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14524,7 +14524,7 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
         <v>33</v>
@@ -14969,10 +14969,10 @@
         <v>45312.5</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15147,7 +15147,7 @@
         <v>45312.5</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>37</v>
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6940682</v>
+        <v>6940684</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,43 +15325,43 @@
         <v>45312.5</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M167">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N167">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S167">
         <v>1.95</v>
@@ -15370,31 +15370,31 @@
         <v>2.75</v>
       </c>
       <c r="U167">
+        <v>1.85</v>
+      </c>
+      <c r="V167">
         <v>1.95</v>
       </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6940234</v>
+        <v>6940682</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15414,76 +15414,76 @@
         <v>45312.5</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K168">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L168">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N168">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O168">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q168">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y168">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA168">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6940684</v>
+        <v>6940234</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45312.5</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="L169">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M169">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N169">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O169">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P169">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q169">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R169">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z169">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7741481</v>
+        <v>7741480</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,58 +15592,58 @@
         <v>45318.5</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>49</v>
       </c>
       <c r="K170">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N170">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="O170">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q170">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
-        <v>0.222</v>
+        <v>0.7</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15652,16 +15652,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA170">
         <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7741480</v>
+        <v>7741481</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,58 +15681,58 @@
         <v>45318.5</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>49</v>
       </c>
       <c r="K171">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M171">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N171">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P171">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R171">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>0.7</v>
+        <v>0.222</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15741,16 +15741,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA171">
         <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15948,7 +15948,7 @@
         <v>45318.5</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>45</v>
@@ -16037,7 +16037,7 @@
         <v>45319.5</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
         <v>41</v>
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6941511</v>
+        <v>6940687</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>45319.5</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>50</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L177">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M177">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="N177">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P177">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
         <v>1.975</v>
@@ -16269,16 +16269,16 @@
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.3</v>
+        <v>3.333</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6940236</v>
+        <v>6941511</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45319.5</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N178">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O178">
         <v>3.3</v>
       </c>
       <c r="P178">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>1.8</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
         <v>1.825</v>
       </c>
-      <c r="S178">
-        <v>1.975</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>1.75</v>
-      </c>
-      <c r="V178">
-        <v>1.95</v>
-      </c>
       <c r="W178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
+        <v>-0.5</v>
+      </c>
+      <c r="AA178">
+        <v>0.5</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>0.825</v>
-      </c>
-      <c r="AA178">
-        <v>-1</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
-      <c r="AC178">
-        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6940687</v>
+        <v>6940236</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45319.5</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K179">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L179">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N179">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P179">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>1.825</v>
+      </c>
+      <c r="S179">
+        <v>1.975</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
         <v>1.75</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>1.95</v>
       </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>1.975</v>
-      </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X179">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.95</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>45332.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
         <v>47</v>
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7817944</v>
+        <v>7817945</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,40 +16838,40 @@
         <v>45339.5</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K184">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="L184">
         <v>3.1</v>
       </c>
       <c r="M184">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N184">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O184">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P184">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
         <v>1.875</v>
@@ -16883,28 +16883,28 @@
         <v>2</v>
       </c>
       <c r="U184">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V184">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W184">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7817945</v>
+        <v>7817946</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,76 +16927,76 @@
         <v>45339.5</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
         <v>0</v>
       </c>
-      <c r="I185">
-        <v>3</v>
-      </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="L185">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N185">
+        <v>1.909</v>
+      </c>
+      <c r="O185">
         <v>3.2</v>
       </c>
-      <c r="O185">
-        <v>3</v>
-      </c>
       <c r="P185">
+        <v>3.8</v>
+      </c>
+      <c r="Q185">
+        <v>-0.5</v>
+      </c>
+      <c r="R185">
+        <v>1.95</v>
+      </c>
+      <c r="S185">
+        <v>1.85</v>
+      </c>
+      <c r="T185">
         <v>2.25</v>
       </c>
-      <c r="Q185">
-        <v>0.25</v>
-      </c>
-      <c r="R185">
-        <v>1.875</v>
-      </c>
-      <c r="S185">
-        <v>1.925</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
       <c r="U185">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7817946</v>
+        <v>7817944</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,58 +17016,58 @@
         <v>45339.5</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>2</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>49</v>
       </c>
       <c r="K186">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N186">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O186">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W186">
-        <v>0.909</v>
+        <v>1.2</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17076,16 +17076,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC186">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17197,7 +17197,7 @@
         <v>46</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17461,7 +17461,7 @@
         <v>45340.5</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
         <v>30</v>
@@ -17731,7 +17731,7 @@
         <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17906,7 +17906,7 @@
         <v>45346.5</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
         <v>33</v>
@@ -18173,7 +18173,7 @@
         <v>45347.5</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G199" t="s">
         <v>41</v>
@@ -18354,7 +18354,7 @@
         <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18888,7 +18888,7 @@
         <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -19140,7 +19140,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7887078</v>
+        <v>7887079</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19152,76 +19152,76 @@
         <v>45354.5</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K210">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L210">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
+        <v>3.4</v>
+      </c>
+      <c r="N210">
+        <v>1.95</v>
+      </c>
+      <c r="O210">
+        <v>3.25</v>
+      </c>
+      <c r="P210">
+        <v>3.4</v>
+      </c>
+      <c r="Q210">
+        <v>-0.25</v>
+      </c>
+      <c r="R210">
+        <v>1.725</v>
+      </c>
+      <c r="S210">
+        <v>1.975</v>
+      </c>
+      <c r="T210">
         <v>2.5</v>
       </c>
-      <c r="N210">
-        <v>3.1</v>
-      </c>
-      <c r="O210">
-        <v>3</v>
-      </c>
-      <c r="P210">
-        <v>2.15</v>
-      </c>
-      <c r="Q210">
-        <v>0.25</v>
-      </c>
-      <c r="R210">
-        <v>1.85</v>
-      </c>
-      <c r="S210">
-        <v>1.95</v>
-      </c>
-      <c r="T210">
-        <v>2.25</v>
-      </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z210">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC210">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19244,7 +19244,7 @@
         <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7887079</v>
+        <v>7887078</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45354.5</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K212">
+        <v>2.625</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>2.5</v>
+      </c>
+      <c r="N212">
+        <v>3.1</v>
+      </c>
+      <c r="O212">
+        <v>3</v>
+      </c>
+      <c r="P212">
+        <v>2.15</v>
+      </c>
+      <c r="Q212">
+        <v>0.25</v>
+      </c>
+      <c r="R212">
+        <v>1.85</v>
+      </c>
+      <c r="S212">
         <v>1.95</v>
       </c>
-      <c r="L212">
-        <v>3.25</v>
-      </c>
-      <c r="M212">
-        <v>3.4</v>
-      </c>
-      <c r="N212">
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
         <v>1.95</v>
       </c>
-      <c r="O212">
-        <v>3.25</v>
-      </c>
-      <c r="P212">
-        <v>3.4</v>
-      </c>
-      <c r="Q212">
-        <v>-0.25</v>
-      </c>
-      <c r="R212">
-        <v>1.725</v>
-      </c>
-      <c r="S212">
-        <v>1.975</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>2</v>
-      </c>
       <c r="V212">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y212">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA212">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
         <v>39</v>
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7919766</v>
+        <v>7919767</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,19 +19597,19 @@
         <v>45360.5</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K215">
         <v>1.75</v>
@@ -19621,52 +19621,52 @@
         <v>4.2</v>
       </c>
       <c r="N215">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q215">
         <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
         <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y215">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7919767</v>
+        <v>7919766</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,19 +19686,19 @@
         <v>45360.5</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K216">
         <v>1.75</v>
@@ -19710,52 +19710,52 @@
         <v>4.2</v>
       </c>
       <c r="N216">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O216">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q216">
         <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>45360.5</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
         <v>43</v>
@@ -20134,7 +20134,7 @@
         <v>45</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20220,7 +20220,7 @@
         <v>45361.5</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20398,7 +20398,7 @@
         <v>45367.5</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
         <v>42</v>
@@ -20487,10 +20487,10 @@
         <v>45367.5</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7947489</v>
+        <v>7947488</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45367.5</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G226" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K226">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M226">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O226">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
+        <v>1.975</v>
+      </c>
+      <c r="V226">
         <v>1.825</v>
       </c>
-      <c r="V226">
-        <v>1.975</v>
-      </c>
       <c r="W226">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC226">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20653,7 +20653,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7947488</v>
+        <v>7947489</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20665,76 +20665,76 @@
         <v>45367.5</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L227">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N227">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P227">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
+        <v>1.825</v>
+      </c>
+      <c r="V227">
         <v>1.975</v>
       </c>
-      <c r="V227">
-        <v>1.825</v>
-      </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA227">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20831,7 +20831,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7781008</v>
+        <v>7781009</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20843,13 +20843,13 @@
         <v>45368.5</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229">
         <v>2</v>
@@ -20858,40 +20858,40 @@
         <v>51</v>
       </c>
       <c r="K229">
+        <v>1.55</v>
+      </c>
+      <c r="L229">
+        <v>3.8</v>
+      </c>
+      <c r="M229">
+        <v>5.5</v>
+      </c>
+      <c r="N229">
+        <v>1.55</v>
+      </c>
+      <c r="O229">
         <v>4</v>
       </c>
-      <c r="L229">
-        <v>3.4</v>
-      </c>
-      <c r="M229">
-        <v>1.833</v>
-      </c>
-      <c r="N229">
-        <v>5</v>
-      </c>
-      <c r="O229">
-        <v>3.8</v>
-      </c>
       <c r="P229">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S229">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20900,19 +20900,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.6000000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC229">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20920,7 +20920,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7781009</v>
+        <v>7781008</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20932,13 +20932,13 @@
         <v>45368.5</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>2</v>
@@ -20947,40 +20947,40 @@
         <v>51</v>
       </c>
       <c r="K230">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L230">
+        <v>3.4</v>
+      </c>
+      <c r="M230">
+        <v>1.833</v>
+      </c>
+      <c r="N230">
+        <v>5</v>
+      </c>
+      <c r="O230">
         <v>3.8</v>
       </c>
-      <c r="M230">
-        <v>5.5</v>
-      </c>
-      <c r="N230">
-        <v>1.55</v>
-      </c>
-      <c r="O230">
-        <v>4</v>
-      </c>
       <c r="P230">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q230">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R230">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20989,19 +20989,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>4.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB230">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21199,7 +21199,7 @@
         <v>45374.33333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
         <v>48</v>
@@ -21291,7 +21291,7 @@
         <v>44</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H234">
         <v>4</v>
@@ -21380,7 +21380,7 @@
         <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -21469,7 +21469,7 @@
         <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21632,7 +21632,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7781124</v>
+        <v>7781011</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21644,76 +21644,76 @@
         <v>45381.5</v>
       </c>
       <c r="F238" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K238">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L238">
         <v>3.2</v>
       </c>
       <c r="M238">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N238">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O238">
         <v>3.1</v>
       </c>
       <c r="P238">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X238">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA238">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-0.5</v>
       </c>
       <c r="AC238">
-        <v>0.4</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21721,7 +21721,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7781011</v>
+        <v>7781124</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21733,76 +21733,76 @@
         <v>45381.5</v>
       </c>
       <c r="F239" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K239">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L239">
         <v>3.2</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N239">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O239">
         <v>3.1</v>
       </c>
       <c r="P239">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V239">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB239">
         <v>-0.5</v>
       </c>
       <c r="AC239">
-        <v>0.3875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22178,7 +22178,7 @@
         <v>45388.29166666666</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G244" t="s">
         <v>43</v>
@@ -22623,7 +22623,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G249" t="s">
         <v>37</v>
@@ -22712,7 +22712,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G250" t="s">
         <v>40</v>
@@ -22982,7 +22982,7 @@
         <v>47</v>
       </c>
       <c r="G253" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -23145,7 +23145,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7781019</v>
+        <v>7780961</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23157,49 +23157,49 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G255" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J255" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K255">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M255">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="N255">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O255">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P255">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S255">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U255">
         <v>1.9</v>
@@ -23211,22 +23211,22 @@
         <v>-1</v>
       </c>
       <c r="X255">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z255">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC255">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23234,7 +23234,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7780961</v>
+        <v>7781018</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23246,40 +23246,40 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F256" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G256" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
         <v>0</v>
       </c>
-      <c r="I256">
-        <v>4</v>
-      </c>
       <c r="J256" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K256">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="L256">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M256">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N256">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="O256">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P256">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="Q256">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R256">
         <v>1.825</v>
@@ -23288,34 +23288,34 @@
         <v>1.975</v>
       </c>
       <c r="T256">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA256">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB256">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23323,7 +23323,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7781018</v>
+        <v>7781019</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23335,76 +23335,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F257" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K257">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="L257">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M257">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N257">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O257">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P257">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q257">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R257">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S257">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T257">
         <v>2.5</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V257">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W257">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA257">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB257">
         <v>-1</v>
       </c>
       <c r="AC257">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23513,7 +23513,7 @@
         <v>45395.5625</v>
       </c>
       <c r="F259" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
         <v>46</v>
@@ -23691,10 +23691,10 @@
         <v>45396.45833333334</v>
       </c>
       <c r="F261" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G261" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H261">
         <v>4</v>
@@ -23939,302 +23939,6 @@
       </c>
       <c r="AC263">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:29">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264">
-        <v>7780965</v>
-      </c>
-      <c r="C264" t="s">
-        <v>28</v>
-      </c>
-      <c r="D264" t="s">
-        <v>28</v>
-      </c>
-      <c r="E264" s="2">
-        <v>45402.29166666666</v>
-      </c>
-      <c r="F264" t="s">
-        <v>47</v>
-      </c>
-      <c r="G264" t="s">
-        <v>39</v>
-      </c>
-      <c r="K264">
-        <v>2.5</v>
-      </c>
-      <c r="L264">
-        <v>3.2</v>
-      </c>
-      <c r="M264">
-        <v>2.7</v>
-      </c>
-      <c r="N264">
-        <v>2.25</v>
-      </c>
-      <c r="O264">
-        <v>3.25</v>
-      </c>
-      <c r="P264">
-        <v>3</v>
-      </c>
-      <c r="Q264">
-        <v>-0.25</v>
-      </c>
-      <c r="R264">
-        <v>1.975</v>
-      </c>
-      <c r="S264">
-        <v>1.825</v>
-      </c>
-      <c r="T264">
-        <v>2.5</v>
-      </c>
-      <c r="U264">
-        <v>1.975</v>
-      </c>
-      <c r="V264">
-        <v>1.825</v>
-      </c>
-      <c r="W264">
-        <v>0</v>
-      </c>
-      <c r="X264">
-        <v>0</v>
-      </c>
-      <c r="Y264">
-        <v>0</v>
-      </c>
-      <c r="Z264">
-        <v>0</v>
-      </c>
-      <c r="AA264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:29">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265">
-        <v>7780964</v>
-      </c>
-      <c r="C265" t="s">
-        <v>28</v>
-      </c>
-      <c r="D265" t="s">
-        <v>28</v>
-      </c>
-      <c r="E265" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F265" t="s">
-        <v>36</v>
-      </c>
-      <c r="G265" t="s">
-        <v>31</v>
-      </c>
-      <c r="K265">
-        <v>2.4</v>
-      </c>
-      <c r="L265">
-        <v>3.3</v>
-      </c>
-      <c r="M265">
-        <v>2.75</v>
-      </c>
-      <c r="N265">
-        <v>2.4</v>
-      </c>
-      <c r="O265">
-        <v>3.3</v>
-      </c>
-      <c r="P265">
-        <v>2.7</v>
-      </c>
-      <c r="Q265">
-        <v>0</v>
-      </c>
-      <c r="R265">
-        <v>1.775</v>
-      </c>
-      <c r="S265">
-        <v>2.025</v>
-      </c>
-      <c r="T265">
-        <v>2.25</v>
-      </c>
-      <c r="U265">
-        <v>1.775</v>
-      </c>
-      <c r="V265">
-        <v>2.025</v>
-      </c>
-      <c r="W265">
-        <v>0</v>
-      </c>
-      <c r="X265">
-        <v>0</v>
-      </c>
-      <c r="Y265">
-        <v>0</v>
-      </c>
-      <c r="Z265">
-        <v>0</v>
-      </c>
-      <c r="AA265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:29">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>7780962</v>
-      </c>
-      <c r="C266" t="s">
-        <v>28</v>
-      </c>
-      <c r="D266" t="s">
-        <v>28</v>
-      </c>
-      <c r="E266" s="2">
-        <v>45402.54166666666</v>
-      </c>
-      <c r="F266" t="s">
-        <v>42</v>
-      </c>
-      <c r="G266" t="s">
-        <v>46</v>
-      </c>
-      <c r="K266">
-        <v>2.375</v>
-      </c>
-      <c r="L266">
-        <v>3.2</v>
-      </c>
-      <c r="M266">
-        <v>2.625</v>
-      </c>
-      <c r="N266">
-        <v>2.375</v>
-      </c>
-      <c r="O266">
-        <v>3.2</v>
-      </c>
-      <c r="P266">
-        <v>2.7</v>
-      </c>
-      <c r="Q266">
-        <v>0</v>
-      </c>
-      <c r="R266">
-        <v>1.775</v>
-      </c>
-      <c r="S266">
-        <v>2.025</v>
-      </c>
-      <c r="T266">
-        <v>2.25</v>
-      </c>
-      <c r="U266">
-        <v>2</v>
-      </c>
-      <c r="V266">
-        <v>1.8</v>
-      </c>
-      <c r="W266">
-        <v>0</v>
-      </c>
-      <c r="X266">
-        <v>0</v>
-      </c>
-      <c r="Y266">
-        <v>0</v>
-      </c>
-      <c r="Z266">
-        <v>0</v>
-      </c>
-      <c r="AA266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:29">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>8110635</v>
-      </c>
-      <c r="C267" t="s">
-        <v>28</v>
-      </c>
-      <c r="D267" t="s">
-        <v>28</v>
-      </c>
-      <c r="E267" s="2">
-        <v>45402.625</v>
-      </c>
-      <c r="F267" t="s">
-        <v>29</v>
-      </c>
-      <c r="G267" t="s">
-        <v>45</v>
-      </c>
-      <c r="K267">
-        <v>1.85</v>
-      </c>
-      <c r="L267">
-        <v>3.2</v>
-      </c>
-      <c r="M267">
-        <v>4.2</v>
-      </c>
-      <c r="N267">
-        <v>1.909</v>
-      </c>
-      <c r="O267">
-        <v>3.2</v>
-      </c>
-      <c r="P267">
-        <v>4.2</v>
-      </c>
-      <c r="Q267">
-        <v>-0.5</v>
-      </c>
-      <c r="R267">
-        <v>1.9</v>
-      </c>
-      <c r="S267">
-        <v>1.9</v>
-      </c>
-      <c r="T267">
-        <v>2.25</v>
-      </c>
-      <c r="U267">
-        <v>1.9</v>
-      </c>
-      <c r="V267">
-        <v>1.9</v>
-      </c>
-      <c r="W267">
-        <v>0</v>
-      </c>
-      <c r="X267">
-        <v>0</v>
-      </c>
-      <c r="Y267">
-        <v>0</v>
-      </c>
-      <c r="Z267">
-        <v>0</v>
-      </c>
-      <c r="AA267">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -100,13 +100,7 @@
     <t>7781115</t>
   </si>
   <si>
-    <t>7781128</t>
-  </si>
-  <si>
-    <t>7781129</t>
-  </si>
-  <si>
-    <t>7781025</t>
+    <t>7780970</t>
   </si>
   <si>
     <t>7781023</t>
@@ -115,7 +109,13 @@
     <t>7780995</t>
   </si>
   <si>
-    <t>7780970</t>
+    <t>7781129</t>
+  </si>
+  <si>
+    <t>7781128</t>
+  </si>
+  <si>
+    <t>7781025</t>
   </si>
   <si>
     <t>7781116</t>
@@ -133,19 +133,19 @@
     <t>Academica</t>
   </si>
   <si>
+    <t>Lusitania Lourosa</t>
+  </si>
+  <si>
     <t>CF Canelas 2010</t>
   </si>
   <si>
-    <t>Oliveira Hospital</t>
-  </si>
-  <si>
-    <t>Lusitania Lourosa</t>
+    <t>AD Fafe</t>
   </si>
   <si>
     <t>Pero Pinheiro</t>
   </si>
   <si>
-    <t>AD Fafe</t>
+    <t>Oliveira Hospital</t>
   </si>
   <si>
     <t>Caldas SC</t>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6941478</v>
+        <v>6941476</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -916,73 +916,73 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="K5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N5">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O5">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
         <v>-0.25</v>
       </c>
       <c r="Q5">
+        <v>1.775</v>
+      </c>
+      <c r="R5">
         <v>2.025</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
       </c>
       <c r="S5">
         <v>2.25</v>
       </c>
       <c r="T5">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6940674</v>
+        <v>6941478</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -1002,73 +1002,73 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6">
+        <v>2.1</v>
+      </c>
+      <c r="K6">
         <v>3.1</v>
       </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
       <c r="L6">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
         <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6941476</v>
+        <v>6941477</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -1088,73 +1088,73 @@
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>3.2</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N7">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
         <v>-0.25</v>
       </c>
       <c r="Q7">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
         <v>2.25</v>
       </c>
       <c r="T7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6941477</v>
+        <v>6940674</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1260,73 +1260,73 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="K9">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="M9">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="N9">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q9">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
         <v>2.25</v>
       </c>
       <c r="T9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1518,7 +1518,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>45157.5</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
@@ -2719,7 +2719,7 @@
         <v>45158.5</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
         <v>36</v>
@@ -2808,7 +2808,7 @@
         <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2977,7 +2977,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
         <v>55</v>
@@ -3152,7 +3152,7 @@
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3668,7 +3668,7 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3923,7 +3923,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
         <v>38</v>
@@ -4267,10 +4267,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
         <v>50</v>
@@ -4442,7 +4442,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4955,7 +4955,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -5044,7 +5044,7 @@
         <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5216,7 +5216,7 @@
         <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5471,7 +5471,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -5548,7 +5548,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6941515</v>
+        <v>6944654</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
@@ -5557,10 +5557,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5572,25 +5572,25 @@
         <v>57</v>
       </c>
       <c r="J59">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="K59">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="M59">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="N59">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="P59">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q59">
         <v>1.875</v>
@@ -5599,34 +5599,34 @@
         <v>1.925</v>
       </c>
       <c r="S59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5634,7 +5634,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6944654</v>
+        <v>6941515</v>
       </c>
       <c r="C60" t="s">
         <v>35</v>
@@ -5643,10 +5643,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5658,25 +5658,25 @@
         <v>57</v>
       </c>
       <c r="J60">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="K60">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L60">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="M60">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="N60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O60">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q60">
         <v>1.875</v>
@@ -5685,34 +5685,34 @@
         <v>1.925</v>
       </c>
       <c r="S60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T60">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U60">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V60">
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5892,7 +5892,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6944652</v>
+        <v>6941517</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -5901,10 +5901,10 @@
         <v>45199.5</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5916,40 +5916,40 @@
         <v>58</v>
       </c>
       <c r="J63">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K63">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L63">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="M63">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O63">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="P63">
         <v>0.5</v>
       </c>
       <c r="Q63">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
         <v>2.25</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
         <v>-1</v>
@@ -5958,16 +5958,16 @@
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
         <v>-1</v>
@@ -5978,7 +5978,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6941517</v>
+        <v>6941516</v>
       </c>
       <c r="C64" t="s">
         <v>35</v>
@@ -5987,40 +5987,40 @@
         <v>45199.5</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J64">
+        <v>1.615</v>
+      </c>
+      <c r="K64">
         <v>3.6</v>
       </c>
-      <c r="K64">
-        <v>3.2</v>
-      </c>
       <c r="L64">
-        <v>1.909</v>
+        <v>4.6</v>
       </c>
       <c r="M64">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="N64">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="P64">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q64">
         <v>1.825</v>
@@ -6032,31 +6032,31 @@
         <v>2.25</v>
       </c>
       <c r="T64">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6064,7 +6064,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6941516</v>
+        <v>6944652</v>
       </c>
       <c r="C65" t="s">
         <v>35</v>
@@ -6073,76 +6073,76 @@
         <v>45199.5</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J65">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="K65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>4.6</v>
+        <v>1.75</v>
       </c>
       <c r="M65">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="N65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O65">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="P65">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q65">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S65">
         <v>2.25</v>
       </c>
       <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
         <v>1.8</v>
       </c>
-      <c r="U65">
-        <v>2</v>
-      </c>
       <c r="V65">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y65">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6162,7 +6162,7 @@
         <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
         <v>37</v>
@@ -6417,10 +6417,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s">
         <v>39</v>
-      </c>
-      <c r="F69" t="s">
-        <v>41</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6675,7 +6675,7 @@
         <v>45206.5</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
@@ -6936,7 +6936,7 @@
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7105,7 +7105,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
         <v>48</v>
@@ -7363,7 +7363,7 @@
         <v>45207.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
         <v>46</v>
@@ -7621,10 +7621,10 @@
         <v>45228.5</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7882,7 +7882,7 @@
         <v>52</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8312,7 +8312,7 @@
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9000,7 +9000,7 @@
         <v>55</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>45241.5</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
         <v>51</v>
@@ -9513,7 +9513,7 @@
         <v>45242.5</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
         <v>48</v>
@@ -9599,7 +9599,7 @@
         <v>45242.5</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
         <v>47</v>
@@ -9685,7 +9685,7 @@
         <v>45242.5</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
         <v>46</v>
@@ -9946,7 +9946,7 @@
         <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>55</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10459,7 +10459,7 @@
         <v>45263.5</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F116" t="s">
         <v>45</v>
@@ -10548,7 +10548,7 @@
         <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10634,7 +10634,7 @@
         <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10889,7 +10889,7 @@
         <v>45268.5</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
         <v>36</v>
@@ -10975,7 +10975,7 @@
         <v>45268.5</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
         <v>46</v>
@@ -11408,7 +11408,7 @@
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11577,7 +11577,7 @@
         <v>45270.60416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
         <v>47</v>
@@ -12182,7 +12182,7 @@
         <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>45277.5</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s">
         <v>44</v>
@@ -12437,10 +12437,10 @@
         <v>45277.5</v>
       </c>
       <c r="E139" t="s">
+        <v>39</v>
+      </c>
+      <c r="F139" t="s">
         <v>41</v>
-      </c>
-      <c r="F139" t="s">
-        <v>43</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12609,7 +12609,7 @@
         <v>45296.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
         <v>55</v>
@@ -12695,7 +12695,7 @@
         <v>45297.33333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
         <v>36</v>
@@ -12784,7 +12784,7 @@
         <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12956,7 +12956,7 @@
         <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13460,7 +13460,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6940231</v>
+        <v>6940678</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -13469,49 +13469,49 @@
         <v>45304.5</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
         <v>56</v>
       </c>
       <c r="J151">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="K151">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L151">
+        <v>5</v>
+      </c>
+      <c r="M151">
+        <v>1.5</v>
+      </c>
+      <c r="N151">
         <v>4</v>
       </c>
-      <c r="M151">
-        <v>1.727</v>
-      </c>
-      <c r="N151">
-        <v>3.6</v>
-      </c>
       <c r="O151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q151">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S151">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T151">
         <v>1.95</v>
@@ -13520,7 +13520,7 @@
         <v>1.85</v>
       </c>
       <c r="V151">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13529,7 +13529,7 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z151">
         <v>-1</v>
@@ -13546,7 +13546,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6940678</v>
+        <v>6940231</v>
       </c>
       <c r="C152" t="s">
         <v>35</v>
@@ -13555,49 +13555,49 @@
         <v>45304.5</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="s">
         <v>56</v>
       </c>
       <c r="J152">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="K152">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="N152">
+        <v>3.6</v>
+      </c>
+      <c r="O152">
         <v>4</v>
       </c>
-      <c r="O152">
-        <v>5</v>
-      </c>
       <c r="P152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q152">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T152">
         <v>1.95</v>
@@ -13606,7 +13606,7 @@
         <v>1.85</v>
       </c>
       <c r="V152">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -13615,7 +13615,7 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z152">
         <v>-1</v>
@@ -13641,7 +13641,7 @@
         <v>45304.5</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
         <v>54</v>
@@ -13804,7 +13804,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6941535</v>
+        <v>6940680</v>
       </c>
       <c r="C155" t="s">
         <v>35</v>
@@ -13813,76 +13813,76 @@
         <v>45304.5</v>
       </c>
       <c r="E155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F155" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J155">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="K155">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L155">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N155">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O155">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="P155">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q155">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U155">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W155">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB155">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13890,7 +13890,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6940680</v>
+        <v>6941535</v>
       </c>
       <c r="C156" t="s">
         <v>35</v>
@@ -13899,76 +13899,76 @@
         <v>45304.5</v>
       </c>
       <c r="E156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J156">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="K156">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L156">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="M156">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N156">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O156">
+        <v>1.6</v>
+      </c>
+      <c r="P156">
+        <v>0.75</v>
+      </c>
+      <c r="Q156">
+        <v>1.95</v>
+      </c>
+      <c r="R156">
+        <v>1.85</v>
+      </c>
+      <c r="S156">
+        <v>2.5</v>
+      </c>
+      <c r="T156">
+        <v>1.925</v>
+      </c>
+      <c r="U156">
+        <v>1.875</v>
+      </c>
+      <c r="V156">
+        <v>-1</v>
+      </c>
+      <c r="W156">
         <v>2.6</v>
       </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-      <c r="Q156">
-        <v>1.825</v>
-      </c>
-      <c r="R156">
-        <v>1.975</v>
-      </c>
-      <c r="S156">
-        <v>2.25</v>
-      </c>
-      <c r="T156">
-        <v>1.825</v>
-      </c>
-      <c r="U156">
-        <v>1.975</v>
-      </c>
-      <c r="V156">
-        <v>1.45</v>
-      </c>
-      <c r="W156">
-        <v>-1</v>
-      </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -14074,7 +14074,7 @@
         <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14332,7 +14332,7 @@
         <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14501,7 +14501,7 @@
         <v>45312.5</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
         <v>37</v>
@@ -14676,7 +14676,7 @@
         <v>53</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14836,7 +14836,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6940684</v>
+        <v>6940234</v>
       </c>
       <c r="C167" t="s">
         <v>35</v>
@@ -14845,76 +14845,76 @@
         <v>45312.5</v>
       </c>
       <c r="E167" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F167" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I167" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J167">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="K167">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L167">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M167">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O167">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="P167">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q167">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T167">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14934,7 +14934,7 @@
         <v>48</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -15008,7 +15008,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6940234</v>
+        <v>6940684</v>
       </c>
       <c r="C169" t="s">
         <v>35</v>
@@ -15017,76 +15017,76 @@
         <v>45312.5</v>
       </c>
       <c r="E169" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J169">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="K169">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L169">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N169">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O169">
+        <v>6.5</v>
+      </c>
+      <c r="P169">
+        <v>-1.25</v>
+      </c>
+      <c r="Q169">
         <v>1.75</v>
       </c>
-      <c r="P169">
+      <c r="R169">
+        <v>1.95</v>
+      </c>
+      <c r="S169">
+        <v>2.75</v>
+      </c>
+      <c r="T169">
+        <v>1.85</v>
+      </c>
+      <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
+        <v>0.363</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>0.75</v>
       </c>
-      <c r="Q169">
-        <v>1.8</v>
-      </c>
-      <c r="R169">
-        <v>2</v>
-      </c>
-      <c r="S169">
-        <v>2.25</v>
-      </c>
-      <c r="T169">
-        <v>1.8</v>
-      </c>
-      <c r="U169">
-        <v>2</v>
-      </c>
-      <c r="V169">
-        <v>-1</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>0.75</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
       <c r="Z169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15094,7 +15094,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7741483</v>
+        <v>7741482</v>
       </c>
       <c r="C170" t="s">
         <v>35</v>
@@ -15103,49 +15103,49 @@
         <v>45318.5</v>
       </c>
       <c r="E170" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F170" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G170">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J170">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="K170">
         <v>3.75</v>
       </c>
       <c r="L170">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="M170">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="N170">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O170">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="P170">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q170">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R170">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T170">
         <v>1.925</v>
@@ -15157,22 +15157,22 @@
         <v>-1</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X170">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15180,7 +15180,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7741482</v>
+        <v>7741483</v>
       </c>
       <c r="C171" t="s">
         <v>35</v>
@@ -15189,49 +15189,49 @@
         <v>45318.5</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F171" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J171">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="K171">
         <v>3.75</v>
       </c>
       <c r="L171">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="M171">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="N171">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O171">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="P171">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q171">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S171">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T171">
         <v>1.925</v>
@@ -15243,22 +15243,22 @@
         <v>-1</v>
       </c>
       <c r="W171">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15705,10 +15705,10 @@
         <v>45319.5</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15782,7 +15782,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6944656</v>
+        <v>6940687</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -15791,76 +15791,76 @@
         <v>45319.5</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G178">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="K178">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="M178">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="N178">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P178">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q178">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R178">
         <v>1.95</v>
       </c>
       <c r="S178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T178">
+        <v>1.975</v>
+      </c>
+      <c r="U178">
         <v>1.825</v>
       </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
       <c r="V178">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15868,7 +15868,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6940687</v>
+        <v>6944656</v>
       </c>
       <c r="C179" t="s">
         <v>35</v>
@@ -15877,76 +15877,76 @@
         <v>45319.5</v>
       </c>
       <c r="E179" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J179">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="K179">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L179">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="N179">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O179">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q179">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R179">
         <v>1.95</v>
       </c>
       <c r="S179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T179">
+        <v>1.825</v>
+      </c>
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="U179">
-        <v>1.825</v>
-      </c>
       <c r="V179">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W179">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -16135,7 +16135,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F182" t="s">
         <v>36</v>
@@ -16479,10 +16479,10 @@
         <v>45339.5</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16826,7 +16826,7 @@
         <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -17084,7 +17084,7 @@
         <v>54</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17253,7 +17253,7 @@
         <v>45346.5</v>
       </c>
       <c r="E195" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F195" t="s">
         <v>38</v>
@@ -17342,7 +17342,7 @@
         <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17511,7 +17511,7 @@
         <v>45347.5</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F198" t="s">
         <v>44</v>
@@ -17597,7 +17597,7 @@
         <v>45347.5</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F199" t="s">
         <v>48</v>
@@ -18202,7 +18202,7 @@
         <v>51</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18285,7 +18285,7 @@
         <v>45353.5</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F207" t="s">
         <v>55</v>
@@ -18546,7 +18546,7 @@
         <v>47</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18632,7 +18632,7 @@
         <v>48</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18878,7 +18878,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7919766</v>
+        <v>7919765</v>
       </c>
       <c r="C214" t="s">
         <v>35</v>
@@ -18887,55 +18887,55 @@
         <v>45360.5</v>
       </c>
       <c r="E214" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F214" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I214" t="s">
         <v>58</v>
       </c>
       <c r="J214">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="K214">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L214">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="N214">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O214">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q214">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
         <v>2.25</v>
       </c>
       <c r="T214">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
         <v>-1</v>
@@ -18944,19 +18944,19 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>3.333</v>
+        <v>2.3</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB214">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18964,7 +18964,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7919767</v>
+        <v>7919766</v>
       </c>
       <c r="C215" t="s">
         <v>35</v>
@@ -18973,19 +18973,19 @@
         <v>45360.5</v>
       </c>
       <c r="E215" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J215">
         <v>1.75</v>
@@ -18997,52 +18997,52 @@
         <v>4.2</v>
       </c>
       <c r="M215">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="N215">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O215">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P215">
         <v>-0.5</v>
       </c>
       <c r="Q215">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S215">
         <v>2.25</v>
       </c>
       <c r="T215">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
         <v>-1</v>
       </c>
       <c r="W215">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19050,7 +19050,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7919768</v>
+        <v>7919767</v>
       </c>
       <c r="C216" t="s">
         <v>35</v>
@@ -19059,76 +19059,76 @@
         <v>45360.5</v>
       </c>
       <c r="E216" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J216">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="N216">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P216">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q216">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
         <v>2.25</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19136,7 +19136,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7919765</v>
+        <v>7919768</v>
       </c>
       <c r="C217" t="s">
         <v>35</v>
@@ -19145,76 +19145,76 @@
         <v>45360.5</v>
       </c>
       <c r="E217" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J217">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K217">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N217">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O217">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P217">
         <v>-0.25</v>
       </c>
       <c r="Q217">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S217">
         <v>2.25</v>
       </c>
       <c r="T217">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z217">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19664,7 +19664,7 @@
         <v>46</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19747,7 +19747,7 @@
         <v>45367.5</v>
       </c>
       <c r="E224" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F224" t="s">
         <v>37</v>
@@ -19919,7 +19919,7 @@
         <v>45367.5</v>
       </c>
       <c r="E226" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F226" t="s">
         <v>50</v>
@@ -20177,7 +20177,7 @@
         <v>45368.5</v>
       </c>
       <c r="E229" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F229" t="s">
         <v>45</v>
@@ -20349,7 +20349,7 @@
         <v>45368.5</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F231" t="s">
         <v>53</v>
@@ -20610,7 +20610,7 @@
         <v>50</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20782,7 +20782,7 @@
         <v>47</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G236">
         <v>4</v>
@@ -20868,7 +20868,7 @@
         <v>52</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -21384,7 +21384,7 @@
         <v>49</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21639,7 +21639,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F246" t="s">
         <v>48</v>
@@ -21897,7 +21897,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F249" t="s">
         <v>51</v>
@@ -21983,7 +21983,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E250" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F250" t="s">
         <v>47</v>
@@ -22158,7 +22158,7 @@
         <v>36</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G252">
         <v>4</v>
@@ -22674,7 +22674,7 @@
         <v>45</v>
       </c>
       <c r="F258" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22932,7 +22932,7 @@
         <v>37</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G261">
         <v>4</v>
@@ -23018,7 +23018,7 @@
         <v>50</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -23101,7 +23101,7 @@
         <v>45396.54166666666</v>
       </c>
       <c r="E263" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F263" t="s">
         <v>54</v>
@@ -23276,7 +23276,7 @@
         <v>38</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -23531,7 +23531,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E268" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F268" t="s">
         <v>37</v>
@@ -23706,7 +23706,7 @@
         <v>48</v>
       </c>
       <c r="F270" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23866,7 +23866,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7780966</v>
+        <v>7781020</v>
       </c>
       <c r="C272" t="s">
         <v>35</v>
@@ -23875,40 +23875,40 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E272" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F272" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G272">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J272">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="K272">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L272">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M272">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N272">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O272">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P272">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q272">
         <v>1.95</v>
@@ -23917,22 +23917,22 @@
         <v>1.85</v>
       </c>
       <c r="S272">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T272">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U272">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
         <v>-1</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X272">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
         <v>-1</v>
@@ -23941,10 +23941,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AA272">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="273" spans="1:28">
@@ -23952,7 +23952,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7781020</v>
+        <v>7781021</v>
       </c>
       <c r="C273" t="s">
         <v>35</v>
@@ -23961,76 +23961,76 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E273" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F273" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G273">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J273">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="K273">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L273">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="M273">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N273">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O273">
-        <v>4.333</v>
+        <v>1.45</v>
       </c>
       <c r="P273">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q273">
+        <v>1.825</v>
+      </c>
+      <c r="R273">
+        <v>1.975</v>
+      </c>
+      <c r="S273">
+        <v>2.75</v>
+      </c>
+      <c r="T273">
         <v>1.95</v>
       </c>
-      <c r="R273">
+      <c r="U273">
         <v>1.85</v>
       </c>
-      <c r="S273">
-        <v>2.5</v>
-      </c>
-      <c r="T273">
-        <v>1.85</v>
-      </c>
-      <c r="U273">
-        <v>1.95</v>
-      </c>
       <c r="V273">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="W273">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z273">
+        <v>-1</v>
+      </c>
+      <c r="AA273">
+        <v>-1</v>
+      </c>
+      <c r="AB273">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA273">
-        <v>-1</v>
-      </c>
-      <c r="AB273">
-        <v>0.95</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24038,7 +24038,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7781021</v>
+        <v>7781022</v>
       </c>
       <c r="C274" t="s">
         <v>35</v>
@@ -24047,76 +24047,76 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E274" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F274" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J274">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="K274">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L274">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="M274">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="N274">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O274">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="P274">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q274">
+        <v>1.775</v>
+      </c>
+      <c r="R274">
+        <v>2.025</v>
+      </c>
+      <c r="S274">
+        <v>2.25</v>
+      </c>
+      <c r="T274">
         <v>1.825</v>
       </c>
-      <c r="R274">
+      <c r="U274">
         <v>1.975</v>
       </c>
-      <c r="S274">
-        <v>2.75</v>
-      </c>
-      <c r="T274">
-        <v>1.95</v>
-      </c>
-      <c r="U274">
-        <v>1.85</v>
-      </c>
       <c r="V274">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="W274">
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y274">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:28">
@@ -24124,7 +24124,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7781022</v>
+        <v>7780966</v>
       </c>
       <c r="C275" t="s">
         <v>35</v>
@@ -24133,55 +24133,55 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E275" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F275" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="s">
         <v>58</v>
       </c>
       <c r="J275">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K275">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L275">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M275">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N275">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O275">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P275">
         <v>-0.25</v>
       </c>
       <c r="Q275">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R275">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S275">
         <v>2.25</v>
       </c>
       <c r="T275">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U275">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V275">
         <v>-1</v>
@@ -24190,19 +24190,19 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB275">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24308,7 +24308,7 @@
         <v>55</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -24391,7 +24391,7 @@
         <v>45416.41666666666</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F278" t="s">
         <v>46</v>
@@ -24456,31 +24456,31 @@
         <v>45416.5</v>
       </c>
       <c r="E279" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F279" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J279">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="K279">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L279">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="M279">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="N279">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O279">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P279">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q279">
         <v>2.025</v>
@@ -24492,10 +24492,10 @@
         <v>2.5</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U279">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V279">
         <v>0</v>
@@ -24521,46 +24521,46 @@
         <v>45416.5</v>
       </c>
       <c r="E280" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F280" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J280">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="K280">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="L280">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="M280">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N280">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="O280">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="P280">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q280">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R280">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S280">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T280">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U280">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V280">
         <v>0</v>
@@ -24586,46 +24586,46 @@
         <v>45416.5</v>
       </c>
       <c r="E281" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F281" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J281">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="K281">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L281">
+        <v>3.8</v>
+      </c>
+      <c r="M281">
+        <v>1.8</v>
+      </c>
+      <c r="N281">
         <v>3.6</v>
       </c>
-      <c r="M281">
-        <v>2.05</v>
-      </c>
-      <c r="N281">
-        <v>3.1</v>
-      </c>
       <c r="O281">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P281">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q281">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R281">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S281">
         <v>2.5</v>
       </c>
       <c r="T281">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V281">
         <v>0</v>
@@ -24651,46 +24651,46 @@
         <v>45416.5</v>
       </c>
       <c r="E282" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J282">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="K282">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="L282">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="M282">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N282">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="O282">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="P282">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q282">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R282">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S282">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T282">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V282">
         <v>0</v>
@@ -24716,46 +24716,46 @@
         <v>45416.5</v>
       </c>
       <c r="E283" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F283" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J283">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="K283">
         <v>3.6</v>
       </c>
       <c r="L283">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M283">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="N283">
         <v>3.6</v>
       </c>
       <c r="O283">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P283">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q283">
+        <v>2.025</v>
+      </c>
+      <c r="R283">
         <v>1.775</v>
-      </c>
-      <c r="R283">
-        <v>2.025</v>
       </c>
       <c r="S283">
         <v>2.5</v>
       </c>
       <c r="T283">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V283">
         <v>0</v>
@@ -24781,46 +24781,46 @@
         <v>45416.5</v>
       </c>
       <c r="E284" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F284" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J284">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="K284">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L284">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M284">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="N284">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O284">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P284">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q284">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R284">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S284">
         <v>2.5</v>
       </c>
       <c r="T284">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U284">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V284">
         <v>0</v>
@@ -24861,22 +24861,22 @@
         <v>1.95</v>
       </c>
       <c r="M285">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N285">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O285">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="P285">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q285">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R285">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S285">
         <v>2.25</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -100,7 +100,10 @@
     <t>7781115</t>
   </si>
   <si>
-    <t>7780970</t>
+    <t>7781129</t>
+  </si>
+  <si>
+    <t>7781128</t>
   </si>
   <si>
     <t>7781023</t>
@@ -109,10 +112,7 @@
     <t>7780995</t>
   </si>
   <si>
-    <t>7781129</t>
-  </si>
-  <si>
-    <t>7781128</t>
+    <t>7780970</t>
   </si>
   <si>
     <t>7781025</t>
@@ -133,19 +133,19 @@
     <t>Academica</t>
   </si>
   <si>
-    <t>Lusitania Lourosa</t>
-  </si>
-  <si>
     <t>CF Canelas 2010</t>
   </si>
   <si>
-    <t>AD Fafe</t>
+    <t>Oliveira Hospital</t>
+  </si>
+  <si>
+    <t>Lusitania Lourosa</t>
   </si>
   <si>
     <t>Pero Pinheiro</t>
   </si>
   <si>
-    <t>Oliveira Hospital</t>
+    <t>AD Fafe</t>
   </si>
   <si>
     <t>Caldas SC</t>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6941476</v>
+        <v>6941478</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -916,73 +916,73 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="K5">
+        <v>3.1</v>
+      </c>
+      <c r="L5">
         <v>3.2</v>
       </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
       <c r="M5">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N5">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P5">
         <v>-0.25</v>
       </c>
       <c r="Q5">
+        <v>2.025</v>
+      </c>
+      <c r="R5">
         <v>1.775</v>
-      </c>
-      <c r="R5">
-        <v>2.025</v>
       </c>
       <c r="S5">
         <v>2.25</v>
       </c>
       <c r="T5">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W5">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6941478</v>
+        <v>6940674</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -1002,73 +1002,73 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>3.1</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6">
-        <v>2.1</v>
-      </c>
-      <c r="K6">
-        <v>3.1</v>
-      </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N6">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="P6">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q6">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
         <v>2.25</v>
       </c>
       <c r="T6">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U6">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6941477</v>
+        <v>6941476</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -1088,73 +1088,73 @@
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="K7">
         <v>3.2</v>
       </c>
       <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2.05</v>
+      </c>
+      <c r="N7">
+        <v>3.25</v>
+      </c>
+      <c r="O7">
         <v>3.3</v>
-      </c>
-      <c r="M7">
-        <v>1.95</v>
-      </c>
-      <c r="N7">
-        <v>3.2</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
       </c>
       <c r="P7">
         <v>-0.25</v>
       </c>
       <c r="Q7">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
         <v>2.25</v>
       </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z7">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6940674</v>
+        <v>6941477</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1260,73 +1260,73 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O9">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S9">
         <v>2.25</v>
       </c>
       <c r="T9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1518,7 +1518,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>45157.5</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
@@ -2719,7 +2719,7 @@
         <v>45158.5</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
         <v>36</v>
@@ -2808,7 +2808,7 @@
         <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2977,7 +2977,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
         <v>55</v>
@@ -3152,7 +3152,7 @@
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3668,7 +3668,7 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3923,7 +3923,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
         <v>38</v>
@@ -4267,10 +4267,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
         <v>41</v>
-      </c>
-      <c r="F44" t="s">
-        <v>39</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
         <v>50</v>
@@ -4442,7 +4442,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4955,7 +4955,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
@@ -5044,7 +5044,7 @@
         <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5216,7 +5216,7 @@
         <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5471,7 +5471,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -5548,7 +5548,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6944654</v>
+        <v>6941515</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
@@ -5557,10 +5557,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5572,25 +5572,25 @@
         <v>57</v>
       </c>
       <c r="J59">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="K59">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L59">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="N59">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O59">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q59">
         <v>1.875</v>
@@ -5599,34 +5599,34 @@
         <v>1.925</v>
       </c>
       <c r="S59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T59">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5634,7 +5634,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6941515</v>
+        <v>6944654</v>
       </c>
       <c r="C60" t="s">
         <v>35</v>
@@ -5643,10 +5643,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5658,25 +5658,25 @@
         <v>57</v>
       </c>
       <c r="J60">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="K60">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="M60">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="N60">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="P60">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q60">
         <v>1.875</v>
@@ -5685,34 +5685,34 @@
         <v>1.925</v>
       </c>
       <c r="S60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U60">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5892,7 +5892,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6941517</v>
+        <v>6944652</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -5901,10 +5901,10 @@
         <v>45199.5</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5916,40 +5916,40 @@
         <v>58</v>
       </c>
       <c r="J63">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K63">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L63">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N63">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O63">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="P63">
         <v>0.5</v>
       </c>
       <c r="Q63">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
         <v>2.25</v>
       </c>
       <c r="T63">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
         <v>-1</v>
@@ -5958,16 +5958,16 @@
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
@@ -5978,7 +5978,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6941516</v>
+        <v>6941517</v>
       </c>
       <c r="C64" t="s">
         <v>35</v>
@@ -5987,40 +5987,40 @@
         <v>45199.5</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J64">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="K64">
+        <v>3.2</v>
+      </c>
+      <c r="L64">
+        <v>1.909</v>
+      </c>
+      <c r="M64">
         <v>3.6</v>
       </c>
-      <c r="L64">
-        <v>4.6</v>
-      </c>
-      <c r="M64">
-        <v>1.65</v>
-      </c>
       <c r="N64">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="P64">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q64">
         <v>1.825</v>
@@ -6032,31 +6032,31 @@
         <v>2.25</v>
       </c>
       <c r="T64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y64">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6064,7 +6064,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6944652</v>
+        <v>6941516</v>
       </c>
       <c r="C65" t="s">
         <v>35</v>
@@ -6073,76 +6073,76 @@
         <v>45199.5</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
-        <v>1.75</v>
+        <v>4.6</v>
       </c>
       <c r="M65">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="N65">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O65">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="P65">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q65">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R65">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
         <v>2.25</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z65">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6162,7 +6162,7 @@
         <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
         <v>37</v>
@@ -6417,10 +6417,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6675,7 +6675,7 @@
         <v>45206.5</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
@@ -6936,7 +6936,7 @@
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7105,7 +7105,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
         <v>48</v>
@@ -7363,7 +7363,7 @@
         <v>45207.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
         <v>46</v>
@@ -7621,10 +7621,10 @@
         <v>45228.5</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7882,7 +7882,7 @@
         <v>52</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8312,7 +8312,7 @@
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9000,7 +9000,7 @@
         <v>55</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>45241.5</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
         <v>51</v>
@@ -9513,7 +9513,7 @@
         <v>45242.5</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
         <v>48</v>
@@ -9599,7 +9599,7 @@
         <v>45242.5</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
         <v>47</v>
@@ -9685,7 +9685,7 @@
         <v>45242.5</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
         <v>46</v>
@@ -9946,7 +9946,7 @@
         <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>55</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10459,7 +10459,7 @@
         <v>45263.5</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
         <v>45</v>
@@ -10548,7 +10548,7 @@
         <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10634,7 +10634,7 @@
         <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10889,7 +10889,7 @@
         <v>45268.5</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
         <v>36</v>
@@ -10975,7 +10975,7 @@
         <v>45268.5</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
         <v>46</v>
@@ -11408,7 +11408,7 @@
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11577,7 +11577,7 @@
         <v>45270.60416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
         <v>47</v>
@@ -12182,7 +12182,7 @@
         <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>45277.5</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
         <v>44</v>
@@ -12437,10 +12437,10 @@
         <v>45277.5</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12609,7 +12609,7 @@
         <v>45296.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
         <v>55</v>
@@ -12695,7 +12695,7 @@
         <v>45297.33333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
         <v>36</v>
@@ -12784,7 +12784,7 @@
         <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12956,7 +12956,7 @@
         <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13460,7 +13460,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6940678</v>
+        <v>6940231</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -13469,49 +13469,49 @@
         <v>45304.5</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="s">
         <v>56</v>
       </c>
       <c r="J151">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="K151">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M151">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="N151">
+        <v>3.6</v>
+      </c>
+      <c r="O151">
         <v>4</v>
       </c>
-      <c r="O151">
-        <v>5</v>
-      </c>
       <c r="P151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q151">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T151">
         <v>1.95</v>
@@ -13520,7 +13520,7 @@
         <v>1.85</v>
       </c>
       <c r="V151">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13529,7 +13529,7 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z151">
         <v>-1</v>
@@ -13546,7 +13546,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6940231</v>
+        <v>6940678</v>
       </c>
       <c r="C152" t="s">
         <v>35</v>
@@ -13555,49 +13555,49 @@
         <v>45304.5</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>56</v>
       </c>
       <c r="J152">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="K152">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L152">
+        <v>5</v>
+      </c>
+      <c r="M152">
+        <v>1.5</v>
+      </c>
+      <c r="N152">
         <v>4</v>
       </c>
-      <c r="M152">
-        <v>1.727</v>
-      </c>
-      <c r="N152">
-        <v>3.6</v>
-      </c>
       <c r="O152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q152">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T152">
         <v>1.95</v>
@@ -13606,7 +13606,7 @@
         <v>1.85</v>
       </c>
       <c r="V152">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -13615,7 +13615,7 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z152">
         <v>-1</v>
@@ -13641,7 +13641,7 @@
         <v>45304.5</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
         <v>54</v>
@@ -13804,7 +13804,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6940680</v>
+        <v>6941535</v>
       </c>
       <c r="C155" t="s">
         <v>35</v>
@@ -13813,76 +13813,76 @@
         <v>45304.5</v>
       </c>
       <c r="E155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F155" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J155">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="K155">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L155">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="M155">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N155">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O155">
+        <v>1.6</v>
+      </c>
+      <c r="P155">
+        <v>0.75</v>
+      </c>
+      <c r="Q155">
+        <v>1.95</v>
+      </c>
+      <c r="R155">
+        <v>1.85</v>
+      </c>
+      <c r="S155">
+        <v>2.5</v>
+      </c>
+      <c r="T155">
+        <v>1.925</v>
+      </c>
+      <c r="U155">
+        <v>1.875</v>
+      </c>
+      <c r="V155">
+        <v>-1</v>
+      </c>
+      <c r="W155">
         <v>2.6</v>
       </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="Q155">
-        <v>1.825</v>
-      </c>
-      <c r="R155">
-        <v>1.975</v>
-      </c>
-      <c r="S155">
-        <v>2.25</v>
-      </c>
-      <c r="T155">
-        <v>1.825</v>
-      </c>
-      <c r="U155">
-        <v>1.975</v>
-      </c>
-      <c r="V155">
-        <v>1.45</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13890,7 +13890,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6941535</v>
+        <v>6940680</v>
       </c>
       <c r="C156" t="s">
         <v>35</v>
@@ -13899,76 +13899,76 @@
         <v>45304.5</v>
       </c>
       <c r="E156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F156" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J156">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="K156">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L156">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="M156">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N156">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O156">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="P156">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T156">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB156">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -14074,7 +14074,7 @@
         <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14332,7 +14332,7 @@
         <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14501,7 +14501,7 @@
         <v>45312.5</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F163" t="s">
         <v>37</v>
@@ -14676,7 +14676,7 @@
         <v>53</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14836,7 +14836,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6940234</v>
+        <v>6940684</v>
       </c>
       <c r="C167" t="s">
         <v>35</v>
@@ -14845,76 +14845,76 @@
         <v>45312.5</v>
       </c>
       <c r="E167" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J167">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="K167">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L167">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M167">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N167">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O167">
+        <v>6.5</v>
+      </c>
+      <c r="P167">
+        <v>-1.25</v>
+      </c>
+      <c r="Q167">
         <v>1.75</v>
       </c>
-      <c r="P167">
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>2.75</v>
+      </c>
+      <c r="T167">
+        <v>1.85</v>
+      </c>
+      <c r="U167">
+        <v>1.95</v>
+      </c>
+      <c r="V167">
+        <v>0.363</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
         <v>0.75</v>
       </c>
-      <c r="Q167">
-        <v>1.8</v>
-      </c>
-      <c r="R167">
-        <v>2</v>
-      </c>
-      <c r="S167">
-        <v>2.25</v>
-      </c>
-      <c r="T167">
-        <v>1.8</v>
-      </c>
-      <c r="U167">
-        <v>2</v>
-      </c>
-      <c r="V167">
-        <v>-1</v>
-      </c>
-      <c r="W167">
-        <v>-1</v>
-      </c>
-      <c r="X167">
-        <v>0.75</v>
-      </c>
-      <c r="Y167">
-        <v>-1</v>
-      </c>
       <c r="Z167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14934,7 +14934,7 @@
         <v>48</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -15008,7 +15008,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6940684</v>
+        <v>6940234</v>
       </c>
       <c r="C169" t="s">
         <v>35</v>
@@ -15017,76 +15017,76 @@
         <v>45312.5</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J169">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="K169">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L169">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M169">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O169">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="P169">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q169">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T169">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y169">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15094,7 +15094,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7741482</v>
+        <v>7741483</v>
       </c>
       <c r="C170" t="s">
         <v>35</v>
@@ -15103,49 +15103,49 @@
         <v>45318.5</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F170" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G170">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J170">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="K170">
         <v>3.75</v>
       </c>
       <c r="L170">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="M170">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="N170">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="P170">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q170">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R170">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S170">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T170">
         <v>1.925</v>
@@ -15157,22 +15157,22 @@
         <v>-1</v>
       </c>
       <c r="W170">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15180,7 +15180,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7741483</v>
+        <v>7741482</v>
       </c>
       <c r="C171" t="s">
         <v>35</v>
@@ -15189,49 +15189,49 @@
         <v>45318.5</v>
       </c>
       <c r="E171" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F171" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J171">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="K171">
         <v>3.75</v>
       </c>
       <c r="L171">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="M171">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="N171">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O171">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="P171">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q171">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R171">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T171">
         <v>1.925</v>
@@ -15243,22 +15243,22 @@
         <v>-1</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X171">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15705,10 +15705,10 @@
         <v>45319.5</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15782,7 +15782,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6940687</v>
+        <v>6944656</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -15791,76 +15791,76 @@
         <v>45319.5</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G178">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J178">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="K178">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L178">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="N178">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O178">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q178">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R178">
         <v>1.95</v>
       </c>
       <c r="S178">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T178">
+        <v>1.825</v>
+      </c>
+      <c r="U178">
         <v>1.975</v>
       </c>
-      <c r="U178">
-        <v>1.825</v>
-      </c>
       <c r="V178">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W178">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15868,7 +15868,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6944656</v>
+        <v>6940687</v>
       </c>
       <c r="C179" t="s">
         <v>35</v>
@@ -15877,76 +15877,76 @@
         <v>45319.5</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J179">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="K179">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="M179">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="N179">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P179">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q179">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R179">
         <v>1.95</v>
       </c>
       <c r="S179">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T179">
+        <v>1.975</v>
+      </c>
+      <c r="U179">
         <v>1.825</v>
       </c>
-      <c r="U179">
-        <v>1.975</v>
-      </c>
       <c r="V179">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -16135,7 +16135,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
         <v>36</v>
@@ -16479,10 +16479,10 @@
         <v>45339.5</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16826,7 +16826,7 @@
         <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -17084,7 +17084,7 @@
         <v>54</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17253,7 +17253,7 @@
         <v>45346.5</v>
       </c>
       <c r="E195" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F195" t="s">
         <v>38</v>
@@ -17342,7 +17342,7 @@
         <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17511,7 +17511,7 @@
         <v>45347.5</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
         <v>44</v>
@@ -17597,7 +17597,7 @@
         <v>45347.5</v>
       </c>
       <c r="E199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
         <v>48</v>
@@ -18202,7 +18202,7 @@
         <v>51</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18285,7 +18285,7 @@
         <v>45353.5</v>
       </c>
       <c r="E207" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F207" t="s">
         <v>55</v>
@@ -18546,7 +18546,7 @@
         <v>47</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18632,7 +18632,7 @@
         <v>48</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18878,7 +18878,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7919765</v>
+        <v>7919766</v>
       </c>
       <c r="C214" t="s">
         <v>35</v>
@@ -18887,55 +18887,55 @@
         <v>45360.5</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F214" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="s">
         <v>58</v>
       </c>
       <c r="J214">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="K214">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L214">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M214">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N214">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q214">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S214">
         <v>2.25</v>
       </c>
       <c r="T214">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
         <v>-1</v>
@@ -18944,19 +18944,19 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.3</v>
+        <v>3.333</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA214">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18964,7 +18964,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7919766</v>
+        <v>7919767</v>
       </c>
       <c r="C215" t="s">
         <v>35</v>
@@ -18973,19 +18973,19 @@
         <v>45360.5</v>
       </c>
       <c r="E215" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J215">
         <v>1.75</v>
@@ -18997,52 +18997,52 @@
         <v>4.2</v>
       </c>
       <c r="M215">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O215">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P215">
         <v>-0.5</v>
       </c>
       <c r="Q215">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
         <v>2.25</v>
       </c>
       <c r="T215">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U215">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
         <v>-1</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X215">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19050,7 +19050,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7919767</v>
+        <v>7919768</v>
       </c>
       <c r="C216" t="s">
         <v>35</v>
@@ -19059,76 +19059,76 @@
         <v>45360.5</v>
       </c>
       <c r="E216" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J216">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="K216">
+        <v>3.2</v>
+      </c>
+      <c r="L216">
+        <v>3.1</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>3.2</v>
+      </c>
+      <c r="O216">
         <v>3.4</v>
       </c>
-      <c r="L216">
-        <v>4.2</v>
-      </c>
-      <c r="M216">
-        <v>1.75</v>
-      </c>
-      <c r="N216">
-        <v>3.3</v>
-      </c>
-      <c r="O216">
-        <v>4.2</v>
-      </c>
       <c r="P216">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q216">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S216">
         <v>2.25</v>
       </c>
       <c r="T216">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W216">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19136,7 +19136,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7919768</v>
+        <v>7919765</v>
       </c>
       <c r="C217" t="s">
         <v>35</v>
@@ -19145,76 +19145,76 @@
         <v>45360.5</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F217" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I217" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J217">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K217">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N217">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O217">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P217">
         <v>-0.25</v>
       </c>
       <c r="Q217">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
         <v>2.25</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U217">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y217">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB217">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19664,7 +19664,7 @@
         <v>46</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19747,7 +19747,7 @@
         <v>45367.5</v>
       </c>
       <c r="E224" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F224" t="s">
         <v>37</v>
@@ -19919,7 +19919,7 @@
         <v>45367.5</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F226" t="s">
         <v>50</v>
@@ -20177,7 +20177,7 @@
         <v>45368.5</v>
       </c>
       <c r="E229" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F229" t="s">
         <v>45</v>
@@ -20349,7 +20349,7 @@
         <v>45368.5</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F231" t="s">
         <v>53</v>
@@ -20610,7 +20610,7 @@
         <v>50</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20782,7 +20782,7 @@
         <v>47</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G236">
         <v>4</v>
@@ -20868,7 +20868,7 @@
         <v>52</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -21384,7 +21384,7 @@
         <v>49</v>
       </c>
       <c r="F243" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21639,7 +21639,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F246" t="s">
         <v>48</v>
@@ -21897,7 +21897,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F249" t="s">
         <v>51</v>
@@ -21983,7 +21983,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E250" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F250" t="s">
         <v>47</v>
@@ -22158,7 +22158,7 @@
         <v>36</v>
       </c>
       <c r="F252" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G252">
         <v>4</v>
@@ -22674,7 +22674,7 @@
         <v>45</v>
       </c>
       <c r="F258" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22932,7 +22932,7 @@
         <v>37</v>
       </c>
       <c r="F261" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G261">
         <v>4</v>
@@ -23018,7 +23018,7 @@
         <v>50</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -23101,7 +23101,7 @@
         <v>45396.54166666666</v>
       </c>
       <c r="E263" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F263" t="s">
         <v>54</v>
@@ -23276,7 +23276,7 @@
         <v>38</v>
       </c>
       <c r="F265" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -23531,7 +23531,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E268" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F268" t="s">
         <v>37</v>
@@ -23706,7 +23706,7 @@
         <v>48</v>
       </c>
       <c r="F270" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23878,7 +23878,7 @@
         <v>44</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -24308,7 +24308,7 @@
         <v>55</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -24391,7 +24391,7 @@
         <v>45416.41666666666</v>
       </c>
       <c r="E278" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F278" t="s">
         <v>46</v>
@@ -24418,19 +24418,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q278">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R278">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S278">
         <v>2.5</v>
       </c>
       <c r="T278">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U278">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V278">
         <v>0</v>
@@ -24456,46 +24456,46 @@
         <v>45416.5</v>
       </c>
       <c r="E279" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F279" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J279">
-        <v>1.45</v>
+        <v>2.375</v>
       </c>
       <c r="K279">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="L279">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="M279">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N279">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O279">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="P279">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q279">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R279">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S279">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T279">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U279">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V279">
         <v>0</v>
@@ -24521,46 +24521,46 @@
         <v>45416.5</v>
       </c>
       <c r="E280" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J280">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="K280">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L280">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="M280">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="N280">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O280">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P280">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q280">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R280">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S280">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T280">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U280">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V280">
         <v>0</v>
@@ -24589,28 +24589,28 @@
         <v>40</v>
       </c>
       <c r="F281" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J281">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="K281">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L281">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="M281">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="N281">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O281">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P281">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q281">
         <v>1.8</v>
@@ -24619,13 +24619,13 @@
         <v>2</v>
       </c>
       <c r="S281">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T281">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U281">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V281">
         <v>0</v>
@@ -24651,46 +24651,46 @@
         <v>45416.5</v>
       </c>
       <c r="E282" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F282" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J282">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="K282">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="L282">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="M282">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="N282">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="O282">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="P282">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q282">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R282">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S282">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T282">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V282">
         <v>0</v>
@@ -24716,46 +24716,46 @@
         <v>45416.5</v>
       </c>
       <c r="E283" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F283" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J283">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="K283">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L283">
+        <v>5.75</v>
+      </c>
+      <c r="M283">
+        <v>1.45</v>
+      </c>
+      <c r="N283">
+        <v>4.2</v>
+      </c>
+      <c r="O283">
         <v>5.25</v>
       </c>
-      <c r="M283">
-        <v>1.571</v>
-      </c>
-      <c r="N283">
-        <v>3.6</v>
-      </c>
-      <c r="O283">
-        <v>5</v>
-      </c>
       <c r="P283">
         <v>-1</v>
       </c>
       <c r="Q283">
+        <v>1.775</v>
+      </c>
+      <c r="R283">
         <v>2.025</v>
-      </c>
-      <c r="R283">
-        <v>1.775</v>
       </c>
       <c r="S283">
         <v>2.5</v>
       </c>
       <c r="T283">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U283">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V283">
         <v>0</v>
@@ -24796,22 +24796,22 @@
         <v>3.6</v>
       </c>
       <c r="M284">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N284">
         <v>3.1</v>
       </c>
       <c r="O284">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P284">
         <v>-0.25</v>
       </c>
       <c r="Q284">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R284">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S284">
         <v>2.5</v>
@@ -24873,19 +24873,19 @@
         <v>0.75</v>
       </c>
       <c r="Q285">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R285">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S285">
         <v>2.25</v>
       </c>
       <c r="T285">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U285">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V285">
         <v>0</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8191154</t>
   </si>
   <si>
     <t>8191149</t>
@@ -531,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB288"/>
+  <dimension ref="A1:AB289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,16 +631,16 @@
         <v>6940217</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45145.67708333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -646,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>2.05</v>
@@ -714,16 +717,16 @@
         <v>6941477</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45146.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -732,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -800,16 +803,16 @@
         <v>6941478</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45146.58333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -818,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>2.1</v>
@@ -886,16 +889,16 @@
         <v>6944663</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45146.58333333334</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -904,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -972,16 +975,16 @@
         <v>6944665</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45146.58333333334</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -990,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6">
         <v>1.909</v>
@@ -1058,16 +1061,16 @@
         <v>6944680</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45146.58333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1076,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1144,16 +1147,16 @@
         <v>6941476</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45146.58333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1162,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>3.3</v>
@@ -1230,16 +1233,16 @@
         <v>6940674</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45146.58333333334</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1248,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>3.1</v>
@@ -1316,16 +1319,16 @@
         <v>6941498</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45146.6875</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1334,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>1.833</v>
@@ -1402,16 +1405,16 @@
         <v>6941500</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45147.58333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1420,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>2.6</v>
@@ -1488,16 +1491,16 @@
         <v>6941479</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45150.5625</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1506,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12">
         <v>2.1</v>
@@ -1574,16 +1577,16 @@
         <v>6940655</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45150.5625</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1592,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>2.1</v>
@@ -1660,16 +1663,16 @@
         <v>6940230</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1678,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>1.8</v>
@@ -1746,16 +1749,16 @@
         <v>6940654</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1764,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>2.375</v>
@@ -1832,16 +1835,16 @@
         <v>6944678</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45151.5</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1850,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>2.7</v>
@@ -1918,16 +1921,16 @@
         <v>6941503</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1936,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2004,16 +2007,16 @@
         <v>6941502</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2022,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18">
         <v>2.75</v>
@@ -2090,16 +2093,16 @@
         <v>6944661</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2108,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2176,16 +2179,16 @@
         <v>6940676</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2194,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>1.666</v>
@@ -2262,16 +2265,16 @@
         <v>6944679</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45151.58333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2280,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>2.1</v>
@@ -2348,16 +2351,16 @@
         <v>6944660</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2366,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22">
         <v>1.615</v>
@@ -2434,16 +2437,16 @@
         <v>6940656</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45157.5</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2452,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>2.2</v>
@@ -2520,16 +2523,16 @@
         <v>6940681</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45157.58333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2538,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>2.2</v>
@@ -2606,16 +2609,16 @@
         <v>6941506</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45157.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2624,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2692,17 +2695,17 @@
         <v>6940218</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45158.5</v>
       </c>
       <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
         <v>30</v>
       </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2778,16 +2781,16 @@
         <v>6940679</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45158.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2796,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>1.727</v>
@@ -2864,16 +2867,16 @@
         <v>6941480</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45158.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2882,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J28">
         <v>2.1</v>
@@ -2950,16 +2953,16 @@
         <v>6940232</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45158.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2968,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J29">
         <v>2.2</v>
@@ -3036,16 +3039,16 @@
         <v>6941481</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45158.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3054,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J30">
         <v>2.2</v>
@@ -3122,16 +3125,16 @@
         <v>6940219</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45163.69791666666</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3140,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <v>1.909</v>
@@ -3208,16 +3211,16 @@
         <v>6944676</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45164.5</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3226,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3294,16 +3297,16 @@
         <v>6940685</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45164.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3312,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J33">
         <v>2.1</v>
@@ -3380,16 +3383,16 @@
         <v>6941508</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3398,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>1.615</v>
@@ -3466,16 +3469,16 @@
         <v>6940683</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45165.5</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3484,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>2.375</v>
@@ -3552,16 +3555,16 @@
         <v>6944658</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45165.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3570,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -3638,16 +3641,16 @@
         <v>6941483</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45165.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3656,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3724,16 +3727,16 @@
         <v>6941482</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45165.58333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3742,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J38">
         <v>1.571</v>
@@ -3810,16 +3813,16 @@
         <v>6940657</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45165.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3828,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>2.375</v>
@@ -3896,16 +3899,16 @@
         <v>6940233</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45165.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3914,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J40">
         <v>2.2</v>
@@ -3982,16 +3985,16 @@
         <v>6941485</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45171.66666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4000,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>2.625</v>
@@ -4068,16 +4071,16 @@
         <v>6941484</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45172.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4086,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J42">
         <v>3.75</v>
@@ -4154,16 +4157,16 @@
         <v>6940235</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4172,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4240,16 +4243,16 @@
         <v>6944655</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4258,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>1.8</v>
@@ -4326,16 +4329,16 @@
         <v>6941513</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4344,7 +4347,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>2.625</v>
@@ -4412,16 +4415,16 @@
         <v>6941510</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4430,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2.2</v>
@@ -4498,17 +4501,17 @@
         <v>6940686</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
         <v>37</v>
       </c>
-      <c r="F47" t="s">
-        <v>36</v>
-      </c>
       <c r="G47">
         <v>1</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <v>2.1</v>
@@ -4584,16 +4587,16 @@
         <v>6940659</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4602,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>1.909</v>
@@ -4670,16 +4673,16 @@
         <v>6940658</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4688,7 +4691,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J49">
         <v>2.7</v>
@@ -4756,16 +4759,16 @@
         <v>6944675</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45172.66666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4774,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>3.6</v>
@@ -4842,16 +4845,16 @@
         <v>6941487</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s">
         <v>40</v>
-      </c>
-      <c r="F51" t="s">
-        <v>39</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -4860,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>1.8</v>
@@ -4928,17 +4931,17 @@
         <v>6944674</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
         <v>35</v>
       </c>
-      <c r="F52" t="s">
-        <v>34</v>
-      </c>
       <c r="G52">
         <v>1</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -5014,17 +5017,17 @@
         <v>6940660</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
         <v>43</v>
       </c>
-      <c r="F53" t="s">
-        <v>42</v>
-      </c>
       <c r="G53">
         <v>1</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J53">
         <v>2.05</v>
@@ -5100,16 +5103,16 @@
         <v>6940220</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5118,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J54">
         <v>1.666</v>
@@ -5186,16 +5189,16 @@
         <v>6941486</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45185.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5204,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>1.727</v>
@@ -5272,17 +5275,17 @@
         <v>6944654</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45186.54166666666</v>
       </c>
       <c r="E56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
         <v>47</v>
       </c>
-      <c r="F56" t="s">
-        <v>46</v>
-      </c>
       <c r="G56">
         <v>1</v>
       </c>
@@ -5290,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>4.333</v>
@@ -5358,16 +5361,16 @@
         <v>6941515</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45186.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5376,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <v>2.1</v>
@@ -5444,16 +5447,16 @@
         <v>6941514</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45186.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5462,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J58">
         <v>1.444</v>
@@ -5530,16 +5533,16 @@
         <v>6940237</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45186.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5548,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5616,16 +5619,16 @@
         <v>6940688</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45186.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5634,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J60">
         <v>3.3</v>
@@ -5702,16 +5705,16 @@
         <v>6941488</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45198.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5720,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>1.8</v>
@@ -5788,16 +5791,16 @@
         <v>6941517</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45199.5</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5806,7 +5809,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J62">
         <v>3.6</v>
@@ -5874,16 +5877,16 @@
         <v>6941516</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45199.5</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5892,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>1.615</v>
@@ -5960,16 +5963,16 @@
         <v>6940689</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45199.5</v>
       </c>
       <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s">
         <v>38</v>
-      </c>
-      <c r="F64" t="s">
-        <v>37</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5978,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J64">
         <v>1.833</v>
@@ -6046,16 +6049,16 @@
         <v>6944652</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45199.5</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6064,7 +6067,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J65">
         <v>4</v>
@@ -6132,16 +6135,16 @@
         <v>6944673</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45200.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6150,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>2.25</v>
@@ -6218,16 +6221,16 @@
         <v>6944653</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45200.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6236,7 +6239,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J67">
         <v>1.666</v>
@@ -6304,16 +6307,16 @@
         <v>6940661</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45200.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6322,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6390,16 +6393,16 @@
         <v>6940662</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45200.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6408,7 +6411,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J69">
         <v>2.25</v>
@@ -6476,16 +6479,16 @@
         <v>6940221</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45200.5625</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -6494,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J70">
         <v>3.2</v>
@@ -6562,16 +6565,16 @@
         <v>6944651</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6580,7 +6583,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6648,16 +6651,16 @@
         <v>6940664</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45206.5</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6666,7 +6669,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J72">
         <v>4.75</v>
@@ -6734,16 +6737,16 @@
         <v>6941521</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45206.5</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6752,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <v>2.1</v>
@@ -6820,16 +6823,16 @@
         <v>6941519</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45206.5</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6838,7 +6841,7 @@
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J74">
         <v>2.15</v>
@@ -6906,16 +6909,16 @@
         <v>6944672</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6924,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>2.2</v>
@@ -6992,16 +6995,16 @@
         <v>6941518</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45207.29166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7010,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J76">
         <v>1.571</v>
@@ -7078,16 +7081,16 @@
         <v>6940222</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45207.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7096,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <v>1.533</v>
@@ -7164,16 +7167,16 @@
         <v>6940663</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45207.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7182,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <v>2.1</v>
@@ -7250,16 +7253,16 @@
         <v>6941520</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45207.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7268,7 +7271,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J79">
         <v>2.15</v>
@@ -7336,16 +7339,16 @@
         <v>6941489</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45207.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7354,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J80">
         <v>3.2</v>
@@ -7422,16 +7425,16 @@
         <v>6941524</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45226.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7440,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>1.727</v>
@@ -7508,16 +7511,16 @@
         <v>6944649</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45227.5</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7526,7 +7529,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J82">
         <v>2.05</v>
@@ -7594,16 +7597,16 @@
         <v>6940665</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45228.5</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7612,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>4.2</v>
@@ -7680,16 +7683,16 @@
         <v>6944650</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45228.5</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7698,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J84">
         <v>2.2</v>
@@ -7766,16 +7769,16 @@
         <v>6941490</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45228.5</v>
       </c>
       <c r="E85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" t="s">
         <v>31</v>
-      </c>
-      <c r="F85" t="s">
-        <v>30</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7784,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>2.15</v>
@@ -7852,16 +7855,16 @@
         <v>6941522</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45228.5</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7870,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J86">
         <v>3.2</v>
@@ -7938,16 +7941,16 @@
         <v>6941523</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45228.5</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7956,7 +7959,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>4.2</v>
@@ -8024,16 +8027,16 @@
         <v>6940666</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45228.5</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8042,7 +8045,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J88">
         <v>1.55</v>
@@ -8110,16 +8113,16 @@
         <v>6944671</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45228.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>3</v>
@@ -8128,7 +8131,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>2.1</v>
@@ -8196,16 +8199,16 @@
         <v>6940223</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45228.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8214,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>1.909</v>
@@ -8282,16 +8285,16 @@
         <v>6940690</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45233.6875</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8300,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J91">
         <v>1.727</v>
@@ -8368,16 +8371,16 @@
         <v>6941526</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45234.5</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8386,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8454,16 +8457,16 @@
         <v>6940224</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45234.5</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8472,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>2.1</v>
@@ -8540,16 +8543,16 @@
         <v>6944648</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45235.5</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8558,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J94">
         <v>3.6</v>
@@ -8626,16 +8629,16 @@
         <v>6944670</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45235.5</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8644,7 +8647,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <v>2.625</v>
@@ -8712,16 +8715,16 @@
         <v>6941525</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45235.5</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8730,7 +8733,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J96">
         <v>2</v>
@@ -8798,16 +8801,16 @@
         <v>6944647</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45235.5</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8816,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>1.5</v>
@@ -8884,16 +8887,16 @@
         <v>6941492</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45235.5</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8902,7 +8905,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J98">
         <v>2.1</v>
@@ -8970,16 +8973,16 @@
         <v>6940667</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45235.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8988,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9056,16 +9059,16 @@
         <v>6944668</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9074,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J100">
         <v>4.1</v>
@@ -9142,16 +9145,16 @@
         <v>6940691</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45241.5</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9160,7 +9163,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J101">
         <v>1.95</v>
@@ -9228,16 +9231,16 @@
         <v>6941527</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45241.5</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9246,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J102">
         <v>4.2</v>
@@ -9314,16 +9317,16 @@
         <v>6944669</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45241.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9332,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>1.333</v>
@@ -9400,16 +9403,16 @@
         <v>6941528</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45241.60416666666</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9418,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>1.571</v>
@@ -9486,16 +9489,16 @@
         <v>6940669</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45242.5</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9504,7 +9507,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J105">
         <v>2.1</v>
@@ -9572,16 +9575,16 @@
         <v>6944646</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45242.5</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9590,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>2.1</v>
@@ -9658,16 +9661,16 @@
         <v>6940670</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45242.5</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9676,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>1.909</v>
@@ -9744,16 +9747,16 @@
         <v>6941493</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45242.5</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9762,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J108">
         <v>1.75</v>
@@ -9830,16 +9833,16 @@
         <v>6940238</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45242.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9848,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J109">
         <v>2.1</v>
@@ -9916,16 +9919,16 @@
         <v>7420982</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45248.5</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9934,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -10002,16 +10005,16 @@
         <v>6944645</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45261.5</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10020,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J111">
         <v>2.2</v>
@@ -10088,16 +10091,16 @@
         <v>6940693</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45261.60416666666</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10106,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>2</v>
@@ -10174,16 +10177,16 @@
         <v>6940239</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45262.48958333334</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10192,7 +10195,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J113">
         <v>3.1</v>
@@ -10260,16 +10263,16 @@
         <v>6941495</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45262.73958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10278,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J114">
         <v>1.4</v>
@@ -10346,16 +10349,16 @@
         <v>6940225</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45263.5</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10364,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J115">
         <v>1.55</v>
@@ -10432,16 +10435,16 @@
         <v>6940692</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45263.5</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10450,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10518,16 +10521,16 @@
         <v>6940671</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45263.5</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10536,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J117">
         <v>3.4</v>
@@ -10604,16 +10607,16 @@
         <v>6941494</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45263.5</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10622,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J118">
         <v>2.3</v>
@@ -10690,16 +10693,16 @@
         <v>6941529</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45263.5</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10708,7 +10711,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>1.95</v>
@@ -10776,16 +10779,16 @@
         <v>6944667</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10794,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J120">
         <v>2.8</v>
@@ -10862,16 +10865,16 @@
         <v>6940226</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45268.5</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10880,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J121">
         <v>1.8</v>
@@ -10948,16 +10951,16 @@
         <v>6941497</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45268.5</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10966,7 +10969,7 @@
         <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J122">
         <v>2.9</v>
@@ -11034,16 +11037,16 @@
         <v>6940695</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45268.60416666666</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11052,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J123">
         <v>1.95</v>
@@ -11120,16 +11123,16 @@
         <v>6941496</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45268.6875</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11138,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J124">
         <v>4.5</v>
@@ -11206,16 +11209,16 @@
         <v>6941530</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45269.5</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11224,7 +11227,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J125">
         <v>6</v>
@@ -11292,16 +11295,16 @@
         <v>6944666</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45269.60416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11310,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J126">
         <v>2</v>
@@ -11378,16 +11381,16 @@
         <v>6940240</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45269.72916666666</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11396,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J127">
         <v>1.615</v>
@@ -11464,17 +11467,17 @@
         <v>6944644</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45270.5</v>
       </c>
       <c r="E128" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" t="s">
         <v>46</v>
       </c>
-      <c r="F128" t="s">
-        <v>45</v>
-      </c>
       <c r="G128">
         <v>0</v>
       </c>
@@ -11482,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>1.45</v>
@@ -11550,16 +11553,16 @@
         <v>6940672</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45270.60416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11568,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>1.909</v>
@@ -11636,16 +11639,16 @@
         <v>6940694</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45270.70833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11654,7 +11657,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J130">
         <v>1.5</v>
@@ -11722,16 +11725,16 @@
         <v>7589237</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45276.33333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11740,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>2.15</v>
@@ -11808,16 +11811,16 @@
         <v>6944664</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45276.5</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11826,7 +11829,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J132">
         <v>1.7</v>
@@ -11894,16 +11897,16 @@
         <v>6944643</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45276.60416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11912,7 +11915,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <v>2.1</v>
@@ -11980,16 +11983,16 @@
         <v>6941499</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45276.72916666666</v>
       </c>
       <c r="E134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11998,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J134">
         <v>1.363</v>
@@ -12066,17 +12069,17 @@
         <v>6941531</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45277.5</v>
       </c>
       <c r="E135" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" t="s">
         <v>45</v>
       </c>
-      <c r="F135" t="s">
-        <v>44</v>
-      </c>
       <c r="G135">
         <v>1</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J135">
         <v>4.5</v>
@@ -12152,16 +12155,16 @@
         <v>6940673</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45277.5</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12170,7 +12173,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J136">
         <v>1.571</v>
@@ -12238,16 +12241,16 @@
         <v>6941532</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45277.5</v>
       </c>
       <c r="E137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -12256,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J137">
         <v>1.727</v>
@@ -12324,16 +12327,16 @@
         <v>6940675</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45277.5</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12342,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12410,16 +12413,16 @@
         <v>6940696</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45277.5</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12428,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J139">
         <v>3.1</v>
@@ -12496,16 +12499,16 @@
         <v>7589236</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G140">
         <v>4</v>
@@ -12514,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>1.75</v>
@@ -12582,16 +12585,16 @@
         <v>6941504</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45296.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12600,7 +12603,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J141">
         <v>3.4</v>
@@ -12668,16 +12671,16 @@
         <v>7654755</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45297.33333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12686,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -12754,16 +12757,16 @@
         <v>6944662</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45297.6875</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12772,7 +12775,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J143">
         <v>2.75</v>
@@ -12840,16 +12843,16 @@
         <v>6941534</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45298.5</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12858,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J144">
         <v>2.4</v>
@@ -12926,16 +12929,16 @@
         <v>6941533</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45298.5</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12944,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>3.1</v>
@@ -13012,16 +13015,16 @@
         <v>6940677</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45298.5</v>
       </c>
       <c r="E146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13030,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J146">
         <v>2.25</v>
@@ -13098,16 +13101,16 @@
         <v>6941505</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45298.5</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13116,7 +13119,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J147">
         <v>2.9</v>
@@ -13184,16 +13187,16 @@
         <v>7654756</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45298.60416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13202,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J148">
         <v>1.4</v>
@@ -13270,16 +13273,16 @@
         <v>6940242</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45298.6875</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13288,7 +13291,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J149">
         <v>2.375</v>
@@ -13356,16 +13359,16 @@
         <v>6941507</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45303.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13374,7 +13377,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13442,16 +13445,16 @@
         <v>6940680</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45304.5</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13460,7 +13463,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J151">
         <v>2.45</v>
@@ -13528,16 +13531,16 @@
         <v>6940678</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45304.5</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -13546,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J152">
         <v>1.55</v>
@@ -13614,16 +13617,16 @@
         <v>6940231</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45304.5</v>
       </c>
       <c r="E153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13632,7 +13635,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>1.727</v>
@@ -13700,16 +13703,16 @@
         <v>6941535</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45304.5</v>
       </c>
       <c r="E154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13718,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J154">
         <v>3</v>
@@ -13786,16 +13789,16 @@
         <v>6944640</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45304.5</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13804,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J155">
         <v>4</v>
@@ -13872,16 +13875,16 @@
         <v>6941536</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45304.5</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13890,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J156">
         <v>1.444</v>
@@ -13958,16 +13961,16 @@
         <v>7680524</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45304.60416666666</v>
       </c>
       <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" t="s">
         <v>33</v>
-      </c>
-      <c r="F157" t="s">
-        <v>32</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13976,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>1.4</v>
@@ -14044,16 +14047,16 @@
         <v>7680525</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45304.70833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14062,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J158">
         <v>1.909</v>
@@ -14130,16 +14133,16 @@
         <v>6940698</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45305.60416666666</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14148,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J159">
         <v>2.3</v>
@@ -14216,16 +14219,16 @@
         <v>7687535</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45308.5</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14234,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>1.65</v>
@@ -14302,16 +14305,16 @@
         <v>6941509</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45310.70833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14320,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>1.75</v>
@@ -14388,16 +14391,16 @@
         <v>6941540</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45311.66666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14406,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J162">
         <v>2.1</v>
@@ -14474,16 +14477,16 @@
         <v>6940234</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45312.5</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14492,7 +14495,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J163">
         <v>3.3</v>
@@ -14560,16 +14563,16 @@
         <v>6941539</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45312.5</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14578,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J164">
         <v>2.6</v>
@@ -14646,16 +14649,16 @@
         <v>6940684</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45312.5</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14664,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>1.4</v>
@@ -14732,16 +14735,16 @@
         <v>6941537</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45312.5</v>
       </c>
       <c r="E166" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14750,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>1.571</v>
@@ -14818,16 +14821,16 @@
         <v>6941538</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45312.5</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14836,7 +14839,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>5.25</v>
@@ -14904,16 +14907,16 @@
         <v>6944657</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45312.5</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14922,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J168">
         <v>2.25</v>
@@ -14990,16 +14993,16 @@
         <v>6940682</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45312.5</v>
       </c>
       <c r="E169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15008,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J169">
         <v>3.75</v>
@@ -15076,16 +15079,16 @@
         <v>7741484</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45318.5</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15094,7 +15097,7 @@
         <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J170">
         <v>2.625</v>
@@ -15162,16 +15165,16 @@
         <v>7741481</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45318.5</v>
       </c>
       <c r="E171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15180,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J171">
         <v>1.25</v>
@@ -15248,16 +15251,16 @@
         <v>7741482</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45318.5</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15266,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J172">
         <v>1.571</v>
@@ -15334,16 +15337,16 @@
         <v>7741480</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45318.5</v>
       </c>
       <c r="E173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15352,7 +15355,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J173">
         <v>1.666</v>
@@ -15420,16 +15423,16 @@
         <v>7741483</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45318.5</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15438,7 +15441,7 @@
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J174">
         <v>4.75</v>
@@ -15506,16 +15509,16 @@
         <v>6944656</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45319.5</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15524,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J175">
         <v>2</v>
@@ -15592,16 +15595,16 @@
         <v>6941512</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D176" s="2">
         <v>45319.5</v>
       </c>
       <c r="E176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15610,7 +15613,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J176">
         <v>5.5</v>
@@ -15678,16 +15681,16 @@
         <v>6940687</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D177" s="2">
         <v>45319.5</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15696,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <v>1.363</v>
@@ -15764,16 +15767,16 @@
         <v>6940236</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2">
         <v>45319.5</v>
       </c>
       <c r="E178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15782,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J178">
         <v>1.727</v>
@@ -15850,16 +15853,16 @@
         <v>6941511</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D179" s="2">
         <v>45319.5</v>
       </c>
       <c r="E179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15868,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -15936,16 +15939,16 @@
         <v>7795951</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D180" s="2">
         <v>45332.5</v>
       </c>
       <c r="E180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15954,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J180">
         <v>2.5</v>
@@ -16022,16 +16025,16 @@
         <v>7795952</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D181" s="2">
         <v>45332.60416666666</v>
       </c>
       <c r="E181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16040,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J181">
         <v>2.25</v>
@@ -16108,16 +16111,16 @@
         <v>7795953</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16126,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J182">
         <v>2.05</v>
@@ -16194,16 +16197,16 @@
         <v>7795954</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16212,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J183">
         <v>2.3</v>
@@ -16280,16 +16283,16 @@
         <v>7817946</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D184" s="2">
         <v>45339.5</v>
       </c>
       <c r="E184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16298,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J184">
         <v>1.85</v>
@@ -16366,16 +16369,16 @@
         <v>7817945</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D185" s="2">
         <v>45339.5</v>
       </c>
       <c r="E185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16384,7 +16387,7 @@
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J185">
         <v>3.1</v>
@@ -16452,16 +16455,16 @@
         <v>7817944</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D186" s="2">
         <v>45339.5</v>
       </c>
       <c r="E186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16470,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J186">
         <v>2.05</v>
@@ -16538,16 +16541,16 @@
         <v>7781106</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D187" s="2">
         <v>45339.58333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16556,7 +16559,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>2.1</v>
@@ -16624,16 +16627,16 @@
         <v>7817947</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D188" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16642,7 +16645,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J188">
         <v>1.615</v>
@@ -16710,16 +16713,16 @@
         <v>7780939</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D189" s="2">
         <v>45340.5</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16728,7 +16731,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>2.1</v>
@@ -16796,16 +16799,16 @@
         <v>7780996</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D190" s="2">
         <v>45340.5</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16814,7 +16817,7 @@
         <v>3</v>
       </c>
       <c r="I190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J190">
         <v>3.75</v>
@@ -16882,16 +16885,16 @@
         <v>7780998</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D191" s="2">
         <v>45340.5</v>
       </c>
       <c r="E191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16900,7 +16903,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J191">
         <v>3.4</v>
@@ -16968,16 +16971,16 @@
         <v>7821138</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D192" s="2">
         <v>45340.58333333334</v>
       </c>
       <c r="E192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16986,7 +16989,7 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J192">
         <v>1.5</v>
@@ -17054,16 +17057,16 @@
         <v>7780937</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D193" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17072,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J193">
         <v>2.25</v>
@@ -17140,16 +17143,16 @@
         <v>7780943</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2">
         <v>45346.5</v>
       </c>
       <c r="E194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17158,7 +17161,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J194">
         <v>1.909</v>
@@ -17226,16 +17229,16 @@
         <v>7780941</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D195" s="2">
         <v>45346.5</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17244,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J195">
         <v>2.1</v>
@@ -17312,16 +17315,16 @@
         <v>7861630</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D196" s="2">
         <v>45346.5</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17330,7 +17333,7 @@
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J196">
         <v>2.1</v>
@@ -17398,16 +17401,16 @@
         <v>7780940</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D197" s="2">
         <v>45346.64583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17416,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J197">
         <v>2.3</v>
@@ -17484,16 +17487,16 @@
         <v>7780999</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D198" s="2">
         <v>45347.5</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G198">
         <v>3</v>
@@ -17502,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J198">
         <v>3.75</v>
@@ -17570,16 +17573,16 @@
         <v>7780942</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D199" s="2">
         <v>45347.5</v>
       </c>
       <c r="E199" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17588,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J199">
         <v>2.375</v>
@@ -17656,16 +17659,16 @@
         <v>7781120</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D200" s="2">
         <v>45347.5</v>
       </c>
       <c r="E200" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17674,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J200">
         <v>2.25</v>
@@ -17742,16 +17745,16 @@
         <v>7780979</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D201" s="2">
         <v>45347.5</v>
       </c>
       <c r="E201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17760,7 +17763,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J201">
         <v>2.375</v>
@@ -17828,16 +17831,16 @@
         <v>7781001</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D202" s="2">
         <v>45347.5</v>
       </c>
       <c r="E202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17846,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J202">
         <v>2.625</v>
@@ -17914,16 +17917,16 @@
         <v>7781000</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D203" s="2">
         <v>45347.5</v>
       </c>
       <c r="E203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -17932,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J203">
         <v>1.222</v>
@@ -18000,16 +18003,16 @@
         <v>7887073</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D204" s="2">
         <v>45353.5</v>
       </c>
       <c r="E204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18018,7 +18021,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J204">
         <v>2.3</v>
@@ -18086,16 +18089,16 @@
         <v>7887076</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D205" s="2">
         <v>45353.5</v>
       </c>
       <c r="E205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18104,7 +18107,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J205">
         <v>1.285</v>
@@ -18172,16 +18175,16 @@
         <v>7887075</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D206" s="2">
         <v>45353.5</v>
       </c>
       <c r="E206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18190,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J206">
         <v>2.3</v>
@@ -18258,16 +18261,16 @@
         <v>7887077</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D207" s="2">
         <v>45353.5</v>
       </c>
       <c r="E207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18276,7 +18279,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J207">
         <v>4</v>
@@ -18344,16 +18347,16 @@
         <v>7887074</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D208" s="2">
         <v>45353.58333333334</v>
       </c>
       <c r="E208" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18362,7 +18365,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J208">
         <v>2.15</v>
@@ -18430,16 +18433,16 @@
         <v>7887071</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D209" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -18448,7 +18451,7 @@
         <v>2</v>
       </c>
       <c r="I209" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J209">
         <v>2.375</v>
@@ -18516,16 +18519,16 @@
         <v>7887079</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D210" s="2">
         <v>45354.5</v>
       </c>
       <c r="E210" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18534,7 +18537,7 @@
         <v>4</v>
       </c>
       <c r="I210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J210">
         <v>1.95</v>
@@ -18602,16 +18605,16 @@
         <v>7887078</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D211" s="2">
         <v>45354.5</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18620,7 +18623,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J211">
         <v>2.625</v>
@@ -18688,16 +18691,16 @@
         <v>7887080</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D212" s="2">
         <v>45354.5</v>
       </c>
       <c r="E212" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18706,7 +18709,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J212">
         <v>3.4</v>
@@ -18774,16 +18777,16 @@
         <v>7887072</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D213" s="2">
         <v>45354.60416666666</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18792,7 +18795,7 @@
         <v>3</v>
       </c>
       <c r="I213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J213">
         <v>2</v>
@@ -18860,16 +18863,16 @@
         <v>7919765</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D214" s="2">
         <v>45360.5</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18878,7 +18881,7 @@
         <v>3</v>
       </c>
       <c r="I214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J214">
         <v>2.2</v>
@@ -18946,16 +18949,16 @@
         <v>7919768</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D215" s="2">
         <v>45360.5</v>
       </c>
       <c r="E215" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F215" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -18964,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J215">
         <v>2.1</v>
@@ -19032,16 +19035,16 @@
         <v>7919767</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D216" s="2">
         <v>45360.5</v>
       </c>
       <c r="E216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19050,7 +19053,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J216">
         <v>1.75</v>
@@ -19118,16 +19121,16 @@
         <v>7919766</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D217" s="2">
         <v>45360.5</v>
       </c>
       <c r="E217" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19136,7 +19139,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J217">
         <v>1.75</v>
@@ -19204,16 +19207,16 @@
         <v>7919773</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D218" s="2">
         <v>45360.58333333334</v>
       </c>
       <c r="E218" t="s">
+        <v>39</v>
+      </c>
+      <c r="F218" t="s">
         <v>38</v>
-      </c>
-      <c r="F218" t="s">
-        <v>37</v>
       </c>
       <c r="G218">
         <v>3</v>
@@ -19222,7 +19225,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J218">
         <v>2.1</v>
@@ -19290,16 +19293,16 @@
         <v>7919770</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D219" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19308,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J219">
         <v>1.909</v>
@@ -19376,16 +19379,16 @@
         <v>7919772</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D220" s="2">
         <v>45360.75</v>
       </c>
       <c r="E220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19394,7 +19397,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J220">
         <v>1.65</v>
@@ -19462,16 +19465,16 @@
         <v>7780948</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D221" s="2">
         <v>45361.5</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19480,7 +19483,7 @@
         <v>3</v>
       </c>
       <c r="I221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J221">
         <v>2.15</v>
@@ -19548,16 +19551,16 @@
         <v>7919769</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D222" s="2">
         <v>45361.5</v>
       </c>
       <c r="E222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19566,7 +19569,7 @@
         <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J222">
         <v>3.3</v>
@@ -19634,16 +19637,16 @@
         <v>7919771</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D223" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19652,7 +19655,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J223">
         <v>2.7</v>
@@ -19720,16 +19723,16 @@
         <v>7947487</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D224" s="2">
         <v>45367.5</v>
       </c>
       <c r="E224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19738,7 +19741,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J224">
         <v>2.8</v>
@@ -19806,16 +19809,16 @@
         <v>7947488</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D225" s="2">
         <v>45367.5</v>
       </c>
       <c r="E225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19824,7 +19827,7 @@
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J225">
         <v>1.6</v>
@@ -19892,16 +19895,16 @@
         <v>7947489</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D226" s="2">
         <v>45367.5</v>
       </c>
       <c r="E226" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -19910,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J226">
         <v>1.95</v>
@@ -19978,16 +19981,16 @@
         <v>7947491</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D227" s="2">
         <v>45367.5</v>
       </c>
       <c r="E227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -19996,7 +19999,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J227">
         <v>2.625</v>
@@ -20064,16 +20067,16 @@
         <v>7947490</v>
       </c>
       <c r="C228" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D228" s="2">
         <v>45368.33333333334</v>
       </c>
       <c r="E228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20082,7 +20085,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J228">
         <v>2.25</v>
@@ -20150,16 +20153,16 @@
         <v>7780951</v>
       </c>
       <c r="C229" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D229" s="2">
         <v>45368.5</v>
       </c>
       <c r="E229" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20168,7 +20171,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J229">
         <v>1.909</v>
@@ -20236,16 +20239,16 @@
         <v>7781008</v>
       </c>
       <c r="C230" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D230" s="2">
         <v>45368.5</v>
       </c>
       <c r="E230" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -20254,7 +20257,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J230">
         <v>4</v>
@@ -20322,16 +20325,16 @@
         <v>7781009</v>
       </c>
       <c r="C231" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D231" s="2">
         <v>45368.5</v>
       </c>
       <c r="E231" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20340,7 +20343,7 @@
         <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J231">
         <v>1.55</v>
@@ -20408,16 +20411,16 @@
         <v>7947492</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D232" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20426,7 +20429,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J232">
         <v>2.9</v>
@@ -20494,16 +20497,16 @@
         <v>7961704</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D233" s="2">
         <v>45374.33333333334</v>
       </c>
       <c r="E233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F233" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20512,7 +20515,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J233">
         <v>2.9</v>
@@ -20580,16 +20583,16 @@
         <v>7780987</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D234" s="2">
         <v>45381.5</v>
       </c>
       <c r="E234" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20598,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J234">
         <v>2.15</v>
@@ -20666,16 +20669,16 @@
         <v>7781124</v>
       </c>
       <c r="C235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D235" s="2">
         <v>45381.5</v>
       </c>
       <c r="E235" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20684,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J235">
         <v>2.6</v>
@@ -20752,16 +20755,16 @@
         <v>7780988</v>
       </c>
       <c r="C236" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D236" s="2">
         <v>45381.5</v>
       </c>
       <c r="E236" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236">
         <v>4</v>
@@ -20770,7 +20773,7 @@
         <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J236">
         <v>2.7</v>
@@ -20838,16 +20841,16 @@
         <v>7780955</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D237" s="2">
         <v>45381.5</v>
       </c>
       <c r="E237" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20856,7 +20859,7 @@
         <v>2</v>
       </c>
       <c r="I237" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J237">
         <v>2.2</v>
@@ -20924,16 +20927,16 @@
         <v>7781011</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D238" s="2">
         <v>45381.5</v>
       </c>
       <c r="E238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -20942,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J238">
         <v>2.15</v>
@@ -21010,16 +21013,16 @@
         <v>7781013</v>
       </c>
       <c r="C239" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D239" s="2">
         <v>45381.5</v>
       </c>
       <c r="E239" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G239">
         <v>4</v>
@@ -21028,7 +21031,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J239">
         <v>1.6</v>
@@ -21096,16 +21099,16 @@
         <v>8016857</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D240" s="2">
         <v>45381.58333333334</v>
       </c>
       <c r="E240" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21114,7 +21117,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J240">
         <v>2.8</v>
@@ -21182,16 +21185,16 @@
         <v>8016858</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D241" s="2">
         <v>45381.6875</v>
       </c>
       <c r="E241" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F241" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21200,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J241">
         <v>1.727</v>
@@ -21268,16 +21271,16 @@
         <v>7780952</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D242" s="2">
         <v>45382.5</v>
       </c>
       <c r="E242" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -21286,7 +21289,7 @@
         <v>2</v>
       </c>
       <c r="I242" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J242">
         <v>2.25</v>
@@ -21354,16 +21357,16 @@
         <v>8016859</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D243" s="2">
         <v>45382.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21372,7 +21375,7 @@
         <v>1</v>
       </c>
       <c r="I243" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J243">
         <v>2.4</v>
@@ -21440,16 +21443,16 @@
         <v>7781125</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D244" s="2">
         <v>45388.29166666666</v>
       </c>
       <c r="E244" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21458,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J244">
         <v>1.666</v>
@@ -21526,17 +21529,17 @@
         <v>7780957</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D245" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E245" t="s">
+        <v>42</v>
+      </c>
+      <c r="F245" t="s">
         <v>41</v>
       </c>
-      <c r="F245" t="s">
-        <v>40</v>
-      </c>
       <c r="G245">
         <v>1</v>
       </c>
@@ -21544,7 +21547,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J245">
         <v>2</v>
@@ -21612,16 +21615,16 @@
         <v>7780990</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D246" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21630,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J246">
         <v>2.5</v>
@@ -21698,16 +21701,16 @@
         <v>8039509</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D247" s="2">
         <v>45389.29166666666</v>
       </c>
       <c r="E247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21716,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J247">
         <v>1.571</v>
@@ -21784,16 +21787,16 @@
         <v>7780989</v>
       </c>
       <c r="C248" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D248" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21802,7 +21805,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J248">
         <v>1.85</v>
@@ -21870,16 +21873,16 @@
         <v>8039532</v>
       </c>
       <c r="C249" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D249" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F249" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -21888,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J249">
         <v>2.5</v>
@@ -21956,16 +21959,16 @@
         <v>7781015</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D250" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E250" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21974,7 +21977,7 @@
         <v>2</v>
       </c>
       <c r="I250" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J250">
         <v>5.25</v>
@@ -22042,16 +22045,16 @@
         <v>7781016</v>
       </c>
       <c r="C251" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D251" s="2">
         <v>45389.5</v>
       </c>
       <c r="E251" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F251" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22060,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J251">
         <v>1.533</v>
@@ -22128,16 +22131,16 @@
         <v>8039534</v>
       </c>
       <c r="C252" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D252" s="2">
         <v>45389.54166666666</v>
       </c>
       <c r="E252" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G252">
         <v>4</v>
@@ -22146,7 +22149,7 @@
         <v>3</v>
       </c>
       <c r="I252" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J252">
         <v>2.625</v>
@@ -22214,16 +22217,16 @@
         <v>8039533</v>
       </c>
       <c r="C253" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D253" s="2">
         <v>45389.64583333334</v>
       </c>
       <c r="E253" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -22232,7 +22235,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J253">
         <v>2.3</v>
@@ -22300,16 +22303,16 @@
         <v>8070738</v>
       </c>
       <c r="C254" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D254" s="2">
         <v>45395.29166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F254" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -22318,7 +22321,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J254">
         <v>2.05</v>
@@ -22386,16 +22389,16 @@
         <v>7781019</v>
       </c>
       <c r="C255" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D255" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E255" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F255" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -22404,7 +22407,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J255">
         <v>3.4</v>
@@ -22472,16 +22475,16 @@
         <v>7781018</v>
       </c>
       <c r="C256" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D256" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E256" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F256" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22490,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J256">
         <v>1.571</v>
@@ -22558,16 +22561,16 @@
         <v>7780961</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D257" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E257" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22576,7 +22579,7 @@
         <v>4</v>
       </c>
       <c r="I257" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J257">
         <v>6</v>
@@ -22644,16 +22647,16 @@
         <v>8070735</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D258" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E258" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22662,7 +22665,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J258">
         <v>1.666</v>
@@ -22730,16 +22733,16 @@
         <v>8070737</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D259" s="2">
         <v>45395.5625</v>
       </c>
       <c r="E259" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22748,7 +22751,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J259">
         <v>2.9</v>
@@ -22816,16 +22819,16 @@
         <v>7781126</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D260" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E260" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F260" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22834,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J260">
         <v>2.75</v>
@@ -22902,16 +22905,16 @@
         <v>7780991</v>
       </c>
       <c r="C261" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D261" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E261" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G261">
         <v>4</v>
@@ -22920,7 +22923,7 @@
         <v>1</v>
       </c>
       <c r="I261" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J261">
         <v>1.666</v>
@@ -22988,16 +22991,16 @@
         <v>8070736</v>
       </c>
       <c r="C262" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D262" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F262" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -23006,7 +23009,7 @@
         <v>2</v>
       </c>
       <c r="I262" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J262">
         <v>1.95</v>
@@ -23074,16 +23077,16 @@
         <v>8070739</v>
       </c>
       <c r="C263" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D263" s="2">
         <v>45396.54166666666</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -23092,7 +23095,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J263">
         <v>1.7</v>
@@ -23160,16 +23163,16 @@
         <v>7780965</v>
       </c>
       <c r="C264" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D264" s="2">
         <v>45402.29166666666</v>
       </c>
       <c r="E264" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F264" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -23178,7 +23181,7 @@
         <v>2</v>
       </c>
       <c r="I264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J264">
         <v>2.5</v>
@@ -23246,16 +23249,16 @@
         <v>7780964</v>
       </c>
       <c r="C265" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D265" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E265" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F265" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -23264,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J265">
         <v>2.4</v>
@@ -23332,16 +23335,16 @@
         <v>7780962</v>
       </c>
       <c r="C266" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D266" s="2">
         <v>45402.54166666666</v>
       </c>
       <c r="E266" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23350,7 +23353,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J266">
         <v>2.375</v>
@@ -23418,16 +23421,16 @@
         <v>8110635</v>
       </c>
       <c r="C267" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D267" s="2">
         <v>45402.625</v>
       </c>
       <c r="E267" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23436,7 +23439,7 @@
         <v>1</v>
       </c>
       <c r="I267" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J267">
         <v>1.85</v>
@@ -23504,16 +23507,16 @@
         <v>7780994</v>
       </c>
       <c r="C268" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D268" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E268" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F268" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G268">
         <v>2</v>
@@ -23522,7 +23525,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J268">
         <v>2.55</v>
@@ -23590,16 +23593,16 @@
         <v>8135836</v>
       </c>
       <c r="C269" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D269" s="2">
         <v>45409.54166666666</v>
       </c>
       <c r="E269" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F269" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -23608,7 +23611,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J269">
         <v>2.5</v>
@@ -23676,16 +23679,16 @@
         <v>8135835</v>
       </c>
       <c r="C270" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D270" s="2">
         <v>45409.6875</v>
       </c>
       <c r="E270" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23694,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J270">
         <v>1.85</v>
@@ -23762,16 +23765,16 @@
         <v>8135837</v>
       </c>
       <c r="C271" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D271" s="2">
         <v>45410.29166666666</v>
       </c>
       <c r="E271" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -23780,7 +23783,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J271">
         <v>2.3</v>
@@ -23848,16 +23851,16 @@
         <v>7781021</v>
       </c>
       <c r="C272" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D272" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E272" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F272" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23866,7 +23869,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J272">
         <v>6</v>
@@ -23934,17 +23937,17 @@
         <v>7781020</v>
       </c>
       <c r="C273" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D273" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E273" t="s">
+        <v>38</v>
+      </c>
+      <c r="F273" t="s">
         <v>37</v>
       </c>
-      <c r="F273" t="s">
-        <v>36</v>
-      </c>
       <c r="G273">
         <v>1</v>
       </c>
@@ -23952,7 +23955,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J273">
         <v>1.666</v>
@@ -24020,16 +24023,16 @@
         <v>7780966</v>
       </c>
       <c r="C274" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D274" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E274" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -24038,7 +24041,7 @@
         <v>2</v>
       </c>
       <c r="I274" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J274">
         <v>2.3</v>
@@ -24106,16 +24109,16 @@
         <v>7781022</v>
       </c>
       <c r="C275" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D275" s="2">
         <v>45410.45833333334</v>
       </c>
       <c r="E275" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F275" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -24124,7 +24127,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J275">
         <v>2.05</v>
@@ -24192,16 +24195,16 @@
         <v>7780968</v>
       </c>
       <c r="C276" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D276" s="2">
         <v>45410.54166666666</v>
       </c>
       <c r="E276" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F276" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -24210,7 +24213,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J276">
         <v>1.533</v>
@@ -24278,16 +24281,16 @@
         <v>7781114</v>
       </c>
       <c r="C277" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D277" s="2">
         <v>45410.625</v>
       </c>
       <c r="E277" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F277" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -24296,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J277">
         <v>1.85</v>
@@ -24364,16 +24367,16 @@
         <v>7781115</v>
       </c>
       <c r="C278" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D278" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E278" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -24382,7 +24385,7 @@
         <v>2</v>
       </c>
       <c r="I278" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J278">
         <v>1.85</v>
@@ -24450,17 +24453,17 @@
         <v>7781129</v>
       </c>
       <c r="C279" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D279" s="2">
         <v>45416.5</v>
       </c>
       <c r="E279" t="s">
+        <v>44</v>
+      </c>
+      <c r="F279" t="s">
         <v>43</v>
       </c>
-      <c r="F279" t="s">
-        <v>42</v>
-      </c>
       <c r="G279">
         <v>0</v>
       </c>
@@ -24468,7 +24471,7 @@
         <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J279">
         <v>2.375</v>
@@ -24536,16 +24539,16 @@
         <v>7781023</v>
       </c>
       <c r="C280" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D280" s="2">
         <v>45416.5</v>
       </c>
       <c r="E280" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F280" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G280">
         <v>2</v>
@@ -24554,7 +24557,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J280">
         <v>1.363</v>
@@ -24622,16 +24625,16 @@
         <v>7781128</v>
       </c>
       <c r="C281" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D281" s="2">
         <v>45416.5</v>
       </c>
       <c r="E281" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F281" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24640,7 +24643,7 @@
         <v>2</v>
       </c>
       <c r="I281" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J281">
         <v>1.571</v>
@@ -24708,16 +24711,16 @@
         <v>7781024</v>
       </c>
       <c r="C282" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D282" s="2">
         <v>45416.5</v>
       </c>
       <c r="E282" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F282" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G282">
         <v>5</v>
@@ -24726,7 +24729,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J282">
         <v>2.45</v>
@@ -24794,16 +24797,16 @@
         <v>7781025</v>
       </c>
       <c r="C283" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D283" s="2">
         <v>45416.5</v>
       </c>
       <c r="E283" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F283" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -24812,7 +24815,7 @@
         <v>1</v>
       </c>
       <c r="I283" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J283">
         <v>1.95</v>
@@ -24880,16 +24883,16 @@
         <v>7780970</v>
       </c>
       <c r="C284" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D284" s="2">
         <v>45416.5</v>
       </c>
       <c r="E284" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F284" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -24898,7 +24901,7 @@
         <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J284">
         <v>1.45</v>
@@ -24966,17 +24969,17 @@
         <v>7780995</v>
       </c>
       <c r="C285" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D285" s="2">
         <v>45416.5</v>
       </c>
       <c r="E285" t="s">
+        <v>32</v>
+      </c>
+      <c r="F285" t="s">
         <v>31</v>
       </c>
-      <c r="F285" t="s">
-        <v>30</v>
-      </c>
       <c r="G285">
         <v>0</v>
       </c>
@@ -24984,7 +24987,7 @@
         <v>2</v>
       </c>
       <c r="I285" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J285">
         <v>1.75</v>
@@ -25052,16 +25055,16 @@
         <v>7781116</v>
       </c>
       <c r="C286" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D286" s="2">
         <v>45416.58333333334</v>
       </c>
       <c r="E286" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F286" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -25070,7 +25073,7 @@
         <v>3</v>
       </c>
       <c r="I286" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J286">
         <v>3.75</v>
@@ -25138,16 +25141,16 @@
         <v>7780969</v>
       </c>
       <c r="C287" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D287" s="2">
         <v>45417.3125</v>
       </c>
       <c r="E287" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -25156,7 +25159,7 @@
         <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J287">
         <v>3.5</v>
@@ -25224,37 +25227,37 @@
         <v>27</v>
       </c>
       <c r="C288" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D288" s="2">
         <v>45424.45833333334</v>
       </c>
       <c r="E288" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F288" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J288">
-        <v>4.333</v>
+        <v>1.475</v>
       </c>
       <c r="K288">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L288">
-        <v>1.615</v>
+        <v>5.5</v>
       </c>
       <c r="M288">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="N288">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O288">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="P288">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q288">
         <v>1.975</v>
@@ -25266,18 +25269,83 @@
         <v>2.75</v>
       </c>
       <c r="T288">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U288">
+        <v>1.9</v>
+      </c>
+      <c r="V288">
+        <v>0</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>28</v>
+      </c>
+      <c r="C289" t="s">
+        <v>29</v>
+      </c>
+      <c r="D289" s="2">
+        <v>45424.45833333334</v>
+      </c>
+      <c r="E289" t="s">
+        <v>45</v>
+      </c>
+      <c r="F289" t="s">
+        <v>36</v>
+      </c>
+      <c r="J289">
+        <v>4.333</v>
+      </c>
+      <c r="K289">
+        <v>3.75</v>
+      </c>
+      <c r="L289">
+        <v>1.615</v>
+      </c>
+      <c r="M289">
+        <v>4.5</v>
+      </c>
+      <c r="N289">
+        <v>3.75</v>
+      </c>
+      <c r="O289">
+        <v>1.6</v>
+      </c>
+      <c r="P289">
+        <v>0.75</v>
+      </c>
+      <c r="Q289">
+        <v>2.025</v>
+      </c>
+      <c r="R289">
+        <v>1.775</v>
+      </c>
+      <c r="S289">
+        <v>2.75</v>
+      </c>
+      <c r="T289">
+        <v>2</v>
+      </c>
+      <c r="U289">
         <v>1.8</v>
       </c>
-      <c r="V288">
-        <v>0</v>
-      </c>
-      <c r="W288">
-        <v>0</v>
-      </c>
-      <c r="X288">
+      <c r="V289">
+        <v>0</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -109,10 +109,10 @@
     <t>Oliveira Hospital</t>
   </si>
   <si>
-    <t>Academica</t>
+    <t>Pero Pinheiro</t>
   </si>
   <si>
-    <t>Pero Pinheiro</t>
+    <t>Academica</t>
   </si>
   <si>
     <t>CF Canelas 2010</t>
@@ -145,9 +145,6 @@
     <t>SC Vianense</t>
   </si>
   <si>
-    <t>Amora</t>
-  </si>
-  <si>
     <t>Felgueiras 1932</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>Sporting Covilha</t>
+  </si>
+  <si>
+    <t>Amora</t>
   </si>
   <si>
     <t>H</t>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6944665</v>
+        <v>6944663</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -892,37 +892,37 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="M5">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
         <v>3.3</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="P5">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -934,19 +934,19 @@
         <v>2.25</v>
       </c>
       <c r="T5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
         <v>-1</v>
       </c>
       <c r="W5">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -955,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6944663</v>
+        <v>6944665</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -978,37 +978,37 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
         <v>1.75</v>
-      </c>
-      <c r="M6">
-        <v>3.4</v>
       </c>
       <c r="N6">
         <v>3.3</v>
       </c>
       <c r="O6">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="P6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q6">
         <v>1.8</v>
@@ -1020,19 +1020,19 @@
         <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1041,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1150,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1408,7 +1408,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6940676</v>
+        <v>6944679</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1924,67 +1924,67 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J17">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="K17">
+        <v>3.1</v>
+      </c>
+      <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="M17">
+        <v>1.65</v>
+      </c>
+      <c r="N17">
         <v>3.5</v>
       </c>
-      <c r="L17">
-        <v>4.333</v>
-      </c>
-      <c r="M17">
-        <v>2.4</v>
-      </c>
-      <c r="N17">
-        <v>3.3</v>
-      </c>
       <c r="O17">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q17">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R17">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
         <v>2.25</v>
       </c>
       <c r="T17">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
         <v>1.95</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z17">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -1998,7 +1998,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6944679</v>
+        <v>6941502</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2010,55 +2010,55 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
       </c>
       <c r="J18">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K18">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
+        <v>2.3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
         <v>3.2</v>
       </c>
-      <c r="M18">
-        <v>1.65</v>
-      </c>
-      <c r="N18">
-        <v>3.5</v>
-      </c>
       <c r="O18">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="P18">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
         <v>2.25</v>
       </c>
       <c r="T18">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>0.6499999999999999</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2067,16 +2067,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2084,7 +2084,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6941502</v>
+        <v>6941503</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2096,55 +2096,55 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
       </c>
       <c r="J19">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L19">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N19">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="P19">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q19">
+        <v>1.95</v>
+      </c>
+      <c r="R19">
         <v>1.85</v>
-      </c>
-      <c r="R19">
-        <v>1.95</v>
       </c>
       <c r="S19">
         <v>2.25</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2153,16 +2153,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2170,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6941503</v>
+        <v>6944661</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2182,10 +2182,10 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2203,34 +2203,34 @@
         <v>3.4</v>
       </c>
       <c r="M20">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="P20">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
         <v>2.25</v>
       </c>
       <c r="T20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2239,16 +2239,16 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2256,7 +2256,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6944661</v>
+        <v>6940676</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2268,34 +2268,34 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K21">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O21">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2310,31 +2310,31 @@
         <v>2.25</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y21">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2351,10 +2351,10 @@
         <v>45156.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2523,10 +2523,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2772,7 +2772,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6940679</v>
+        <v>6941481</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2781,76 +2781,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J27">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="K27">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27">
+        <v>2.6</v>
+      </c>
+      <c r="N27">
+        <v>3.1</v>
+      </c>
+      <c r="O27">
+        <v>2.55</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1.925</v>
+      </c>
+      <c r="R27">
+        <v>1.875</v>
+      </c>
+      <c r="S27">
+        <v>2.25</v>
+      </c>
+      <c r="T27">
         <v>1.8</v>
       </c>
-      <c r="N27">
-        <v>3.4</v>
-      </c>
-      <c r="O27">
-        <v>3.75</v>
-      </c>
-      <c r="P27">
-        <v>-0.5</v>
-      </c>
-      <c r="Q27">
-        <v>1.85</v>
-      </c>
-      <c r="R27">
-        <v>1.95</v>
-      </c>
-      <c r="S27">
-        <v>2.5</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V27">
+        <v>-1</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>1.55</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>0.875</v>
+      </c>
+      <c r="AA27">
         <v>0.8</v>
       </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z27">
-        <v>-1</v>
-      </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2858,7 +2858,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6940232</v>
+        <v>6941480</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2867,76 +2867,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K28">
         <v>3.1</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="N28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
         <v>2.25</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
         <v>-1</v>
       </c>
       <c r="W28">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2944,7 +2944,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6941481</v>
+        <v>6940679</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2953,76 +2953,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J29">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K29">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N29">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O29">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>1.8</v>
       </c>
-      <c r="U29">
-        <v>2</v>
-      </c>
       <c r="V29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
         <v>0.8</v>
-      </c>
-      <c r="AB29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3030,7 +3030,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6941480</v>
+        <v>6940232</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3039,76 +3039,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K30">
         <v>3.1</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="N30">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
         <v>2.25</v>
       </c>
       <c r="T30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X30">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3297,7 +3297,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
@@ -3386,7 +3386,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3469,7 +3469,7 @@
         <v>45165.5</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
@@ -3555,10 +3555,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6940233</v>
+        <v>6940657</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3727,10 +3727,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3742,25 +3742,25 @@
         <v>49</v>
       </c>
       <c r="J38">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="K38">
         <v>3.1</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M38">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
         <v>3.1</v>
       </c>
       <c r="O38">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q38">
         <v>1.8</v>
@@ -3772,10 +3772,10 @@
         <v>2.25</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
         <v>-1</v>
@@ -3787,16 +3787,16 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
         <v>-0.5</v>
       </c>
       <c r="AB38">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3804,7 +3804,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6941482</v>
+        <v>6940233</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3813,49 +3813,49 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39">
+        <v>2.2</v>
+      </c>
+      <c r="K39">
+        <v>3.1</v>
+      </c>
+      <c r="L39">
         <v>3</v>
       </c>
-      <c r="I39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39">
-        <v>1.571</v>
-      </c>
-      <c r="K39">
-        <v>3.4</v>
-      </c>
-      <c r="L39">
-        <v>5.5</v>
-      </c>
       <c r="M39">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="N39">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O39">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="P39">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T39">
         <v>2</v>
@@ -3867,22 +3867,22 @@
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X39">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3890,7 +3890,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6940657</v>
+        <v>6941482</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3899,76 +3899,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J40">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="K40">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L40">
+        <v>5.5</v>
+      </c>
+      <c r="M40">
+        <v>1.363</v>
+      </c>
+      <c r="N40">
+        <v>4.2</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>-1.5</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
         <v>2.75</v>
       </c>
-      <c r="M40">
-        <v>3.6</v>
-      </c>
-      <c r="N40">
-        <v>3.1</v>
-      </c>
-      <c r="O40">
-        <v>1.95</v>
-      </c>
-      <c r="P40">
-        <v>0.5</v>
-      </c>
-      <c r="Q40">
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
         <v>1.8</v>
       </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="S40">
-        <v>2.25</v>
-      </c>
-      <c r="T40">
-        <v>1.925</v>
-      </c>
-      <c r="U40">
-        <v>1.875</v>
-      </c>
       <c r="V40">
         <v>-1</v>
       </c>
       <c r="W40">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
         <v>0.8</v>
       </c>
-      <c r="Z40">
-        <v>-1</v>
-      </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4074,7 +4074,7 @@
         <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6941513</v>
+        <v>6941510</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4415,73 +4415,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J46">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="K46">
         <v>3.2</v>
       </c>
       <c r="L46">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="M46">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="N46">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q46">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
         <v>2.25</v>
       </c>
       <c r="T46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4501,7 +4501,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -4578,7 +4578,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6941510</v>
+        <v>6941513</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4587,73 +4587,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
         <v>3</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J48">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="K48">
         <v>3.2</v>
       </c>
       <c r="L48">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="M48">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N48">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P48">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q48">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
         <v>2.25</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V48">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y48">
+        <v>-1</v>
+      </c>
+      <c r="Z48">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA48">
         <v>1.025</v>
-      </c>
-      <c r="Z48">
-        <v>-1</v>
-      </c>
-      <c r="AA48">
-        <v>1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
@@ -4676,7 +4676,7 @@
         <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5189,7 +5189,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
         <v>35</v>
@@ -5278,7 +5278,7 @@
         <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5364,7 +5364,7 @@
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5447,10 +5447,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5533,7 +5533,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
         <v>36</v>
@@ -5619,7 +5619,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
         <v>37</v>
@@ -5705,7 +5705,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
         <v>39</v>
@@ -5791,10 +5791,10 @@
         <v>45199.5</v>
       </c>
       <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
         <v>32</v>
-      </c>
-      <c r="F62" t="s">
-        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5963,10 +5963,10 @@
         <v>45199.5</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6049,7 +6049,7 @@
         <v>45199.5</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
@@ -6393,7 +6393,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
         <v>30</v>
@@ -6565,10 +6565,10 @@
         <v>45205.64583333334</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6998,7 +6998,7 @@
         <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7072,7 +7072,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6941520</v>
+        <v>6940222</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7081,76 +7081,76 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J77">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M77">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="N77">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O77">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P77">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q77">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
         <v>2.5</v>
       </c>
       <c r="T77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7244,7 +7244,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6940222</v>
+        <v>6941520</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7253,76 +7253,76 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J79">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="K79">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="N79">
+        <v>3.2</v>
+      </c>
+      <c r="O79">
         <v>3.75</v>
       </c>
-      <c r="O79">
-        <v>7</v>
-      </c>
       <c r="P79">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
         <v>2.5</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V79">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7428,7 +7428,7 @@
         <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7511,7 +7511,7 @@
         <v>45227.5</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
         <v>36</v>
@@ -7597,10 +7597,10 @@
         <v>45228.5</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>45228.5</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
         <v>37</v>
@@ -7769,7 +7769,7 @@
         <v>45228.5</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
         <v>30</v>
@@ -7932,7 +7932,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6940665</v>
+        <v>6940666</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7941,76 +7941,76 @@
         <v>45228.5</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J87">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="K87">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="N87">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O87">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q87">
+        <v>1.975</v>
+      </c>
+      <c r="R87">
         <v>1.825</v>
-      </c>
-      <c r="R87">
-        <v>1.975</v>
       </c>
       <c r="S87">
         <v>2.5</v>
       </c>
       <c r="T87">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V87">
         <v>-1</v>
       </c>
       <c r="W87">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
         <v>0.825</v>
       </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8018,7 +8018,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6940666</v>
+        <v>6940665</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8027,76 +8027,76 @@
         <v>45228.5</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J88">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="M88">
+        <v>5.25</v>
+      </c>
+      <c r="N88">
+        <v>3.6</v>
+      </c>
+      <c r="O88">
         <v>1.533</v>
       </c>
-      <c r="N88">
-        <v>3.75</v>
-      </c>
-      <c r="O88">
-        <v>5.5</v>
-      </c>
       <c r="P88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q88">
+        <v>1.825</v>
+      </c>
+      <c r="R88">
         <v>1.975</v>
-      </c>
-      <c r="R88">
-        <v>1.825</v>
       </c>
       <c r="S88">
         <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
         <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X88">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8199,7 +8199,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
@@ -8457,7 +8457,7 @@
         <v>45234.5</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
         <v>37</v>
@@ -8543,7 +8543,7 @@
         <v>45235.5</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
         <v>36</v>
@@ -8801,10 +8801,10 @@
         <v>45235.5</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8887,10 +8887,10 @@
         <v>45235.5</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8973,7 +8973,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
         <v>34</v>
@@ -9062,7 +9062,7 @@
         <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9136,7 +9136,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6940691</v>
+        <v>6941527</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9145,76 +9145,76 @@
         <v>45241.5</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J101">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="K101">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L101">
+        <v>1.75</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101">
         <v>3.6</v>
       </c>
-      <c r="M101">
-        <v>2.05</v>
-      </c>
-      <c r="N101">
-        <v>3.3</v>
-      </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="P101">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
         <v>2.5</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
         <v>-1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X101">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9222,7 +9222,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6941527</v>
+        <v>6940691</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9231,76 +9231,76 @@
         <v>45241.5</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J102">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="K102">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L102">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O102">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9406,7 +9406,7 @@
         <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9492,7 +9492,7 @@
         <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9833,7 +9833,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
         <v>41</v>
@@ -10005,10 +10005,10 @@
         <v>45261.5</v>
       </c>
       <c r="E111" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111" t="s">
         <v>46</v>
-      </c>
-      <c r="F111" t="s">
-        <v>47</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10177,10 +10177,10 @@
         <v>45262.48958333334</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>45262.73958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
         <v>33</v>
@@ -10693,10 +10693,10 @@
         <v>45263.5</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -11040,7 +11040,7 @@
         <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11126,7 +11126,7 @@
         <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11209,7 +11209,7 @@
         <v>45269.5</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
         <v>41</v>
@@ -11381,7 +11381,7 @@
         <v>45269.72916666666</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
         <v>30</v>
@@ -11467,10 +11467,10 @@
         <v>45270.5</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11642,7 +11642,7 @@
         <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11725,7 +11725,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
         <v>37</v>
@@ -11900,7 +11900,7 @@
         <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11983,7 +11983,7 @@
         <v>45276.72916666666</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
         <v>38</v>
@@ -12069,10 +12069,10 @@
         <v>45277.5</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12413,10 +12413,10 @@
         <v>45277.5</v>
       </c>
       <c r="E139" t="s">
+        <v>44</v>
+      </c>
+      <c r="F139" t="s">
         <v>45</v>
-      </c>
-      <c r="F139" t="s">
-        <v>46</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12588,7 +12588,7 @@
         <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12929,7 +12929,7 @@
         <v>45298.5</v>
       </c>
       <c r="E145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
         <v>41</v>
@@ -13101,7 +13101,7 @@
         <v>45298.5</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
         <v>30</v>
@@ -13190,7 +13190,7 @@
         <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13276,7 +13276,7 @@
         <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13362,7 +13362,7 @@
         <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13703,10 +13703,10 @@
         <v>45304.5</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13792,7 +13792,7 @@
         <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13878,7 +13878,7 @@
         <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13961,10 +13961,10 @@
         <v>45304.60416666666</v>
       </c>
       <c r="E157" t="s">
+        <v>32</v>
+      </c>
+      <c r="F157" t="s">
         <v>31</v>
-      </c>
-      <c r="F157" t="s">
-        <v>32</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -14219,10 +14219,10 @@
         <v>45308.5</v>
       </c>
       <c r="E160" t="s">
+        <v>46</v>
+      </c>
+      <c r="F160" t="s">
         <v>47</v>
-      </c>
-      <c r="F160" t="s">
-        <v>43</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14477,7 +14477,7 @@
         <v>45312.5</v>
       </c>
       <c r="E163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F163" t="s">
         <v>36</v>
@@ -14649,10 +14649,10 @@
         <v>45312.5</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14735,7 +14735,7 @@
         <v>45312.5</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
         <v>30</v>
@@ -14993,7 +14993,7 @@
         <v>45312.5</v>
       </c>
       <c r="E169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F169" t="s">
         <v>42</v>
@@ -15079,10 +15079,10 @@
         <v>45318.5</v>
       </c>
       <c r="E170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15168,7 +15168,7 @@
         <v>37</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15251,7 +15251,7 @@
         <v>45318.5</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F172" t="s">
         <v>41</v>
@@ -15340,7 +15340,7 @@
         <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15426,7 +15426,7 @@
         <v>30</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15598,7 +15598,7 @@
         <v>28</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15758,7 +15758,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6941512</v>
+        <v>6941511</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15767,76 +15767,76 @@
         <v>45319.5</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J178">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="K178">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L178">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N178">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O178">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="P178">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S178">
         <v>2.5</v>
       </c>
       <c r="T178">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V178">
         <v>-1</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>-0.5</v>
+      </c>
+      <c r="Z178">
         <v>0.5</v>
       </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
-      <c r="Z178">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15844,7 +15844,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6941511</v>
+        <v>6941512</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15853,76 +15853,76 @@
         <v>45319.5</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J179">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="K179">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="M179">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="P179">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q179">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
         <v>2.5</v>
       </c>
       <c r="T179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
         <v>-1</v>
       </c>
       <c r="W179">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15939,10 +15939,10 @@
         <v>45332.5</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -16025,10 +16025,10 @@
         <v>45332.60416666666</v>
       </c>
       <c r="E181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16627,10 +16627,10 @@
         <v>45339.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16716,7 +16716,7 @@
         <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16799,7 +16799,7 @@
         <v>45340.5</v>
       </c>
       <c r="E190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F190" t="s">
         <v>30</v>
@@ -16885,7 +16885,7 @@
         <v>45340.5</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F191" t="s">
         <v>37</v>
@@ -16974,7 +16974,7 @@
         <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -17057,7 +17057,7 @@
         <v>45340.66666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F193" t="s">
         <v>34</v>
@@ -17146,7 +17146,7 @@
         <v>34</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17315,7 +17315,7 @@
         <v>45346.5</v>
       </c>
       <c r="E196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F196" t="s">
         <v>41</v>
@@ -17404,7 +17404,7 @@
         <v>39</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17659,10 +17659,10 @@
         <v>45347.5</v>
       </c>
       <c r="E200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17745,7 +17745,7 @@
         <v>45347.5</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F201" t="s">
         <v>28</v>
@@ -17920,7 +17920,7 @@
         <v>37</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -18006,7 +18006,7 @@
         <v>34</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18092,7 +18092,7 @@
         <v>36</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18175,7 +18175,7 @@
         <v>45353.5</v>
       </c>
       <c r="E206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F206" t="s">
         <v>37</v>
@@ -18261,7 +18261,7 @@
         <v>45353.5</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F207" t="s">
         <v>30</v>
@@ -18433,10 +18433,10 @@
         <v>45353.66666666666</v>
       </c>
       <c r="E209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -18510,7 +18510,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7887079</v>
+        <v>7887080</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18519,76 +18519,76 @@
         <v>45354.5</v>
       </c>
       <c r="E210" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210" t="s">
+        <v>49</v>
+      </c>
+      <c r="J210">
+        <v>3.4</v>
+      </c>
+      <c r="K210">
+        <v>2.9</v>
+      </c>
+      <c r="L210">
+        <v>2.1</v>
+      </c>
+      <c r="M210">
         <v>4</v>
       </c>
-      <c r="I210" t="s">
-        <v>50</v>
-      </c>
-      <c r="J210">
-        <v>1.95</v>
-      </c>
-      <c r="K210">
-        <v>3.25</v>
-      </c>
-      <c r="L210">
-        <v>3.4</v>
-      </c>
-      <c r="M210">
-        <v>1.95</v>
-      </c>
       <c r="N210">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="P210">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q210">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>1.825</v>
+      </c>
+      <c r="U210">
         <v>1.975</v>
       </c>
-      <c r="S210">
-        <v>2.5</v>
-      </c>
-      <c r="T210">
-        <v>2</v>
-      </c>
-      <c r="U210">
-        <v>1.8</v>
-      </c>
       <c r="V210">
         <v>-1</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z210">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18596,7 +18596,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7887080</v>
+        <v>7887079</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18605,76 +18605,76 @@
         <v>45354.5</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J211">
+        <v>1.95</v>
+      </c>
+      <c r="K211">
+        <v>3.25</v>
+      </c>
+      <c r="L211">
         <v>3.4</v>
       </c>
-      <c r="K211">
-        <v>2.9</v>
-      </c>
-      <c r="L211">
-        <v>2.1</v>
-      </c>
       <c r="M211">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N211">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O211">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q211">
+        <v>1.725</v>
+      </c>
+      <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
+        <v>2.5</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
         <v>1.8</v>
       </c>
-      <c r="R211">
-        <v>2</v>
-      </c>
-      <c r="S211">
-        <v>2</v>
-      </c>
-      <c r="T211">
-        <v>1.825</v>
-      </c>
-      <c r="U211">
-        <v>1.975</v>
-      </c>
       <c r="V211">
         <v>-1</v>
       </c>
       <c r="W211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18777,7 +18777,7 @@
         <v>45354.60416666666</v>
       </c>
       <c r="E213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F213" t="s">
         <v>39</v>
@@ -18952,7 +18952,7 @@
         <v>30</v>
       </c>
       <c r="F215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -19296,7 +19296,7 @@
         <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19379,7 +19379,7 @@
         <v>45360.75</v>
       </c>
       <c r="E220" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F220" t="s">
         <v>28</v>
@@ -19465,10 +19465,10 @@
         <v>45361.5</v>
       </c>
       <c r="E221" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19551,10 +19551,10 @@
         <v>45361.5</v>
       </c>
       <c r="E222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19981,7 +19981,7 @@
         <v>45367.5</v>
       </c>
       <c r="E227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F227" t="s">
         <v>41</v>
@@ -20067,7 +20067,7 @@
         <v>45368.33333333334</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F228" t="s">
         <v>28</v>
@@ -20156,7 +20156,7 @@
         <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20242,7 +20242,7 @@
         <v>34</v>
       </c>
       <c r="F230" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G230">
         <v>3</v>
@@ -20414,7 +20414,7 @@
         <v>39</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20497,10 +20497,10 @@
         <v>45374.33333333334</v>
       </c>
       <c r="E233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F233" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20586,7 +20586,7 @@
         <v>28</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7781013</v>
+        <v>7781011</v>
       </c>
       <c r="C235" t="s">
         <v>27</v>
@@ -20669,40 +20669,40 @@
         <v>45381.5</v>
       </c>
       <c r="E235" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="s">
         <v>48</v>
       </c>
       <c r="J235">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="K235">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="L235">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M235">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="N235">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O235">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P235">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q235">
         <v>1.95</v>
@@ -20711,16 +20711,16 @@
         <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T235">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U235">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V235">
-        <v>0.5329999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -20735,10 +20735,10 @@
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -20746,7 +20746,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7781011</v>
+        <v>7780988</v>
       </c>
       <c r="C236" t="s">
         <v>27</v>
@@ -20755,40 +20755,40 @@
         <v>45381.5</v>
       </c>
       <c r="E236" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="s">
         <v>48</v>
       </c>
       <c r="J236">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="K236">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L236">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="M236">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N236">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="P236">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q236">
         <v>1.95</v>
@@ -20800,13 +20800,13 @@
         <v>2.25</v>
       </c>
       <c r="T236">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U236">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V236">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -20821,10 +20821,10 @@
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20832,7 +20832,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7780988</v>
+        <v>7780987</v>
       </c>
       <c r="C237" t="s">
         <v>27</v>
@@ -20841,76 +20841,76 @@
         <v>45381.5</v>
       </c>
       <c r="E237" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G237">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J237">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="K237">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L237">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="M237">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N237">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O237">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="P237">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
         <v>2.25</v>
       </c>
       <c r="T237">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20918,7 +20918,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7780987</v>
+        <v>7781124</v>
       </c>
       <c r="C238" t="s">
         <v>27</v>
@@ -20927,76 +20927,76 @@
         <v>45381.5</v>
       </c>
       <c r="E238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="s">
         <v>49</v>
       </c>
       <c r="J238">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="K238">
         <v>3.2</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="M238">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N238">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O238">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="P238">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S238">
         <v>2.25</v>
       </c>
       <c r="T238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V238">
         <v>-1</v>
       </c>
       <c r="W238">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
         <v>-0.5</v>
       </c>
-      <c r="Z238">
-        <v>0.4875</v>
-      </c>
-      <c r="AA238">
-        <v>-1</v>
-      </c>
       <c r="AB238">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21004,7 +21004,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7781124</v>
+        <v>7781013</v>
       </c>
       <c r="C239" t="s">
         <v>27</v>
@@ -21013,76 +21013,76 @@
         <v>45381.5</v>
       </c>
       <c r="E239" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J239">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="K239">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L239">
+        <v>4.75</v>
+      </c>
+      <c r="M239">
+        <v>1.533</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="O239">
+        <v>5.25</v>
+      </c>
+      <c r="P239">
+        <v>-1</v>
+      </c>
+      <c r="Q239">
+        <v>1.95</v>
+      </c>
+      <c r="R239">
+        <v>1.85</v>
+      </c>
+      <c r="S239">
         <v>2.5</v>
       </c>
-      <c r="M239">
-        <v>2.5</v>
-      </c>
-      <c r="N239">
-        <v>3.1</v>
-      </c>
-      <c r="O239">
-        <v>2.625</v>
-      </c>
-      <c r="P239">
-        <v>0</v>
-      </c>
-      <c r="Q239">
-        <v>1.875</v>
-      </c>
-      <c r="R239">
-        <v>1.925</v>
-      </c>
-      <c r="S239">
-        <v>2.25</v>
-      </c>
       <c r="T239">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W239">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB239">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21185,10 +21185,10 @@
         <v>45381.6875</v>
       </c>
       <c r="E241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F241" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21271,7 +21271,7 @@
         <v>45382.5</v>
       </c>
       <c r="E242" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F242" t="s">
         <v>39</v>
@@ -21701,10 +21701,10 @@
         <v>45389.29166666666</v>
       </c>
       <c r="E247" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21787,7 +21787,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F248" t="s">
         <v>36</v>
@@ -21876,7 +21876,7 @@
         <v>30</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -22048,7 +22048,7 @@
         <v>37</v>
       </c>
       <c r="F251" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22217,10 +22217,10 @@
         <v>45389.64583333334</v>
       </c>
       <c r="E253" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F253" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -22380,7 +22380,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7781018</v>
+        <v>7781019</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22389,76 +22389,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E255" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G255">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J255">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="K255">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M255">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N255">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O255">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="P255">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q255">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R255">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S255">
         <v>2.5</v>
       </c>
       <c r="T255">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U255">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V255">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22466,7 +22466,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7781019</v>
+        <v>7780961</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22475,49 +22475,49 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E256" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I256" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J256">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="K256">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L256">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M256">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N256">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O256">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="P256">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q256">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R256">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S256">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T256">
         <v>1.9</v>
@@ -22529,22 +22529,22 @@
         <v>-1</v>
       </c>
       <c r="W256">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y256">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB256">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22552,7 +22552,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7780961</v>
+        <v>7781018</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22561,40 +22561,40 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E257" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F257" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I257" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J257">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="K257">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L257">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="M257">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="N257">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O257">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="P257">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q257">
         <v>1.825</v>
@@ -22603,34 +22603,34 @@
         <v>1.975</v>
       </c>
       <c r="S257">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T257">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U257">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V257">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z257">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22733,10 +22733,10 @@
         <v>45395.5625</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F259" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22810,7 +22810,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>8070736</v>
+        <v>7780991</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22819,76 +22819,76 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E260" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J260">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="K260">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L260">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M260">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="N260">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O260">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P260">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q260">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="R260">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S260">
         <v>2.25</v>
       </c>
       <c r="T260">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U260">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V260">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W260">
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z260">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB260">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -22896,7 +22896,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7780991</v>
+        <v>8070736</v>
       </c>
       <c r="C261" t="s">
         <v>27</v>
@@ -22905,76 +22905,76 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E261" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G261">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J261">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="K261">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L261">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M261">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="N261">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O261">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P261">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q261">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="R261">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S261">
         <v>2.25</v>
       </c>
       <c r="T261">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U261">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V261">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y261">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA261">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="262" spans="1:28">
@@ -23080,7 +23080,7 @@
         <v>34</v>
       </c>
       <c r="F263" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -23163,7 +23163,7 @@
         <v>45402.29166666666</v>
       </c>
       <c r="E264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F264" t="s">
         <v>39</v>
@@ -23249,7 +23249,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E265" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F265" t="s">
         <v>34</v>
@@ -23338,7 +23338,7 @@
         <v>41</v>
       </c>
       <c r="F266" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23424,7 +23424,7 @@
         <v>28</v>
       </c>
       <c r="F267" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23768,7 +23768,7 @@
         <v>39</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -23842,7 +23842,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7780966</v>
+        <v>7781020</v>
       </c>
       <c r="C272" t="s">
         <v>27</v>
@@ -23851,40 +23851,40 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E272" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F272" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G272">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J272">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="K272">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L272">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M272">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N272">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O272">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P272">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q272">
         <v>1.95</v>
@@ -23893,22 +23893,22 @@
         <v>1.85</v>
       </c>
       <c r="S272">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T272">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U272">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
         <v>-1</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X272">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
         <v>-1</v>
@@ -23917,10 +23917,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AA272">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="273" spans="1:28">
@@ -23928,7 +23928,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7781020</v>
+        <v>7781021</v>
       </c>
       <c r="C273" t="s">
         <v>27</v>
@@ -23937,76 +23937,76 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E273" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G273">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J273">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="K273">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L273">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="M273">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="N273">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O273">
-        <v>4.333</v>
+        <v>1.45</v>
       </c>
       <c r="P273">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q273">
+        <v>1.825</v>
+      </c>
+      <c r="R273">
+        <v>1.975</v>
+      </c>
+      <c r="S273">
+        <v>2.75</v>
+      </c>
+      <c r="T273">
         <v>1.95</v>
       </c>
-      <c r="R273">
+      <c r="U273">
         <v>1.85</v>
       </c>
-      <c r="S273">
-        <v>2.5</v>
-      </c>
-      <c r="T273">
-        <v>1.85</v>
-      </c>
-      <c r="U273">
-        <v>1.95</v>
-      </c>
       <c r="V273">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="W273">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z273">
+        <v>-1</v>
+      </c>
+      <c r="AA273">
+        <v>-1</v>
+      </c>
+      <c r="AB273">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA273">
-        <v>-1</v>
-      </c>
-      <c r="AB273">
-        <v>0.95</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24023,10 +24023,10 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E274" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F274" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -24100,7 +24100,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7781021</v>
+        <v>7780966</v>
       </c>
       <c r="C275" t="s">
         <v>27</v>
@@ -24109,76 +24109,76 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E275" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F275" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G275">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J275">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="K275">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="L275">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="M275">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="N275">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O275">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="P275">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q275">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R275">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S275">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T275">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U275">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V275">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y275">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB275">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24281,7 +24281,7 @@
         <v>45410.625</v>
       </c>
       <c r="E277" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F277" t="s">
         <v>34</v>
@@ -24539,10 +24539,10 @@
         <v>45416.5</v>
       </c>
       <c r="E280" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F280" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -24628,7 +24628,7 @@
         <v>37</v>
       </c>
       <c r="F281" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G281">
         <v>5</v>
@@ -24797,7 +24797,7 @@
         <v>45416.5</v>
       </c>
       <c r="E283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F283" t="s">
         <v>36</v>
@@ -24886,7 +24886,7 @@
         <v>30</v>
       </c>
       <c r="F284" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G284">
         <v>2</v>
@@ -25058,7 +25058,7 @@
         <v>28</v>
       </c>
       <c r="F286" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -25141,7 +25141,7 @@
         <v>45417.3125</v>
       </c>
       <c r="E287" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F287" t="s">
         <v>41</v>
@@ -25227,7 +25227,7 @@
         <v>45424.29166666666</v>
       </c>
       <c r="E288" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F288" t="s">
         <v>34</v>
@@ -25316,7 +25316,7 @@
         <v>28</v>
       </c>
       <c r="F289" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G289">
         <v>2</v>
@@ -25402,7 +25402,7 @@
         <v>41</v>
       </c>
       <c r="F290" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G290">
         <v>2</v>
@@ -25485,7 +25485,7 @@
         <v>45424.58333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F291" t="s">
         <v>39</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -106,22 +106,22 @@
     <t>Trofense</t>
   </si>
   <si>
+    <t>Oliveira Hospital</t>
+  </si>
+  <si>
     <t>Lusitania Lourosa</t>
   </si>
   <si>
-    <t>Oliveira Hospital</t>
+    <t>AD Fafe</t>
   </si>
   <si>
-    <t>Academica</t>
+    <t>CF Canelas 2010</t>
   </si>
   <si>
     <t>Pero Pinheiro</t>
   </si>
   <si>
-    <t>CF Canelas 2010</t>
-  </si>
-  <si>
-    <t>AD Fafe</t>
+    <t>Academica</t>
   </si>
   <si>
     <t>Caldas SC</t>
@@ -130,10 +130,10 @@
     <t>Sporting B</t>
   </si>
   <si>
-    <t>AD Sanjoanense</t>
+    <t>Braga B</t>
   </si>
   <si>
-    <t>Braga B</t>
+    <t>AD Sanjoanense</t>
   </si>
   <si>
     <t>Anadia</t>
@@ -145,19 +145,19 @@
     <t>SC Vianense</t>
   </si>
   <si>
-    <t>Amora</t>
+    <t>Felgueiras 1932</t>
+  </si>
+  <si>
+    <t>Sporting Covilha</t>
+  </si>
+  <si>
+    <t>Atletico CP Lisbon</t>
   </si>
   <si>
     <t>SU 1 Dezembro</t>
   </si>
   <si>
-    <t>Atletico CP Lisbon</t>
-  </si>
-  <si>
-    <t>Sporting Covilha</t>
-  </si>
-  <si>
-    <t>Felgueiras 1932</t>
+    <t>Amora</t>
   </si>
   <si>
     <t>H</t>
@@ -634,7 +634,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6941476</v>
+        <v>6940674</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -806,73 +806,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K4">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M4">
+        <v>3.4</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
         <v>2.05</v>
       </c>
-      <c r="N4">
-        <v>3.25</v>
-      </c>
-      <c r="O4">
-        <v>3.3</v>
-      </c>
       <c r="P4">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q4">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
         <v>2.25</v>
       </c>
       <c r="T4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
+        <v>0.5</v>
+      </c>
+      <c r="Z4">
         <v>-0.5</v>
       </c>
-      <c r="Z4">
-        <v>0.5125</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6940674</v>
+        <v>6941476</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -892,73 +892,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O5">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
         <v>2.25</v>
       </c>
       <c r="T5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
         <v>-1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6944665</v>
+        <v>6941477</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -978,73 +978,73 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K6">
+        <v>3.2</v>
+      </c>
+      <c r="L6">
         <v>3.3</v>
       </c>
-      <c r="L6">
+      <c r="M6">
+        <v>1.95</v>
+      </c>
+      <c r="N6">
+        <v>3.2</v>
+      </c>
+      <c r="O6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>1.75</v>
-      </c>
-      <c r="N6">
-        <v>3.3</v>
-      </c>
-      <c r="O6">
-        <v>4.2</v>
-      </c>
       <c r="P6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q6">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
         <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6944663</v>
+        <v>6941478</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1064,70 +1064,70 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="P7">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q7">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S7">
         <v>2.25</v>
       </c>
       <c r="T7">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6941478</v>
+        <v>6944663</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1150,70 +1150,70 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J8">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="M8">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O8">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="P8">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S8">
         <v>2.25</v>
       </c>
       <c r="T8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U8">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1224,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6941477</v>
+        <v>6944665</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1236,73 +1236,73 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L9">
+        <v>3.5</v>
+      </c>
+      <c r="M9">
+        <v>1.75</v>
+      </c>
+      <c r="N9">
         <v>3.3</v>
       </c>
-      <c r="M9">
-        <v>1.95</v>
-      </c>
-      <c r="N9">
-        <v>3.2</v>
-      </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q9">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>2.25</v>
       </c>
       <c r="T9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1408,7 +1408,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6941479</v>
+        <v>6940655</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1494,13 +1494,13 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
@@ -1509,37 +1509,37 @@
         <v>2.1</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N12">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="P12">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q12">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S12">
         <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
         <v>-1</v>
@@ -1548,19 +1548,19 @@
         <v>-1</v>
       </c>
       <c r="X12">
+        <v>1.75</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA12">
-        <v>-0.5</v>
-      </c>
-      <c r="AB12">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6940655</v>
+        <v>6941479</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1580,13 +1580,13 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>50</v>
@@ -1595,37 +1595,37 @@
         <v>2.1</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N13">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="P13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R13">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
         <v>2.25</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1634,19 +1634,19 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1666,7 +1666,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6940676</v>
+        <v>6944679</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1924,67 +1924,67 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J17">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="K17">
+        <v>3.1</v>
+      </c>
+      <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="M17">
+        <v>1.65</v>
+      </c>
+      <c r="N17">
         <v>3.5</v>
       </c>
-      <c r="L17">
-        <v>4.333</v>
-      </c>
-      <c r="M17">
-        <v>2.4</v>
-      </c>
-      <c r="N17">
-        <v>3.3</v>
-      </c>
       <c r="O17">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q17">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R17">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
         <v>2.25</v>
       </c>
       <c r="T17">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
         <v>1.95</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z17">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -1998,7 +1998,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6941502</v>
+        <v>6944661</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2010,43 +2010,43 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>48</v>
       </c>
       <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>3.1</v>
+      </c>
+      <c r="L18">
+        <v>3.4</v>
+      </c>
+      <c r="M18">
+        <v>2.45</v>
+      </c>
+      <c r="N18">
+        <v>3.1</v>
+      </c>
+      <c r="O18">
         <v>2.75</v>
       </c>
-      <c r="K18">
-        <v>3.2</v>
-      </c>
-      <c r="L18">
-        <v>2.3</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>3.2</v>
-      </c>
-      <c r="O18">
-        <v>2.2</v>
-      </c>
       <c r="P18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S18">
         <v>2.25</v>
@@ -2058,7 +2058,7 @@
         <v>1.8</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2067,7 +2067,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2096,7 +2096,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2170,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6944661</v>
+        <v>6941502</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2182,43 +2182,43 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="K20">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O20">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
         <v>2.25</v>
@@ -2230,7 +2230,7 @@
         <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2239,7 +2239,7 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z20">
         <v>-1</v>
@@ -2256,7 +2256,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6944679</v>
+        <v>6940676</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2268,67 +2268,67 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="K21">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M21">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="N21">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O21">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="P21">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S21">
         <v>2.25</v>
       </c>
       <c r="T21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U21">
         <v>1.95</v>
       </c>
       <c r="V21">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y21">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -2351,7 +2351,7 @@
         <v>45156.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>45</v>
@@ -2437,7 +2437,7 @@
         <v>45157.5</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2609,10 +2609,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2695,7 +2695,7 @@
         <v>45158.5</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2772,7 +2772,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6941480</v>
+        <v>6940232</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2781,76 +2781,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K27">
         <v>3.1</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="N27">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
         <v>2.25</v>
       </c>
       <c r="T27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
         <v>-1</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X27">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2867,10 +2867,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3030,7 +3030,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6940232</v>
+        <v>6941480</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3039,76 +3039,76 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K30">
         <v>3.1</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="N30">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
         <v>2.25</v>
       </c>
       <c r="T30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3128,7 +3128,7 @@
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3386,7 +3386,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3469,7 +3469,7 @@
         <v>45165.5</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
@@ -3555,10 +3555,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3641,10 +3641,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
         <v>44</v>
-      </c>
-      <c r="F37" t="s">
-        <v>46</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6941483</v>
+        <v>6940657</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3730,73 +3730,73 @@
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J38">
         <v>2.375</v>
       </c>
       <c r="K38">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L38">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M38">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O38">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="P38">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q38">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
         <v>-0.5</v>
       </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
       <c r="AB38">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3804,7 +3804,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6941482</v>
+        <v>6941483</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3813,49 +3813,49 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J39">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="K39">
+        <v>2.9</v>
+      </c>
+      <c r="L39">
+        <v>2.875</v>
+      </c>
+      <c r="M39">
+        <v>1.666</v>
+      </c>
+      <c r="N39">
         <v>3.4</v>
       </c>
-      <c r="L39">
-        <v>5.5</v>
-      </c>
-      <c r="M39">
-        <v>1.363</v>
-      </c>
-      <c r="N39">
-        <v>4.2</v>
-      </c>
       <c r="O39">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="P39">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T39">
         <v>2</v>
@@ -3864,25 +3864,25 @@
         <v>1.8</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z39">
+        <v>-0.5</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.8</v>
-      </c>
-      <c r="AA39">
-        <v>1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3890,7 +3890,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6940657</v>
+        <v>6941482</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3899,76 +3899,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J40">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="K40">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L40">
+        <v>5.5</v>
+      </c>
+      <c r="M40">
+        <v>1.363</v>
+      </c>
+      <c r="N40">
+        <v>4.2</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>-1.5</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
         <v>2.75</v>
       </c>
-      <c r="M40">
-        <v>3.6</v>
-      </c>
-      <c r="N40">
-        <v>3.1</v>
-      </c>
-      <c r="O40">
-        <v>1.95</v>
-      </c>
-      <c r="P40">
-        <v>0.5</v>
-      </c>
-      <c r="Q40">
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
         <v>1.8</v>
       </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="S40">
-        <v>2.25</v>
-      </c>
-      <c r="T40">
-        <v>1.925</v>
-      </c>
-      <c r="U40">
-        <v>1.875</v>
-      </c>
       <c r="V40">
         <v>-1</v>
       </c>
       <c r="W40">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
         <v>0.8</v>
       </c>
-      <c r="Z40">
-        <v>-1</v>
-      </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3988,7 +3988,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4071,10 +4071,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -4243,10 +4243,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4418,7 +4418,7 @@
         <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6941510</v>
+        <v>6941513</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4501,73 +4501,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
         <v>3</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J47">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="K47">
         <v>3.2</v>
       </c>
       <c r="L47">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="M47">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="N47">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P47">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q47">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
         <v>2.25</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V47">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y47">
+        <v>-1</v>
+      </c>
+      <c r="Z47">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA47">
         <v>1.025</v>
-      </c>
-      <c r="Z47">
-        <v>-1</v>
-      </c>
-      <c r="AA47">
-        <v>1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4578,7 +4578,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6941513</v>
+        <v>6941510</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4587,73 +4587,73 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J48">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="K48">
         <v>3.2</v>
       </c>
       <c r="L48">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="M48">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="N48">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P48">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q48">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S48">
         <v>2.25</v>
       </c>
       <c r="T48">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
@@ -4673,7 +4673,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
         <v>41</v>
@@ -4845,10 +4845,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
         <v>39</v>
-      </c>
-      <c r="F51" t="s">
-        <v>38</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -4934,7 +4934,7 @@
         <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5103,7 +5103,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
         <v>29</v>
@@ -5189,10 +5189,10 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6941515</v>
+        <v>6940237</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5275,40 +5275,40 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J56">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K56">
         <v>3.1</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="M56">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O56">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q56">
         <v>1.875</v>
@@ -5320,19 +5320,19 @@
         <v>2.25</v>
       </c>
       <c r="T56">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V56">
         <v>-1</v>
       </c>
       <c r="W56">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5341,10 +5341,10 @@
         <v>0.925</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5352,7 +5352,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6940237</v>
+        <v>6940688</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5361,10 +5361,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5376,40 +5376,40 @@
         <v>50</v>
       </c>
       <c r="J57">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="K57">
         <v>3.1</v>
       </c>
       <c r="L57">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M57">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N57">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="P57">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
         <v>2.25</v>
       </c>
       <c r="T57">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
         <v>-1</v>
@@ -5418,19 +5418,19 @@
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z57">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5438,7 +5438,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6940688</v>
+        <v>6941514</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5447,76 +5447,76 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J58">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="K58">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="M58">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="N58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O58">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="P58">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S58">
         <v>2.25</v>
       </c>
       <c r="T58">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
         <v>-1</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X58">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
+        <v>0.825</v>
+      </c>
+      <c r="AA58">
         <v>-0.5</v>
       </c>
-      <c r="Z58">
-        <v>0.45</v>
-      </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5524,7 +5524,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6941514</v>
+        <v>6941515</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5533,10 +5533,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5548,40 +5548,40 @@
         <v>49</v>
       </c>
       <c r="J59">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L59">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="N59">
         <v>3.4</v>
       </c>
       <c r="O59">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
         <v>2.25</v>
       </c>
       <c r="T59">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
         <v>-1</v>
@@ -5596,13 +5596,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
         <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5619,10 +5619,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5705,10 +5705,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         <v>45199.5</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -5963,10 +5963,10 @@
         <v>45199.5</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6052,7 +6052,7 @@
         <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6135,7 +6135,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
         <v>29</v>
@@ -6221,10 +6221,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6307,10 +6307,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -6565,10 +6565,10 @@
         <v>45205.64583333334</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6941521</v>
+        <v>6941519</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -6651,73 +6651,73 @@
         <v>45206.5</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J72">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N72">
         <v>3</v>
       </c>
       <c r="O72">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P72">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q72">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
         <v>2.25</v>
       </c>
       <c r="T72">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA72">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
@@ -6728,7 +6728,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6941519</v>
+        <v>6941521</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6737,73 +6737,73 @@
         <v>45206.5</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73">
+        <v>2.1</v>
+      </c>
+      <c r="K73">
         <v>3</v>
       </c>
-      <c r="I73" t="s">
-        <v>50</v>
-      </c>
-      <c r="J73">
-        <v>2.15</v>
-      </c>
-      <c r="K73">
-        <v>3.1</v>
-      </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M73">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
         <v>3</v>
       </c>
       <c r="O73">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q73">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>2.25</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6826,7 +6826,7 @@
         <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6912,7 +6912,7 @@
         <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6998,7 +6998,7 @@
         <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7084,7 +7084,7 @@
         <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7167,7 +7167,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
         <v>40</v>
@@ -7253,10 +7253,10 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7339,10 +7339,10 @@
         <v>45207.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7511,7 +7511,7 @@
         <v>45227.5</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
         <v>36</v>
@@ -7597,10 +7597,10 @@
         <v>45228.5</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6940666</v>
+        <v>6941490</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7683,73 +7683,73 @@
         <v>45228.5</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84">
+        <v>2.15</v>
+      </c>
+      <c r="K84">
+        <v>3.2</v>
+      </c>
+      <c r="L84">
         <v>3</v>
       </c>
-      <c r="I84" t="s">
-        <v>50</v>
-      </c>
-      <c r="J84">
-        <v>1.55</v>
-      </c>
-      <c r="K84">
-        <v>3.75</v>
-      </c>
-      <c r="L84">
-        <v>5</v>
-      </c>
       <c r="M84">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="N84">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O84">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="P84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
+        <v>1.8</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>2.25</v>
+      </c>
+      <c r="T84">
+        <v>1.825</v>
+      </c>
+      <c r="U84">
         <v>1.975</v>
       </c>
-      <c r="R84">
-        <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>2.5</v>
-      </c>
-      <c r="T84">
-        <v>1.8</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
         <v>0.825</v>
-      </c>
-      <c r="AA84">
-        <v>0.8</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7760,7 +7760,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6941490</v>
+        <v>6940666</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7769,73 +7769,73 @@
         <v>45228.5</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>3</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J85">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="K85">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M85">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="N85">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O85">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q85">
+        <v>1.975</v>
+      </c>
+      <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
+        <v>2.5</v>
+      </c>
+      <c r="T85">
         <v>1.8</v>
       </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
-        <v>2.25</v>
-      </c>
-      <c r="T85">
-        <v>1.825</v>
-      </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>0.825</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
-      </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
-      <c r="AA85">
-        <v>0.825</v>
       </c>
       <c r="AB85">
         <v>-1</v>
@@ -7855,10 +7855,10 @@
         <v>45228.5</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7941,7 +7941,7 @@
         <v>45228.5</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
         <v>37</v>
@@ -8030,7 +8030,7 @@
         <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8199,7 +8199,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
@@ -8288,7 +8288,7 @@
         <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8362,7 +8362,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6941526</v>
+        <v>6940224</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8371,58 +8371,58 @@
         <v>45234.5</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="s">
         <v>48</v>
       </c>
       <c r="J92">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="K92">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N92">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="P92">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S92">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.8999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8448,7 +8448,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6940224</v>
+        <v>6941526</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8457,58 +8457,58 @@
         <v>45234.5</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
         <v>48</v>
       </c>
       <c r="J93">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L93">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="M93">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O93">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q93">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="R93">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V93">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8517,16 +8517,16 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.7</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB93">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8543,7 +8543,7 @@
         <v>45235.5</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
         <v>29</v>
@@ -8629,10 +8629,10 @@
         <v>45235.5</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8715,10 +8715,10 @@
         <v>45235.5</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8890,7 +8890,7 @@
         <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8973,10 +8973,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9062,7 +9062,7 @@
         <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9145,7 +9145,7 @@
         <v>45241.5</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
         <v>45</v>
@@ -9231,10 +9231,10 @@
         <v>45241.5</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9492,7 +9492,7 @@
         <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9575,10 +9575,10 @@
         <v>45242.5</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9661,10 +9661,10 @@
         <v>45242.5</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9747,7 +9747,7 @@
         <v>45242.5</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>40</v>
@@ -9833,7 +9833,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
         <v>41</v>
@@ -9922,7 +9922,7 @@
         <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10177,10 +10177,10 @@
         <v>45262.48958333334</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10263,10 +10263,10 @@
         <v>45262.73958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10340,7 +10340,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6941529</v>
+        <v>6941494</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10349,40 +10349,40 @@
         <v>45263.5</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J115">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K115">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N115">
         <v>3.25</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="P115">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q115">
         <v>1.825</v>
@@ -10391,34 +10391,34 @@
         <v>1.975</v>
       </c>
       <c r="S115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T115">
+        <v>1.975</v>
+      </c>
+      <c r="U115">
         <v>1.825</v>
       </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
       <c r="V115">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z115">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10435,7 +10435,7 @@
         <v>45263.5</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -10524,7 +10524,7 @@
         <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10610,7 +10610,7 @@
         <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10684,7 +10684,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6941494</v>
+        <v>6941529</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10693,40 +10693,40 @@
         <v>45263.5</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J119">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K119">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L119">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N119">
         <v>3.25</v>
       </c>
       <c r="O119">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="P119">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
         <v>1.825</v>
@@ -10735,34 +10735,34 @@
         <v>1.975</v>
       </c>
       <c r="S119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T119">
+        <v>1.825</v>
+      </c>
+      <c r="U119">
         <v>1.975</v>
       </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA119">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10782,7 +10782,7 @@
         <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10865,7 +10865,7 @@
         <v>45268.5</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
         <v>28</v>
@@ -10951,10 +10951,10 @@
         <v>45268.5</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -11126,7 +11126,7 @@
         <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11209,7 +11209,7 @@
         <v>45269.5</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
         <v>41</v>
@@ -11381,10 +11381,10 @@
         <v>45269.72916666666</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11467,10 +11467,10 @@
         <v>45270.5</v>
       </c>
       <c r="E128" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" t="s">
         <v>46</v>
-      </c>
-      <c r="F128" t="s">
-        <v>44</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11553,10 +11553,10 @@
         <v>45270.60416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11642,7 +11642,7 @@
         <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11725,7 +11725,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
         <v>37</v>
@@ -11900,7 +11900,7 @@
         <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11983,10 +11983,10 @@
         <v>45276.72916666666</v>
       </c>
       <c r="E134" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -12069,7 +12069,7 @@
         <v>45277.5</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F135" t="s">
         <v>36</v>
@@ -12155,10 +12155,10 @@
         <v>45277.5</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -12241,10 +12241,10 @@
         <v>45277.5</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12330,7 +12330,7 @@
         <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12413,7 +12413,7 @@
         <v>45277.5</v>
       </c>
       <c r="E139" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
         <v>45</v>
@@ -12499,7 +12499,7 @@
         <v>45277.66666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
         <v>40</v>
@@ -12585,10 +12585,10 @@
         <v>45296.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>45297.33333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
         <v>28</v>
@@ -12760,7 +12760,7 @@
         <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12834,7 +12834,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6941505</v>
+        <v>6940677</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12843,76 +12843,76 @@
         <v>45298.5</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G144">
         <v>2</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J144">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="K144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L144">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="M144">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O144">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R144">
         <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>0.75</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>0.95</v>
-      </c>
-      <c r="AA144">
-        <v>0.8</v>
-      </c>
-      <c r="AB144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12920,7 +12920,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6941533</v>
+        <v>6941505</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12929,34 +12929,34 @@
         <v>45298.5</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J145">
+        <v>2.9</v>
+      </c>
+      <c r="K145">
         <v>3.1</v>
-      </c>
-      <c r="K145">
-        <v>3</v>
       </c>
       <c r="L145">
         <v>2.2</v>
       </c>
       <c r="M145">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O145">
         <v>1.85</v>
@@ -12965,40 +12965,40 @@
         <v>0.5</v>
       </c>
       <c r="Q145">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
         <v>2.25</v>
       </c>
       <c r="T145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13006,7 +13006,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6941534</v>
+        <v>6941533</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -13015,58 +13015,58 @@
         <v>45298.5</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
         <v>48</v>
       </c>
       <c r="J146">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="K146">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L146">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="M146">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N146">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O146">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="P146">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13075,16 +13075,16 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13092,7 +13092,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6940677</v>
+        <v>6941534</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13101,58 +13101,58 @@
         <v>45298.5</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="s">
         <v>48</v>
       </c>
       <c r="J147">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K147">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="L147">
+        <v>2.9</v>
+      </c>
+      <c r="M147">
+        <v>2.2</v>
+      </c>
+      <c r="N147">
         <v>2.875</v>
       </c>
-      <c r="M147">
-        <v>2</v>
-      </c>
-      <c r="N147">
-        <v>3.4</v>
-      </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
         <v>-0.25</v>
       </c>
       <c r="Q147">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T147">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13161,16 +13161,16 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13190,7 +13190,7 @@
         <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13276,7 +13276,7 @@
         <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13359,10 +13359,10 @@
         <v>45303.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13531,10 +13531,10 @@
         <v>45304.5</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -13620,7 +13620,7 @@
         <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13703,7 +13703,7 @@
         <v>45304.5</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F154" t="s">
         <v>45</v>
@@ -13792,7 +13792,7 @@
         <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13875,10 +13875,10 @@
         <v>45304.5</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13961,10 +13961,10 @@
         <v>45304.60416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -14050,7 +14050,7 @@
         <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14219,10 +14219,10 @@
         <v>45308.5</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14305,10 +14305,10 @@
         <v>45310.70833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14468,7 +14468,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6941538</v>
+        <v>6940684</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14477,76 +14477,76 @@
         <v>45312.5</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J163">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L163">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="M163">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="N163">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O163">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="P163">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q163">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T163">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14554,7 +14554,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6940684</v>
+        <v>6940682</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14563,43 +14563,43 @@
         <v>45312.5</v>
       </c>
       <c r="E164" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J164">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="K164">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L164">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="M164">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N164">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O164">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="P164">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q164">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R164">
         <v>1.95</v>
@@ -14608,31 +14608,31 @@
         <v>2.75</v>
       </c>
       <c r="T164">
+        <v>1.95</v>
+      </c>
+      <c r="U164">
         <v>1.85</v>
       </c>
-      <c r="U164">
-        <v>1.95</v>
-      </c>
       <c r="V164">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -14640,7 +14640,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6940682</v>
+        <v>6940234</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -14649,76 +14649,76 @@
         <v>45312.5</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J165">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K165">
+        <v>3.3</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>4</v>
+      </c>
+      <c r="N165">
         <v>3.5</v>
       </c>
-      <c r="L165">
+      <c r="O165">
+        <v>1.75</v>
+      </c>
+      <c r="P165">
+        <v>0.75</v>
+      </c>
+      <c r="Q165">
         <v>1.8</v>
       </c>
-      <c r="M165">
-        <v>2.875</v>
-      </c>
-      <c r="N165">
-        <v>3.4</v>
-      </c>
-      <c r="O165">
-        <v>2.15</v>
-      </c>
-      <c r="P165">
-        <v>0.25</v>
-      </c>
-      <c r="Q165">
-        <v>1.85</v>
-      </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T165">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V165">
         <v>-1</v>
       </c>
       <c r="W165">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y165">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -14726,7 +14726,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6940234</v>
+        <v>6941539</v>
       </c>
       <c r="C166" t="s">
         <v>27</v>
@@ -14735,76 +14735,76 @@
         <v>45312.5</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J166">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="K166">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L166">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N166">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O166">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="P166">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T166">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
         <v>-1</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X166">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:28">
@@ -14812,7 +14812,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6941539</v>
+        <v>6941538</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
@@ -14821,76 +14821,76 @@
         <v>45312.5</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J167">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="K167">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L167">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="M167">
-        <v>2.55</v>
+        <v>8.5</v>
       </c>
       <c r="N167">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O167">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="P167">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q167">
+        <v>1.875</v>
+      </c>
+      <c r="R167">
         <v>1.925</v>
-      </c>
-      <c r="R167">
-        <v>1.875</v>
       </c>
       <c r="S167">
         <v>2.5</v>
       </c>
       <c r="T167">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
         <v>-1</v>
       </c>
       <c r="W167">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y167">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14898,7 +14898,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6941537</v>
+        <v>6944657</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
@@ -14907,10 +14907,10 @@
         <v>45312.5</v>
       </c>
       <c r="E168" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14922,34 +14922,34 @@
         <v>48</v>
       </c>
       <c r="J168">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K168">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M168">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="N168">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O168">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T168">
         <v>1.9</v>
@@ -14958,7 +14958,7 @@
         <v>1.9</v>
       </c>
       <c r="V168">
-        <v>0.363</v>
+        <v>1.15</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -14967,10 +14967,10 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z168">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -14984,7 +14984,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6944657</v>
+        <v>6941537</v>
       </c>
       <c r="C169" t="s">
         <v>27</v>
@@ -14993,10 +14993,10 @@
         <v>45312.5</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15008,34 +15008,34 @@
         <v>48</v>
       </c>
       <c r="J169">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="K169">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L169">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M169">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="N169">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="P169">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q169">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T169">
         <v>1.9</v>
@@ -15044,7 +15044,7 @@
         <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.15</v>
+        <v>0.363</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15053,10 +15053,10 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA169">
         <v>-1</v>
@@ -15082,7 +15082,7 @@
         <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15168,7 +15168,7 @@
         <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15251,7 +15251,7 @@
         <v>45318.5</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F172" t="s">
         <v>41</v>
@@ -15337,7 +15337,7 @@
         <v>45318.5</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
         <v>45</v>
@@ -15423,10 +15423,10 @@
         <v>45318.5</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15512,7 +15512,7 @@
         <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -15672,7 +15672,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6940687</v>
+        <v>6941511</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15681,49 +15681,49 @@
         <v>45319.5</v>
       </c>
       <c r="E177" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="s">
         <v>49</v>
       </c>
       <c r="J177">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="K177">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L177">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="N177">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O177">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P177">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q177">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T177">
         <v>1.975</v>
@@ -15735,16 +15735,16 @@
         <v>-1</v>
       </c>
       <c r="W177">
-        <v>3.333</v>
+        <v>2.3</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -15758,7 +15758,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6941511</v>
+        <v>6940236</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15767,76 +15767,76 @@
         <v>45319.5</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K178">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N178">
         <v>3.3</v>
       </c>
       <c r="O178">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
         <v>-0.25</v>
       </c>
       <c r="Q178">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T178">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W178">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15844,7 +15844,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6940236</v>
+        <v>6940687</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15853,76 +15853,76 @@
         <v>45319.5</v>
       </c>
       <c r="E179" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J179">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="K179">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M179">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="N179">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O179">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="P179">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q179">
+        <v>1.75</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>2.75</v>
+      </c>
+      <c r="T179">
+        <v>1.975</v>
+      </c>
+      <c r="U179">
         <v>1.825</v>
       </c>
-      <c r="R179">
-        <v>1.975</v>
-      </c>
-      <c r="S179">
-        <v>2.25</v>
-      </c>
-      <c r="T179">
-        <v>1.75</v>
-      </c>
-      <c r="U179">
-        <v>1.95</v>
-      </c>
       <c r="V179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.95</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>0.825</v>
-      </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15942,7 +15942,7 @@
         <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -16025,10 +16025,10 @@
         <v>45332.60416666666</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16102,7 +16102,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7795953</v>
+        <v>7795954</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -16111,40 +16111,40 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
         <v>48</v>
       </c>
       <c r="J182">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K182">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N182">
         <v>3.25</v>
       </c>
       <c r="O182">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="P182">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q182">
         <v>1.775</v>
@@ -16156,13 +16156,13 @@
         <v>2.25</v>
       </c>
       <c r="T182">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16177,10 +16177,10 @@
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16188,7 +16188,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7795954</v>
+        <v>7795953</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16197,40 +16197,40 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="s">
         <v>48</v>
       </c>
       <c r="J183">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K183">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N183">
         <v>3.25</v>
       </c>
       <c r="O183">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="P183">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q183">
         <v>1.775</v>
@@ -16242,13 +16242,13 @@
         <v>2.25</v>
       </c>
       <c r="T183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16263,10 +16263,10 @@
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16369,7 +16369,7 @@
         <v>45339.5</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F185" t="s">
         <v>29</v>
@@ -16455,10 +16455,10 @@
         <v>45339.5</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16544,7 +16544,7 @@
         <v>28</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16627,10 +16627,10 @@
         <v>45339.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16799,7 +16799,7 @@
         <v>45340.5</v>
       </c>
       <c r="E190" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
         <v>37</v>
@@ -16885,10 +16885,10 @@
         <v>45340.5</v>
       </c>
       <c r="E191" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16974,7 +16974,7 @@
         <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -17057,10 +17057,10 @@
         <v>45340.66666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17143,7 +17143,7 @@
         <v>45346.5</v>
       </c>
       <c r="E194" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F194" t="s">
         <v>41</v>
@@ -17232,7 +17232,7 @@
         <v>29</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17315,10 +17315,10 @@
         <v>45346.5</v>
       </c>
       <c r="E196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17401,10 +17401,10 @@
         <v>45346.64583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17564,7 +17564,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7781120</v>
+        <v>7780979</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
@@ -17573,13 +17573,13 @@
         <v>45347.5</v>
       </c>
       <c r="E199" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -17588,43 +17588,43 @@
         <v>48</v>
       </c>
       <c r="J199">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="K199">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L199">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N199">
         <v>3.2</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="P199">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q199">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R199">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S199">
         <v>2.25</v>
       </c>
       <c r="T199">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -17633,16 +17633,16 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17650,7 +17650,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7781001</v>
+        <v>7781120</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17659,10 +17659,10 @@
         <v>45347.5</v>
       </c>
       <c r="E200" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17674,43 +17674,43 @@
         <v>48</v>
       </c>
       <c r="J200">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="K200">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L200">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="M200">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N200">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O200">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P200">
         <v>-0.25</v>
       </c>
       <c r="Q200">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S200">
         <v>2.25</v>
       </c>
       <c r="T200">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="W200">
         <v>-1</v>
@@ -17719,7 +17719,7 @@
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z200">
         <v>-1</v>
@@ -17728,7 +17728,7 @@
         <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17736,7 +17736,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7781000</v>
+        <v>7781001</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17745,10 +17745,10 @@
         <v>45347.5</v>
       </c>
       <c r="E201" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17760,43 +17760,43 @@
         <v>48</v>
       </c>
       <c r="J201">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="K201">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L201">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="M201">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="N201">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O201">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="P201">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q201">
+        <v>1.95</v>
+      </c>
+      <c r="R201">
+        <v>1.85</v>
+      </c>
+      <c r="S201">
+        <v>2.25</v>
+      </c>
+      <c r="T201">
         <v>1.825</v>
       </c>
-      <c r="R201">
+      <c r="U201">
         <v>1.975</v>
       </c>
-      <c r="S201">
-        <v>2.75</v>
-      </c>
-      <c r="T201">
-        <v>1.95</v>
-      </c>
-      <c r="U201">
-        <v>1.85</v>
-      </c>
       <c r="V201">
-        <v>0.181</v>
+        <v>1.25</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -17805,16 +17805,16 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
-      <c r="AB201">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17822,7 +17822,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7780999</v>
+        <v>7781000</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17831,58 +17831,58 @@
         <v>45347.5</v>
       </c>
       <c r="E202" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="s">
         <v>48</v>
       </c>
       <c r="J202">
-        <v>3.75</v>
+        <v>1.222</v>
       </c>
       <c r="K202">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L202">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="M202">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="N202">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O202">
-        <v>1.833</v>
+        <v>12</v>
       </c>
       <c r="P202">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q202">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T202">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>2.6</v>
+        <v>0.181</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -17891,16 +17891,16 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA202">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -17908,7 +17908,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7780979</v>
+        <v>7780999</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -17917,58 +17917,58 @@
         <v>45347.5</v>
       </c>
       <c r="E203" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="s">
         <v>48</v>
       </c>
       <c r="J203">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="K203">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L203">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="M203">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N203">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O203">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="P203">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q203">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R203">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
         <v>2.25</v>
       </c>
       <c r="T203">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U203">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V203">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -17977,16 +17977,16 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB203">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18003,10 +18003,10 @@
         <v>45353.5</v>
       </c>
       <c r="E204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F204" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18089,7 +18089,7 @@
         <v>45353.5</v>
       </c>
       <c r="E205" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F205" t="s">
         <v>37</v>
@@ -18178,7 +18178,7 @@
         <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G206">
         <v>4</v>
@@ -18261,10 +18261,10 @@
         <v>45353.5</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18433,7 +18433,7 @@
         <v>45353.66666666666</v>
       </c>
       <c r="E209" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
         <v>45</v>
@@ -18605,10 +18605,10 @@
         <v>45354.5</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18694,7 +18694,7 @@
         <v>40</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18777,10 +18777,10 @@
         <v>45354.60416666666</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18854,7 +18854,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7919765</v>
+        <v>7919768</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18863,76 +18863,76 @@
         <v>45360.5</v>
       </c>
       <c r="E214" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J214">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K214">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L214">
         <v>3.1</v>
       </c>
       <c r="M214">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N214">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
         <v>-0.25</v>
       </c>
       <c r="Q214">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S214">
         <v>2.25</v>
       </c>
       <c r="T214">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18949,10 +18949,10 @@
         <v>45360.5</v>
       </c>
       <c r="E215" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -19112,7 +19112,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7919768</v>
+        <v>7919765</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19121,76 +19121,76 @@
         <v>45360.5</v>
       </c>
       <c r="E217" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J217">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K217">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L217">
         <v>3.1</v>
       </c>
       <c r="M217">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N217">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O217">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P217">
         <v>-0.25</v>
       </c>
       <c r="Q217">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
         <v>2.25</v>
       </c>
       <c r="T217">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U217">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y217">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB217">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19296,7 +19296,7 @@
         <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19379,7 +19379,7 @@
         <v>45360.75</v>
       </c>
       <c r="E220" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F220" t="s">
         <v>28</v>
@@ -19465,10 +19465,10 @@
         <v>45361.5</v>
       </c>
       <c r="E221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -19554,7 +19554,7 @@
         <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19637,10 +19637,10 @@
         <v>45361.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19723,7 +19723,7 @@
         <v>45367.5</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F224" t="s">
         <v>42</v>
@@ -19809,7 +19809,7 @@
         <v>45367.5</v>
       </c>
       <c r="E225" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F225" t="s">
         <v>41</v>
@@ -19895,7 +19895,7 @@
         <v>45367.5</v>
       </c>
       <c r="E226" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F226" t="s">
         <v>29</v>
@@ -19984,7 +19984,7 @@
         <v>40</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -20067,7 +20067,7 @@
         <v>45368.33333333334</v>
       </c>
       <c r="E228" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F228" t="s">
         <v>28</v>
@@ -20144,7 +20144,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7781008</v>
+        <v>7780951</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -20156,73 +20156,73 @@
         <v>31</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J229">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="K229">
         <v>3.4</v>
       </c>
       <c r="L229">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N229">
+        <v>3.3</v>
+      </c>
+      <c r="O229">
         <v>3.8</v>
       </c>
-      <c r="O229">
-        <v>1.6</v>
-      </c>
       <c r="P229">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q229">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T229">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20230,7 +20230,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7781009</v>
+        <v>7781008</v>
       </c>
       <c r="C230" t="s">
         <v>27</v>
@@ -20239,13 +20239,13 @@
         <v>45368.5</v>
       </c>
       <c r="E230" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20254,40 +20254,40 @@
         <v>50</v>
       </c>
       <c r="J230">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="K230">
+        <v>3.4</v>
+      </c>
+      <c r="L230">
+        <v>1.833</v>
+      </c>
+      <c r="M230">
+        <v>5</v>
+      </c>
+      <c r="N230">
         <v>3.8</v>
       </c>
-      <c r="L230">
-        <v>5.5</v>
-      </c>
-      <c r="M230">
-        <v>1.55</v>
-      </c>
-      <c r="N230">
-        <v>4</v>
-      </c>
       <c r="O230">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="P230">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q230">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R230">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T230">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
         <v>-1</v>
@@ -20296,19 +20296,19 @@
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>4.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA230">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="231" spans="1:28">
@@ -20316,7 +20316,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7780951</v>
+        <v>7781009</v>
       </c>
       <c r="C231" t="s">
         <v>27</v>
@@ -20325,49 +20325,49 @@
         <v>45368.5</v>
       </c>
       <c r="E231" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J231">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="K231">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L231">
+        <v>5.5</v>
+      </c>
+      <c r="M231">
+        <v>1.55</v>
+      </c>
+      <c r="N231">
         <v>4</v>
       </c>
-      <c r="M231">
-        <v>1.909</v>
-      </c>
-      <c r="N231">
-        <v>3.3</v>
-      </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q231">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S231">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T231">
         <v>1.9</v>
@@ -20376,25 +20376,25 @@
         <v>1.9</v>
       </c>
       <c r="V231">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y231">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20411,10 +20411,10 @@
         <v>45368.66666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F232" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20497,10 +20497,10 @@
         <v>45374.33333333334</v>
       </c>
       <c r="E233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20586,7 +20586,7 @@
         <v>28</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>42</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -20755,10 +20755,10 @@
         <v>45381.5</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G236">
         <v>4</v>
@@ -20841,10 +20841,10 @@
         <v>45381.5</v>
       </c>
       <c r="E237" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F237" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -20927,10 +20927,10 @@
         <v>45381.5</v>
       </c>
       <c r="E238" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G238">
         <v>4</v>
@@ -21185,10 +21185,10 @@
         <v>45381.6875</v>
       </c>
       <c r="E241" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F241" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21274,7 +21274,7 @@
         <v>45</v>
       </c>
       <c r="F242" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -21360,7 +21360,7 @@
         <v>41</v>
       </c>
       <c r="F243" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21520,7 +21520,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7780990</v>
+        <v>7780957</v>
       </c>
       <c r="C245" t="s">
         <v>27</v>
@@ -21529,10 +21529,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E245" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21544,25 +21544,25 @@
         <v>48</v>
       </c>
       <c r="J245">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K245">
+        <v>3.2</v>
+      </c>
+      <c r="L245">
+        <v>3.3</v>
+      </c>
+      <c r="M245">
+        <v>2.2</v>
+      </c>
+      <c r="N245">
+        <v>3.1</v>
+      </c>
+      <c r="O245">
         <v>3</v>
       </c>
-      <c r="L245">
-        <v>2.625</v>
-      </c>
-      <c r="M245">
-        <v>1.909</v>
-      </c>
-      <c r="N245">
-        <v>3.2</v>
-      </c>
-      <c r="O245">
-        <v>3.75</v>
-      </c>
       <c r="P245">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q245">
         <v>2</v>
@@ -21571,7 +21571,7 @@
         <v>1.8</v>
       </c>
       <c r="S245">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T245">
         <v>1.95</v>
@@ -21580,7 +21580,7 @@
         <v>1.85</v>
       </c>
       <c r="V245">
-        <v>0.909</v>
+        <v>1.2</v>
       </c>
       <c r="W245">
         <v>-1</v>
@@ -21606,7 +21606,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7780957</v>
+        <v>7780990</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
@@ -21615,10 +21615,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21630,25 +21630,25 @@
         <v>48</v>
       </c>
       <c r="J246">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K246">
+        <v>3</v>
+      </c>
+      <c r="L246">
+        <v>2.625</v>
+      </c>
+      <c r="M246">
+        <v>1.909</v>
+      </c>
+      <c r="N246">
         <v>3.2</v>
       </c>
-      <c r="L246">
-        <v>3.3</v>
-      </c>
-      <c r="M246">
-        <v>2.2</v>
-      </c>
-      <c r="N246">
-        <v>3.1</v>
-      </c>
       <c r="O246">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P246">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -21657,7 +21657,7 @@
         <v>1.8</v>
       </c>
       <c r="S246">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T246">
         <v>1.95</v>
@@ -21666,7 +21666,7 @@
         <v>1.85</v>
       </c>
       <c r="V246">
-        <v>1.2</v>
+        <v>0.909</v>
       </c>
       <c r="W246">
         <v>-1</v>
@@ -21701,7 +21701,7 @@
         <v>45389.29166666666</v>
       </c>
       <c r="E247" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F247" t="s">
         <v>45</v>
@@ -21778,7 +21778,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>8039532</v>
+        <v>7781015</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -21787,73 +21787,73 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248" t="s">
+        <v>50</v>
+      </c>
+      <c r="J248">
+        <v>5.25</v>
+      </c>
+      <c r="K248">
         <v>4</v>
       </c>
-      <c r="H248">
-        <v>0</v>
-      </c>
-      <c r="I248" t="s">
-        <v>48</v>
-      </c>
-      <c r="J248">
+      <c r="L248">
+        <v>1.533</v>
+      </c>
+      <c r="M248">
+        <v>5.5</v>
+      </c>
+      <c r="N248">
+        <v>4.2</v>
+      </c>
+      <c r="O248">
+        <v>1.5</v>
+      </c>
+      <c r="P248">
+        <v>1</v>
+      </c>
+      <c r="Q248">
+        <v>1.975</v>
+      </c>
+      <c r="R248">
+        <v>1.825</v>
+      </c>
+      <c r="S248">
         <v>2.5</v>
       </c>
-      <c r="K248">
-        <v>3</v>
-      </c>
-      <c r="L248">
-        <v>2.625</v>
-      </c>
-      <c r="M248">
-        <v>2.5</v>
-      </c>
-      <c r="N248">
-        <v>2.9</v>
-      </c>
-      <c r="O248">
-        <v>2.7</v>
-      </c>
-      <c r="P248">
-        <v>0</v>
-      </c>
-      <c r="Q248">
-        <v>1.8</v>
-      </c>
-      <c r="R248">
-        <v>2</v>
-      </c>
-      <c r="S248">
-        <v>2.25</v>
-      </c>
       <c r="T248">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y248">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA248">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB248">
         <v>-1</v>
@@ -21864,7 +21864,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7781015</v>
+        <v>7780989</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -21876,73 +21876,73 @@
         <v>33</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G249">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J249">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="K249">
+        <v>3.25</v>
+      </c>
+      <c r="L249">
         <v>4</v>
       </c>
-      <c r="L249">
-        <v>1.533</v>
-      </c>
       <c r="M249">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N249">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O249">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="P249">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q249">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R249">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S249">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T249">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U249">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V249">
         <v>-1</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X249">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z249">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA249">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -21950,7 +21950,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7780989</v>
+        <v>8039532</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21959,76 +21959,76 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E250" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J250">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="K250">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="M250">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N250">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="P250">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q250">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R250">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S250">
         <v>2.25</v>
       </c>
       <c r="T250">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V250">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W250">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z250">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB250">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22048,7 +22048,7 @@
         <v>37</v>
       </c>
       <c r="F251" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -22134,7 +22134,7 @@
         <v>28</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G252">
         <v>4</v>
@@ -22217,10 +22217,10 @@
         <v>45389.64583333334</v>
       </c>
       <c r="E253" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F253" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -22303,7 +22303,7 @@
         <v>45395.29166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F254" t="s">
         <v>28</v>
@@ -22389,7 +22389,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E255" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F255" t="s">
         <v>36</v>
@@ -22466,7 +22466,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7780961</v>
+        <v>7781018</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22475,40 +22475,40 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E256" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J256">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="K256">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L256">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="M256">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="N256">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O256">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="P256">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q256">
         <v>1.825</v>
@@ -22517,34 +22517,34 @@
         <v>1.975</v>
       </c>
       <c r="S256">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T256">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V256">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z256">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA256">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22552,7 +22552,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7781018</v>
+        <v>7780961</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -22561,40 +22561,40 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E257" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I257" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J257">
+        <v>6</v>
+      </c>
+      <c r="K257">
+        <v>3.2</v>
+      </c>
+      <c r="L257">
         <v>1.571</v>
       </c>
-      <c r="K257">
-        <v>3.75</v>
-      </c>
-      <c r="L257">
-        <v>5</v>
-      </c>
       <c r="M257">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="N257">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="O257">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="P257">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q257">
         <v>1.825</v>
@@ -22603,34 +22603,34 @@
         <v>1.975</v>
       </c>
       <c r="S257">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T257">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U257">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V257">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -22650,7 +22650,7 @@
         <v>37</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22733,10 +22733,10 @@
         <v>45395.5625</v>
       </c>
       <c r="E259" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F259" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22822,7 +22822,7 @@
         <v>42</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>29</v>
       </c>
       <c r="F261" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G261">
         <v>4</v>
@@ -22991,7 +22991,7 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E262" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F262" t="s">
         <v>40</v>
@@ -23077,10 +23077,10 @@
         <v>45396.54166666666</v>
       </c>
       <c r="E263" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -23163,10 +23163,10 @@
         <v>45402.29166666666</v>
       </c>
       <c r="E264" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F264" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -23249,10 +23249,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E265" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -23338,7 +23338,7 @@
         <v>41</v>
       </c>
       <c r="F266" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23507,7 +23507,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E268" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F268" t="s">
         <v>29</v>
@@ -23593,7 +23593,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E269" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F269" t="s">
         <v>42</v>
@@ -23682,7 +23682,7 @@
         <v>40</v>
       </c>
       <c r="F270" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23765,10 +23765,10 @@
         <v>45410.29166666666</v>
       </c>
       <c r="E271" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -23851,7 +23851,7 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E272" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F272" t="s">
         <v>37</v>
@@ -23940,7 +23940,7 @@
         <v>36</v>
       </c>
       <c r="F273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -24014,7 +24014,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7781022</v>
+        <v>7780966</v>
       </c>
       <c r="C274" t="s">
         <v>27</v>
@@ -24023,55 +24023,55 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E274" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F274" t="s">
         <v>44</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="s">
         <v>50</v>
       </c>
       <c r="J274">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K274">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L274">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M274">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N274">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O274">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P274">
         <v>-0.25</v>
       </c>
       <c r="Q274">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R274">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S274">
         <v>2.25</v>
       </c>
       <c r="T274">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U274">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V274">
         <v>-1</v>
@@ -24080,19 +24080,19 @@
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB274">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:28">
@@ -24100,7 +24100,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7780966</v>
+        <v>7781022</v>
       </c>
       <c r="C275" t="s">
         <v>27</v>
@@ -24109,55 +24109,55 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E275" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F275" t="s">
         <v>46</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="s">
         <v>50</v>
       </c>
       <c r="J275">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K275">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L275">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M275">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N275">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O275">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P275">
         <v>-0.25</v>
       </c>
       <c r="Q275">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R275">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S275">
         <v>2.25</v>
       </c>
       <c r="T275">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U275">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V275">
         <v>-1</v>
@@ -24166,19 +24166,19 @@
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA275">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24281,10 +24281,10 @@
         <v>45410.625</v>
       </c>
       <c r="E277" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F277" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -24367,10 +24367,10 @@
         <v>45416.41666666666</v>
       </c>
       <c r="E278" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F278" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -24542,7 +24542,7 @@
         <v>29</v>
       </c>
       <c r="F280" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -24625,7 +24625,7 @@
         <v>45416.5</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F281" t="s">
         <v>36</v>
@@ -24714,7 +24714,7 @@
         <v>37</v>
       </c>
       <c r="F282" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G282">
         <v>5</v>
@@ -24797,10 +24797,10 @@
         <v>45416.5</v>
       </c>
       <c r="E283" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F283" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G283">
         <v>2</v>
@@ -24883,10 +24883,10 @@
         <v>45416.5</v>
       </c>
       <c r="E284" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F284" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -24969,7 +24969,7 @@
         <v>45416.5</v>
       </c>
       <c r="E285" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F285" t="s">
         <v>45</v>
@@ -25058,7 +25058,7 @@
         <v>28</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -25141,7 +25141,7 @@
         <v>45417.3125</v>
       </c>
       <c r="E287" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F287" t="s">
         <v>41</v>
@@ -25230,7 +25230,7 @@
         <v>45</v>
       </c>
       <c r="F288" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -25316,7 +25316,7 @@
         <v>28</v>
       </c>
       <c r="F289" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G289">
         <v>2</v>
@@ -25402,7 +25402,7 @@
         <v>41</v>
       </c>
       <c r="F290" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G290">
         <v>2</v>
@@ -25485,10 +25485,10 @@
         <v>45424.58333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F291" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25571,7 +25571,7 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E292" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F292" t="s">
         <v>45</v>
@@ -25657,7 +25657,7 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E293" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F293" t="s">
         <v>41</v>
@@ -25734,7 +25734,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7780974</v>
+        <v>7780975</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -25743,55 +25743,55 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E294" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I294" t="s">
         <v>50</v>
       </c>
       <c r="J294">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="K294">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L294">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="N294">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O294">
-        <v>1.42</v>
+        <v>3.3</v>
       </c>
       <c r="P294">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q294">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R294">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S294">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T294">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U294">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V294">
         <v>-1</v>
@@ -25800,19 +25800,19 @@
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>0.4199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB294">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -25820,7 +25820,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7780975</v>
+        <v>7780974</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -25829,55 +25829,55 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E295" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F295" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="s">
         <v>50</v>
       </c>
       <c r="J295">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="K295">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L295">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="M295">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="N295">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O295">
-        <v>3.3</v>
+        <v>1.42</v>
       </c>
       <c r="P295">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q295">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R295">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S295">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T295">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U295">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V295">
         <v>-1</v>
@@ -25886,19 +25886,19 @@
         <v>-1</v>
       </c>
       <c r="X295">
-        <v>2.3</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -103,16 +103,16 @@
     <t>Varzim</t>
   </si>
   <si>
-    <t>CF Canelas 2010</t>
+    <t>Oliveira Hospital</t>
+  </si>
+  <si>
+    <t>AD Fafe</t>
   </si>
   <si>
     <t>Lusitania Lourosa</t>
   </si>
   <si>
-    <t>Oliveira Hospital</t>
-  </si>
-  <si>
-    <t>AD Fafe</t>
+    <t>CF Canelas 2010</t>
   </si>
   <si>
     <t>Pero Pinheiro</t>
@@ -130,10 +130,10 @@
     <t>Sporting B</t>
   </si>
   <si>
-    <t>Braga B</t>
+    <t>AD Sanjoanense</t>
   </si>
   <si>
-    <t>AD Sanjoanense</t>
+    <t>Braga B</t>
   </si>
   <si>
     <t>Anadia</t>
@@ -151,13 +151,13 @@
     <t>SU 1 Dezembro</t>
   </si>
   <si>
-    <t>Felgueiras 1932</t>
+    <t>Atletico CP Lisbon</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
   </si>
   <si>
-    <t>Atletico CP Lisbon</t>
+    <t>Felgueiras 1932</t>
   </si>
   <si>
     <t>H</t>
@@ -634,7 +634,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6941478</v>
+        <v>6940674</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -720,73 +720,73 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3">
+        <v>3.1</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3">
-        <v>2.1</v>
-      </c>
-      <c r="K3">
-        <v>3.1</v>
-      </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
         <v>2.25</v>
       </c>
       <c r="T3">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6941476</v>
+        <v>6941477</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -806,73 +806,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>3.2</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N4">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O4">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
         <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
         <v>2.25</v>
       </c>
       <c r="T4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6940674</v>
+        <v>6941476</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -892,73 +892,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O5">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
         <v>2.25</v>
       </c>
       <c r="T5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
         <v>-1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6941477</v>
+        <v>6941478</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -978,73 +978,73 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K6">
+        <v>3.1</v>
+      </c>
+      <c r="L6">
         <v>3.2</v>
       </c>
-      <c r="L6">
-        <v>3.3</v>
-      </c>
       <c r="M6">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
         <v>-0.25</v>
       </c>
       <c r="Q6">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
         <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1150,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1482,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6940655</v>
+        <v>6941479</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1494,13 +1494,13 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
@@ -1509,37 +1509,37 @@
         <v>2.1</v>
       </c>
       <c r="K12">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O12">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R12">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
         <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
         <v>-1</v>
@@ -1548,19 +1548,19 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6941479</v>
+        <v>6940655</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1580,13 +1580,13 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>50</v>
@@ -1595,37 +1595,37 @@
         <v>2.1</v>
       </c>
       <c r="K13">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N13">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O13">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="P13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S13">
         <v>2.25</v>
       </c>
       <c r="T13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1634,19 +1634,19 @@
         <v>-1</v>
       </c>
       <c r="X13">
+        <v>1.75</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA13">
-        <v>-0.5</v>
-      </c>
-      <c r="AB13">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1666,7 +1666,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6944679</v>
+        <v>6941503</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2096,10 +2096,10 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2108,43 +2108,43 @@
         <v>48</v>
       </c>
       <c r="J19">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>3.1</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="N19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="P19">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q19">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
         <v>2.25</v>
       </c>
       <c r="T19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>0.6499999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2153,16 +2153,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
         <v>-0.5</v>
       </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2256,7 +2256,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6941503</v>
+        <v>6944679</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2268,10 +2268,10 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2280,43 +2280,43 @@
         <v>48</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K21">
         <v>3.1</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O21">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="P21">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
         <v>2.25</v>
       </c>
       <c r="T21">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>0.3999999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2325,16 +2325,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
+        <v>0.4125</v>
+      </c>
+      <c r="Z21">
+        <v>-0.5</v>
+      </c>
+      <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
         <v>0.95</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
-      <c r="AA21">
-        <v>-0.5</v>
-      </c>
-      <c r="AB21">
-        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2354,7 +2354,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>45157.5</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2695,7 +2695,7 @@
         <v>45158.5</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2858,7 +2858,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6941481</v>
+        <v>6941480</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2867,55 +2867,55 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
         <v>50</v>
       </c>
       <c r="J28">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K28">
         <v>3.1</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O28">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
         <v>2.25</v>
       </c>
       <c r="T28">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
         <v>-1</v>
@@ -2924,16 +2924,16 @@
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -2944,7 +2944,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6941480</v>
+        <v>6941481</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2953,55 +2953,55 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I29" t="s">
         <v>50</v>
       </c>
       <c r="J29">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K29">
         <v>3.1</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="P29">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
         <v>2.25</v>
       </c>
       <c r="T29">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V29">
         <v>-1</v>
@@ -3010,16 +3010,16 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3042,7 +3042,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3128,7 +3128,7 @@
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3297,7 +3297,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
@@ -3555,10 +3555,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3632,7 +3632,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6940233</v>
+        <v>6944658</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3641,40 +3641,40 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J37">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K37">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M37">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O37">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q37">
         <v>1.8</v>
@@ -3686,31 +3686,31 @@
         <v>2.25</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>-0.5</v>
       </c>
       <c r="AB37">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3727,7 +3727,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -3804,7 +3804,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6944658</v>
+        <v>6940233</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3813,40 +3813,40 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J39">
+        <v>2.2</v>
+      </c>
+      <c r="K39">
+        <v>3.1</v>
+      </c>
+      <c r="L39">
         <v>3</v>
       </c>
-      <c r="K39">
-        <v>3.3</v>
-      </c>
-      <c r="L39">
-        <v>2.1</v>
-      </c>
       <c r="M39">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N39">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O39">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="P39">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -3858,31 +3858,31 @@
         <v>2.25</v>
       </c>
       <c r="T39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X39">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3899,10 +3899,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3988,7 +3988,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4071,10 +4071,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4415,7 +4415,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>44</v>
@@ -4501,7 +4501,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -4587,10 +4587,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4845,10 +4845,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s">
         <v>38</v>
-      </c>
-      <c r="F51" t="s">
-        <v>39</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -4922,7 +4922,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6940220</v>
+        <v>6940660</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -4931,46 +4931,46 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J52">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="K52">
+        <v>3.1</v>
+      </c>
+      <c r="L52">
         <v>3.3</v>
       </c>
-      <c r="L52">
-        <v>4.8</v>
-      </c>
       <c r="M52">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N52">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="P52">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q52">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R52">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S52">
         <v>2.25</v>
@@ -4985,22 +4985,22 @@
         <v>-1</v>
       </c>
       <c r="W52">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5008,7 +5008,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6940660</v>
+        <v>6940220</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5017,46 +5017,46 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J53">
+        <v>1.666</v>
+      </c>
+      <c r="K53">
+        <v>3.3</v>
+      </c>
+      <c r="L53">
+        <v>4.8</v>
+      </c>
+      <c r="M53">
+        <v>1.6</v>
+      </c>
+      <c r="N53">
+        <v>3.5</v>
+      </c>
+      <c r="O53">
+        <v>6</v>
+      </c>
+      <c r="P53">
+        <v>-0.75</v>
+      </c>
+      <c r="Q53">
+        <v>1.75</v>
+      </c>
+      <c r="R53">
         <v>2.05</v>
-      </c>
-      <c r="K53">
-        <v>3.1</v>
-      </c>
-      <c r="L53">
-        <v>3.3</v>
-      </c>
-      <c r="M53">
-        <v>2.25</v>
-      </c>
-      <c r="N53">
-        <v>3.1</v>
-      </c>
-      <c r="O53">
-        <v>2.9</v>
-      </c>
-      <c r="P53">
-        <v>-0.25</v>
-      </c>
-      <c r="Q53">
-        <v>2.025</v>
-      </c>
-      <c r="R53">
-        <v>1.775</v>
       </c>
       <c r="S53">
         <v>2.25</v>
@@ -5071,22 +5071,22 @@
         <v>-1</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X53">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5103,7 +5103,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
@@ -5189,10 +5189,10 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5278,7 +5278,7 @@
         <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5361,7 +5361,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
         <v>33</v>
@@ -5705,10 +5705,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5791,7 +5791,7 @@
         <v>45199.5</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
         <v>43</v>
@@ -5954,7 +5954,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6941517</v>
+        <v>6944652</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5963,10 +5963,10 @@
         <v>45199.5</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5978,40 +5978,40 @@
         <v>50</v>
       </c>
       <c r="J64">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K64">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L64">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="M64">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N64">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O64">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="P64">
         <v>0.5</v>
       </c>
       <c r="Q64">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
         <v>2.25</v>
       </c>
       <c r="T64">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V64">
         <v>-1</v>
@@ -6020,16 +6020,16 @@
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>0.909</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6040,7 +6040,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6944652</v>
+        <v>6941517</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6049,10 +6049,10 @@
         <v>45199.5</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6064,40 +6064,40 @@
         <v>50</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L65">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="M65">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N65">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O65">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="P65">
         <v>0.5</v>
       </c>
       <c r="Q65">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R65">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
         <v>2.25</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
         <v>-1</v>
@@ -6106,16 +6106,16 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>0.7270000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6138,7 +6138,7 @@
         <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
         <v>34</v>
@@ -6307,10 +6307,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -6654,7 +6654,7 @@
         <v>42</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         <v>45206.5</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7084,7 +7084,7 @@
         <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7167,7 +7167,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
         <v>40</v>
@@ -7339,10 +7339,10 @@
         <v>45207.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6940666</v>
+        <v>6940665</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7600,73 +7600,73 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J83">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="K83">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="M83">
+        <v>5.25</v>
+      </c>
+      <c r="N83">
+        <v>3.6</v>
+      </c>
+      <c r="O83">
         <v>1.533</v>
       </c>
-      <c r="N83">
-        <v>3.75</v>
-      </c>
-      <c r="O83">
-        <v>5.5</v>
-      </c>
       <c r="P83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q83">
+        <v>1.825</v>
+      </c>
+      <c r="R83">
         <v>1.975</v>
-      </c>
-      <c r="R83">
-        <v>1.825</v>
       </c>
       <c r="S83">
         <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
         <v>-1</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X83">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7674,7 +7674,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6940665</v>
+        <v>6940666</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7686,73 +7686,73 @@
         <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J84">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="K84">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="M84">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="N84">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="P84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q84">
+        <v>1.975</v>
+      </c>
+      <c r="R84">
         <v>1.825</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V84">
         <v>-1</v>
       </c>
       <c r="W84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
         <v>0.825</v>
       </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7769,7 +7769,7 @@
         <v>45228.5</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
         <v>35</v>
@@ -7944,7 +7944,7 @@
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -8027,10 +8027,10 @@
         <v>45228.5</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8199,7 +8199,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
@@ -8288,7 +8288,7 @@
         <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>45234.5</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
         <v>28</v>
@@ -8546,7 +8546,7 @@
         <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>45235.5</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
         <v>36</v>
@@ -8706,7 +8706,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6944648</v>
+        <v>6944647</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8715,76 +8715,76 @@
         <v>45235.5</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J96">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K96">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="M96">
+        <v>1.4</v>
+      </c>
+      <c r="N96">
         <v>4.2</v>
       </c>
-      <c r="N96">
-        <v>3.4</v>
-      </c>
       <c r="O96">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="P96">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
         <v>2.5</v>
       </c>
       <c r="T96">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V96">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8792,7 +8792,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6944670</v>
+        <v>6944648</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8801,76 +8801,76 @@
         <v>45235.5</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J97">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="K97">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L97">
+        <v>1.909</v>
+      </c>
+      <c r="M97">
+        <v>4.2</v>
+      </c>
+      <c r="N97">
+        <v>3.4</v>
+      </c>
+      <c r="O97">
+        <v>1.727</v>
+      </c>
+      <c r="P97">
+        <v>0.5</v>
+      </c>
+      <c r="Q97">
+        <v>1.975</v>
+      </c>
+      <c r="R97">
+        <v>1.825</v>
+      </c>
+      <c r="S97">
         <v>2.5</v>
       </c>
-      <c r="M97">
-        <v>2.7</v>
-      </c>
-      <c r="N97">
-        <v>3.1</v>
-      </c>
-      <c r="O97">
-        <v>2.4</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>2.075</v>
-      </c>
-      <c r="R97">
-        <v>1.725</v>
-      </c>
-      <c r="S97">
-        <v>2.25</v>
-      </c>
       <c r="T97">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y97">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8878,7 +8878,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6944647</v>
+        <v>6944670</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8887,58 +8887,58 @@
         <v>45235.5</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="s">
         <v>48</v>
       </c>
       <c r="J98">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="M98">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O98">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="P98">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q98">
+        <v>2.075</v>
+      </c>
+      <c r="R98">
+        <v>1.725</v>
+      </c>
+      <c r="S98">
+        <v>2.25</v>
+      </c>
+      <c r="T98">
         <v>1.925</v>
       </c>
-      <c r="R98">
+      <c r="U98">
         <v>1.875</v>
       </c>
-      <c r="S98">
-        <v>2.5</v>
-      </c>
-      <c r="T98">
-        <v>1.775</v>
-      </c>
-      <c r="U98">
-        <v>2.025</v>
-      </c>
       <c r="V98">
-        <v>0.3999999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -8947,16 +8947,16 @@
         <v>-1</v>
       </c>
       <c r="Y98">
+        <v>1.075</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.925</v>
       </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
       <c r="AB98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8973,10 +8973,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9062,7 +9062,7 @@
         <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9148,7 +9148,7 @@
         <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9231,7 +9231,7 @@
         <v>45241.5</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F102" t="s">
         <v>43</v>
@@ -9575,10 +9575,10 @@
         <v>45242.5</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9661,10 +9661,10 @@
         <v>45242.5</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9747,7 +9747,7 @@
         <v>45242.5</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
         <v>40</v>
@@ -9922,7 +9922,7 @@
         <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>45261.5</v>
       </c>
       <c r="E111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
         <v>46</v>
@@ -10263,10 +10263,10 @@
         <v>45262.73958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10349,7 +10349,7 @@
         <v>45263.5</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
         <v>37</v>
@@ -10524,7 +10524,7 @@
         <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>45263.5</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
         <v>40</v>
@@ -10696,7 +10696,7 @@
         <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10782,7 +10782,7 @@
         <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10856,7 +10856,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6941497</v>
+        <v>6940226</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10865,76 +10865,76 @@
         <v>45268.5</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J121">
+        <v>1.8</v>
+      </c>
+      <c r="K121">
+        <v>3.4</v>
+      </c>
+      <c r="L121">
+        <v>4.2</v>
+      </c>
+      <c r="M121">
+        <v>2.05</v>
+      </c>
+      <c r="N121">
         <v>2.9</v>
       </c>
-      <c r="K121">
-        <v>3.2</v>
-      </c>
-      <c r="L121">
-        <v>2.25</v>
-      </c>
-      <c r="M121">
-        <v>2.8</v>
-      </c>
-      <c r="N121">
-        <v>3.1</v>
-      </c>
       <c r="O121">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q121">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R121">
+        <v>2.025</v>
+      </c>
+      <c r="S121">
         <v>1.75</v>
       </c>
-      <c r="S121">
-        <v>2.5</v>
-      </c>
       <c r="T121">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V121">
         <v>-1</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X121">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z121">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10942,7 +10942,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6940226</v>
+        <v>6941497</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10951,76 +10951,76 @@
         <v>45268.5</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J122">
+        <v>2.9</v>
+      </c>
+      <c r="K122">
+        <v>3.2</v>
+      </c>
+      <c r="L122">
+        <v>2.25</v>
+      </c>
+      <c r="M122">
+        <v>2.8</v>
+      </c>
+      <c r="N122">
+        <v>3.1</v>
+      </c>
+      <c r="O122">
+        <v>2.375</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>2.05</v>
+      </c>
+      <c r="R122">
+        <v>1.75</v>
+      </c>
+      <c r="S122">
+        <v>2.5</v>
+      </c>
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
         <v>1.8</v>
       </c>
-      <c r="K122">
-        <v>3.4</v>
-      </c>
-      <c r="L122">
-        <v>4.2</v>
-      </c>
-      <c r="M122">
-        <v>2.05</v>
-      </c>
-      <c r="N122">
-        <v>2.9</v>
-      </c>
-      <c r="O122">
-        <v>3.75</v>
-      </c>
-      <c r="P122">
-        <v>-0.25</v>
-      </c>
-      <c r="Q122">
-        <v>1.775</v>
-      </c>
-      <c r="R122">
-        <v>2.025</v>
-      </c>
-      <c r="S122">
-        <v>1.75</v>
-      </c>
-      <c r="T122">
-        <v>1.8</v>
-      </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
       <c r="V122">
         <v>-1</v>
       </c>
       <c r="W122">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
       <c r="AA122">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11040,7 +11040,7 @@
         <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11126,7 +11126,7 @@
         <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11553,10 +11553,10 @@
         <v>45270.60416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11983,10 +11983,10 @@
         <v>45276.72916666666</v>
       </c>
       <c r="E134" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -12060,7 +12060,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6941532</v>
+        <v>6941531</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12069,73 +12069,73 @@
         <v>45277.5</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J135">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="K135">
+        <v>3.6</v>
+      </c>
+      <c r="L135">
+        <v>1.666</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+      <c r="N135">
         <v>3.5</v>
       </c>
-      <c r="L135">
-        <v>4</v>
-      </c>
-      <c r="M135">
-        <v>1.727</v>
-      </c>
-      <c r="N135">
-        <v>3.6</v>
-      </c>
       <c r="O135">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="P135">
+        <v>0.75</v>
+      </c>
+      <c r="Q135">
+        <v>1.825</v>
+      </c>
+      <c r="R135">
+        <v>1.975</v>
+      </c>
+      <c r="S135">
+        <v>2.25</v>
+      </c>
+      <c r="T135">
+        <v>1.9</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>-1</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>0.75</v>
+      </c>
+      <c r="Y135">
         <v>-0.5</v>
       </c>
-      <c r="Q135">
-        <v>1.75</v>
-      </c>
-      <c r="R135">
-        <v>1.95</v>
-      </c>
-      <c r="S135">
-        <v>2.5</v>
-      </c>
-      <c r="T135">
-        <v>1.975</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>0.75</v>
-      </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12146,7 +12146,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6941531</v>
+        <v>6940696</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12155,37 +12155,37 @@
         <v>45277.5</v>
       </c>
       <c r="E136" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J136">
+        <v>3.1</v>
+      </c>
+      <c r="K136">
+        <v>3.25</v>
+      </c>
+      <c r="L136">
+        <v>2.1</v>
+      </c>
+      <c r="M136">
         <v>4.5</v>
       </c>
-      <c r="K136">
-        <v>3.6</v>
-      </c>
-      <c r="L136">
-        <v>1.666</v>
-      </c>
-      <c r="M136">
-        <v>4</v>
-      </c>
       <c r="N136">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O136">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="P136">
         <v>0.75</v>
@@ -12200,28 +12200,28 @@
         <v>2.25</v>
       </c>
       <c r="T136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V136">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12232,7 +12232,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6940696</v>
+        <v>6941532</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12241,73 +12241,73 @@
         <v>45277.5</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
         <v>48</v>
       </c>
       <c r="J137">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="K137">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L137">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="N137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O137">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="P137">
+        <v>-0.5</v>
+      </c>
+      <c r="Q137">
+        <v>1.75</v>
+      </c>
+      <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>2.5</v>
+      </c>
+      <c r="T137">
+        <v>1.975</v>
+      </c>
+      <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
         <v>0.75</v>
       </c>
-      <c r="Q137">
-        <v>1.825</v>
-      </c>
-      <c r="R137">
-        <v>1.975</v>
-      </c>
-      <c r="S137">
-        <v>2.25</v>
-      </c>
-      <c r="T137">
-        <v>2.025</v>
-      </c>
-      <c r="U137">
-        <v>1.775</v>
-      </c>
-      <c r="V137">
-        <v>3.5</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>0.825</v>
-      </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB137">
         <v>-1</v>
@@ -12327,10 +12327,10 @@
         <v>45277.5</v>
       </c>
       <c r="E138" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" t="s">
         <v>30</v>
-      </c>
-      <c r="F138" t="s">
-        <v>32</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12416,7 +12416,7 @@
         <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12499,7 +12499,7 @@
         <v>45277.66666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
         <v>40</v>
@@ -12585,10 +12585,10 @@
         <v>45296.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>45297.33333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F142" t="s">
         <v>28</v>
@@ -12760,7 +12760,7 @@
         <v>34</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12846,7 +12846,7 @@
         <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12929,7 +12929,7 @@
         <v>45298.5</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
         <v>41</v>
@@ -13006,7 +13006,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6940677</v>
+        <v>6941505</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -13015,76 +13015,76 @@
         <v>45298.5</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>2</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J146">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="K146">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L146">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N146">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O146">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="P146">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q146">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R146">
         <v>1.95</v>
       </c>
       <c r="S146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T146">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y146">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13092,7 +13092,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6941505</v>
+        <v>6940677</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13101,76 +13101,76 @@
         <v>45298.5</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G147">
         <v>2</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J147">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="K147">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L147">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="M147">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O147">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="P147">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q147">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R147">
         <v>1.95</v>
       </c>
       <c r="S147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>0.75</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.95</v>
-      </c>
-      <c r="AA147">
-        <v>0.8</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13359,10 +13359,10 @@
         <v>45303.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13445,7 +13445,7 @@
         <v>45304.5</v>
       </c>
       <c r="E151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
         <v>46</v>
@@ -13608,7 +13608,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6940680</v>
+        <v>6941535</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13617,76 +13617,76 @@
         <v>45304.5</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J153">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="K153">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L153">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="M153">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N153">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O153">
+        <v>1.6</v>
+      </c>
+      <c r="P153">
+        <v>0.75</v>
+      </c>
+      <c r="Q153">
+        <v>1.95</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
+        <v>2.5</v>
+      </c>
+      <c r="T153">
+        <v>1.925</v>
+      </c>
+      <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
+        <v>-1</v>
+      </c>
+      <c r="W153">
         <v>2.6</v>
       </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-      <c r="Q153">
-        <v>1.825</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
-      <c r="S153">
-        <v>2.25</v>
-      </c>
-      <c r="T153">
-        <v>1.825</v>
-      </c>
-      <c r="U153">
-        <v>1.975</v>
-      </c>
-      <c r="V153">
-        <v>1.45</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13694,7 +13694,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6941535</v>
+        <v>6940680</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13703,76 +13703,76 @@
         <v>45304.5</v>
       </c>
       <c r="E154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F154" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J154">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="K154">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L154">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="M154">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N154">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O154">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="P154">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T154">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W154">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13789,10 +13789,10 @@
         <v>45304.5</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G155">
         <v>4</v>
@@ -14050,7 +14050,7 @@
         <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14305,10 +14305,10 @@
         <v>45310.70833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14468,7 +14468,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6940682</v>
+        <v>6940234</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14477,76 +14477,76 @@
         <v>45312.5</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J163">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K163">
+        <v>3.3</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>4</v>
+      </c>
+      <c r="N163">
         <v>3.5</v>
       </c>
-      <c r="L163">
+      <c r="O163">
+        <v>1.75</v>
+      </c>
+      <c r="P163">
+        <v>0.75</v>
+      </c>
+      <c r="Q163">
         <v>1.8</v>
       </c>
-      <c r="M163">
-        <v>2.875</v>
-      </c>
-      <c r="N163">
-        <v>3.4</v>
-      </c>
-      <c r="O163">
-        <v>2.15</v>
-      </c>
-      <c r="P163">
-        <v>0.25</v>
-      </c>
-      <c r="Q163">
-        <v>1.85</v>
-      </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T163">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U163">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V163">
         <v>-1</v>
       </c>
       <c r="W163">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y163">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14554,7 +14554,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6940234</v>
+        <v>6940682</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14563,76 +14563,76 @@
         <v>45312.5</v>
       </c>
       <c r="E164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J164">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K164">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L164">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M164">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N164">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O164">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="P164">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q164">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T164">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
         <v>-1</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X164">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -14649,7 +14649,7 @@
         <v>45312.5</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F165" t="s">
         <v>42</v>
@@ -14735,10 +14735,10 @@
         <v>45312.5</v>
       </c>
       <c r="E166" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14993,7 +14993,7 @@
         <v>45312.5</v>
       </c>
       <c r="E169" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F169" t="s">
         <v>34</v>
@@ -15070,7 +15070,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7741482</v>
+        <v>7741481</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
@@ -15079,40 +15079,40 @@
         <v>45318.5</v>
       </c>
       <c r="E170" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J170">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="K170">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L170">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="M170">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="N170">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P170">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q170">
         <v>1.85</v>
@@ -15121,34 +15121,34 @@
         <v>1.95</v>
       </c>
       <c r="S170">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T170">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W170">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z170">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15156,7 +15156,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7741483</v>
+        <v>7741482</v>
       </c>
       <c r="C171" t="s">
         <v>27</v>
@@ -15165,49 +15165,49 @@
         <v>45318.5</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J171">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="K171">
         <v>3.75</v>
       </c>
       <c r="L171">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="M171">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="N171">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O171">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="P171">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q171">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R171">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T171">
         <v>1.925</v>
@@ -15219,22 +15219,22 @@
         <v>-1</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X171">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15242,7 +15242,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7741481</v>
+        <v>7741483</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
@@ -15251,76 +15251,76 @@
         <v>45318.5</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J172">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="K172">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L172">
-        <v>7.5</v>
+        <v>1.571</v>
       </c>
       <c r="M172">
-        <v>1.222</v>
+        <v>5.25</v>
       </c>
       <c r="N172">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O172">
-        <v>8</v>
+        <v>1.45</v>
       </c>
       <c r="P172">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="Q172">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S172">
         <v>2.75</v>
       </c>
       <c r="T172">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V172">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y172">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15340,7 +15340,7 @@
         <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15512,7 +15512,7 @@
         <v>28</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15595,10 +15595,10 @@
         <v>45319.5</v>
       </c>
       <c r="E176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15681,10 +15681,10 @@
         <v>45319.5</v>
       </c>
       <c r="E177" t="s">
+        <v>30</v>
+      </c>
+      <c r="F177" t="s">
         <v>32</v>
-      </c>
-      <c r="F177" t="s">
-        <v>29</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15770,7 +15770,7 @@
         <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15939,10 +15939,10 @@
         <v>45332.5</v>
       </c>
       <c r="E180" t="s">
+        <v>45</v>
+      </c>
+      <c r="F180" t="s">
         <v>47</v>
-      </c>
-      <c r="F180" t="s">
-        <v>45</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -16102,7 +16102,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7795953</v>
+        <v>7795954</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -16111,40 +16111,40 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F182" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
         <v>48</v>
       </c>
       <c r="J182">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K182">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="N182">
         <v>3.25</v>
       </c>
       <c r="O182">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="P182">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q182">
         <v>1.775</v>
@@ -16156,13 +16156,13 @@
         <v>2.25</v>
       </c>
       <c r="T182">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16177,10 +16177,10 @@
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16188,7 +16188,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7795954</v>
+        <v>7795953</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16197,40 +16197,40 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="s">
         <v>48</v>
       </c>
       <c r="J183">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K183">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="N183">
         <v>3.25</v>
       </c>
       <c r="O183">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="P183">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q183">
         <v>1.775</v>
@@ -16242,13 +16242,13 @@
         <v>2.25</v>
       </c>
       <c r="T183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16263,10 +16263,10 @@
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16283,10 +16283,10 @@
         <v>45339.5</v>
       </c>
       <c r="E184" t="s">
+        <v>30</v>
+      </c>
+      <c r="F184" t="s">
         <v>32</v>
-      </c>
-      <c r="F184" t="s">
-        <v>29</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16369,7 +16369,7 @@
         <v>45339.5</v>
       </c>
       <c r="E185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F185" t="s">
         <v>34</v>
@@ -16544,7 +16544,7 @@
         <v>28</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16627,7 +16627,7 @@
         <v>45339.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F188" t="s">
         <v>35</v>
@@ -16716,7 +16716,7 @@
         <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16888,7 +16888,7 @@
         <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -17060,7 +17060,7 @@
         <v>46</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17134,7 +17134,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7780941</v>
+        <v>7861630</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17143,73 +17143,73 @@
         <v>45346.5</v>
       </c>
       <c r="E194" t="s">
+        <v>34</v>
+      </c>
+      <c r="F194" t="s">
         <v>30</v>
       </c>
-      <c r="F194" t="s">
-        <v>35</v>
-      </c>
       <c r="G194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J194">
         <v>2.1</v>
       </c>
       <c r="K194">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L194">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N194">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O194">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P194">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q194">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S194">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T194">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U194">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA194">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17229,7 +17229,7 @@
         <v>45346.5</v>
       </c>
       <c r="E195" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F195" t="s">
         <v>41</v>
@@ -17306,7 +17306,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7861630</v>
+        <v>7780941</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17315,73 +17315,73 @@
         <v>45346.5</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J196">
         <v>2.1</v>
       </c>
       <c r="K196">
+        <v>3.25</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <v>3.3</v>
+      </c>
+      <c r="O196">
         <v>3.2</v>
       </c>
-      <c r="L196">
-        <v>3.1</v>
-      </c>
-      <c r="M196">
-        <v>1.666</v>
-      </c>
-      <c r="N196">
-        <v>3.4</v>
-      </c>
-      <c r="O196">
-        <v>4.5</v>
-      </c>
       <c r="P196">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q196">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T196">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB196">
         <v>-1</v>
@@ -17401,7 +17401,7 @@
         <v>45346.64583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F197" t="s">
         <v>46</v>
@@ -17490,7 +17490,7 @@
         <v>42</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17573,7 +17573,7 @@
         <v>45347.5</v>
       </c>
       <c r="E199" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F199" t="s">
         <v>28</v>
@@ -17822,7 +17822,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7780979</v>
+        <v>7780999</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17834,55 +17834,55 @@
         <v>29</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="s">
         <v>48</v>
       </c>
       <c r="J202">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="K202">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L202">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="M202">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N202">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O202">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="P202">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q202">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R202">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
         <v>2.25</v>
       </c>
       <c r="T202">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -17891,16 +17891,16 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB202">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -17908,7 +17908,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7780999</v>
+        <v>7780979</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -17917,58 +17917,58 @@
         <v>45347.5</v>
       </c>
       <c r="E203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="s">
         <v>48</v>
       </c>
       <c r="J203">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="K203">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L203">
+        <v>2.625</v>
+      </c>
+      <c r="M203">
+        <v>2.7</v>
+      </c>
+      <c r="N203">
+        <v>3.2</v>
+      </c>
+      <c r="O203">
+        <v>2.3</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>2</v>
+      </c>
+      <c r="R203">
         <v>1.8</v>
-      </c>
-      <c r="M203">
-        <v>3.6</v>
-      </c>
-      <c r="N203">
-        <v>3.4</v>
-      </c>
-      <c r="O203">
-        <v>1.833</v>
-      </c>
-      <c r="P203">
-        <v>0.5</v>
-      </c>
-      <c r="Q203">
-        <v>1.875</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
       </c>
       <c r="S203">
         <v>2.25</v>
       </c>
       <c r="T203">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V203">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -17977,16 +17977,16 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -17994,7 +17994,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7887077</v>
+        <v>7887076</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
@@ -18003,73 +18003,73 @@
         <v>45353.5</v>
       </c>
       <c r="E204" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J204">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="K204">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L204">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="M204">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N204">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O204">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="P204">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q204">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T204">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U204">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z204">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB204">
         <v>-1</v>
@@ -18080,7 +18080,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7887076</v>
+        <v>7887077</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
@@ -18089,73 +18089,73 @@
         <v>45353.5</v>
       </c>
       <c r="E205" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
         <v>4</v>
       </c>
-      <c r="H205">
-        <v>1</v>
-      </c>
       <c r="I205" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J205">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="K205">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="L205">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="M205">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N205">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O205">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="P205">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q205">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T205">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V205">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y205">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB205">
         <v>-1</v>
@@ -18175,10 +18175,10 @@
         <v>45353.5</v>
       </c>
       <c r="E206" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18264,7 +18264,7 @@
         <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18436,7 +18436,7 @@
         <v>46</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -18605,10 +18605,10 @@
         <v>45354.5</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18694,7 +18694,7 @@
         <v>40</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18780,7 +18780,7 @@
         <v>35</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18863,7 +18863,7 @@
         <v>45360.5</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F214" t="s">
         <v>44</v>
@@ -18940,7 +18940,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7919766</v>
+        <v>7919767</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -18949,19 +18949,19 @@
         <v>45360.5</v>
       </c>
       <c r="E215" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J215">
         <v>1.75</v>
@@ -18973,52 +18973,52 @@
         <v>4.2</v>
       </c>
       <c r="M215">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O215">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P215">
         <v>-0.5</v>
       </c>
       <c r="Q215">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
         <v>2.25</v>
       </c>
       <c r="T215">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U215">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
         <v>-1</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X215">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19026,7 +19026,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7919765</v>
+        <v>7919766</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19035,55 +19035,55 @@
         <v>45360.5</v>
       </c>
       <c r="E216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="s">
         <v>50</v>
       </c>
       <c r="J216">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="K216">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M216">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="N216">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O216">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P216">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S216">
         <v>2.25</v>
       </c>
       <c r="T216">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
         <v>-1</v>
@@ -19092,19 +19092,19 @@
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.3</v>
+        <v>3.333</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA216">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19112,7 +19112,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7919767</v>
+        <v>7919765</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19121,76 +19121,76 @@
         <v>45360.5</v>
       </c>
       <c r="E217" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I217" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J217">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="K217">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L217">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="N217">
+        <v>2.875</v>
+      </c>
+      <c r="O217">
         <v>3.3</v>
       </c>
-      <c r="O217">
-        <v>4.2</v>
-      </c>
       <c r="P217">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q217">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
         <v>2.25</v>
       </c>
       <c r="T217">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
         <v>-1</v>
       </c>
       <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
         <v>2.3</v>
       </c>
-      <c r="X217">
-        <v>-1</v>
-      </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB217">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19379,7 +19379,7 @@
         <v>45360.75</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F220" t="s">
         <v>28</v>
@@ -19465,7 +19465,7 @@
         <v>45361.5</v>
       </c>
       <c r="E221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F221" t="s">
         <v>35</v>
@@ -19637,10 +19637,10 @@
         <v>45361.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19714,7 +19714,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7947487</v>
+        <v>7947488</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -19723,76 +19723,76 @@
         <v>45367.5</v>
       </c>
       <c r="E224" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G224">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J224">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="K224">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L224">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="M224">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="N224">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O224">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="P224">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q224">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T224">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V224">
         <v>-1</v>
       </c>
       <c r="W224">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y224">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA224">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB224">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19800,7 +19800,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7947488</v>
+        <v>7947487</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19809,76 +19809,76 @@
         <v>45367.5</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G225">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J225">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="K225">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L225">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="M225">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O225">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="P225">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q225">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R225">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T225">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
         <v>-1</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X225">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z225">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19895,7 +19895,7 @@
         <v>45367.5</v>
       </c>
       <c r="E226" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F226" t="s">
         <v>42</v>
@@ -20144,7 +20144,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7781009</v>
+        <v>7780951</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -20153,49 +20153,49 @@
         <v>45368.5</v>
       </c>
       <c r="E229" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J229">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="K229">
+        <v>3.4</v>
+      </c>
+      <c r="L229">
+        <v>4</v>
+      </c>
+      <c r="M229">
+        <v>1.909</v>
+      </c>
+      <c r="N229">
+        <v>3.3</v>
+      </c>
+      <c r="O229">
         <v>3.8</v>
       </c>
-      <c r="L229">
-        <v>5.5</v>
-      </c>
-      <c r="M229">
-        <v>1.55</v>
-      </c>
-      <c r="N229">
-        <v>4</v>
-      </c>
-      <c r="O229">
-        <v>5.25</v>
-      </c>
       <c r="P229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q229">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R229">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T229">
         <v>1.9</v>
@@ -20204,25 +20204,25 @@
         <v>1.9</v>
       </c>
       <c r="V229">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA229">
-        <v>0.45</v>
-      </c>
       <c r="AB229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -20230,7 +20230,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7781008</v>
+        <v>7781009</v>
       </c>
       <c r="C230" t="s">
         <v>27</v>
@@ -20239,13 +20239,13 @@
         <v>45368.5</v>
       </c>
       <c r="E230" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20254,40 +20254,40 @@
         <v>50</v>
       </c>
       <c r="J230">
+        <v>1.55</v>
+      </c>
+      <c r="K230">
+        <v>3.8</v>
+      </c>
+      <c r="L230">
+        <v>5.5</v>
+      </c>
+      <c r="M230">
+        <v>1.55</v>
+      </c>
+      <c r="N230">
         <v>4</v>
       </c>
-      <c r="K230">
-        <v>3.4</v>
-      </c>
-      <c r="L230">
-        <v>1.833</v>
-      </c>
-      <c r="M230">
-        <v>5</v>
-      </c>
-      <c r="N230">
-        <v>3.8</v>
-      </c>
       <c r="O230">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="P230">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q230">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S230">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T230">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U230">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
         <v>-1</v>
@@ -20296,19 +20296,19 @@
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>0.6000000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB230">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="231" spans="1:28">
@@ -20316,7 +20316,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7780951</v>
+        <v>7781008</v>
       </c>
       <c r="C231" t="s">
         <v>27</v>
@@ -20325,76 +20325,76 @@
         <v>45368.5</v>
       </c>
       <c r="E231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F231" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J231">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="K231">
         <v>3.4</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="M231">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N231">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="P231">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q231">
+        <v>1.8</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>2.5</v>
+      </c>
+      <c r="T231">
         <v>1.925</v>
       </c>
-      <c r="R231">
+      <c r="U231">
         <v>1.875</v>
       </c>
-      <c r="S231">
-        <v>2.25</v>
-      </c>
-      <c r="T231">
-        <v>1.9</v>
-      </c>
-      <c r="U231">
-        <v>1.9</v>
-      </c>
       <c r="V231">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y231">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA231">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20411,10 +20411,10 @@
         <v>45368.66666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F232" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20583,10 +20583,10 @@
         <v>45381.5</v>
       </c>
       <c r="E234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G234">
         <v>4</v>
@@ -20672,7 +20672,7 @@
         <v>44</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20930,7 +20930,7 @@
         <v>42</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -21185,7 +21185,7 @@
         <v>45381.6875</v>
       </c>
       <c r="E241" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F241" t="s">
         <v>46</v>
@@ -21271,10 +21271,10 @@
         <v>45382.5</v>
       </c>
       <c r="E242" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -21360,7 +21360,7 @@
         <v>41</v>
       </c>
       <c r="F243" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21520,7 +21520,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7780990</v>
+        <v>7780957</v>
       </c>
       <c r="C245" t="s">
         <v>27</v>
@@ -21529,10 +21529,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E245" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21544,25 +21544,25 @@
         <v>48</v>
       </c>
       <c r="J245">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K245">
+        <v>3.2</v>
+      </c>
+      <c r="L245">
+        <v>3.3</v>
+      </c>
+      <c r="M245">
+        <v>2.2</v>
+      </c>
+      <c r="N245">
+        <v>3.1</v>
+      </c>
+      <c r="O245">
         <v>3</v>
       </c>
-      <c r="L245">
-        <v>2.625</v>
-      </c>
-      <c r="M245">
-        <v>1.909</v>
-      </c>
-      <c r="N245">
-        <v>3.2</v>
-      </c>
-      <c r="O245">
-        <v>3.75</v>
-      </c>
       <c r="P245">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q245">
         <v>2</v>
@@ -21571,7 +21571,7 @@
         <v>1.8</v>
       </c>
       <c r="S245">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T245">
         <v>1.95</v>
@@ -21580,7 +21580,7 @@
         <v>1.85</v>
       </c>
       <c r="V245">
-        <v>0.909</v>
+        <v>1.2</v>
       </c>
       <c r="W245">
         <v>-1</v>
@@ -21606,7 +21606,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7780957</v>
+        <v>7780990</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
@@ -21615,10 +21615,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21630,25 +21630,25 @@
         <v>48</v>
       </c>
       <c r="J246">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K246">
+        <v>3</v>
+      </c>
+      <c r="L246">
+        <v>2.625</v>
+      </c>
+      <c r="M246">
+        <v>1.909</v>
+      </c>
+      <c r="N246">
         <v>3.2</v>
       </c>
-      <c r="L246">
-        <v>3.3</v>
-      </c>
-      <c r="M246">
-        <v>2.2</v>
-      </c>
-      <c r="N246">
-        <v>3.1</v>
-      </c>
       <c r="O246">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P246">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q246">
         <v>2</v>
@@ -21657,7 +21657,7 @@
         <v>1.8</v>
       </c>
       <c r="S246">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T246">
         <v>1.95</v>
@@ -21666,7 +21666,7 @@
         <v>1.85</v>
       </c>
       <c r="V246">
-        <v>1.2</v>
+        <v>0.909</v>
       </c>
       <c r="W246">
         <v>-1</v>
@@ -21701,10 +21701,10 @@
         <v>45389.29166666666</v>
       </c>
       <c r="E247" t="s">
+        <v>47</v>
+      </c>
+      <c r="F247" t="s">
         <v>45</v>
-      </c>
-      <c r="F247" t="s">
-        <v>47</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21873,7 +21873,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F249" t="s">
         <v>43</v>
@@ -21959,10 +21959,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E250" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -22134,7 +22134,7 @@
         <v>28</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G252">
         <v>4</v>
@@ -22303,7 +22303,7 @@
         <v>45395.29166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F254" t="s">
         <v>28</v>
@@ -22389,7 +22389,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E255" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F255" t="s">
         <v>41</v>
@@ -22650,7 +22650,7 @@
         <v>37</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22736,7 +22736,7 @@
         <v>35</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22810,7 +22810,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7781126</v>
+        <v>7780991</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22819,40 +22819,40 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E260" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J260">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="K260">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L260">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M260">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="N260">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O260">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="P260">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q260">
         <v>1.9</v>
@@ -22864,31 +22864,31 @@
         <v>2.25</v>
       </c>
       <c r="T260">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U260">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V260">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W260">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB260">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -22896,7 +22896,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7780991</v>
+        <v>7781126</v>
       </c>
       <c r="C261" t="s">
         <v>27</v>
@@ -22905,40 +22905,40 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E261" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F261" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G261">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J261">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="K261">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L261">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M261">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="N261">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O261">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="P261">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q261">
         <v>1.9</v>
@@ -22950,31 +22950,31 @@
         <v>2.25</v>
       </c>
       <c r="T261">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U261">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V261">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA261">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:28">
@@ -22994,7 +22994,7 @@
         <v>42</v>
       </c>
       <c r="F262" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>45396.54166666666</v>
       </c>
       <c r="E263" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
         <v>46</v>
@@ -23166,7 +23166,7 @@
         <v>46</v>
       </c>
       <c r="F264" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -23252,7 +23252,7 @@
         <v>35</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -23338,7 +23338,7 @@
         <v>41</v>
       </c>
       <c r="F266" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23424,7 +23424,7 @@
         <v>28</v>
       </c>
       <c r="F267" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23507,7 +23507,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E268" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F268" t="s">
         <v>34</v>
@@ -23593,7 +23593,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E269" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F269" t="s">
         <v>42</v>
@@ -23682,7 +23682,7 @@
         <v>40</v>
       </c>
       <c r="F270" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23765,7 +23765,7 @@
         <v>45410.29166666666</v>
       </c>
       <c r="E271" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F271" t="s">
         <v>35</v>
@@ -24026,7 +24026,7 @@
         <v>36</v>
       </c>
       <c r="F274" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -24109,7 +24109,7 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E275" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F275" t="s">
         <v>46</v>
@@ -24281,10 +24281,10 @@
         <v>45410.625</v>
       </c>
       <c r="E277" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F277" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -24367,10 +24367,10 @@
         <v>45416.41666666666</v>
       </c>
       <c r="E278" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F278" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -24530,7 +24530,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7781023</v>
+        <v>7780995</v>
       </c>
       <c r="C280" t="s">
         <v>27</v>
@@ -24539,76 +24539,76 @@
         <v>45416.5</v>
       </c>
       <c r="E280" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G280">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J280">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="K280">
+        <v>3.6</v>
+      </c>
+      <c r="L280">
+        <v>3.8</v>
+      </c>
+      <c r="M280">
+        <v>1.666</v>
+      </c>
+      <c r="N280">
+        <v>3.75</v>
+      </c>
+      <c r="O280">
         <v>4.2</v>
       </c>
-      <c r="L280">
-        <v>7.5</v>
-      </c>
-      <c r="M280">
-        <v>1.363</v>
-      </c>
-      <c r="N280">
-        <v>4.2</v>
-      </c>
-      <c r="O280">
-        <v>7</v>
-      </c>
       <c r="P280">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q280">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R280">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S280">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T280">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U280">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V280">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W280">
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y280">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA280">
         <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:28">
@@ -24628,7 +24628,7 @@
         <v>35</v>
       </c>
       <c r="F281" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24702,7 +24702,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7780995</v>
+        <v>7781023</v>
       </c>
       <c r="C282" t="s">
         <v>27</v>
@@ -24714,73 +24714,73 @@
         <v>29</v>
       </c>
       <c r="F282" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J282">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="K282">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L282">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="M282">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="N282">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O282">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P282">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q282">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R282">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S282">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T282">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z282">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
         <v>-1</v>
       </c>
       <c r="AB282">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:28">
@@ -24886,7 +24886,7 @@
         <v>34</v>
       </c>
       <c r="F284" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -25058,7 +25058,7 @@
         <v>28</v>
       </c>
       <c r="F286" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -25227,10 +25227,10 @@
         <v>45424.29166666666</v>
       </c>
       <c r="E288" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F288" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -25485,10 +25485,10 @@
         <v>45424.58333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F291" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25562,7 +25562,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7780977</v>
+        <v>7780976</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -25571,76 +25571,76 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E292" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F292" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J292">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="K292">
+        <v>3.6</v>
+      </c>
+      <c r="L292">
         <v>4.5</v>
       </c>
-      <c r="L292">
-        <v>6</v>
-      </c>
       <c r="M292">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="N292">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="O292">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P292">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q292">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R292">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S292">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T292">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U292">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V292">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W292">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z292">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB292">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:28">
@@ -25660,7 +25660,7 @@
         <v>46</v>
       </c>
       <c r="F293" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -25734,7 +25734,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7780976</v>
+        <v>7780977</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -25743,76 +25743,76 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E294" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F294" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G294">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J294">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="K294">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L294">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M294">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="N294">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O294">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P294">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q294">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R294">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S294">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T294">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U294">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V294">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W294">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA294">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="295" spans="1:28">

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -109,19 +109,19 @@
     <t>Varzim</t>
   </si>
   <si>
-    <t>Academica</t>
-  </si>
-  <si>
     <t>Pero Pinheiro</t>
   </si>
   <si>
     <t>AD Fafe</t>
   </si>
   <si>
+    <t>CF Canelas 2010</t>
+  </si>
+  <si>
     <t>Oliveira Hospital</t>
   </si>
   <si>
-    <t>CF Canelas 2010</t>
+    <t>Academica</t>
   </si>
   <si>
     <t>Lusitania Lourosa</t>
@@ -157,22 +157,22 @@
     <t>Sporting Covilha</t>
   </si>
   <si>
+    <t>Amora</t>
+  </si>
+  <si>
     <t>Felgueiras 1932</t>
   </si>
   <si>
     <t>SU 1 Dezembro</t>
   </si>
   <si>
-    <t>Amora</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6944665</v>
+        <v>6944663</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -738,43 +738,43 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>51</v>
       </c>
       <c r="L3">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
         <v>3.3</v>
       </c>
       <c r="Q3">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="R3">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S3">
         <v>1.8</v>
@@ -786,19 +786,19 @@
         <v>2.25</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -807,10 +807,10 @@
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD3">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6944663</v>
+        <v>6941477</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -830,58 +830,58 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q4">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U4">
         <v>2.25</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -890,19 +890,19 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6941477</v>
+        <v>6941478</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -922,79 +922,79 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M5">
+        <v>3.1</v>
+      </c>
+      <c r="N5">
         <v>3.2</v>
       </c>
-      <c r="N5">
-        <v>3.3</v>
-      </c>
       <c r="O5">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="P5">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q5">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="R5">
         <v>-0.25</v>
       </c>
       <c r="S5">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U5">
         <v>2.25</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6">
         <v>3.1</v>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6941478</v>
+        <v>6944665</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1106,79 +1106,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="M7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="P7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="R7">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>2.25</v>
       </c>
       <c r="V7">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1198,7 +1198,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8">
         <v>3.3</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10">
         <v>1.833</v>
@@ -1474,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1566,7 +1566,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12">
         <v>2.1</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13">
         <v>2.1</v>
@@ -1750,7 +1750,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14">
         <v>2.375</v>
@@ -1842,7 +1842,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15">
         <v>1.8</v>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16">
         <v>2.7</v>
@@ -2026,7 +2026,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2198,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6944679</v>
+        <v>6940676</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2210,73 +2210,73 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L19">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N19">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O19">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="P19">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q19">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="R19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U19">
         <v>2.25</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W19">
         <v>1.95</v>
       </c>
       <c r="X19">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA19">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2290,7 +2290,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6941502</v>
+        <v>6944679</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2302,61 +2302,61 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>50</v>
       </c>
       <c r="L20">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M20">
+        <v>3.1</v>
+      </c>
+      <c r="N20">
         <v>3.2</v>
       </c>
-      <c r="N20">
-        <v>2.3</v>
-      </c>
       <c r="O20">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="R20">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U20">
         <v>2.25</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X20">
-        <v>2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2365,16 +2365,16 @@
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2382,7 +2382,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6940676</v>
+        <v>6941502</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2394,79 +2394,79 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L21">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N21">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U21">
         <v>2.25</v>
       </c>
       <c r="V21">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L22">
         <v>1.615</v>
@@ -2667,10 +2667,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2851,7 +2851,7 @@
         <v>45158.5</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L28">
         <v>2.1</v>
@@ -3127,10 +3127,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L29">
         <v>2.2</v>
@@ -3219,10 +3219,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30">
         <v>2.2</v>
@@ -3421,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L32">
         <v>2.1</v>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33">
         <v>2.1</v>
@@ -3590,7 +3590,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3679,7 +3679,7 @@
         <v>45165.5</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L35">
         <v>2.375</v>
@@ -3774,7 +3774,7 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L36">
         <v>2.2</v>
@@ -3863,7 +3863,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
         <v>46</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L37">
         <v>3</v>
@@ -3955,7 +3955,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -3973,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L38">
         <v>1.571</v>
@@ -4038,7 +4038,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6940657</v>
+        <v>6941483</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4047,7 +4047,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
         <v>33</v>
@@ -4056,73 +4056,73 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L39">
         <v>2.375</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N39">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q39">
+        <v>4.75</v>
+      </c>
+      <c r="R39">
+        <v>-0.75</v>
+      </c>
+      <c r="S39">
+        <v>1.85</v>
+      </c>
+      <c r="T39">
         <v>1.95</v>
       </c>
-      <c r="R39">
-        <v>0.5</v>
-      </c>
-      <c r="S39">
+      <c r="U39">
+        <v>2.5</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
         <v>1.8</v>
       </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>2.25</v>
-      </c>
-      <c r="V39">
-        <v>1.925</v>
-      </c>
-      <c r="W39">
-        <v>1.875</v>
-      </c>
       <c r="X39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y39">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
+        <v>0.425</v>
+      </c>
+      <c r="AB39">
+        <v>-0.5</v>
+      </c>
+      <c r="AC39">
+        <v>-1</v>
+      </c>
+      <c r="AD39">
         <v>0.8</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
-      <c r="AC39">
-        <v>-0.5</v>
-      </c>
-      <c r="AD39">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4130,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6941483</v>
+        <v>6940657</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4139,82 +4139,82 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L40">
         <v>2.375</v>
       </c>
       <c r="M40">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O40">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="R40">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X40">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>-0.5</v>
       </c>
-      <c r="AC40">
-        <v>-1</v>
-      </c>
       <c r="AD40">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4326,7 +4326,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L42">
         <v>3.75</v>
@@ -4406,7 +4406,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6940686</v>
+        <v>6940235</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4415,16 +4415,16 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4436,61 +4436,61 @@
         <v>51</v>
       </c>
       <c r="L43">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N43">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O43">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P43">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q43">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="R43">
         <v>-0.5</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD43">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4498,7 +4498,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6940235</v>
+        <v>6944655</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4507,10 +4507,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4519,49 +4519,49 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M44">
         <v>3.25</v>
       </c>
       <c r="N44">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O44">
         <v>1.8</v>
       </c>
       <c r="P44">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R44">
         <v>-0.5</v>
       </c>
       <c r="S44">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>1.95</v>
       </c>
       <c r="U44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4570,7 +4570,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4579,7 +4579,7 @@
         <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD44">
         <v>-1</v>
@@ -4590,7 +4590,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6944655</v>
+        <v>6941513</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4599,61 +4599,61 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L45">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="M45">
+        <v>3.2</v>
+      </c>
+      <c r="N45">
+        <v>2.4</v>
+      </c>
+      <c r="O45">
         <v>3.25</v>
       </c>
-      <c r="N45">
-        <v>4</v>
-      </c>
-      <c r="O45">
-        <v>1.8</v>
-      </c>
       <c r="P45">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U45">
         <v>2.25</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4662,16 +4662,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD45">
         <v>-1</v>
@@ -4682,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6941513</v>
+        <v>6941510</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -4691,16 +4691,16 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4709,61 +4709,61 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L46">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="M46">
         <v>3.2</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="P46">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S46">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U46">
         <v>2.25</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AD46">
         <v>-1</v>
@@ -4774,7 +4774,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6941510</v>
+        <v>6940686</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4783,82 +4783,82 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L47">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M47">
+        <v>3.1</v>
+      </c>
+      <c r="N47">
         <v>3.2</v>
       </c>
-      <c r="N47">
-        <v>2.9</v>
-      </c>
       <c r="O47">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="P47">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q47">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="R47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U47">
         <v>2.25</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X47">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD47">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -4875,7 +4875,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
         <v>44</v>
@@ -4967,7 +4967,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
         <v>36</v>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L49">
         <v>2.7</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L50">
         <v>3.6</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -5326,7 +5326,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6940660</v>
+        <v>6940220</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5335,52 +5335,52 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>52</v>
       </c>
       <c r="L53">
+        <v>1.666</v>
+      </c>
+      <c r="M53">
+        <v>3.3</v>
+      </c>
+      <c r="N53">
+        <v>4.8</v>
+      </c>
+      <c r="O53">
+        <v>1.6</v>
+      </c>
+      <c r="P53">
+        <v>3.5</v>
+      </c>
+      <c r="Q53">
+        <v>6</v>
+      </c>
+      <c r="R53">
+        <v>-0.75</v>
+      </c>
+      <c r="S53">
+        <v>1.75</v>
+      </c>
+      <c r="T53">
         <v>2.05</v>
-      </c>
-      <c r="M53">
-        <v>3.1</v>
-      </c>
-      <c r="N53">
-        <v>3.3</v>
-      </c>
-      <c r="O53">
-        <v>2.25</v>
-      </c>
-      <c r="P53">
-        <v>3.1</v>
-      </c>
-      <c r="Q53">
-        <v>2.9</v>
-      </c>
-      <c r="R53">
-        <v>-0.25</v>
-      </c>
-      <c r="S53">
-        <v>2.025</v>
-      </c>
-      <c r="T53">
-        <v>1.775</v>
       </c>
       <c r="U53">
         <v>2.25</v>
@@ -5395,22 +5395,22 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z53">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD53">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5418,7 +5418,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6940220</v>
+        <v>6940660</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5427,52 +5427,52 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="s">
         <v>51</v>
       </c>
       <c r="L54">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="M54">
+        <v>3.1</v>
+      </c>
+      <c r="N54">
         <v>3.3</v>
       </c>
-      <c r="N54">
-        <v>4.8</v>
-      </c>
       <c r="O54">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q54">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="R54">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S54">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="U54">
         <v>2.25</v>
@@ -5487,22 +5487,22 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD54">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5519,10 +5519,10 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5611,7 +5611,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
         <v>46</v>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L56">
         <v>4.333</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L57">
         <v>2.1</v>
@@ -5798,7 +5798,7 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L58">
         <v>1.444</v>
@@ -5887,7 +5887,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L59">
         <v>2.5</v>
@@ -5979,7 +5979,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
         <v>39</v>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L60">
         <v>3.3</v>
@@ -6071,7 +6071,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L62">
         <v>1.833</v>
@@ -6258,7 +6258,7 @@
         <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6347,7 +6347,7 @@
         <v>45199.5</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F64" t="s">
         <v>43</v>
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L64">
         <v>3.6</v>
@@ -6439,10 +6439,10 @@
         <v>45199.5</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6457,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L65">
         <v>4</v>
@@ -6531,7 +6531,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
         <v>37</v>
@@ -6706,7 +6706,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6944653</v>
+        <v>6940662</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6715,61 +6715,61 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>51</v>
+      </c>
+      <c r="L68">
+        <v>2.25</v>
+      </c>
+      <c r="M68">
         <v>3</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68" t="s">
-        <v>52</v>
-      </c>
-      <c r="L68">
-        <v>1.666</v>
-      </c>
-      <c r="M68">
-        <v>3.5</v>
-      </c>
       <c r="N68">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q68">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="R68">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S68">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U68">
         <v>2.25</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6778,19 +6778,19 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD68">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6798,7 +6798,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6940662</v>
+        <v>6944653</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6807,16 +6807,16 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6825,43 +6825,43 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L69">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="P69">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q69">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="R69">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T69">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U69">
         <v>2.25</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6870,19 +6870,19 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
+        <v>1.05</v>
+      </c>
+      <c r="AC69">
         <v>0.925</v>
       </c>
-      <c r="AC69">
-        <v>-0.5</v>
-      </c>
       <c r="AD69">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6991,7 +6991,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
         <v>46</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L71">
         <v>2.4</v>
@@ -7086,7 +7086,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L72">
         <v>4.75</v>
@@ -7285,7 +7285,7 @@
         <v>2</v>
       </c>
       <c r="K74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L74">
         <v>2.15</v>
@@ -7362,7 +7362,7 @@
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L75">
         <v>2.2</v>
@@ -7454,7 +7454,7 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L76">
         <v>1.571</v>
@@ -7727,11 +7727,11 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E79" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" t="s">
         <v>49</v>
       </c>
-      <c r="F79" t="s">
-        <v>48</v>
-      </c>
       <c r="G79">
         <v>0</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L79">
         <v>2.15</v>
@@ -7819,7 +7819,7 @@
         <v>45207.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
         <v>41</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L80">
         <v>3.2</v>
@@ -7914,7 +7914,7 @@
         <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6944650</v>
+        <v>6941523</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -8095,79 +8095,79 @@
         <v>45228.5</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L83">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
+        <v>1.75</v>
+      </c>
+      <c r="O83">
+        <v>5.25</v>
+      </c>
+      <c r="P83">
+        <v>4</v>
+      </c>
+      <c r="Q83">
+        <v>1.533</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1.9</v>
+      </c>
+      <c r="T83">
+        <v>1.9</v>
+      </c>
+      <c r="U83">
+        <v>2.5</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>1.875</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
         <v>3</v>
       </c>
-      <c r="O83">
-        <v>2.3</v>
-      </c>
-      <c r="P83">
-        <v>3.2</v>
-      </c>
-      <c r="Q83">
-        <v>2.8</v>
-      </c>
-      <c r="R83">
-        <v>-0.25</v>
-      </c>
-      <c r="S83">
-        <v>1.975</v>
-      </c>
-      <c r="T83">
-        <v>1.725</v>
-      </c>
-      <c r="U83">
-        <v>2.25</v>
-      </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
-      <c r="W83">
-        <v>1.95</v>
-      </c>
-      <c r="X83">
-        <v>1.3</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AD83">
         <v>-1</v>
@@ -8178,7 +8178,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6941522</v>
+        <v>6944650</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8187,49 +8187,49 @@
         <v>45228.5</v>
       </c>
       <c r="E84" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M84">
         <v>3.2</v>
       </c>
       <c r="N84">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O84">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="P84">
         <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S84">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>1.725</v>
@@ -8238,31 +8238,31 @@
         <v>2.25</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB84">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8270,7 +8270,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6941523</v>
+        <v>6941522</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8279,82 +8279,82 @@
         <v>45228.5</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="s">
         <v>51</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N85">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q85">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="R85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T85">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="U85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8371,10 +8371,10 @@
         <v>45228.5</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -8454,7 +8454,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6940666</v>
+        <v>6940665</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8463,82 +8463,82 @@
         <v>45228.5</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
         <v>52</v>
       </c>
       <c r="L87">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N87">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="O87">
+        <v>5.25</v>
+      </c>
+      <c r="P87">
+        <v>3.6</v>
+      </c>
+      <c r="Q87">
         <v>1.533</v>
       </c>
-      <c r="P87">
-        <v>3.75</v>
-      </c>
-      <c r="Q87">
-        <v>5.5</v>
-      </c>
       <c r="R87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S87">
+        <v>1.825</v>
+      </c>
+      <c r="T87">
         <v>1.975</v>
-      </c>
-      <c r="T87">
-        <v>1.825</v>
       </c>
       <c r="U87">
         <v>2.5</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z87">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8546,7 +8546,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6940665</v>
+        <v>6940666</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8555,82 +8555,82 @@
         <v>45228.5</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K88" t="s">
         <v>51</v>
       </c>
       <c r="L88">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="M88">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N88">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="O88">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="P88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q88">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="R88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S88">
+        <v>1.975</v>
+      </c>
+      <c r="T88">
         <v>1.825</v>
-      </c>
-      <c r="T88">
-        <v>1.975</v>
       </c>
       <c r="U88">
         <v>2.5</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.825</v>
       </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L89">
         <v>2.1</v>
@@ -8739,7 +8739,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -8923,7 +8923,7 @@
         <v>45234.5</v>
       </c>
       <c r="E92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -9110,7 +9110,7 @@
         <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -9199,10 +9199,10 @@
         <v>45235.5</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -9217,7 +9217,7 @@
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L95">
         <v>3.6</v>
@@ -9386,7 +9386,7 @@
         <v>42</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9401,7 +9401,7 @@
         <v>2</v>
       </c>
       <c r="K97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L97">
         <v>2.1</v>
@@ -9493,7 +9493,7 @@
         <v>2</v>
       </c>
       <c r="K98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -9567,7 +9567,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
         <v>36</v>
@@ -9662,7 +9662,7 @@
         <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9754,7 +9754,7 @@
         <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L101">
         <v>1.95</v>
@@ -9843,7 +9843,7 @@
         <v>45241.5</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
         <v>45</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L102">
         <v>4.2</v>
@@ -10030,7 +10030,7 @@
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L105">
         <v>2.1</v>
@@ -10211,7 +10211,7 @@
         <v>45242.5</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
         <v>40</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L106">
         <v>1.75</v>
@@ -10395,7 +10395,7 @@
         <v>45242.5</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -10413,7 +10413,7 @@
         <v>2</v>
       </c>
       <c r="K108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L108">
         <v>2.1</v>
@@ -10487,7 +10487,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
         <v>43</v>
@@ -10582,7 +10582,7 @@
         <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L110">
         <v>2.5</v>
@@ -10689,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L111">
         <v>2.2</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L112">
         <v>2</v>
@@ -10855,10 +10855,10 @@
         <v>45262.48958333334</v>
       </c>
       <c r="E113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L113">
         <v>3.1</v>
@@ -10947,10 +10947,10 @@
         <v>45262.73958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -11149,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L116">
         <v>3.4</v>
@@ -11214,7 +11214,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6940671</v>
+        <v>6941529</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11223,10 +11223,10 @@
         <v>45263.5</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -11238,67 +11238,67 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L117">
+        <v>1.95</v>
+      </c>
+      <c r="M117">
+        <v>3.3</v>
+      </c>
+      <c r="N117">
         <v>3.4</v>
       </c>
-      <c r="M117">
-        <v>3.4</v>
-      </c>
-      <c r="N117">
-        <v>1.909</v>
-      </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="R117">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD117">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11306,7 +11306,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6941529</v>
+        <v>6940671</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11315,10 +11315,10 @@
         <v>45263.5</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -11330,67 +11330,67 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L118">
+        <v>3.4</v>
+      </c>
+      <c r="M118">
+        <v>3.4</v>
+      </c>
+      <c r="N118">
+        <v>1.909</v>
+      </c>
+      <c r="O118">
+        <v>3.6</v>
+      </c>
+      <c r="P118">
+        <v>3.5</v>
+      </c>
+      <c r="Q118">
+        <v>1.8</v>
+      </c>
+      <c r="R118">
+        <v>0.5</v>
+      </c>
+      <c r="S118">
         <v>1.95</v>
       </c>
-      <c r="M118">
-        <v>3.3</v>
-      </c>
-      <c r="N118">
-        <v>3.4</v>
-      </c>
-      <c r="O118">
-        <v>2</v>
-      </c>
-      <c r="P118">
-        <v>3.25</v>
-      </c>
-      <c r="Q118">
-        <v>3.3</v>
-      </c>
-      <c r="R118">
-        <v>-0.25</v>
-      </c>
-      <c r="S118">
-        <v>1.825</v>
-      </c>
       <c r="T118">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD118">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11410,7 +11410,7 @@
         <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -11425,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L119">
         <v>1.55</v>
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L121">
         <v>1.8</v>
@@ -11683,7 +11683,7 @@
         <v>45268.5</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
         <v>41</v>
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L122">
         <v>2.9</v>
@@ -11870,7 +11870,7 @@
         <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L124">
         <v>4.5</v>
@@ -11959,7 +11959,7 @@
         <v>45269.5</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
         <v>43</v>
@@ -11977,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L125">
         <v>6</v>
@@ -12069,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L126">
         <v>2</v>
@@ -12143,7 +12143,7 @@
         <v>45269.72916666666</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
         <v>34</v>
@@ -12238,7 +12238,7 @@
         <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L128">
         <v>1.45</v>
@@ -12327,7 +12327,7 @@
         <v>45270.60416666666</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
         <v>40</v>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L129">
         <v>1.909</v>
@@ -12422,7 +12422,7 @@
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -12437,7 +12437,7 @@
         <v>2</v>
       </c>
       <c r="K130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L130">
         <v>1.5</v>
@@ -12511,7 +12511,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
         <v>39</v>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L131">
         <v>2.15</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L132">
         <v>1.7</v>
@@ -12713,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L133">
         <v>2.1</v>
@@ -12787,7 +12787,7 @@
         <v>45276.72916666666</v>
       </c>
       <c r="E134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F134" t="s">
         <v>40</v>
@@ -12971,7 +12971,7 @@
         <v>45277.5</v>
       </c>
       <c r="E136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F136" t="s">
         <v>45</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L136">
         <v>4.5</v>
@@ -13063,10 +13063,10 @@
         <v>45277.5</v>
       </c>
       <c r="E137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -13158,7 +13158,7 @@
         <v>44</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L138">
         <v>2.3</v>
@@ -13250,7 +13250,7 @@
         <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L139">
         <v>1.571</v>
@@ -13431,10 +13431,10 @@
         <v>45296.6875</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -13449,7 +13449,7 @@
         <v>2</v>
       </c>
       <c r="K141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L141">
         <v>3.4</v>
@@ -13523,7 +13523,7 @@
         <v>45297.33333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
         <v>30</v>
@@ -13633,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L143">
         <v>2.75</v>
@@ -13707,7 +13707,7 @@
         <v>45298.5</v>
       </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F144" t="s">
         <v>34</v>
@@ -13909,7 +13909,7 @@
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L146">
         <v>2.9</v>
@@ -14078,7 +14078,7 @@
         <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -14170,7 +14170,7 @@
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -14185,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L149">
         <v>2.375</v>
@@ -14262,7 +14262,7 @@
         <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -14277,7 +14277,7 @@
         <v>2</v>
       </c>
       <c r="K150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L150">
         <v>2.625</v>
@@ -14354,7 +14354,7 @@
         <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -14443,7 +14443,7 @@
         <v>45304.5</v>
       </c>
       <c r="E152" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F152" t="s">
         <v>45</v>
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L152">
         <v>3</v>
@@ -14526,7 +14526,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6944640</v>
+        <v>6940680</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14535,10 +14535,10 @@
         <v>45304.5</v>
       </c>
       <c r="E153" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -14556,31 +14556,31 @@
         <v>50</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="M153">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N153">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="P153">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q153">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="R153">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S153">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U153">
         <v>2.25</v>
@@ -14592,7 +14592,7 @@
         <v>1.975</v>
       </c>
       <c r="X153">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14601,7 +14601,7 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB153">
         <v>-1</v>
@@ -14710,7 +14710,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6940680</v>
+        <v>6941536</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14719,19 +14719,19 @@
         <v>45304.5</v>
       </c>
       <c r="E155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G155">
         <v>2</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -14740,43 +14740,43 @@
         <v>50</v>
       </c>
       <c r="L155">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="M155">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N155">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O155">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="P155">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q155">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="R155">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S155">
+        <v>1.95</v>
+      </c>
+      <c r="T155">
+        <v>1.85</v>
+      </c>
+      <c r="U155">
+        <v>2.5</v>
+      </c>
+      <c r="V155">
+        <v>1.975</v>
+      </c>
+      <c r="W155">
         <v>1.825</v>
       </c>
-      <c r="T155">
-        <v>1.975</v>
-      </c>
-      <c r="U155">
-        <v>2.25</v>
-      </c>
-      <c r="V155">
-        <v>1.825</v>
-      </c>
-      <c r="W155">
-        <v>1.975</v>
-      </c>
       <c r="X155">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y155">
         <v>-1</v>
@@ -14785,16 +14785,16 @@
         <v>-1</v>
       </c>
       <c r="AA155">
+        <v>0.95</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
+        <v>-1</v>
+      </c>
+      <c r="AD155">
         <v>0.825</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
-      <c r="AC155">
-        <v>0.825</v>
-      </c>
-      <c r="AD155">
-        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14802,7 +14802,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6941536</v>
+        <v>6944640</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14811,19 +14811,19 @@
         <v>45304.5</v>
       </c>
       <c r="E156" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>2</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -14832,43 +14832,43 @@
         <v>50</v>
       </c>
       <c r="L156">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="M156">
+        <v>3.5</v>
+      </c>
+      <c r="N156">
+        <v>1.7</v>
+      </c>
+      <c r="O156">
         <v>4</v>
       </c>
-      <c r="N156">
-        <v>6</v>
-      </c>
-      <c r="O156">
-        <v>1.4</v>
-      </c>
       <c r="P156">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q156">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="R156">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="S156">
+        <v>1.75</v>
+      </c>
+      <c r="T156">
         <v>1.95</v>
       </c>
-      <c r="T156">
-        <v>1.85</v>
-      </c>
       <c r="U156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V156">
+        <v>1.825</v>
+      </c>
+      <c r="W156">
         <v>1.975</v>
       </c>
-      <c r="W156">
-        <v>1.825</v>
-      </c>
       <c r="X156">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y156">
         <v>-1</v>
@@ -14877,16 +14877,16 @@
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14903,10 +14903,10 @@
         <v>45304.60416666666</v>
       </c>
       <c r="E157" t="s">
+        <v>35</v>
+      </c>
+      <c r="F157" t="s">
         <v>31</v>
-      </c>
-      <c r="F157" t="s">
-        <v>32</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -14998,7 +14998,7 @@
         <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -15013,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L158">
         <v>1.909</v>
@@ -15182,7 +15182,7 @@
         <v>46</v>
       </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -15274,7 +15274,7 @@
         <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -15289,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L161">
         <v>1.75</v>
@@ -15455,7 +15455,7 @@
         <v>45312.5</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
         <v>37</v>
@@ -15565,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L164">
         <v>3.3</v>
@@ -15639,10 +15639,10 @@
         <v>45312.5</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -15657,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L165">
         <v>2.6</v>
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L166">
         <v>3.75</v>
@@ -15823,7 +15823,7 @@
         <v>45312.5</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
         <v>38</v>
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L167">
         <v>5.25</v>
@@ -16007,7 +16007,7 @@
         <v>45312.5</v>
       </c>
       <c r="E169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F169" t="s">
         <v>44</v>
@@ -16099,7 +16099,7 @@
         <v>45318.5</v>
       </c>
       <c r="E170" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
         <v>45</v>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L170">
         <v>2.625</v>
@@ -16191,7 +16191,7 @@
         <v>45318.5</v>
       </c>
       <c r="E171" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F171" t="s">
         <v>43</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L171">
         <v>4.75</v>
@@ -16286,7 +16286,7 @@
         <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -16301,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L172">
         <v>1.571</v>
@@ -16470,7 +16470,7 @@
         <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -16550,7 +16550,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6941512</v>
+        <v>6944656</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16559,82 +16559,82 @@
         <v>45319.5</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L175">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N175">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="O175">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="P175">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q175">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="R175">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S175">
+        <v>1.85</v>
+      </c>
+      <c r="T175">
         <v>1.95</v>
-      </c>
-      <c r="T175">
-        <v>1.85</v>
       </c>
       <c r="U175">
         <v>2.5</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W175">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
         <v>-1</v>
       </c>
       <c r="AD175">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16642,7 +16642,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6941511</v>
+        <v>6941512</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16651,82 +16651,82 @@
         <v>45319.5</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="s">
         <v>51</v>
       </c>
       <c r="L176">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="M176">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N176">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="O176">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="P176">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q176">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="R176">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U176">
         <v>2.5</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16734,7 +16734,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6940687</v>
+        <v>6941511</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16743,55 +16743,55 @@
         <v>45319.5</v>
       </c>
       <c r="E177" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L177">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="M177">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="O177">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q177">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="R177">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S177">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V177">
         <v>1.975</v>
@@ -16803,16 +16803,16 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3.333</v>
+        <v>2.3</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16826,7 +16826,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6944656</v>
+        <v>6940236</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16835,10 +16835,10 @@
         <v>45319.5</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -16847,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -16856,43 +16856,43 @@
         <v>50</v>
       </c>
       <c r="L178">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M178">
+        <v>3.5</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178">
+        <v>2.05</v>
+      </c>
+      <c r="P178">
         <v>3.3</v>
       </c>
-      <c r="N178">
-        <v>3.25</v>
-      </c>
-      <c r="O178">
-        <v>1.833</v>
-      </c>
-      <c r="P178">
-        <v>3.5</v>
-      </c>
       <c r="Q178">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R178">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T178">
+        <v>1.975</v>
+      </c>
+      <c r="U178">
+        <v>2.25</v>
+      </c>
+      <c r="V178">
+        <v>1.75</v>
+      </c>
+      <c r="W178">
         <v>1.95</v>
       </c>
-      <c r="U178">
-        <v>2.5</v>
-      </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
-      <c r="W178">
-        <v>1.975</v>
-      </c>
       <c r="X178">
-        <v>0.833</v>
+        <v>1.05</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16901,7 +16901,7 @@
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB178">
         <v>-1</v>
@@ -16910,7 +16910,7 @@
         <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -16918,7 +16918,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6940236</v>
+        <v>6940687</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16927,82 +16927,82 @@
         <v>45319.5</v>
       </c>
       <c r="E179" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L179">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="M179">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N179">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O179">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="P179">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="R179">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S179">
+        <v>1.75</v>
+      </c>
+      <c r="T179">
+        <v>1.95</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
+        <v>1.975</v>
+      </c>
+      <c r="W179">
         <v>1.825</v>
       </c>
-      <c r="T179">
-        <v>1.975</v>
-      </c>
-      <c r="U179">
-        <v>2.25</v>
-      </c>
-      <c r="V179">
-        <v>1.75</v>
-      </c>
-      <c r="W179">
-        <v>1.95</v>
-      </c>
       <c r="X179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>0.95</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
+      </c>
+      <c r="AD179">
         <v>0.825</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
-      </c>
-      <c r="AD179">
-        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -17022,7 +17022,7 @@
         <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L180">
         <v>2.5</v>
@@ -17111,7 +17111,7 @@
         <v>45332.60416666666</v>
       </c>
       <c r="E181" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F181" t="s">
         <v>46</v>
@@ -17129,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L181">
         <v>2.25</v>
@@ -17405,7 +17405,7 @@
         <v>2</v>
       </c>
       <c r="K184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L184">
         <v>3.1</v>
@@ -17571,10 +17571,10 @@
         <v>45339.5</v>
       </c>
       <c r="E186" t="s">
+        <v>32</v>
+      </c>
+      <c r="F186" t="s">
         <v>33</v>
-      </c>
-      <c r="F186" t="s">
-        <v>35</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -17755,10 +17755,10 @@
         <v>45339.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -17773,7 +17773,7 @@
         <v>1</v>
       </c>
       <c r="K188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L188">
         <v>1.615</v>
@@ -17939,7 +17939,7 @@
         <v>45340.5</v>
       </c>
       <c r="E190" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
         <v>39</v>
@@ -17957,7 +17957,7 @@
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L190">
         <v>3.75</v>
@@ -18031,7 +18031,7 @@
         <v>45340.5</v>
       </c>
       <c r="E191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F191" t="s">
         <v>34</v>
@@ -18126,7 +18126,7 @@
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -18233,7 +18233,7 @@
         <v>0</v>
       </c>
       <c r="K193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L193">
         <v>2.25</v>
@@ -18310,7 +18310,7 @@
         <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -18325,7 +18325,7 @@
         <v>2</v>
       </c>
       <c r="K194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L194">
         <v>2.1</v>
@@ -18399,7 +18399,7 @@
         <v>45346.5</v>
       </c>
       <c r="E195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F195" t="s">
         <v>43</v>
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="K195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L195">
         <v>1.909</v>
@@ -18494,7 +18494,7 @@
         <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -18601,7 +18601,7 @@
         <v>0</v>
       </c>
       <c r="K197" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L197">
         <v>2.3</v>
@@ -18666,7 +18666,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7780979</v>
+        <v>7781120</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18675,19 +18675,19 @@
         <v>45347.5</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -18696,43 +18696,43 @@
         <v>50</v>
       </c>
       <c r="L198">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="M198">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N198">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O198">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="P198">
         <v>3.2</v>
       </c>
       <c r="Q198">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="R198">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T198">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U198">
         <v>2.25</v>
       </c>
       <c r="V198">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X198">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18741,16 +18741,16 @@
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD198">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18758,7 +18758,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7781120</v>
+        <v>7780979</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
@@ -18767,19 +18767,19 @@
         <v>45347.5</v>
       </c>
       <c r="E199" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -18788,43 +18788,43 @@
         <v>50</v>
       </c>
       <c r="L199">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="M199">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N199">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="O199">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="P199">
         <v>3.2</v>
       </c>
       <c r="Q199">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="R199">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S199">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U199">
         <v>2.25</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W199">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X199">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18833,16 +18833,16 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD199">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -18954,7 +18954,7 @@
         <v>39</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -19043,10 +19043,10 @@
         <v>45347.5</v>
       </c>
       <c r="E202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F202" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -19230,7 +19230,7 @@
         <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G204">
         <v>4</v>
@@ -19319,7 +19319,7 @@
         <v>45353.5</v>
       </c>
       <c r="E205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F205" t="s">
         <v>39</v>
@@ -19337,7 +19337,7 @@
         <v>0</v>
       </c>
       <c r="K205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L205">
         <v>4</v>
@@ -19414,7 +19414,7 @@
         <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -19503,7 +19503,7 @@
         <v>45353.5</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F207" t="s">
         <v>34</v>
@@ -19613,7 +19613,7 @@
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L208">
         <v>2.15</v>
@@ -19705,7 +19705,7 @@
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L209">
         <v>2.375</v>
@@ -19797,7 +19797,7 @@
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L210">
         <v>3.4</v>
@@ -19862,7 +19862,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7887078</v>
+        <v>7887079</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19871,82 +19871,82 @@
         <v>45354.5</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K211" t="s">
         <v>51</v>
       </c>
       <c r="L211">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N211">
+        <v>3.4</v>
+      </c>
+      <c r="O211">
+        <v>1.95</v>
+      </c>
+      <c r="P211">
+        <v>3.25</v>
+      </c>
+      <c r="Q211">
+        <v>3.4</v>
+      </c>
+      <c r="R211">
+        <v>-0.25</v>
+      </c>
+      <c r="S211">
+        <v>1.725</v>
+      </c>
+      <c r="T211">
+        <v>1.975</v>
+      </c>
+      <c r="U211">
         <v>2.5</v>
       </c>
-      <c r="O211">
-        <v>3.1</v>
-      </c>
-      <c r="P211">
-        <v>3</v>
-      </c>
-      <c r="Q211">
-        <v>2.15</v>
-      </c>
-      <c r="R211">
-        <v>0.25</v>
-      </c>
-      <c r="S211">
-        <v>1.85</v>
-      </c>
-      <c r="T211">
-        <v>1.95</v>
-      </c>
-      <c r="U211">
-        <v>2.25</v>
-      </c>
       <c r="V211">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W211">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA211">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC211">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD211">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -19954,7 +19954,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7887079</v>
+        <v>7887078</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19963,82 +19963,82 @@
         <v>45354.5</v>
       </c>
       <c r="E212" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F212" t="s">
         <v>33</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K212" t="s">
         <v>52</v>
       </c>
       <c r="L212">
+        <v>2.625</v>
+      </c>
+      <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
+        <v>2.5</v>
+      </c>
+      <c r="O212">
+        <v>3.1</v>
+      </c>
+      <c r="P212">
+        <v>3</v>
+      </c>
+      <c r="Q212">
+        <v>2.15</v>
+      </c>
+      <c r="R212">
+        <v>0.25</v>
+      </c>
+      <c r="S212">
+        <v>1.85</v>
+      </c>
+      <c r="T212">
         <v>1.95</v>
       </c>
-      <c r="M212">
-        <v>3.25</v>
-      </c>
-      <c r="N212">
-        <v>3.4</v>
-      </c>
-      <c r="O212">
+      <c r="U212">
+        <v>2.25</v>
+      </c>
+      <c r="V212">
         <v>1.95</v>
       </c>
-      <c r="P212">
-        <v>3.25</v>
-      </c>
-      <c r="Q212">
-        <v>3.4</v>
-      </c>
-      <c r="R212">
-        <v>-0.25</v>
-      </c>
-      <c r="S212">
-        <v>1.725</v>
-      </c>
-      <c r="T212">
-        <v>1.975</v>
-      </c>
-      <c r="U212">
-        <v>2.5</v>
-      </c>
-      <c r="V212">
-        <v>2</v>
-      </c>
       <c r="W212">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z212">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB212">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD212">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20055,7 +20055,7 @@
         <v>45354.60416666666</v>
       </c>
       <c r="E213" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F213" t="s">
         <v>41</v>
@@ -20073,7 +20073,7 @@
         <v>2</v>
       </c>
       <c r="K213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L213">
         <v>2</v>
@@ -20147,7 +20147,7 @@
         <v>45360.5</v>
       </c>
       <c r="E214" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F214" t="s">
         <v>44</v>
@@ -20165,7 +20165,7 @@
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L214">
         <v>2.2</v>
@@ -20239,7 +20239,7 @@
         <v>45360.5</v>
       </c>
       <c r="E215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F215" t="s">
         <v>40</v>
@@ -20257,7 +20257,7 @@
         <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L215">
         <v>1.75</v>
@@ -20334,7 +20334,7 @@
         <v>34</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -20441,7 +20441,7 @@
         <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L217">
         <v>1.75</v>
@@ -20699,7 +20699,7 @@
         <v>45360.75</v>
       </c>
       <c r="E220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F220" t="s">
         <v>30</v>
@@ -20794,7 +20794,7 @@
         <v>45</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -20809,7 +20809,7 @@
         <v>1</v>
       </c>
       <c r="K221" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L221">
         <v>2.15</v>
@@ -20883,10 +20883,10 @@
         <v>45361.5</v>
       </c>
       <c r="E222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F222" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -20901,7 +20901,7 @@
         <v>1</v>
       </c>
       <c r="K222" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L222">
         <v>3.3</v>
@@ -20993,7 +20993,7 @@
         <v>0</v>
       </c>
       <c r="K223" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L223">
         <v>2.7</v>
@@ -21067,7 +21067,7 @@
         <v>45367.5</v>
       </c>
       <c r="E224" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F224" t="s">
         <v>44</v>
@@ -21177,7 +21177,7 @@
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L225">
         <v>1.6</v>
@@ -21251,7 +21251,7 @@
         <v>45367.5</v>
       </c>
       <c r="E226" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F226" t="s">
         <v>37</v>
@@ -21269,7 +21269,7 @@
         <v>1</v>
       </c>
       <c r="K226" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L226">
         <v>2.8</v>
@@ -21343,7 +21343,7 @@
         <v>45367.5</v>
       </c>
       <c r="E227" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
         <v>43</v>
@@ -21361,7 +21361,7 @@
         <v>0</v>
       </c>
       <c r="K227" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L227">
         <v>2.625</v>
@@ -21453,7 +21453,7 @@
         <v>1</v>
       </c>
       <c r="K228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L228">
         <v>2.25</v>
@@ -21637,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="K230" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L230">
         <v>4</v>
@@ -21714,7 +21714,7 @@
         <v>38</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -21729,7 +21729,7 @@
         <v>1</v>
       </c>
       <c r="K231" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L231">
         <v>1.55</v>
@@ -21806,7 +21806,7 @@
         <v>41</v>
       </c>
       <c r="F232" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -21895,10 +21895,10 @@
         <v>45374.33333333334</v>
       </c>
       <c r="E233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -21913,7 +21913,7 @@
         <v>1</v>
       </c>
       <c r="K233" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L233">
         <v>2.9</v>
@@ -21987,10 +21987,10 @@
         <v>45381.5</v>
       </c>
       <c r="E234" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G234">
         <v>4</v>
@@ -22079,7 +22079,7 @@
         <v>45381.5</v>
       </c>
       <c r="E235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F235" t="s">
         <v>34</v>
@@ -22174,7 +22174,7 @@
         <v>40</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G236">
         <v>4</v>
@@ -22266,7 +22266,7 @@
         <v>44</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -22281,7 +22281,7 @@
         <v>0</v>
       </c>
       <c r="K237" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L237">
         <v>2.15</v>
@@ -22373,7 +22373,7 @@
         <v>0</v>
       </c>
       <c r="K238" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L238">
         <v>2.6</v>
@@ -22450,7 +22450,7 @@
         <v>30</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="K239" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L239">
         <v>2.2</v>
@@ -22631,7 +22631,7 @@
         <v>45381.6875</v>
       </c>
       <c r="E241" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F241" t="s">
         <v>46</v>
@@ -22741,7 +22741,7 @@
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L242">
         <v>2.25</v>
@@ -23091,7 +23091,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F246" t="s">
         <v>42</v>
@@ -23183,7 +23183,7 @@
         <v>45389.29166666666</v>
       </c>
       <c r="E247" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F247" t="s">
         <v>45</v>
@@ -23266,7 +23266,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7780989</v>
+        <v>7781015</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23275,82 +23275,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G248">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K248" t="s">
         <v>51</v>
       </c>
       <c r="L248">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="M248">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N248">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O248">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="P248">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q248">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="R248">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S248">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T248">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U248">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V248">
+        <v>1.775</v>
+      </c>
+      <c r="W248">
         <v>1.925</v>
       </c>
-      <c r="W248">
-        <v>1.875</v>
-      </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA248">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB248">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC248">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD248">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23358,7 +23358,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7781015</v>
+        <v>7780989</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23367,82 +23367,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F249" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G249">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249" t="s">
         <v>52</v>
       </c>
       <c r="L249">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="M249">
+        <v>3.25</v>
+      </c>
+      <c r="N249">
         <v>4</v>
       </c>
-      <c r="N249">
-        <v>1.533</v>
-      </c>
       <c r="O249">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="P249">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q249">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="R249">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S249">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T249">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U249">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V249">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W249">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z249">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB249">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC249">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD249">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23462,7 +23462,7 @@
         <v>34</v>
       </c>
       <c r="F250" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G250">
         <v>4</v>
@@ -23554,7 +23554,7 @@
         <v>39</v>
       </c>
       <c r="F251" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="K251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L251">
         <v>1.533</v>
@@ -23738,7 +23738,7 @@
         <v>46</v>
       </c>
       <c r="F253" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="K253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L253">
         <v>2.3</v>
@@ -23919,7 +23919,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E255" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F255" t="s">
         <v>38</v>
@@ -23937,7 +23937,7 @@
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L255">
         <v>3.4</v>
@@ -24029,7 +24029,7 @@
         <v>2</v>
       </c>
       <c r="K256" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L256">
         <v>6</v>
@@ -24103,10 +24103,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E257" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F257" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -24213,7 +24213,7 @@
         <v>1</v>
       </c>
       <c r="K258" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L258">
         <v>1.666</v>
@@ -24287,10 +24287,10 @@
         <v>45395.5625</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F259" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24305,7 +24305,7 @@
         <v>1</v>
       </c>
       <c r="K259" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L259">
         <v>2.9</v>
@@ -24370,7 +24370,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7780991</v>
+        <v>7781126</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24379,46 +24379,46 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E260" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G260">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J260">
         <v>0</v>
       </c>
       <c r="K260" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L260">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="M260">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N260">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O260">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="P260">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q260">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="R260">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S260">
         <v>1.9</v>
@@ -24430,31 +24430,31 @@
         <v>2.25</v>
       </c>
       <c r="V260">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W260">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X260">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z260">
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC260">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD260">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:30">
@@ -24462,7 +24462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7781126</v>
+        <v>8070736</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24471,82 +24471,82 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E261" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F261" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G261">
         <v>0</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261">
         <v>0</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K261" t="s">
         <v>51</v>
       </c>
       <c r="L261">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="M261">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N261">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O261">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="P261">
         <v>3.2</v>
       </c>
       <c r="Q261">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="R261">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S261">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T261">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U261">
         <v>2.25</v>
       </c>
       <c r="V261">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W261">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD261">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -24554,7 +24554,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>8070736</v>
+        <v>7780991</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24563,82 +24563,82 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E262" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F262" t="s">
         <v>33</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K262" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L262">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="M262">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N262">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O262">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="P262">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q262">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="R262">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S262">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U262">
         <v>2.25</v>
       </c>
       <c r="V262">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W262">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB262">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD262">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -24673,7 +24673,7 @@
         <v>2</v>
       </c>
       <c r="K263" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L263">
         <v>1.7</v>
@@ -24765,7 +24765,7 @@
         <v>1</v>
       </c>
       <c r="K264" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L264">
         <v>2.5</v>
@@ -24839,7 +24839,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E265" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F265" t="s">
         <v>36</v>
@@ -24934,7 +24934,7 @@
         <v>43</v>
       </c>
       <c r="F266" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -24949,7 +24949,7 @@
         <v>0</v>
       </c>
       <c r="K266" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L266">
         <v>2.375</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="K267" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L267">
         <v>1.85</v>
@@ -25115,7 +25115,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E268" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F268" t="s">
         <v>37</v>
@@ -25133,7 +25133,7 @@
         <v>2</v>
       </c>
       <c r="K268" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L268">
         <v>2.55</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="K269" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L269">
         <v>2.5</v>
@@ -25302,7 +25302,7 @@
         <v>42</v>
       </c>
       <c r="F270" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -25394,7 +25394,7 @@
         <v>41</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="K271" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L271">
         <v>2.3</v>
@@ -25483,7 +25483,7 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E272" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F272" t="s">
         <v>39</v>
@@ -25575,11 +25575,11 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E273" t="s">
+        <v>47</v>
+      </c>
+      <c r="F273" t="s">
         <v>49</v>
       </c>
-      <c r="F273" t="s">
-        <v>48</v>
-      </c>
       <c r="G273">
         <v>0</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="K273" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L273">
         <v>2.05</v>
@@ -25685,7 +25685,7 @@
         <v>1</v>
       </c>
       <c r="K274" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L274">
         <v>1.666</v>
@@ -25777,7 +25777,7 @@
         <v>0</v>
       </c>
       <c r="K275" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L275">
         <v>2.3</v>
@@ -25943,7 +25943,7 @@
         <v>45410.625</v>
       </c>
       <c r="E277" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F277" t="s">
         <v>36</v>
@@ -26145,7 +26145,7 @@
         <v>0</v>
       </c>
       <c r="K279" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L279">
         <v>2.375</v>
@@ -26219,10 +26219,10 @@
         <v>45416.5</v>
       </c>
       <c r="E280" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -26237,7 +26237,7 @@
         <v>1</v>
       </c>
       <c r="K280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L280">
         <v>1.75</v>
@@ -26302,7 +26302,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7780970</v>
+        <v>7781023</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26311,16 +26311,16 @@
         <v>45416.5</v>
       </c>
       <c r="E281" t="s">
+        <v>34</v>
+      </c>
+      <c r="F281" t="s">
         <v>31</v>
       </c>
-      <c r="F281" t="s">
-        <v>45</v>
-      </c>
       <c r="G281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -26329,64 +26329,64 @@
         <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L281">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="M281">
         <v>4.2</v>
       </c>
       <c r="N281">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="O281">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="P281">
         <v>4.2</v>
       </c>
       <c r="Q281">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R281">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S281">
+        <v>1.8</v>
+      </c>
+      <c r="T281">
+        <v>2</v>
+      </c>
+      <c r="U281">
+        <v>2.75</v>
+      </c>
+      <c r="V281">
+        <v>1.95</v>
+      </c>
+      <c r="W281">
         <v>1.85</v>
       </c>
-      <c r="T281">
-        <v>1.95</v>
-      </c>
-      <c r="U281">
-        <v>2.5</v>
-      </c>
-      <c r="V281">
-        <v>1.925</v>
-      </c>
-      <c r="W281">
-        <v>1.875</v>
-      </c>
       <c r="X281">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y281">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
         <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB281">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
         <v>-1</v>
       </c>
       <c r="AD281">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26394,7 +26394,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7781024</v>
+        <v>7780970</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26403,46 +26403,46 @@
         <v>45416.5</v>
       </c>
       <c r="E282" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F282" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282" t="s">
+        <v>52</v>
+      </c>
+      <c r="L282">
+        <v>1.45</v>
+      </c>
+      <c r="M282">
+        <v>4.2</v>
+      </c>
+      <c r="N282">
+        <v>5.75</v>
+      </c>
+      <c r="O282">
+        <v>1.5</v>
+      </c>
+      <c r="P282">
+        <v>4.2</v>
+      </c>
+      <c r="Q282">
         <v>5</v>
       </c>
-      <c r="H282">
-        <v>0</v>
-      </c>
-      <c r="I282">
-        <v>2</v>
-      </c>
-      <c r="J282">
-        <v>0</v>
-      </c>
-      <c r="K282" t="s">
-        <v>50</v>
-      </c>
-      <c r="L282">
-        <v>2.45</v>
-      </c>
-      <c r="M282">
-        <v>3.3</v>
-      </c>
-      <c r="N282">
-        <v>2.5</v>
-      </c>
-      <c r="O282">
-        <v>2.375</v>
-      </c>
-      <c r="P282">
-        <v>3.3</v>
-      </c>
-      <c r="Q282">
-        <v>2.55</v>
-      </c>
       <c r="R282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S282">
         <v>1.85</v>
@@ -26454,31 +26454,31 @@
         <v>2.5</v>
       </c>
       <c r="V282">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W282">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X282">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC282">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD282">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -26486,7 +26486,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7781023</v>
+        <v>7781024</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -26495,19 +26495,19 @@
         <v>45416.5</v>
       </c>
       <c r="E283" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G283">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -26516,43 +26516,43 @@
         <v>50</v>
       </c>
       <c r="L283">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="M283">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N283">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O283">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="P283">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q283">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="R283">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S283">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T283">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U283">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V283">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W283">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X283">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="Y283">
         <v>-1</v>
@@ -26561,16 +26561,16 @@
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB283">
         <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:30">
@@ -26605,7 +26605,7 @@
         <v>0</v>
       </c>
       <c r="K284" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L284">
         <v>1.571</v>
@@ -26679,7 +26679,7 @@
         <v>45416.5</v>
       </c>
       <c r="E285" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F285" t="s">
         <v>38</v>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="K285" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L285">
         <v>1.95</v>
@@ -26774,7 +26774,7 @@
         <v>30</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -26789,7 +26789,7 @@
         <v>1</v>
       </c>
       <c r="K286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L286">
         <v>3.75</v>
@@ -26881,7 +26881,7 @@
         <v>1</v>
       </c>
       <c r="K287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L287">
         <v>3.5</v>
@@ -27130,7 +27130,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>8191154</v>
+        <v>8191148</v>
       </c>
       <c r="C290" t="s">
         <v>29</v>
@@ -27139,82 +27139,82 @@
         <v>45424.58333333334</v>
       </c>
       <c r="E290" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F290" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H290">
         <v>1</v>
       </c>
       <c r="I290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290">
         <v>0</v>
       </c>
       <c r="K290" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L290">
-        <v>1.475</v>
+        <v>2.1</v>
       </c>
       <c r="M290">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="N290">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O290">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="P290">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q290">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="R290">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S290">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T290">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U290">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V290">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W290">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y290">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB290">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC290">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD290">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:30">
@@ -27222,7 +27222,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>8191148</v>
+        <v>8191154</v>
       </c>
       <c r="C291" t="s">
         <v>29</v>
@@ -27231,82 +27231,82 @@
         <v>45424.58333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F291" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H291">
         <v>1</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291">
         <v>0</v>
       </c>
       <c r="K291" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L291">
-        <v>2.1</v>
+        <v>1.475</v>
       </c>
       <c r="M291">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="N291">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O291">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="P291">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q291">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="R291">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S291">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T291">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U291">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V291">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W291">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X291">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC291">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD291">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="292" spans="1:30">
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="K293" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L293">
         <v>1.4</v>
@@ -27510,7 +27510,7 @@
         <v>46</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -27525,7 +27525,7 @@
         <v>1</v>
       </c>
       <c r="K294" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L294">
         <v>6</v>
@@ -27599,7 +27599,7 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E295" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F295" t="s">
         <v>30</v>
@@ -27617,7 +27617,7 @@
         <v>1</v>
       </c>
       <c r="K295" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L295">
         <v>2.1</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -115,19 +115,19 @@
     <t>Trofense</t>
   </si>
   <si>
-    <t>Academica</t>
+    <t>Oliveira Hospital</t>
+  </si>
+  <si>
+    <t>Pero Pinheiro</t>
+  </si>
+  <si>
+    <t>CF Canelas 2010</t>
   </si>
   <si>
     <t>Lusitania Lourosa</t>
   </si>
   <si>
-    <t>CF Canelas 2010</t>
-  </si>
-  <si>
-    <t>Pero Pinheiro</t>
-  </si>
-  <si>
-    <t>Oliveira Hospital</t>
+    <t>Academica</t>
   </si>
   <si>
     <t>Caldas SC</t>
@@ -136,10 +136,10 @@
     <t>Sporting B</t>
   </si>
   <si>
-    <t>Braga B</t>
+    <t>AD Sanjoanense</t>
   </si>
   <si>
-    <t>AD Sanjoanense</t>
+    <t>Braga B</t>
   </si>
   <si>
     <t>Anadia</t>
@@ -151,19 +151,19 @@
     <t>SC Vianense</t>
   </si>
   <si>
+    <t>Atletico CP Lisbon</t>
+  </si>
+  <si>
     <t>Sporting Covilha</t>
+  </si>
+  <si>
+    <t>SU 1 Dezembro</t>
   </si>
   <si>
     <t>Felgueiras 1932</t>
   </si>
   <si>
-    <t>Atletico CP Lisbon</t>
-  </si>
-  <si>
     <t>Amora</t>
-  </si>
-  <si>
-    <t>SU 1 Dezembro</t>
   </si>
   <si>
     <t>H</t>
@@ -646,7 +646,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6944665</v>
+        <v>6940674</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -922,7 +922,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -940,61 +940,61 @@
         <v>52</v>
       </c>
       <c r="L5">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="R5">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
         <v>1.8</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
       </c>
       <c r="U5">
         <v>2.25</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
         <v>-0.5</v>
       </c>
       <c r="AD5">
-        <v>0.4375</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6941476</v>
+        <v>6944663</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1020,73 +1020,73 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>3.4</v>
+      </c>
+      <c r="N6">
+        <v>1.75</v>
+      </c>
+      <c r="O6">
+        <v>3.4</v>
+      </c>
+      <c r="P6">
         <v>3.3</v>
       </c>
-      <c r="M6">
-        <v>3.2</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>2.05</v>
-      </c>
-      <c r="P6">
-        <v>3.25</v>
-      </c>
       <c r="Q6">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="R6">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>2.25</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6944663</v>
+        <v>6941476</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1198,79 +1198,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="P8">
+        <v>3.25</v>
+      </c>
+      <c r="Q8">
         <v>3.3</v>
       </c>
-      <c r="Q8">
-        <v>1.95</v>
-      </c>
       <c r="R8">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U8">
         <v>2.25</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1278,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6940674</v>
+        <v>6944665</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1290,7 +1290,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1308,61 +1308,61 @@
         <v>52</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="R9">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U9">
         <v>2.25</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-0.5</v>
       </c>
       <c r="AD9">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1382,7 +1382,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1474,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6940655</v>
+        <v>6941479</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1566,13 +1566,13 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1587,37 +1587,37 @@
         <v>2.1</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q12">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="R12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="U12">
         <v>2.25</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1626,19 +1626,19 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD12">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1646,7 +1646,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6941479</v>
+        <v>6940655</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1658,13 +1658,13 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1679,37 +1679,37 @@
         <v>2.1</v>
       </c>
       <c r="M13">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="R13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="U13">
         <v>2.25</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1718,19 +1718,19 @@
         <v>-1</v>
       </c>
       <c r="Z13">
+        <v>1.75</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AC13">
+        <v>-1</v>
+      </c>
+      <c r="AD13">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC13">
-        <v>-0.5</v>
-      </c>
-      <c r="AD13">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1842,7 +1842,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6944661</v>
+        <v>6941503</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -2026,16 +2026,16 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2053,34 +2053,34 @@
         <v>3.4</v>
       </c>
       <c r="O17">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="P17">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S17">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
         <v>2.25</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X17">
-        <v>1.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2089,16 +2089,16 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD17">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2106,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6944679</v>
+        <v>6944661</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2118,16 +2118,16 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2136,43 +2136,43 @@
         <v>50</v>
       </c>
       <c r="L18">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>3.1</v>
       </c>
       <c r="N18">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O18">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="P18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="R18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U18">
         <v>2.25</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X18">
-        <v>0.6499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Y18">
         <v>-1</v>
@@ -2181,16 +2181,16 @@
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2198,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6941503</v>
+        <v>6941502</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2210,61 +2210,61 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
         <v>50</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="R19">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S19">
+        <v>1.85</v>
+      </c>
+      <c r="T19">
         <v>1.95</v>
-      </c>
-      <c r="T19">
-        <v>1.85</v>
       </c>
       <c r="U19">
         <v>2.25</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
-        <v>0.3999999999999999</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2273,16 +2273,16 @@
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2290,7 +2290,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6940676</v>
+        <v>6944679</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2302,73 +2302,73 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L20">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="M20">
+        <v>3.1</v>
+      </c>
+      <c r="N20">
+        <v>3.2</v>
+      </c>
+      <c r="O20">
+        <v>1.65</v>
+      </c>
+      <c r="P20">
         <v>3.5</v>
       </c>
-      <c r="N20">
-        <v>4.333</v>
-      </c>
-      <c r="O20">
-        <v>2.4</v>
-      </c>
-      <c r="P20">
-        <v>3.3</v>
-      </c>
       <c r="Q20">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U20">
         <v>2.25</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>1.95</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB20">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2382,7 +2382,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6941502</v>
+        <v>6940676</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2394,79 +2394,79 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="R21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U21">
         <v>2.25</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2483,10 +2483,10 @@
         <v>45156.64583333334</v>
       </c>
       <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2575,7 +2575,7 @@
         <v>45157.5</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -2759,10 +2759,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2943,10 +2943,10 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3038,7 +3038,7 @@
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3130,7 +3130,7 @@
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3222,7 +3222,7 @@
         <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3495,7 +3495,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
@@ -3590,7 +3590,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3679,7 +3679,7 @@
         <v>45165.5</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -3771,10 +3771,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
         <v>37</v>
-      </c>
-      <c r="F36" t="s">
-        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3863,7 +3863,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -3955,7 +3955,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
@@ -4047,7 +4047,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
         <v>35</v>
@@ -4139,10 +4139,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4323,10 +4323,10 @@
         <v>45172.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4415,10 +4415,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4507,7 +4507,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
         <v>43</v>
@@ -4602,7 +4602,7 @@
         <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4967,10 +4967,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
         <v>47</v>
-      </c>
-      <c r="F49" t="s">
-        <v>49</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -5151,10 +5151,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s">
         <v>40</v>
-      </c>
-      <c r="F51" t="s">
-        <v>41</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -5243,7 +5243,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
         <v>32</v>
@@ -5519,7 +5519,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
         <v>31</v>
@@ -5611,10 +5611,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5703,10 +5703,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5795,7 +5795,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
         <v>38</v>
@@ -5887,7 +5887,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5982,7 +5982,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -6071,10 +6071,10 @@
         <v>45198.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6163,7 +6163,7 @@
         <v>45199.5</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
         <v>43</v>
@@ -6255,10 +6255,10 @@
         <v>45199.5</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6439,10 +6439,10 @@
         <v>45199.5</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6623,7 +6623,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
         <v>44</v>
@@ -6718,7 +6718,7 @@
         <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6807,10 +6807,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6991,10 +6991,10 @@
         <v>45205.64583333334</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7175,10 +7175,10 @@
         <v>45206.5</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7454,7 +7454,7 @@
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7543,10 +7543,10 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>45207.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -7730,7 +7730,7 @@
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7822,7 +7822,7 @@
         <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>45227.5</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -8095,10 +8095,10 @@
         <v>45228.5</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8187,7 +8187,7 @@
         <v>45228.5</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
         <v>44</v>
@@ -8279,10 +8279,10 @@
         <v>45228.5</v>
       </c>
       <c r="E85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>45228.5</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
         <v>39</v>
@@ -8555,10 +8555,10 @@
         <v>45228.5</v>
       </c>
       <c r="E88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8739,7 +8739,7 @@
         <v>45228.60416666666</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -8834,7 +8834,7 @@
         <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8923,7 +8923,7 @@
         <v>45234.5</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -9015,7 +9015,7 @@
         <v>45234.5</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
         <v>30</v>
@@ -9199,7 +9199,7 @@
         <v>45235.5</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
         <v>38</v>
@@ -9291,10 +9291,10 @@
         <v>45235.5</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -9383,7 +9383,7 @@
         <v>45235.5</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
         <v>32</v>
@@ -9475,10 +9475,10 @@
         <v>45235.5</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9567,10 +9567,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9662,7 +9662,7 @@
         <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9751,10 +9751,10 @@
         <v>45241.5</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9843,10 +9843,10 @@
         <v>45241.5</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -10030,7 +10030,7 @@
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10211,10 +10211,10 @@
         <v>45242.5</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106">
         <v>5</v>
@@ -10306,7 +10306,7 @@
         <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10398,7 +10398,7 @@
         <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -10487,7 +10487,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
         <v>43</v>
@@ -10671,10 +10671,10 @@
         <v>45261.5</v>
       </c>
       <c r="E111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10855,10 +10855,10 @@
         <v>45262.48958333334</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>45262.73958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
         <v>35</v>
@@ -11039,7 +11039,7 @@
         <v>45263.5</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F115" t="s">
         <v>39</v>
@@ -11134,7 +11134,7 @@
         <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -11315,10 +11315,10 @@
         <v>45263.5</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -11407,7 +11407,7 @@
         <v>45263.5</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>
@@ -11502,7 +11502,7 @@
         <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -11591,7 +11591,7 @@
         <v>45268.5</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
@@ -11686,7 +11686,7 @@
         <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -11778,7 +11778,7 @@
         <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11870,7 +11870,7 @@
         <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11959,7 +11959,7 @@
         <v>45269.5</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
         <v>43</v>
@@ -12143,10 +12143,10 @@
         <v>45269.72916666666</v>
       </c>
       <c r="E127" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" t="s">
         <v>33</v>
-      </c>
-      <c r="F127" t="s">
-        <v>37</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12235,10 +12235,10 @@
         <v>45270.5</v>
       </c>
       <c r="E128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12422,7 +12422,7 @@
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -12511,7 +12511,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F131" t="s">
         <v>39</v>
@@ -12698,7 +12698,7 @@
         <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -12787,10 +12787,10 @@
         <v>45276.72916666666</v>
       </c>
       <c r="E134" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -12971,10 +12971,10 @@
         <v>45277.5</v>
       </c>
       <c r="E136" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -13063,7 +13063,7 @@
         <v>45277.5</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
         <v>31</v>
@@ -13155,7 +13155,7 @@
         <v>45277.5</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
         <v>38</v>
@@ -13247,10 +13247,10 @@
         <v>45277.5</v>
       </c>
       <c r="E139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -13339,7 +13339,7 @@
         <v>45277.66666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
         <v>42</v>
@@ -13434,7 +13434,7 @@
         <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -13618,7 +13618,7 @@
         <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -13799,10 +13799,10 @@
         <v>45298.5</v>
       </c>
       <c r="E145" t="s">
+        <v>40</v>
+      </c>
+      <c r="F145" t="s">
         <v>41</v>
-      </c>
-      <c r="F145" t="s">
-        <v>40</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -13891,10 +13891,10 @@
         <v>45298.5</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13983,7 +13983,7 @@
         <v>45298.5</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s">
         <v>43</v>
@@ -14078,7 +14078,7 @@
         <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -14170,7 +14170,7 @@
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -14259,10 +14259,10 @@
         <v>45303.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -14351,10 +14351,10 @@
         <v>45304.5</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -14446,7 +14446,7 @@
         <v>43</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -14535,10 +14535,10 @@
         <v>45304.5</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -14630,7 +14630,7 @@
         <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -14811,7 +14811,7 @@
         <v>45304.5</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
         <v>35</v>
@@ -14903,10 +14903,10 @@
         <v>45304.60416666666</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -15179,10 +15179,10 @@
         <v>45308.5</v>
       </c>
       <c r="E160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -15271,7 +15271,7 @@
         <v>45310.70833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
         <v>31</v>
@@ -15446,7 +15446,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6940682</v>
+        <v>6941538</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15455,16 +15455,16 @@
         <v>45312.5</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -15473,64 +15473,64 @@
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M163">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N163">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O163">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="P163">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q163">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="R163">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V163">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA163">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15538,7 +15538,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6940684</v>
+        <v>6940682</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15547,49 +15547,49 @@
         <v>45312.5</v>
       </c>
       <c r="E164" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L164">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="O164">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="P164">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q164">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="R164">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S164">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
         <v>1.95</v>
@@ -15598,31 +15598,31 @@
         <v>2.75</v>
       </c>
       <c r="V164">
+        <v>1.95</v>
+      </c>
+      <c r="W164">
         <v>1.85</v>
       </c>
-      <c r="W164">
-        <v>1.95</v>
-      </c>
       <c r="X164">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15630,7 +15630,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6941537</v>
+        <v>6940684</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15639,13 +15639,13 @@
         <v>45312.5</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15660,13 +15660,13 @@
         <v>50</v>
       </c>
       <c r="L165">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="M165">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N165">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O165">
         <v>1.363</v>
@@ -15675,25 +15675,25 @@
         <v>4.333</v>
       </c>
       <c r="Q165">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="R165">
         <v>-1.25</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X165">
         <v>0.363</v>
@@ -15705,16 +15705,16 @@
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB165">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
         <v>-1</v>
       </c>
       <c r="AD165">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15722,7 +15722,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6941538</v>
+        <v>6941537</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15731,52 +15731,52 @@
         <v>45312.5</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G166">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L166">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="M166">
         <v>3.6</v>
       </c>
       <c r="N166">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O166">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="P166">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>1.285</v>
+        <v>7</v>
       </c>
       <c r="R166">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U166">
         <v>2.5</v>
@@ -15788,25 +15788,25 @@
         <v>1.9</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC166">
+        <v>-1</v>
+      </c>
+      <c r="AD166">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AD166">
-        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15814,7 +15814,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6941539</v>
+        <v>6940234</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15823,82 +15823,82 @@
         <v>45312.5</v>
       </c>
       <c r="E167" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F167" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L167">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N167">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O167">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P167">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q167">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="R167">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T167">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15906,7 +15906,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6940234</v>
+        <v>6941539</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15915,82 +15915,82 @@
         <v>45312.5</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L168">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="M168">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N168">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O168">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P168">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q168">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="R168">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z168">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16099,7 +16099,7 @@
         <v>45318.5</v>
       </c>
       <c r="E170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F170" t="s">
         <v>43</v>
@@ -16191,10 +16191,10 @@
         <v>45318.5</v>
       </c>
       <c r="E171" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -16286,7 +16286,7 @@
         <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -16378,7 +16378,7 @@
         <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -16467,10 +16467,10 @@
         <v>45318.5</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -16562,7 +16562,7 @@
         <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -16743,10 +16743,10 @@
         <v>45319.5</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -16838,7 +16838,7 @@
         <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -17019,10 +17019,10 @@
         <v>45332.5</v>
       </c>
       <c r="E180" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17111,10 +17111,10 @@
         <v>45332.60416666666</v>
       </c>
       <c r="E181" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -17203,7 +17203,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
         <v>43</v>
@@ -17295,7 +17295,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
         <v>30</v>
@@ -17479,7 +17479,7 @@
         <v>45339.5</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
         <v>32</v>
@@ -17666,7 +17666,7 @@
         <v>30</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -17755,10 +17755,10 @@
         <v>45339.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -17847,10 +17847,10 @@
         <v>45340.5</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G189">
         <v>3</v>
@@ -17939,7 +17939,7 @@
         <v>45340.5</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F190" t="s">
         <v>39</v>
@@ -18034,7 +18034,7 @@
         <v>43</v>
       </c>
       <c r="F191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -18126,7 +18126,7 @@
         <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -18215,10 +18215,10 @@
         <v>45340.66666666666</v>
       </c>
       <c r="E193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -18399,7 +18399,7 @@
         <v>45346.5</v>
       </c>
       <c r="E195" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F195" t="s">
         <v>43</v>
@@ -18491,10 +18491,10 @@
         <v>45346.5</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -18583,10 +18583,10 @@
         <v>45346.64583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -18675,10 +18675,10 @@
         <v>45347.5</v>
       </c>
       <c r="E198" t="s">
+        <v>47</v>
+      </c>
+      <c r="F198" t="s">
         <v>49</v>
-      </c>
-      <c r="F198" t="s">
-        <v>48</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -18770,7 +18770,7 @@
         <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -18859,7 +18859,7 @@
         <v>45347.5</v>
       </c>
       <c r="E200" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F200" t="s">
         <v>38</v>
@@ -18942,7 +18942,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7780979</v>
+        <v>7780942</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18951,10 +18951,10 @@
         <v>45347.5</v>
       </c>
       <c r="E201" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -18975,40 +18975,40 @@
         <v>2.375</v>
       </c>
       <c r="M201">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N201">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O201">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="P201">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q201">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R201">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U201">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X201">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -19017,16 +19017,16 @@
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD201">
-        <v>0.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19034,7 +19034,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7780942</v>
+        <v>7780979</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19043,10 +19043,10 @@
         <v>45347.5</v>
       </c>
       <c r="E202" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -19067,40 +19067,40 @@
         <v>2.375</v>
       </c>
       <c r="M202">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N202">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O202">
+        <v>2.7</v>
+      </c>
+      <c r="P202">
+        <v>3.2</v>
+      </c>
+      <c r="Q202">
+        <v>2.3</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>2</v>
+      </c>
+      <c r="T202">
+        <v>1.8</v>
+      </c>
+      <c r="U202">
         <v>2.25</v>
       </c>
-      <c r="P202">
-        <v>3</v>
-      </c>
-      <c r="Q202">
-        <v>3</v>
-      </c>
-      <c r="R202">
-        <v>-0.25</v>
-      </c>
-      <c r="S202">
-        <v>2.025</v>
-      </c>
-      <c r="T202">
-        <v>1.775</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X202">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -19109,16 +19109,16 @@
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD202">
-        <v>0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19138,7 +19138,7 @@
         <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -19227,7 +19227,7 @@
         <v>45353.5</v>
       </c>
       <c r="E204" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F204" t="s">
         <v>39</v>
@@ -19319,10 +19319,10 @@
         <v>45353.5</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19411,10 +19411,10 @@
         <v>45353.5</v>
       </c>
       <c r="E206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -19506,7 +19506,7 @@
         <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -19687,10 +19687,10 @@
         <v>45353.66666666666</v>
       </c>
       <c r="E209" t="s">
+        <v>46</v>
+      </c>
+      <c r="F209" t="s">
         <v>45</v>
-      </c>
-      <c r="F209" t="s">
-        <v>47</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -19862,7 +19862,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7887079</v>
+        <v>7887078</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19871,82 +19871,82 @@
         <v>45354.5</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L211">
+        <v>2.625</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
+        <v>2.5</v>
+      </c>
+      <c r="O211">
+        <v>3.1</v>
+      </c>
+      <c r="P211">
+        <v>3</v>
+      </c>
+      <c r="Q211">
+        <v>2.15</v>
+      </c>
+      <c r="R211">
+        <v>0.25</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
         <v>1.95</v>
       </c>
-      <c r="M211">
-        <v>3.25</v>
-      </c>
-      <c r="N211">
-        <v>3.4</v>
-      </c>
-      <c r="O211">
+      <c r="U211">
+        <v>2.25</v>
+      </c>
+      <c r="V211">
         <v>1.95</v>
       </c>
-      <c r="P211">
-        <v>3.25</v>
-      </c>
-      <c r="Q211">
-        <v>3.4</v>
-      </c>
-      <c r="R211">
-        <v>-0.25</v>
-      </c>
-      <c r="S211">
-        <v>1.725</v>
-      </c>
-      <c r="T211">
-        <v>1.975</v>
-      </c>
-      <c r="U211">
-        <v>2.5</v>
-      </c>
-      <c r="V211">
-        <v>2</v>
-      </c>
       <c r="W211">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB211">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD211">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -19954,7 +19954,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7887078</v>
+        <v>7887079</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19963,82 +19963,82 @@
         <v>45354.5</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L212">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="M212">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N212">
+        <v>3.4</v>
+      </c>
+      <c r="O212">
+        <v>1.95</v>
+      </c>
+      <c r="P212">
+        <v>3.25</v>
+      </c>
+      <c r="Q212">
+        <v>3.4</v>
+      </c>
+      <c r="R212">
+        <v>-0.25</v>
+      </c>
+      <c r="S212">
+        <v>1.725</v>
+      </c>
+      <c r="T212">
+        <v>1.975</v>
+      </c>
+      <c r="U212">
         <v>2.5</v>
       </c>
-      <c r="O212">
-        <v>3.1</v>
-      </c>
-      <c r="P212">
-        <v>3</v>
-      </c>
-      <c r="Q212">
-        <v>2.15</v>
-      </c>
-      <c r="R212">
-        <v>0.25</v>
-      </c>
-      <c r="S212">
-        <v>1.85</v>
-      </c>
-      <c r="T212">
-        <v>1.95</v>
-      </c>
-      <c r="U212">
-        <v>2.25</v>
-      </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W212">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA212">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC212">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD212">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20055,10 +20055,10 @@
         <v>45354.60416666666</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -20150,7 +20150,7 @@
         <v>31</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -20423,10 +20423,10 @@
         <v>45360.5</v>
       </c>
       <c r="E217" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F217" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -20610,7 +20610,7 @@
         <v>43</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -20699,7 +20699,7 @@
         <v>45360.75</v>
       </c>
       <c r="E220" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F220" t="s">
         <v>30</v>
@@ -20791,10 +20791,10 @@
         <v>45361.5</v>
       </c>
       <c r="E221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -20883,10 +20883,10 @@
         <v>45361.5</v>
       </c>
       <c r="E222" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -20975,10 +20975,10 @@
         <v>45361.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -21067,7 +21067,7 @@
         <v>45367.5</v>
       </c>
       <c r="E224" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F224" t="s">
         <v>43</v>
@@ -21254,7 +21254,7 @@
         <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -21435,7 +21435,7 @@
         <v>45368.33333333334</v>
       </c>
       <c r="E228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F228" t="s">
         <v>30</v>
@@ -21527,10 +21527,10 @@
         <v>45368.5</v>
       </c>
       <c r="E229" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -21610,7 +21610,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7781009</v>
+        <v>7781008</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -21619,13 +21619,13 @@
         <v>45368.5</v>
       </c>
       <c r="E230" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F230" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21634,46 +21634,46 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K230" t="s">
         <v>51</v>
       </c>
       <c r="L230">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="M230">
+        <v>3.4</v>
+      </c>
+      <c r="N230">
+        <v>1.833</v>
+      </c>
+      <c r="O230">
+        <v>5</v>
+      </c>
+      <c r="P230">
         <v>3.8</v>
       </c>
-      <c r="N230">
-        <v>5.5</v>
-      </c>
-      <c r="O230">
-        <v>1.55</v>
-      </c>
-      <c r="P230">
-        <v>4</v>
-      </c>
       <c r="Q230">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="R230">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S230">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U230">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -21682,19 +21682,19 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>4.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC230">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD230">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -21702,7 +21702,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7781008</v>
+        <v>7781009</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21711,13 +21711,13 @@
         <v>45368.5</v>
       </c>
       <c r="E231" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21726,46 +21726,46 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K231" t="s">
         <v>51</v>
       </c>
       <c r="L231">
+        <v>1.55</v>
+      </c>
+      <c r="M231">
+        <v>3.8</v>
+      </c>
+      <c r="N231">
+        <v>5.5</v>
+      </c>
+      <c r="O231">
+        <v>1.55</v>
+      </c>
+      <c r="P231">
         <v>4</v>
       </c>
-      <c r="M231">
-        <v>3.4</v>
-      </c>
-      <c r="N231">
-        <v>1.833</v>
-      </c>
-      <c r="O231">
-        <v>5</v>
-      </c>
-      <c r="P231">
-        <v>3.8</v>
-      </c>
       <c r="Q231">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="R231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T231">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U231">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21774,19 +21774,19 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.6000000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AD231">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21803,10 +21803,10 @@
         <v>45368.66666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F232" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -21895,10 +21895,10 @@
         <v>45374.33333333334</v>
       </c>
       <c r="E233" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F233" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -22079,10 +22079,10 @@
         <v>45381.5</v>
       </c>
       <c r="E235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G235">
         <v>4</v>
@@ -22171,10 +22171,10 @@
         <v>45381.5</v>
       </c>
       <c r="E236" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -22263,7 +22263,7 @@
         <v>45381.5</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F237" t="s">
         <v>31</v>
@@ -22346,7 +22346,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7780955</v>
+        <v>7780987</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22355,16 +22355,16 @@
         <v>45381.5</v>
       </c>
       <c r="E238" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -22373,64 +22373,64 @@
         <v>0</v>
       </c>
       <c r="K238" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L238">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M238">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N238">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O238">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P238">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q238">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R238">
         <v>-0.25</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V238">
+        <v>1.975</v>
+      </c>
+      <c r="W238">
         <v>1.825</v>
       </c>
-      <c r="W238">
-        <v>1.975</v>
-      </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z238">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD238">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22438,7 +22438,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7780987</v>
+        <v>7780955</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22447,16 +22447,16 @@
         <v>45381.5</v>
       </c>
       <c r="E239" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -22465,64 +22465,64 @@
         <v>0</v>
       </c>
       <c r="K239" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L239">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N239">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O239">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P239">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q239">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R239">
         <v>-0.25</v>
       </c>
       <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>1.8</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
+      <c r="V239">
         <v>1.825</v>
       </c>
-      <c r="T239">
+      <c r="W239">
         <v>1.975</v>
       </c>
-      <c r="U239">
-        <v>2.25</v>
-      </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
-      <c r="W239">
-        <v>1.825</v>
-      </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD239">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22631,10 +22631,10 @@
         <v>45381.6875</v>
       </c>
       <c r="E241" t="s">
+        <v>48</v>
+      </c>
+      <c r="F241" t="s">
         <v>46</v>
-      </c>
-      <c r="F241" t="s">
-        <v>45</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -22723,10 +22723,10 @@
         <v>45382.5</v>
       </c>
       <c r="E242" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -22818,7 +22818,7 @@
         <v>43</v>
       </c>
       <c r="F243" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -23094,7 +23094,7 @@
         <v>43</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -23183,10 +23183,10 @@
         <v>45389.29166666666</v>
       </c>
       <c r="E247" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -23278,7 +23278,7 @@
         <v>35</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -23367,7 +23367,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F249" t="s">
         <v>38</v>
@@ -23459,10 +23459,10 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E250" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F250" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G250">
         <v>4</v>
@@ -23554,7 +23554,7 @@
         <v>39</v>
       </c>
       <c r="F251" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -23646,7 +23646,7 @@
         <v>30</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G252">
         <v>4</v>
@@ -23735,10 +23735,10 @@
         <v>45389.64583333334</v>
       </c>
       <c r="E253" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -23827,7 +23827,7 @@
         <v>45395.29166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F254" t="s">
         <v>30</v>
@@ -23919,7 +23919,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E255" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F255" t="s">
         <v>38</v>
@@ -24011,10 +24011,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E256" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -24103,7 +24103,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E257" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
         <v>43</v>
@@ -24198,7 +24198,7 @@
         <v>39</v>
       </c>
       <c r="F258" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -24287,10 +24287,10 @@
         <v>45395.5625</v>
       </c>
       <c r="E259" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24379,7 +24379,7 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E260" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F260" t="s">
         <v>42</v>
@@ -24655,10 +24655,10 @@
         <v>45396.54166666666</v>
       </c>
       <c r="E263" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -24747,10 +24747,10 @@
         <v>45402.29166666666</v>
       </c>
       <c r="E264" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F264" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -24839,10 +24839,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E265" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -24934,7 +24934,7 @@
         <v>43</v>
       </c>
       <c r="F266" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -25026,7 +25026,7 @@
         <v>30</v>
       </c>
       <c r="F267" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -25207,7 +25207,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E269" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F269" t="s">
         <v>44</v>
@@ -25391,10 +25391,10 @@
         <v>45410.29166666666</v>
       </c>
       <c r="E271" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -25486,7 +25486,7 @@
         <v>38</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -25575,10 +25575,10 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E273" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F273" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -25667,7 +25667,7 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E274" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F274" t="s">
         <v>39</v>
@@ -25759,10 +25759,10 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E275" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F275" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -25943,10 +25943,10 @@
         <v>45410.625</v>
       </c>
       <c r="E277" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F277" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -26035,10 +26035,10 @@
         <v>45416.41666666666</v>
       </c>
       <c r="E278" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G278">
         <v>3</v>
@@ -26219,7 +26219,7 @@
         <v>45416.5</v>
       </c>
       <c r="E280" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F280" t="s">
         <v>38</v>
@@ -26314,7 +26314,7 @@
         <v>39</v>
       </c>
       <c r="F281" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G281">
         <v>5</v>
@@ -26403,10 +26403,10 @@
         <v>45416.5</v>
       </c>
       <c r="E282" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F282" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G282">
         <v>2</v>
@@ -26587,10 +26587,10 @@
         <v>45416.5</v>
       </c>
       <c r="E284" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F284" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -26682,7 +26682,7 @@
         <v>32</v>
       </c>
       <c r="F285" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -26774,7 +26774,7 @@
         <v>30</v>
       </c>
       <c r="F286" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -26863,7 +26863,7 @@
         <v>45417.3125</v>
       </c>
       <c r="E287" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F287" t="s">
         <v>43</v>
@@ -26955,10 +26955,10 @@
         <v>45424.29166666666</v>
       </c>
       <c r="E288" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F288" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -27050,7 +27050,7 @@
         <v>30</v>
       </c>
       <c r="F289" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G289">
         <v>2</v>
@@ -27142,7 +27142,7 @@
         <v>43</v>
       </c>
       <c r="F290" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G290">
         <v>2</v>
@@ -27231,10 +27231,10 @@
         <v>45424.58333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F291" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -27323,7 +27323,7 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E292" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F292" t="s">
         <v>30</v>
@@ -27415,10 +27415,10 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E293" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F293" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -27507,10 +27507,10 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E294" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F294" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>45431.45833333334</v>
       </c>
       <c r="E295" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F295" t="s">
         <v>43</v>

--- a/Portugal Liga 3/Portugal Liga 3.xlsx
+++ b/Portugal Liga 3/Portugal Liga 3.xlsx
@@ -121,10 +121,10 @@
     <t>Lusitania Lourosa</t>
   </si>
   <si>
-    <t>Academica</t>
+    <t>Oliveira Hospital</t>
   </si>
   <si>
-    <t>Oliveira Hospital</t>
+    <t>Academica</t>
   </si>
   <si>
     <t>Trofense</t>
@@ -154,13 +154,13 @@
     <t>Amora</t>
   </si>
   <si>
+    <t>Sporting Covilha</t>
+  </si>
+  <si>
     <t>Atletico CP Lisbon</t>
   </si>
   <si>
     <t>SU 1 Dezembro</t>
-  </si>
-  <si>
-    <t>Sporting Covilha</t>
   </si>
   <si>
     <t>Felgueiras 1932</t>
@@ -830,7 +830,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6944665</v>
+        <v>6940674</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1106,7 +1106,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1124,61 +1124,61 @@
         <v>52</v>
       </c>
       <c r="L7">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O7">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="R7">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
         <v>1.8</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
       </c>
       <c r="U7">
         <v>2.25</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
         <v>-0.5</v>
       </c>
       <c r="AD7">
-        <v>0.4375</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6940674</v>
+        <v>6944665</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1198,7 +1198,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1216,61 +1216,61 @@
         <v>52</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q8">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="R8">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>2.25</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>-0.5</v>
       </c>
       <c r="AD8">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1382,7 +1382,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1750,7 +1750,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6941503</v>
+        <v>6944661</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2118,16 +2118,16 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2145,34 +2145,34 @@
         <v>3.4</v>
       </c>
       <c r="O18">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="R18">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T18">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U18">
         <v>2.25</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X18">
-        <v>0.3999999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Y18">
         <v>-1</v>
@@ -2181,16 +2181,16 @@
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2198,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6941502</v>
+        <v>6941503</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2210,61 +2210,61 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>50</v>
       </c>
       <c r="L19">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="P19">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="R19">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
         <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>1.95</v>
       </c>
       <c r="U19">
         <v>2.25</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2273,16 +2273,16 @@
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD19">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2290,7 +2290,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6944661</v>
+        <v>6941502</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2302,49 +2302,49 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
         <v>50</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O20">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q20">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U20">
         <v>2.25</v>
@@ -2356,7 +2356,7 @@
         <v>1.8</v>
       </c>
       <c r="X20">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2365,7 +2365,7 @@
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2483,10 +2483,10 @@
         <v>45156.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2670,7 +2670,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2946,7 +2946,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3219,7 +3219,7 @@
         <v>45158.58333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
@@ -3495,7 +3495,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
@@ -3863,10 +3863,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>45165.58333333334</v>
       </c>
       <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
         <v>36</v>
-      </c>
-      <c r="F38" t="s">
-        <v>35</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4406,7 +4406,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6941513</v>
+        <v>6940658</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4415,49 +4415,49 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
         <v>51</v>
       </c>
       <c r="L43">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="M43">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N43">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R43">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S43">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>1.975</v>
@@ -4466,10 +4466,10 @@
         <v>2.25</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4478,7 +4478,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4487,7 +4487,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD43">
         <v>-1</v>
@@ -4498,7 +4498,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6940658</v>
+        <v>6941513</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4507,49 +4507,49 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>51</v>
       </c>
       <c r="L44">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="M44">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R44">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T44">
         <v>1.975</v>
@@ -4558,10 +4558,10 @@
         <v>2.25</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4570,7 +4570,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4579,7 +4579,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AD44">
         <v>-1</v>
@@ -4599,7 +4599,7 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -4694,7 +4694,7 @@
         <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4783,10 +4783,10 @@
         <v>45172.54166666666</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4878,7 +4878,7 @@
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5614,7 +5614,7 @@
         <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5703,7 +5703,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
         <v>32</v>
@@ -5795,7 +5795,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
         <v>38</v>
@@ -5890,7 +5890,7 @@
         <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
         <v>39</v>
@@ -6163,7 +6163,7 @@
         <v>45199.5</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
         <v>45</v>
@@ -6347,7 +6347,7 @@
         <v>45199.5</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -6442,7 +6442,7 @@
         <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6531,10 +6531,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6991,10 +6991,10 @@
         <v>45205.64583333334</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7175,10 +7175,10 @@
         <v>45206.5</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -8003,7 +8003,7 @@
         <v>45227.5</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -8279,10 +8279,10 @@
         <v>45228.5</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8371,10 +8371,10 @@
         <v>45228.5</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>45235.5</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
         <v>32</v>
@@ -9199,10 +9199,10 @@
         <v>45235.5</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -9383,7 +9383,7 @@
         <v>45235.5</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
         <v>38</v>
@@ -9751,7 +9751,7 @@
         <v>45241.5</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
         <v>45</v>
@@ -9846,7 +9846,7 @@
         <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -10030,7 +10030,7 @@
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10398,7 +10398,7 @@
         <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -10487,7 +10487,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -10671,10 +10671,10 @@
         <v>45261.5</v>
       </c>
       <c r="E111" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111" t="s">
         <v>46</v>
-      </c>
-      <c r="F111" t="s">
-        <v>48</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10858,7 +10858,7 @@
         <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -11039,7 +11039,7 @@
         <v>45263.5</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
         <v>39</v>
@@ -11223,7 +11223,7 @@
         <v>45263.5</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
         <v>32</v>
@@ -11778,7 +11778,7 @@
         <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -12143,10 +12143,10 @@
         <v>45269.72916666666</v>
       </c>
       <c r="E127" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" t="s">
         <v>35</v>
-      </c>
-      <c r="F127" t="s">
-        <v>36</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12235,10 +12235,10 @@
         <v>45270.5</v>
       </c>
       <c r="E128" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" t="s">
         <v>48</v>
-      </c>
-      <c r="F128" t="s">
-        <v>47</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -12511,7 +12511,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
         <v>39</v>
@@ -12698,7 +12698,7 @@
         <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -12879,7 +12879,7 @@
         <v>45277.5</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
         <v>38</v>
@@ -13247,10 +13247,10 @@
         <v>45277.5</v>
       </c>
       <c r="E139" t="s">
+        <v>48</v>
+      </c>
+      <c r="F139" t="s">
         <v>47</v>
-      </c>
-      <c r="F139" t="s">
-        <v>46</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -13790,7 +13790,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6941533</v>
+        <v>6941505</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13799,40 +13799,40 @@
         <v>45298.5</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L145">
+        <v>2.9</v>
+      </c>
+      <c r="M145">
         <v>3.1</v>
-      </c>
-      <c r="M145">
-        <v>3</v>
       </c>
       <c r="N145">
         <v>2.2</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q145">
         <v>1.85</v>
@@ -13841,40 +13841,40 @@
         <v>0.5</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U145">
         <v>2.25</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X145">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -13882,7 +13882,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6941505</v>
+        <v>6941533</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13891,40 +13891,40 @@
         <v>45298.5</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L146">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M146">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N146">
         <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q146">
         <v>1.85</v>
@@ -13933,40 +13933,40 @@
         <v>0.5</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U146">
         <v>2.25</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -13983,7 +13983,7 @@
         <v>45298.5</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
         <v>42</v>
@@ -14078,7 +14078,7 @@
         <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -14170,7 +14170,7 @@
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -14354,7 +14354,7 @@
         <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -14446,7 +14446,7 @@
         <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -14618,7 +14618,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6940678</v>
+        <v>6940231</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14627,55 +14627,55 @@
         <v>45304.5</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="s">
         <v>50</v>
       </c>
       <c r="L154">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="M154">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O154">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="P154">
+        <v>3.6</v>
+      </c>
+      <c r="Q154">
         <v>4</v>
       </c>
-      <c r="Q154">
-        <v>5</v>
-      </c>
       <c r="R154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T154">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V154">
         <v>1.95</v>
@@ -14684,7 +14684,7 @@
         <v>1.85</v>
       </c>
       <c r="X154">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14693,7 +14693,7 @@
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB154">
         <v>-1</v>
@@ -14710,7 +14710,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6940231</v>
+        <v>6940678</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14719,55 +14719,55 @@
         <v>45304.5</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="s">
         <v>50</v>
       </c>
       <c r="L155">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="M155">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N155">
+        <v>5</v>
+      </c>
+      <c r="O155">
+        <v>1.5</v>
+      </c>
+      <c r="P155">
         <v>4</v>
       </c>
-      <c r="O155">
-        <v>1.727</v>
-      </c>
-      <c r="P155">
-        <v>3.6</v>
-      </c>
       <c r="Q155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V155">
         <v>1.95</v>
@@ -14776,7 +14776,7 @@
         <v>1.85</v>
       </c>
       <c r="X155">
-        <v>0.